--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="88">
   <si>
     <t>No.</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Đăng nhiều ảnh vào một bài đăng trên Facebook</t>
+  </si>
+  <si>
+    <t>Bắt sự kiện cho Partial View _FeedList</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1138,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP114" sqref="AP114:AR114"/>
+      <selection pane="bottomLeft" activeCell="AS116" sqref="AS116:BF116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11380,7 +11383,7 @@
       <c r="AD114" s="10"/>
       <c r="AE114" s="11"/>
       <c r="AF114" s="12">
-        <v>43429</v>
+        <v>43430</v>
       </c>
       <c r="AG114" s="13"/>
       <c r="AH114" s="13"/>
@@ -11525,7 +11528,9 @@
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
@@ -11553,20 +11558,28 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
       <c r="AE116" s="11"/>
-      <c r="AF116" s="12"/>
+      <c r="AF116" s="12">
+        <v>43431</v>
+      </c>
       <c r="AG116" s="13"/>
       <c r="AH116" s="13"/>
       <c r="AI116" s="13"/>
       <c r="AJ116" s="14"/>
-      <c r="AK116" s="9"/>
+      <c r="AK116" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="AL116" s="10"/>
       <c r="AM116" s="10"/>
       <c r="AN116" s="10"/>
       <c r="AO116" s="11"/>
-      <c r="AP116" s="15"/>
+      <c r="AP116" s="15">
+        <v>0.5</v>
+      </c>
       <c r="AQ116" s="16"/>
       <c r="AR116" s="17"/>
-      <c r="AS116" s="18"/>
+      <c r="AS116" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="AT116" s="19"/>
       <c r="AU116" s="19"/>
       <c r="AV116" s="19"/>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Chỉnh sửa Layout Feed_Detail</t>
+  </si>
+  <si>
+    <t>Đăng bài viết lên Facebook Page</t>
   </si>
 </sst>
 </file>
@@ -316,14 +319,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -858,8 +854,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U58" sqref="U58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v>!!!</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -2523,7 +2519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -2583,7 +2579,7 @@
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>!!!</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -2620,7 +2616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -2657,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -2680,7 +2676,7 @@
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -2690,7 +2686,7 @@
         <v>!!!</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -2717,7 +2713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -2740,7 +2736,7 @@
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -2750,7 +2746,7 @@
         <v>!!</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -2777,7 +2773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -2800,16 +2796,18 @@
       <c r="O59" s="21"/>
       <c r="P59" s="21"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="20">
         <v>59</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D60" s="21"/>
+        <v>!</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -2822,8 +2820,20 @@
       <c r="N60" s="21"/>
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q60" s="9">
+        <v>43442</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S60" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -2832,21 +2842,28 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D61" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -2869,7 +2886,7 @@
       <c r="O62" s="21"/>
       <c r="P62" s="21"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -2892,7 +2909,7 @@
       <c r="O63" s="21"/>
       <c r="P63" s="21"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -6051,9 +6068,9 @@
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="D60:P60"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:P61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D61:U61"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="D77:P77"/>
     <mergeCell ref="A78:B78"/>
@@ -6322,28 +6339,28 @@
     <mergeCell ref="D173:P173"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A196:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C195 D50:XFD195">
-    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A196:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C195 D50:XFD60 D62:XFD195 V61:XFD61">
+    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:P48">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6359,13 +6376,13 @@
           <x14:formula1>
             <xm:f>'Ghi chú'!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>T26:T44 T46:T1048576 T2:T12 T14:T24</xm:sqref>
+          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Ghi chú'!$L$4:$L$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S7 R26:R44 R46:R1048576 R2:R12 R14:R24</xm:sqref>
+          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
   <si>
     <t>No.</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Fix Fanpage trên project mới (NameSpace mới)</t>
+  </si>
+  <si>
+    <t>Tạo cơ sở dữ liệu cho chức năng CallCenter</t>
+  </si>
+  <si>
+    <t>Tạo Layout hiển thị thông tin khách hàng</t>
   </si>
 </sst>
 </file>
@@ -322,21 +328,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -872,7 +864,7 @@
   <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:P65"/>
+      <selection activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,7 +2969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
         <v>64</v>
       </c>
@@ -3000,16 +2992,18 @@
       <c r="O65" s="23"/>
       <c r="P65" s="23"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
         <v>65</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D66" s="23"/>
+        <v>OK</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
@@ -3022,17 +3016,31 @@
       <c r="N66" s="23"/>
       <c r="O66" s="23"/>
       <c r="P66" s="23"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="9">
+        <v>43446</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66" s="10">
+        <v>1</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
         <v>66</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C130" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
-        <v/>
-      </c>
-      <c r="D67" s="23"/>
+        <v>!!!</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
@@ -3045,8 +3053,20 @@
       <c r="N67" s="23"/>
       <c r="O67" s="23"/>
       <c r="P67" s="23"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="9">
+        <v>43446</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S67" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="25">
         <v>67</v>
       </c>
@@ -3069,7 +3089,7 @@
       <c r="O68" s="23"/>
       <c r="P68" s="23"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="25">
         <v>68</v>
       </c>
@@ -3092,7 +3112,7 @@
       <c r="O69" s="23"/>
       <c r="P69" s="23"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="25">
         <v>69</v>
       </c>
@@ -3115,7 +3135,7 @@
       <c r="O70" s="23"/>
       <c r="P70" s="23"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
         <v>70</v>
       </c>
@@ -3138,7 +3158,7 @@
       <c r="O71" s="23"/>
       <c r="P71" s="23"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="25">
         <v>71</v>
       </c>
@@ -3161,7 +3181,7 @@
       <c r="O72" s="23"/>
       <c r="P72" s="23"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="25">
         <v>72</v>
       </c>
@@ -3184,7 +3204,7 @@
       <c r="O73" s="23"/>
       <c r="P73" s="23"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
         <v>73</v>
       </c>
@@ -3207,7 +3227,7 @@
       <c r="O74" s="23"/>
       <c r="P74" s="23"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
         <v>74</v>
       </c>
@@ -3230,7 +3250,7 @@
       <c r="O75" s="23"/>
       <c r="P75" s="23"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="25">
         <v>75</v>
       </c>
@@ -3253,7 +3273,7 @@
       <c r="O76" s="23"/>
       <c r="P76" s="23"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="25">
         <v>76</v>
       </c>
@@ -3276,7 +3296,7 @@
       <c r="O77" s="23"/>
       <c r="P77" s="23"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="25">
         <v>77</v>
       </c>
@@ -3299,7 +3319,7 @@
       <c r="O78" s="23"/>
       <c r="P78" s="23"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="25">
         <v>78</v>
       </c>
@@ -3322,7 +3342,7 @@
       <c r="O79" s="23"/>
       <c r="P79" s="23"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="25">
         <v>79</v>
       </c>
@@ -6384,28 +6404,28 @@
     <mergeCell ref="D8:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A196:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C195 D50:XFD60 V61:XFD61 D62:XFD195">
-    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:P48">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="45">
   <si>
     <t>No.</t>
   </si>
@@ -331,14 +331,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -874,7 +867,7 @@
   <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U71" sqref="U71"/>
+      <selection activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,9 +3219,11 @@
       <c r="B73" s="20"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D73" s="21"/>
+        <v>!</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -3241,6 +3236,18 @@
       <c r="N73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
+      <c r="Q73" s="9">
+        <v>43449</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S73" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="20">
@@ -6442,28 +6449,28 @@
     <mergeCell ref="D173:P173"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A196:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C195 D50:XFD60 V61:XFD61 D62:XFD195">
-    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:P48">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="54">
   <si>
     <t>No.</t>
   </si>
@@ -377,7 +377,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -912,8 +919,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R105" sqref="R105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T107" sqref="T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,7 +4250,7 @@
       <c r="B104" s="28"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>!</v>
       </c>
       <c r="D104" s="26" t="s">
         <v>52</v>
@@ -4267,7 +4274,7 @@
         <v>7</v>
       </c>
       <c r="S104" s="10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="T104" s="6" t="s">
         <v>8</v>
@@ -4340,9 +4347,11 @@
       <c r="B107" s="28"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D107" s="26"/>
+        <v>OK</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
@@ -4355,6 +4364,18 @@
       <c r="N107" s="26"/>
       <c r="O107" s="26"/>
       <c r="P107" s="26"/>
+      <c r="Q107" s="9">
+        <v>43470</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S107" s="10">
+        <v>1</v>
+      </c>
+      <c r="T107" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="28">
@@ -6774,28 +6795,28 @@
     <mergeCell ref="D8:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A196:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C195 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD195">
-    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:P48">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -192,6 +192,12 @@
   <si>
     <t>Hiển thị, Thêm, Sửa, Xóa đơn hàng trên CallCenter</t>
   </si>
+  <si>
+    <t>Tìm kiếm đơn hàng trên CallCenter</t>
+  </si>
+  <si>
+    <t>Fix phân quyền quản lý máy nhánh trên CallCenter</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,29 +359,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -459,7 +471,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,10 +928,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V195"/>
+  <dimension ref="A1:V196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U111" sqref="U111"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T116" sqref="T116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,28 +963,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -991,10 +1003,10 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
@@ -1028,10 +1040,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
@@ -1051,10 +1063,10 @@
       <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1088,10 +1100,10 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1111,10 +1123,10 @@
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -1148,10 +1160,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1171,10 +1183,10 @@
       <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1208,10 +1220,10 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1231,10 +1243,10 @@
       <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
@@ -1268,10 +1280,10 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1291,10 +1303,10 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
@@ -1328,40 +1340,40 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
@@ -1395,10 +1407,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1418,10 +1430,10 @@
       <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1455,10 +1467,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1478,10 +1490,10 @@
       <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -1515,10 +1527,10 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1538,10 +1550,10 @@
       <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
@@ -1575,10 +1587,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1598,10 +1610,10 @@
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
@@ -1635,10 +1647,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1658,10 +1670,10 @@
       <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
@@ -1695,40 +1707,40 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
@@ -1762,10 +1774,10 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -1802,10 +1814,10 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1825,10 +1837,10 @@
       <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
@@ -1865,10 +1877,10 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1888,10 +1900,10 @@
       <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -1928,10 +1940,10 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
@@ -1968,10 +1980,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="A33" s="25">
         <v>32</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2005,10 +2017,10 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2028,10 +2040,10 @@
       <c r="P34" s="26"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2068,29 +2080,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36" s="28">
         <v>35</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2109,10 +2121,10 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2146,10 +2158,10 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2169,10 +2181,10 @@
       <c r="P38" s="26"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2206,10 +2218,10 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
-      <c r="B40" s="28"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2229,10 +2241,10 @@
       <c r="P40" s="26"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2269,10 +2281,10 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="25">
         <v>41</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2306,10 +2318,10 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2343,10 +2355,10 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="A44" s="25">
         <v>43</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2380,40 +2392,40 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="A45" s="25">
         <v>44</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2450,10 +2462,10 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+      <c r="A47" s="25">
         <v>46</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2473,10 +2485,10 @@
       <c r="P47" s="26"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="A48" s="25">
         <v>47</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2510,10 +2522,10 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
+      <c r="A49" s="25">
         <v>48</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2547,10 +2559,10 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="A50" s="25">
         <v>49</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2584,10 +2596,10 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2621,10 +2633,10 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2644,10 +2656,10 @@
       <c r="P52" s="26"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
+      <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2681,10 +2693,10 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2718,10 +2730,10 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
+      <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="28"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2741,10 +2753,10 @@
       <c r="P55" s="26"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="28"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
@@ -2778,10 +2790,10 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2801,10 +2813,10 @@
       <c r="P57" s="26"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
@@ -2838,10 +2850,10 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
+      <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2861,10 +2873,10 @@
       <c r="P59" s="26"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
@@ -2898,40 +2910,40 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="28">
+      <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="28"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="A62" s="25">
         <v>61</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
@@ -2965,10 +2977,10 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
+      <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2988,10 +3000,10 @@
       <c r="P63" s="26"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
+      <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="28"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3025,10 +3037,10 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="28">
+      <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="28"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3048,10 +3060,10 @@
       <c r="P65" s="26"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
+      <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3085,12 +3097,12 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
+      <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:C130" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
+        <f t="shared" ref="C67:C131" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
       <c r="D67" s="26" t="s">
@@ -3122,10 +3134,10 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
+      <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3145,10 +3157,10 @@
       <c r="P68" s="26"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
+      <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
@@ -3182,10 +3194,10 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
+      <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3205,10 +3217,10 @@
       <c r="P70" s="26"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
+      <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
@@ -3242,10 +3254,10 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="28">
+      <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3265,10 +3277,10 @@
       <c r="P72" s="26"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
+      <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -3302,40 +3314,40 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
+      <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
+      <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3369,10 +3381,10 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
+      <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
@@ -3406,10 +3418,10 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="28">
+      <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3429,10 +3441,10 @@
       <c r="P77" s="26"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="28">
+      <c r="A78" s="25">
         <v>77</v>
       </c>
-      <c r="B78" s="28"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
@@ -3466,10 +3478,10 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="28">
+      <c r="A79" s="25">
         <v>78</v>
       </c>
-      <c r="B79" s="28"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3489,10 +3501,10 @@
       <c r="P79" s="26"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="28">
+      <c r="A80" s="25">
         <v>79</v>
       </c>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
@@ -3526,10 +3538,10 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
+      <c r="A81" s="25">
         <v>80</v>
       </c>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3549,10 +3561,10 @@
       <c r="P81" s="26"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
+      <c r="A82" s="25">
         <v>81</v>
       </c>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
@@ -3586,10 +3598,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
+      <c r="A83" s="25">
         <v>82</v>
       </c>
-      <c r="B83" s="28"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3609,10 +3621,10 @@
       <c r="P83" s="26"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="28">
+      <c r="A84" s="25">
         <v>83</v>
       </c>
-      <c r="B84" s="28"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -3646,40 +3658,40 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="28">
+      <c r="A85" s="25">
         <v>84</v>
       </c>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="28">
+      <c r="A86" s="25">
         <v>85</v>
       </c>
-      <c r="B86" s="28"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -3713,10 +3725,10 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="28">
+      <c r="A87" s="25">
         <v>86</v>
       </c>
-      <c r="B87" s="28"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3736,10 +3748,10 @@
       <c r="P87" s="26"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="28">
+      <c r="A88" s="25">
         <v>87</v>
       </c>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -3773,10 +3785,10 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
+      <c r="A89" s="25">
         <v>88</v>
       </c>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3796,29 +3808,29 @@
       <c r="P89" s="26"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
+      <c r="A90" s="28">
         <v>89</v>
       </c>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3835,10 +3847,10 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="28">
+      <c r="A91" s="25">
         <v>90</v>
       </c>
-      <c r="B91" s="28"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3858,29 +3870,29 @@
       <c r="P91" s="26"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="25">
+      <c r="A92" s="28">
         <v>91</v>
       </c>
-      <c r="B92" s="25"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="30"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -3897,10 +3909,10 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
+      <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="28"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3920,29 +3932,29 @@
       <c r="P93" s="26"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25">
+      <c r="A94" s="28">
         <v>93</v>
       </c>
-      <c r="B94" s="25"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="30"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="30"/>
+      <c r="P94" s="30"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -3959,10 +3971,10 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
+      <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="28"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3982,10 +3994,10 @@
       <c r="P95" s="26"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
+      <c r="A96" s="25">
         <v>95</v>
       </c>
-      <c r="B96" s="28"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
@@ -4019,40 +4031,40 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
+      <c r="A97" s="25">
         <v>96</v>
       </c>
-      <c r="B97" s="28"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="23"/>
-      <c r="R97" s="23"/>
-      <c r="S97" s="23"/>
-      <c r="T97" s="23"/>
-      <c r="U97" s="23"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27"/>
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
+      <c r="A98" s="25">
         <v>97</v>
       </c>
-      <c r="B98" s="28"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -4086,10 +4098,10 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="28">
+      <c r="A99" s="25">
         <v>98</v>
       </c>
-      <c r="B99" s="28"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -4123,10 +4135,10 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="28">
+      <c r="A100" s="25">
         <v>99</v>
       </c>
-      <c r="B100" s="28"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4146,10 +4158,10 @@
       <c r="P100" s="26"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="28">
+      <c r="A101" s="25">
         <v>100</v>
       </c>
-      <c r="B101" s="28"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -4183,10 +4195,10 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="28">
+      <c r="A102" s="25">
         <v>101</v>
       </c>
-      <c r="B102" s="28"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -4220,10 +4232,10 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="28">
+      <c r="A103" s="25">
         <v>102</v>
       </c>
-      <c r="B103" s="28"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4243,10 +4255,10 @@
       <c r="P103" s="26"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="28">
+      <c r="A104" s="25">
         <v>103</v>
       </c>
-      <c r="B104" s="28"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
@@ -4280,10 +4292,10 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="28">
+      <c r="A105" s="25">
         <v>104</v>
       </c>
-      <c r="B105" s="28"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
@@ -4317,10 +4329,10 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="28">
+      <c r="A106" s="25">
         <v>105</v>
       </c>
-      <c r="B106" s="28"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4340,10 +4352,10 @@
       <c r="P106" s="26"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="28">
+      <c r="A107" s="25">
         <v>106</v>
       </c>
-      <c r="B107" s="28"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4377,10 +4389,10 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="28">
+      <c r="A108" s="25">
         <v>107</v>
       </c>
-      <c r="B108" s="28"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4399,53 +4411,43 @@
       <c r="O108" s="26"/>
       <c r="P108" s="26"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A109" s="28">
+    <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="27"/>
+      <c r="U109" s="27"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A110" s="25">
         <v>108</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="8" t="str">
+      <c r="B110" s="25"/>
+      <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D110" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="9">
-        <v>43473</v>
-      </c>
-      <c r="R109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S109" s="10">
-        <v>1</v>
-      </c>
-      <c r="T109" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="28">
-        <v>109</v>
-      </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D110" s="26"/>
       <c r="E110" s="26"/>
       <c r="F110" s="26"/>
       <c r="G110" s="26"/>
@@ -4458,19 +4460,29 @@
       <c r="N110" s="26"/>
       <c r="O110" s="26"/>
       <c r="P110" s="26"/>
+      <c r="Q110" s="9">
+        <v>43473</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S110" s="10">
+        <v>1</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="28">
-        <v>110</v>
-      </c>
-      <c r="B111" s="28"/>
+      <c r="A111" s="25">
+        <v>109</v>
+      </c>
+      <c r="B111" s="25"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>!!</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>55</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D111" s="26"/>
       <c r="E111" s="26"/>
       <c r="F111" s="26"/>
       <c r="G111" s="26"/>
@@ -4483,29 +4495,19 @@
       <c r="N111" s="26"/>
       <c r="O111" s="26"/>
       <c r="P111" s="26"/>
-      <c r="Q111" s="9">
-        <v>43474</v>
-      </c>
-      <c r="R111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S111" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="T111" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="28">
-        <v>111</v>
-      </c>
-      <c r="B112" s="28"/>
+      <c r="A112" s="25">
+        <v>110</v>
+      </c>
+      <c r="B112" s="25"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D112" s="26"/>
+        <v>!!</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
       <c r="G112" s="26"/>
@@ -4518,12 +4520,24 @@
       <c r="N112" s="26"/>
       <c r="O112" s="26"/>
       <c r="P112" s="26"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" s="28">
-        <v>112</v>
-      </c>
-      <c r="B113" s="28"/>
+      <c r="Q112" s="9">
+        <v>43474</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S112" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="T112" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="25">
+        <v>111</v>
+      </c>
+      <c r="B113" s="25"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4542,16 +4556,18 @@
       <c r="O113" s="26"/>
       <c r="P113" s="26"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" s="28">
-        <v>113</v>
-      </c>
-      <c r="B114" s="28"/>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="25">
+        <v>112</v>
+      </c>
+      <c r="B114" s="25"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D114" s="26"/>
+        <v>!</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="E114" s="26"/>
       <c r="F114" s="26"/>
       <c r="G114" s="26"/>
@@ -4564,17 +4580,31 @@
       <c r="N114" s="26"/>
       <c r="O114" s="26"/>
       <c r="P114" s="26"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115" s="28">
-        <v>114</v>
-      </c>
-      <c r="B115" s="28"/>
+      <c r="Q114" s="9">
+        <v>43475</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S114" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T114" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="25">
+        <v>113</v>
+      </c>
+      <c r="B115" s="25"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D115" s="26"/>
+        <v>OK</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="E115" s="26"/>
       <c r="F115" s="26"/>
       <c r="G115" s="26"/>
@@ -4587,17 +4617,31 @@
       <c r="N115" s="26"/>
       <c r="O115" s="26"/>
       <c r="P115" s="26"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" s="28">
-        <v>115</v>
-      </c>
-      <c r="B116" s="28"/>
+      <c r="Q115" s="9">
+        <v>43475</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S115" s="10">
+        <v>1</v>
+      </c>
+      <c r="T115" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="25">
+        <v>114</v>
+      </c>
+      <c r="B116" s="25"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D116" s="26"/>
+        <v>!!!</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="E116" s="26"/>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -4610,12 +4654,24 @@
       <c r="N116" s="26"/>
       <c r="O116" s="26"/>
       <c r="P116" s="26"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117" s="28">
-        <v>116</v>
-      </c>
-      <c r="B117" s="28"/>
+      <c r="Q116" s="9">
+        <v>43475</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S116" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="T116" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="25">
+        <v>115</v>
+      </c>
+      <c r="B117" s="25"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4634,11 +4690,11 @@
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A118" s="28">
-        <v>117</v>
-      </c>
-      <c r="B118" s="28"/>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="25">
+        <v>116</v>
+      </c>
+      <c r="B118" s="25"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4657,11 +4713,11 @@
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119" s="28">
-        <v>118</v>
-      </c>
-      <c r="B119" s="28"/>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="25">
+        <v>117</v>
+      </c>
+      <c r="B119" s="25"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4680,11 +4736,11 @@
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A120" s="28">
-        <v>119</v>
-      </c>
-      <c r="B120" s="28"/>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="25">
+        <v>118</v>
+      </c>
+      <c r="B120" s="25"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4703,11 +4759,11 @@
       <c r="O120" s="26"/>
       <c r="P120" s="26"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A121" s="28">
-        <v>120</v>
-      </c>
-      <c r="B121" s="28"/>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="25">
+        <v>119</v>
+      </c>
+      <c r="B121" s="25"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4726,11 +4782,11 @@
       <c r="O121" s="26"/>
       <c r="P121" s="26"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A122" s="28">
-        <v>121</v>
-      </c>
-      <c r="B122" s="28"/>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="25">
+        <v>120</v>
+      </c>
+      <c r="B122" s="25"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4749,11 +4805,11 @@
       <c r="O122" s="26"/>
       <c r="P122" s="26"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A123" s="28">
-        <v>122</v>
-      </c>
-      <c r="B123" s="28"/>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="25">
+        <v>121</v>
+      </c>
+      <c r="B123" s="25"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4772,11 +4828,11 @@
       <c r="O123" s="26"/>
       <c r="P123" s="26"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A124" s="28">
-        <v>123</v>
-      </c>
-      <c r="B124" s="28"/>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="25">
+        <v>122</v>
+      </c>
+      <c r="B124" s="25"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4795,11 +4851,11 @@
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125" s="28">
-        <v>124</v>
-      </c>
-      <c r="B125" s="28"/>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="25">
+        <v>123</v>
+      </c>
+      <c r="B125" s="25"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4818,11 +4874,11 @@
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A126" s="28">
-        <v>125</v>
-      </c>
-      <c r="B126" s="28"/>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="25">
+        <v>124</v>
+      </c>
+      <c r="B126" s="25"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4841,11 +4897,11 @@
       <c r="O126" s="26"/>
       <c r="P126" s="26"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A127" s="28">
-        <v>126</v>
-      </c>
-      <c r="B127" s="28"/>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="25">
+        <v>125</v>
+      </c>
+      <c r="B127" s="25"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4864,11 +4920,11 @@
       <c r="O127" s="26"/>
       <c r="P127" s="26"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" s="28">
-        <v>127</v>
-      </c>
-      <c r="B128" s="28"/>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="25">
+        <v>126</v>
+      </c>
+      <c r="B128" s="25"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4888,10 +4944,10 @@
       <c r="P128" s="26"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="28">
-        <v>128</v>
-      </c>
-      <c r="B129" s="28"/>
+      <c r="A129" s="25">
+        <v>127</v>
+      </c>
+      <c r="B129" s="25"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4911,10 +4967,10 @@
       <c r="P129" s="26"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="28">
-        <v>129</v>
-      </c>
-      <c r="B130" s="28"/>
+      <c r="A130" s="25">
+        <v>128</v>
+      </c>
+      <c r="B130" s="25"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4934,12 +4990,12 @@
       <c r="P130" s="26"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" s="28">
-        <v>130</v>
-      </c>
-      <c r="B131" s="28"/>
+      <c r="A131" s="25">
+        <v>129</v>
+      </c>
+      <c r="B131" s="25"/>
       <c r="C131" s="8" t="str">
-        <f t="shared" ref="C131:C194" si="2">IF(S131="", "",IF(S131&lt;=50%, "!!!", IF(S131&lt;=75%,"!!", IF(S131&lt;100%, "!", "OK"))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D131" s="26"/>
@@ -4957,12 +5013,12 @@
       <c r="P131" s="26"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132" s="28">
-        <v>131</v>
-      </c>
-      <c r="B132" s="28"/>
+      <c r="A132" s="25">
+        <v>130</v>
+      </c>
+      <c r="B132" s="25"/>
       <c r="C132" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C132:C195" si="2">IF(S132="", "",IF(S132&lt;=50%, "!!!", IF(S132&lt;=75%,"!!", IF(S132&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
       <c r="D132" s="26"/>
@@ -4980,10 +5036,10 @@
       <c r="P132" s="26"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A133" s="28">
-        <v>132</v>
-      </c>
-      <c r="B133" s="28"/>
+      <c r="A133" s="25">
+        <v>131</v>
+      </c>
+      <c r="B133" s="25"/>
       <c r="C133" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5003,10 +5059,10 @@
       <c r="P133" s="26"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="28">
-        <v>133</v>
-      </c>
-      <c r="B134" s="28"/>
+      <c r="A134" s="25">
+        <v>132</v>
+      </c>
+      <c r="B134" s="25"/>
       <c r="C134" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5026,10 +5082,10 @@
       <c r="P134" s="26"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A135" s="28">
-        <v>134</v>
-      </c>
-      <c r="B135" s="28"/>
+      <c r="A135" s="25">
+        <v>133</v>
+      </c>
+      <c r="B135" s="25"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5049,10 +5105,10 @@
       <c r="P135" s="26"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="28">
-        <v>135</v>
-      </c>
-      <c r="B136" s="28"/>
+      <c r="A136" s="25">
+        <v>134</v>
+      </c>
+      <c r="B136" s="25"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5072,10 +5128,10 @@
       <c r="P136" s="26"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" s="28">
-        <v>136</v>
-      </c>
-      <c r="B137" s="28"/>
+      <c r="A137" s="25">
+        <v>135</v>
+      </c>
+      <c r="B137" s="25"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5095,10 +5151,10 @@
       <c r="P137" s="26"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="28">
-        <v>137</v>
-      </c>
-      <c r="B138" s="28"/>
+      <c r="A138" s="25">
+        <v>136</v>
+      </c>
+      <c r="B138" s="25"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5118,10 +5174,10 @@
       <c r="P138" s="26"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="28">
-        <v>138</v>
-      </c>
-      <c r="B139" s="28"/>
+      <c r="A139" s="25">
+        <v>137</v>
+      </c>
+      <c r="B139" s="25"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5141,10 +5197,10 @@
       <c r="P139" s="26"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="28">
-        <v>139</v>
-      </c>
-      <c r="B140" s="28"/>
+      <c r="A140" s="25">
+        <v>138</v>
+      </c>
+      <c r="B140" s="25"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5164,10 +5220,10 @@
       <c r="P140" s="26"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="28">
-        <v>140</v>
-      </c>
-      <c r="B141" s="28"/>
+      <c r="A141" s="25">
+        <v>139</v>
+      </c>
+      <c r="B141" s="25"/>
       <c r="C141" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5187,10 +5243,10 @@
       <c r="P141" s="26"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="28">
-        <v>141</v>
-      </c>
-      <c r="B142" s="28"/>
+      <c r="A142" s="25">
+        <v>140</v>
+      </c>
+      <c r="B142" s="25"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5210,10 +5266,10 @@
       <c r="P142" s="26"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="28">
-        <v>142</v>
-      </c>
-      <c r="B143" s="28"/>
+      <c r="A143" s="25">
+        <v>141</v>
+      </c>
+      <c r="B143" s="25"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5233,10 +5289,10 @@
       <c r="P143" s="26"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144" s="28">
-        <v>143</v>
-      </c>
-      <c r="B144" s="28"/>
+      <c r="A144" s="25">
+        <v>142</v>
+      </c>
+      <c r="B144" s="25"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5256,10 +5312,10 @@
       <c r="P144" s="26"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="28">
-        <v>144</v>
-      </c>
-      <c r="B145" s="28"/>
+      <c r="A145" s="25">
+        <v>143</v>
+      </c>
+      <c r="B145" s="25"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5279,10 +5335,10 @@
       <c r="P145" s="26"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="28">
-        <v>145</v>
-      </c>
-      <c r="B146" s="28"/>
+      <c r="A146" s="25">
+        <v>144</v>
+      </c>
+      <c r="B146" s="25"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5302,10 +5358,10 @@
       <c r="P146" s="26"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="28">
-        <v>146</v>
-      </c>
-      <c r="B147" s="28"/>
+      <c r="A147" s="25">
+        <v>145</v>
+      </c>
+      <c r="B147" s="25"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5325,10 +5381,10 @@
       <c r="P147" s="26"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="28">
-        <v>147</v>
-      </c>
-      <c r="B148" s="28"/>
+      <c r="A148" s="25">
+        <v>146</v>
+      </c>
+      <c r="B148" s="25"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5348,10 +5404,10 @@
       <c r="P148" s="26"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="28">
-        <v>148</v>
-      </c>
-      <c r="B149" s="28"/>
+      <c r="A149" s="25">
+        <v>147</v>
+      </c>
+      <c r="B149" s="25"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5371,10 +5427,10 @@
       <c r="P149" s="26"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="28">
-        <v>149</v>
-      </c>
-      <c r="B150" s="28"/>
+      <c r="A150" s="25">
+        <v>148</v>
+      </c>
+      <c r="B150" s="25"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5394,10 +5450,10 @@
       <c r="P150" s="26"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="28">
-        <v>150</v>
-      </c>
-      <c r="B151" s="28"/>
+      <c r="A151" s="25">
+        <v>149</v>
+      </c>
+      <c r="B151" s="25"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5417,10 +5473,10 @@
       <c r="P151" s="26"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="28">
-        <v>151</v>
-      </c>
-      <c r="B152" s="28"/>
+      <c r="A152" s="25">
+        <v>150</v>
+      </c>
+      <c r="B152" s="25"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5440,10 +5496,10 @@
       <c r="P152" s="26"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="28">
-        <v>152</v>
-      </c>
-      <c r="B153" s="28"/>
+      <c r="A153" s="25">
+        <v>151</v>
+      </c>
+      <c r="B153" s="25"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5463,10 +5519,10 @@
       <c r="P153" s="26"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="28">
-        <v>153</v>
-      </c>
-      <c r="B154" s="28"/>
+      <c r="A154" s="25">
+        <v>152</v>
+      </c>
+      <c r="B154" s="25"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5486,10 +5542,10 @@
       <c r="P154" s="26"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="28">
-        <v>154</v>
-      </c>
-      <c r="B155" s="28"/>
+      <c r="A155" s="25">
+        <v>153</v>
+      </c>
+      <c r="B155" s="25"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5509,10 +5565,10 @@
       <c r="P155" s="26"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="28">
-        <v>155</v>
-      </c>
-      <c r="B156" s="28"/>
+      <c r="A156" s="25">
+        <v>154</v>
+      </c>
+      <c r="B156" s="25"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5532,10 +5588,10 @@
       <c r="P156" s="26"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="28">
-        <v>156</v>
-      </c>
-      <c r="B157" s="28"/>
+      <c r="A157" s="25">
+        <v>155</v>
+      </c>
+      <c r="B157" s="25"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5555,10 +5611,10 @@
       <c r="P157" s="26"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="28">
-        <v>157</v>
-      </c>
-      <c r="B158" s="28"/>
+      <c r="A158" s="25">
+        <v>156</v>
+      </c>
+      <c r="B158" s="25"/>
       <c r="C158" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5578,10 +5634,10 @@
       <c r="P158" s="26"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="28">
-        <v>158</v>
-      </c>
-      <c r="B159" s="28"/>
+      <c r="A159" s="25">
+        <v>157</v>
+      </c>
+      <c r="B159" s="25"/>
       <c r="C159" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5601,10 +5657,10 @@
       <c r="P159" s="26"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="28">
-        <v>159</v>
-      </c>
-      <c r="B160" s="28"/>
+      <c r="A160" s="25">
+        <v>158</v>
+      </c>
+      <c r="B160" s="25"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5624,10 +5680,10 @@
       <c r="P160" s="26"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="28">
-        <v>160</v>
-      </c>
-      <c r="B161" s="28"/>
+      <c r="A161" s="25">
+        <v>159</v>
+      </c>
+      <c r="B161" s="25"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5647,10 +5703,10 @@
       <c r="P161" s="26"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162" s="28">
-        <v>161</v>
-      </c>
-      <c r="B162" s="28"/>
+      <c r="A162" s="25">
+        <v>160</v>
+      </c>
+      <c r="B162" s="25"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5670,10 +5726,10 @@
       <c r="P162" s="26"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="28">
-        <v>162</v>
-      </c>
-      <c r="B163" s="28"/>
+      <c r="A163" s="25">
+        <v>161</v>
+      </c>
+      <c r="B163" s="25"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5693,10 +5749,10 @@
       <c r="P163" s="26"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="28">
-        <v>163</v>
-      </c>
-      <c r="B164" s="28"/>
+      <c r="A164" s="25">
+        <v>162</v>
+      </c>
+      <c r="B164" s="25"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5716,10 +5772,10 @@
       <c r="P164" s="26"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="28">
-        <v>164</v>
-      </c>
-      <c r="B165" s="28"/>
+      <c r="A165" s="25">
+        <v>163</v>
+      </c>
+      <c r="B165" s="25"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5739,10 +5795,10 @@
       <c r="P165" s="26"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="28">
-        <v>165</v>
-      </c>
-      <c r="B166" s="28"/>
+      <c r="A166" s="25">
+        <v>164</v>
+      </c>
+      <c r="B166" s="25"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5762,10 +5818,10 @@
       <c r="P166" s="26"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="28">
-        <v>166</v>
-      </c>
-      <c r="B167" s="28"/>
+      <c r="A167" s="25">
+        <v>165</v>
+      </c>
+      <c r="B167" s="25"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5785,10 +5841,10 @@
       <c r="P167" s="26"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="28">
-        <v>167</v>
-      </c>
-      <c r="B168" s="28"/>
+      <c r="A168" s="25">
+        <v>166</v>
+      </c>
+      <c r="B168" s="25"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5808,10 +5864,10 @@
       <c r="P168" s="26"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="28">
-        <v>168</v>
-      </c>
-      <c r="B169" s="28"/>
+      <c r="A169" s="25">
+        <v>167</v>
+      </c>
+      <c r="B169" s="25"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5831,10 +5887,10 @@
       <c r="P169" s="26"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="28">
-        <v>169</v>
-      </c>
-      <c r="B170" s="28"/>
+      <c r="A170" s="25">
+        <v>168</v>
+      </c>
+      <c r="B170" s="25"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5854,10 +5910,10 @@
       <c r="P170" s="26"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A171" s="28">
-        <v>170</v>
-      </c>
-      <c r="B171" s="28"/>
+      <c r="A171" s="25">
+        <v>169</v>
+      </c>
+      <c r="B171" s="25"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5877,10 +5933,10 @@
       <c r="P171" s="26"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="28">
-        <v>171</v>
-      </c>
-      <c r="B172" s="28"/>
+      <c r="A172" s="25">
+        <v>170</v>
+      </c>
+      <c r="B172" s="25"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5900,10 +5956,10 @@
       <c r="P172" s="26"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A173" s="28">
-        <v>172</v>
-      </c>
-      <c r="B173" s="28"/>
+      <c r="A173" s="25">
+        <v>171</v>
+      </c>
+      <c r="B173" s="25"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5923,10 +5979,10 @@
       <c r="P173" s="26"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="28">
-        <v>173</v>
-      </c>
-      <c r="B174" s="28"/>
+      <c r="A174" s="25">
+        <v>172</v>
+      </c>
+      <c r="B174" s="25"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5946,10 +6002,10 @@
       <c r="P174" s="26"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="28">
-        <v>174</v>
-      </c>
-      <c r="B175" s="28"/>
+      <c r="A175" s="25">
+        <v>173</v>
+      </c>
+      <c r="B175" s="25"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5969,10 +6025,10 @@
       <c r="P175" s="26"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="28">
-        <v>175</v>
-      </c>
-      <c r="B176" s="28"/>
+      <c r="A176" s="25">
+        <v>174</v>
+      </c>
+      <c r="B176" s="25"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5992,10 +6048,10 @@
       <c r="P176" s="26"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="28">
-        <v>176</v>
-      </c>
-      <c r="B177" s="28"/>
+      <c r="A177" s="25">
+        <v>175</v>
+      </c>
+      <c r="B177" s="25"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6015,10 +6071,10 @@
       <c r="P177" s="26"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="28">
-        <v>177</v>
-      </c>
-      <c r="B178" s="28"/>
+      <c r="A178" s="25">
+        <v>176</v>
+      </c>
+      <c r="B178" s="25"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6038,10 +6094,10 @@
       <c r="P178" s="26"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="28">
-        <v>178</v>
-      </c>
-      <c r="B179" s="28"/>
+      <c r="A179" s="25">
+        <v>177</v>
+      </c>
+      <c r="B179" s="25"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6061,10 +6117,10 @@
       <c r="P179" s="26"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="28">
-        <v>179</v>
-      </c>
-      <c r="B180" s="28"/>
+      <c r="A180" s="25">
+        <v>178</v>
+      </c>
+      <c r="B180" s="25"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6084,10 +6140,10 @@
       <c r="P180" s="26"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="28">
-        <v>180</v>
-      </c>
-      <c r="B181" s="28"/>
+      <c r="A181" s="25">
+        <v>179</v>
+      </c>
+      <c r="B181" s="25"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6107,10 +6163,10 @@
       <c r="P181" s="26"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="28">
-        <v>181</v>
-      </c>
-      <c r="B182" s="28"/>
+      <c r="A182" s="25">
+        <v>180</v>
+      </c>
+      <c r="B182" s="25"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6130,10 +6186,10 @@
       <c r="P182" s="26"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="28">
-        <v>182</v>
-      </c>
-      <c r="B183" s="28"/>
+      <c r="A183" s="25">
+        <v>181</v>
+      </c>
+      <c r="B183" s="25"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6153,10 +6209,10 @@
       <c r="P183" s="26"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="28">
-        <v>183</v>
-      </c>
-      <c r="B184" s="28"/>
+      <c r="A184" s="25">
+        <v>182</v>
+      </c>
+      <c r="B184" s="25"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6176,10 +6232,10 @@
       <c r="P184" s="26"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="28">
-        <v>184</v>
-      </c>
-      <c r="B185" s="28"/>
+      <c r="A185" s="25">
+        <v>183</v>
+      </c>
+      <c r="B185" s="25"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6199,10 +6255,10 @@
       <c r="P185" s="26"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="28">
-        <v>185</v>
-      </c>
-      <c r="B186" s="28"/>
+      <c r="A186" s="25">
+        <v>184</v>
+      </c>
+      <c r="B186" s="25"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6222,10 +6278,10 @@
       <c r="P186" s="26"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="28">
-        <v>186</v>
-      </c>
-      <c r="B187" s="28"/>
+      <c r="A187" s="25">
+        <v>185</v>
+      </c>
+      <c r="B187" s="25"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6245,10 +6301,10 @@
       <c r="P187" s="26"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="28">
-        <v>187</v>
-      </c>
-      <c r="B188" s="28"/>
+      <c r="A188" s="25">
+        <v>186</v>
+      </c>
+      <c r="B188" s="25"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6268,10 +6324,10 @@
       <c r="P188" s="26"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="28">
-        <v>188</v>
-      </c>
-      <c r="B189" s="28"/>
+      <c r="A189" s="25">
+        <v>187</v>
+      </c>
+      <c r="B189" s="25"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6291,10 +6347,10 @@
       <c r="P189" s="26"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="28">
-        <v>189</v>
-      </c>
-      <c r="B190" s="28"/>
+      <c r="A190" s="25">
+        <v>188</v>
+      </c>
+      <c r="B190" s="25"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6314,10 +6370,10 @@
       <c r="P190" s="26"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="28">
-        <v>190</v>
-      </c>
-      <c r="B191" s="28"/>
+      <c r="A191" s="25">
+        <v>189</v>
+      </c>
+      <c r="B191" s="25"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6337,10 +6393,10 @@
       <c r="P191" s="26"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="28">
-        <v>191</v>
-      </c>
-      <c r="B192" s="28"/>
+      <c r="A192" s="25">
+        <v>190</v>
+      </c>
+      <c r="B192" s="25"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6360,10 +6416,10 @@
       <c r="P192" s="26"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="28">
-        <v>192</v>
-      </c>
-      <c r="B193" s="28"/>
+      <c r="A193" s="25">
+        <v>191</v>
+      </c>
+      <c r="B193" s="25"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6383,10 +6439,10 @@
       <c r="P193" s="26"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="28">
-        <v>193</v>
-      </c>
-      <c r="B194" s="28"/>
+      <c r="A194" s="25">
+        <v>192</v>
+      </c>
+      <c r="B194" s="25"/>
       <c r="C194" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6406,12 +6462,12 @@
       <c r="P194" s="26"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A195" s="28">
-        <v>194</v>
-      </c>
-      <c r="B195" s="28"/>
+      <c r="A195" s="25">
+        <v>193</v>
+      </c>
+      <c r="B195" s="25"/>
       <c r="C195" s="8" t="str">
-        <f t="shared" ref="C195" si="3">IF(S195="", "",IF(S195&lt;=50%, "!!!", IF(S195&lt;=75%,"!!", IF(S195&lt;100%, "!", "OK"))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D195" s="26"/>
@@ -6428,196 +6484,209 @@
       <c r="O195" s="26"/>
       <c r="P195" s="26"/>
     </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A196" s="25">
+        <v>194</v>
+      </c>
+      <c r="B196" s="25"/>
+      <c r="C196" s="8" t="str">
+        <f t="shared" ref="C196" si="3">IF(S196="", "",IF(S196&lt;=50%, "!!!", IF(S196&lt;=75%,"!!", IF(S196&lt;100%, "!", "OK"))))</f>
+        <v/>
+      </c>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="26"/>
+      <c r="M196" s="26"/>
+      <c r="N196" s="26"/>
+      <c r="O196" s="26"/>
+      <c r="P196" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="390">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:P44"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="D191:P191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="D192:P192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:P193"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:P180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:P181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D182:P182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:P183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="D184:P184"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="D171:P171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="D172:P172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:P173"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="D194:P194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:P195"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="D187:P187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:P188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:P189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:P190"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="D174:P174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="D175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:P176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:P177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:P178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="D179:P179"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="D185:P185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:P186"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="D162:P162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:P163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:P164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:P165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:P166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:P167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D168:P168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="D169:P169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="D170:P170"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:P153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="D154:P154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:P155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:P156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="D157:P157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="D158:P158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:P159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:P160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:P161"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:P144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:P145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="D146:P146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="D147:P147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D148:P148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:P149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:P150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="D151:P151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="D152:P152"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="D135:P135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:P136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:P137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="D138:P138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="D139:P139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:P140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:P141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="D142:P142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:P143"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="D126:P126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:P127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:P128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="D129:P129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:P130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:P131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:P132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:P133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:P134"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:P117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="D118:P118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="D119:P119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:P120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="D121:P121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="D122:P122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:P123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="D124:P124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D125:P125"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="D108:P108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="D109:P109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:P110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:P111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="D112:P112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:P113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:P114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:P115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:P116"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:P99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:P100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:P101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:P102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:P103"/>
+  <mergeCells count="391">
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:P51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:P53"/>
+    <mergeCell ref="D45:U45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:P49"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:P71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:P57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D61:U61"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:P78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:P79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:P80"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:P70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:P72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:P76"/>
+    <mergeCell ref="D74:U74"/>
+    <mergeCell ref="D98:P98"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:P81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:P82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:P83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:P84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:P86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:P88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:P89"/>
+    <mergeCell ref="D85:U85"/>
+    <mergeCell ref="D97:U97"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="D104:P104"/>
     <mergeCell ref="A105:B105"/>
@@ -6642,184 +6711,195 @@
     <mergeCell ref="D96:P96"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:P98"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:P81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:P82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:P83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:P84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:P86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:P88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:P89"/>
-    <mergeCell ref="D85:U85"/>
-    <mergeCell ref="D97:U97"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:P76"/>
-    <mergeCell ref="D74:U74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:P78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:P79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:P80"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:P57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:P62"/>
-    <mergeCell ref="D61:U61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:P51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:P53"/>
-    <mergeCell ref="D45:U45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:P49"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:P43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D13:U13"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:P100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:P101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:P102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:P103"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="D126:P126"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:P108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:P110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:P111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="D112:P112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:P113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:P114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:P115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:P116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:P117"/>
+    <mergeCell ref="D109:U109"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:P132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:P133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:P134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="D135:P135"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="D118:P118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="D119:P119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:P120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="D121:P121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="D122:P122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:P123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="D124:P124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:P125"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:P127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:P128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="D129:P129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:P130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:P131"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:P153"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:P136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:P137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="D138:P138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="D139:P139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:P140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:P141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="D142:P142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:P143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:P144"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:P159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:P160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:P161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="D162:P162"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:P145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:P146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="D147:P147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D148:P148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:P149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:P150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="D151:P151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D152:P152"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="D154:P154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:P155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:P156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="D157:P157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="D158:P158"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:P180"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:P186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="D187:P187"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:P163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:P164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:P165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:P166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:P167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D168:P168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="D169:P169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:P170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="D171:P171"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="D175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:P176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:P177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:P178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="D179:P179"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="D195:P195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="D196:P196"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:P188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:P189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:P190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="D191:P191"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:P44"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="D192:P192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:P193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="D194:P194"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:P181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D182:P182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:P183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="D184:P184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="D185:P185"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:P172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:P173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D174:P174"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
@@ -6832,7 +6912,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A196:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C195 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD195">
+  <conditionalFormatting sqref="A1:XFD1 A197:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C196 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 D110:XFD196 V109:XFD109">
     <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
@@ -6859,13 +6939,13 @@
           <x14:formula1>
             <xm:f>'Ghi chú'!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T1048576</xm:sqref>
+          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Ghi chú'!$L$4:$L$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R1048576</xm:sqref>
+          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="60">
   <si>
     <t>No.</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Fix phân quyền quản lý máy nhánh trên CallCenter</t>
+  </si>
+  <si>
+    <t>Hiển thị tên người đặt hàng trên CallCenter</t>
+  </si>
+  <si>
+    <t>Hiển thị mã sản phẩm, tên sản phẩm trên đơn đặt hàng CallCenter</t>
   </si>
 </sst>
 </file>
@@ -395,21 +401,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -945,7 +937,7 @@
   <dimension ref="A1:V196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:U119"/>
+      <selection activeCell="U121" sqref="U121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4778,9 +4770,11 @@
       <c r="B120" s="30"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D120" s="28"/>
+        <v>OK</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>58</v>
+      </c>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
       <c r="G120" s="28"/>
@@ -4793,6 +4787,18 @@
       <c r="N120" s="28"/>
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
+      <c r="Q120" s="9">
+        <v>43480</v>
+      </c>
+      <c r="R120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S120" s="10">
+        <v>1</v>
+      </c>
+      <c r="T120" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="30">
@@ -4801,9 +4807,11 @@
       <c r="B121" s="30"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D121" s="28"/>
+        <v>OK</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
@@ -4816,6 +4824,18 @@
       <c r="N121" s="28"/>
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
+      <c r="Q121" s="9">
+        <v>43480</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S121" s="10">
+        <v>1</v>
+      </c>
+      <c r="T121" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="30">
@@ -6937,28 +6957,28 @@
     <mergeCell ref="D8:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A197:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C196 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD196 V119:XFD119">
-    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:P48">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="61">
   <si>
     <t>No.</t>
   </si>
@@ -374,29 +374,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -480,7 +480,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -939,8 +939,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U123" sqref="U123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124:U124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,28 +972,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1012,29 +1012,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1049,52 +1049,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1109,52 +1109,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1169,52 +1169,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25"/>
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1229,52 +1229,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25"/>
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1289,52 +1289,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1349,59 +1349,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1416,52 +1416,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1476,52 +1476,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1536,52 +1536,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1596,52 +1596,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1656,52 +1656,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="30">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1716,59 +1716,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26" s="30">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1783,29 +1783,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="30">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1823,52 +1823,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="30">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -1886,52 +1886,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="A30" s="30">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="A31" s="30">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -1949,29 +1949,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="A32" s="30">
         <v>31</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -1989,29 +1989,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
+      <c r="A33" s="30">
         <v>32</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2026,52 +2026,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34" s="30">
         <v>33</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="A35" s="30">
         <v>34</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2089,29 +2089,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2130,29 +2130,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
+      <c r="A37" s="30">
         <v>36</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2167,52 +2167,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
+      <c r="A38" s="30">
         <v>37</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
+      <c r="A39" s="30">
         <v>38</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2227,52 +2227,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+      <c r="A40" s="30">
         <v>39</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
+      <c r="A41" s="30">
         <v>40</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2290,29 +2290,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
+      <c r="A42" s="30">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2327,29 +2327,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
+      <c r="A43" s="30">
         <v>42</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2364,29 +2364,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
+      <c r="A44" s="30">
         <v>43</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2401,59 +2401,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
+      <c r="A45" s="30">
         <v>44</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
+      <c r="A46" s="30">
         <v>45</v>
       </c>
-      <c r="B46" s="25"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2471,52 +2471,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
+      <c r="A47" s="30">
         <v>46</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
+      <c r="A48" s="30">
         <v>47</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2531,29 +2531,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
+      <c r="A49" s="30">
         <v>48</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2568,29 +2568,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
+      <c r="A50" s="30">
         <v>49</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2605,29 +2605,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
+      <c r="A51" s="30">
         <v>50</v>
       </c>
-      <c r="B51" s="25"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2642,52 +2642,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
+      <c r="A52" s="30">
         <v>51</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
+      <c r="A53" s="30">
         <v>52</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2702,29 +2702,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
+      <c r="A54" s="30">
         <v>53</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2739,52 +2739,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="25">
+      <c r="A55" s="30">
         <v>54</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="25">
+      <c r="A56" s="30">
         <v>55</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2799,52 +2799,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="25">
+      <c r="A57" s="30">
         <v>56</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="25">
+      <c r="A58" s="30">
         <v>57</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2859,52 +2859,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
+      <c r="A59" s="30">
         <v>58</v>
       </c>
-      <c r="B59" s="25"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="25">
+      <c r="A60" s="30">
         <v>59</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -2919,59 +2919,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="25">
+      <c r="A61" s="30">
         <v>60</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="25">
+      <c r="A62" s="30">
         <v>61</v>
       </c>
-      <c r="B62" s="25"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -2986,52 +2986,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="25">
+      <c r="A63" s="30">
         <v>62</v>
       </c>
-      <c r="B63" s="25"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="25">
+      <c r="A64" s="30">
         <v>63</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3046,52 +3046,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="25">
+      <c r="A65" s="30">
         <v>64</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="25">
+      <c r="A66" s="30">
         <v>65</v>
       </c>
-      <c r="B66" s="25"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3106,29 +3106,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="25">
+      <c r="A67" s="30">
         <v>66</v>
       </c>
-      <c r="B67" s="25"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C131" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3143,52 +3143,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="25">
+      <c r="A68" s="30">
         <v>67</v>
       </c>
-      <c r="B68" s="25"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="25">
+      <c r="A69" s="30">
         <v>68</v>
       </c>
-      <c r="B69" s="25"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3203,52 +3203,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="25">
+      <c r="A70" s="30">
         <v>69</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="25">
+      <c r="A71" s="30">
         <v>70</v>
       </c>
-      <c r="B71" s="25"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3263,52 +3263,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="25">
+      <c r="A72" s="30">
         <v>71</v>
       </c>
-      <c r="B72" s="25"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="25">
+      <c r="A73" s="30">
         <v>72</v>
       </c>
-      <c r="B73" s="25"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3323,59 +3323,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="25">
+      <c r="A74" s="30">
         <v>73</v>
       </c>
-      <c r="B74" s="25"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="25">
+      <c r="A75" s="30">
         <v>74</v>
       </c>
-      <c r="B75" s="25"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3390,29 +3390,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="25">
+      <c r="A76" s="30">
         <v>75</v>
       </c>
-      <c r="B76" s="25"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3427,52 +3427,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="25">
+      <c r="A77" s="30">
         <v>76</v>
       </c>
-      <c r="B77" s="25"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="25">
+      <c r="A78" s="30">
         <v>77</v>
       </c>
-      <c r="B78" s="25"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3487,52 +3487,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="25">
+      <c r="A79" s="30">
         <v>78</v>
       </c>
-      <c r="B79" s="25"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="25">
+      <c r="A80" s="30">
         <v>79</v>
       </c>
-      <c r="B80" s="25"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3547,52 +3547,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="25">
+      <c r="A81" s="30">
         <v>80</v>
       </c>
-      <c r="B81" s="25"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="25">
+      <c r="A82" s="30">
         <v>81</v>
       </c>
-      <c r="B82" s="25"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3607,52 +3607,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="25">
+      <c r="A83" s="30">
         <v>82</v>
       </c>
-      <c r="B83" s="25"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="25">
+      <c r="A84" s="30">
         <v>83</v>
       </c>
-      <c r="B84" s="25"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3667,59 +3667,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="25">
+      <c r="A85" s="30">
         <v>84</v>
       </c>
-      <c r="B85" s="25"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="27"/>
-      <c r="T85" s="27"/>
-      <c r="U85" s="27"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="25">
+      <c r="A86" s="30">
         <v>85</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3734,52 +3734,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="25">
+      <c r="A87" s="30">
         <v>86</v>
       </c>
-      <c r="B87" s="25"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="25">
+      <c r="A88" s="30">
         <v>87</v>
       </c>
-      <c r="B88" s="25"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3794,52 +3794,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="25">
+      <c r="A89" s="30">
         <v>88</v>
       </c>
-      <c r="B89" s="25"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>89</v>
       </c>
-      <c r="B90" s="28"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="32"/>
+      <c r="P90" s="32"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3856,52 +3856,52 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25">
+      <c r="A91" s="30">
         <v>90</v>
       </c>
-      <c r="B91" s="25"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28">
+      <c r="A92" s="27">
         <v>91</v>
       </c>
-      <c r="B92" s="28"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="29" t="s">
+      <c r="D92" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -3918,52 +3918,52 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25">
+      <c r="A93" s="30">
         <v>92</v>
       </c>
-      <c r="B93" s="25"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="28"/>
+      <c r="P93" s="28"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="28">
+      <c r="A94" s="27">
         <v>93</v>
       </c>
-      <c r="B94" s="28"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
-      <c r="N94" s="30"/>
-      <c r="O94" s="30"/>
-      <c r="P94" s="30"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -3980,52 +3980,52 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="25">
+      <c r="A95" s="30">
         <v>94</v>
       </c>
-      <c r="B95" s="25"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="25">
+      <c r="A96" s="30">
         <v>95</v>
       </c>
-      <c r="B96" s="25"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="28"/>
+      <c r="P96" s="28"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4040,59 +4040,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="25">
+      <c r="A97" s="30">
         <v>96</v>
       </c>
-      <c r="B97" s="25"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="27"/>
-      <c r="Q97" s="27"/>
-      <c r="R97" s="27"/>
-      <c r="S97" s="27"/>
-      <c r="T97" s="27"/>
-      <c r="U97" s="27"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="25">
+      <c r="A98" s="30">
         <v>97</v>
       </c>
-      <c r="B98" s="25"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="26" t="s">
+      <c r="D98" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="26"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="28"/>
+      <c r="P98" s="28"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4107,29 +4107,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="25">
+      <c r="A99" s="30">
         <v>98</v>
       </c>
-      <c r="B99" s="25"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4144,52 +4144,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="25">
+      <c r="A100" s="30">
         <v>99</v>
       </c>
-      <c r="B100" s="25"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
+      <c r="A101" s="30">
         <v>100</v>
       </c>
-      <c r="B101" s="25"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="26"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4204,29 +4204,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="25">
+      <c r="A102" s="30">
         <v>101</v>
       </c>
-      <c r="B102" s="25"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="28"/>
+      <c r="P102" s="28"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4241,52 +4241,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="25">
+      <c r="A103" s="30">
         <v>102</v>
       </c>
-      <c r="B103" s="25"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="28"/>
+      <c r="O103" s="28"/>
+      <c r="P103" s="28"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="25">
+      <c r="A104" s="30">
         <v>103</v>
       </c>
-      <c r="B104" s="25"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4301,29 +4301,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="25">
+      <c r="A105" s="30">
         <v>104</v>
       </c>
-      <c r="B105" s="25"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="28"/>
+      <c r="P105" s="28"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4338,52 +4338,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="25">
+      <c r="A106" s="30">
         <v>105</v>
       </c>
-      <c r="B106" s="25"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="26"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="25">
+      <c r="A107" s="30">
         <v>106</v>
       </c>
-      <c r="B107" s="25"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4398,77 +4398,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="25">
+      <c r="A108" s="30">
         <v>107</v>
       </c>
-      <c r="B108" s="25"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="27" t="s">
+      <c r="D109" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="27"/>
-      <c r="U109" s="27"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="25">
+      <c r="A110" s="30">
         <v>108</v>
       </c>
-      <c r="B110" s="25"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="28"/>
+      <c r="P110" s="28"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4483,52 +4483,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="25">
+      <c r="A111" s="30">
         <v>109</v>
       </c>
-      <c r="B111" s="25"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="26"/>
-      <c r="M111" s="26"/>
-      <c r="N111" s="26"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="28"/>
+      <c r="O111" s="28"/>
+      <c r="P111" s="28"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="25">
+      <c r="A112" s="30">
         <v>110</v>
       </c>
-      <c r="B112" s="25"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
-      <c r="L112" s="26"/>
-      <c r="M112" s="26"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="26"/>
-      <c r="P112" s="26"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="28"/>
+      <c r="O112" s="28"/>
+      <c r="P112" s="28"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4543,52 +4543,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="25">
+      <c r="A113" s="30">
         <v>111</v>
       </c>
-      <c r="B113" s="25"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="26"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="26"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="28"/>
+      <c r="O113" s="28"/>
+      <c r="P113" s="28"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="25">
+      <c r="A114" s="30">
         <v>112</v>
       </c>
-      <c r="B114" s="25"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
-      <c r="L114" s="26"/>
-      <c r="M114" s="26"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="28"/>
+      <c r="O114" s="28"/>
+      <c r="P114" s="28"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4603,29 +4603,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="25">
+      <c r="A115" s="30">
         <v>113</v>
       </c>
-      <c r="B115" s="25"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="26"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="28"/>
+      <c r="O115" s="28"/>
+      <c r="P115" s="28"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4640,29 +4640,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="25">
+      <c r="A116" s="30">
         <v>114</v>
       </c>
-      <c r="B116" s="25"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="26"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="26"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
+      <c r="O116" s="28"/>
+      <c r="P116" s="28"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4677,52 +4677,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="25">
+      <c r="A117" s="30">
         <v>115</v>
       </c>
-      <c r="B117" s="25"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="26"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
+      <c r="O117" s="28"/>
+      <c r="P117" s="28"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="25">
+      <c r="A118" s="30">
         <v>116</v>
       </c>
-      <c r="B118" s="25"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="26"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="28"/>
+      <c r="O118" s="28"/>
+      <c r="P118" s="28"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4737,59 +4737,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="25">
+      <c r="A119" s="30">
         <v>117</v>
       </c>
-      <c r="B119" s="25"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="27"/>
-      <c r="N119" s="27"/>
-      <c r="O119" s="27"/>
-      <c r="P119" s="27"/>
-      <c r="Q119" s="27"/>
-      <c r="R119" s="27"/>
-      <c r="S119" s="27"/>
-      <c r="T119" s="27"/>
-      <c r="U119" s="27"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="25"/>
+      <c r="T119" s="25"/>
+      <c r="U119" s="25"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="25">
+      <c r="A120" s="30">
         <v>118</v>
       </c>
-      <c r="B120" s="25"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
-      <c r="M120" s="26"/>
-      <c r="N120" s="26"/>
-      <c r="O120" s="26"/>
-      <c r="P120" s="26"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+      <c r="O120" s="28"/>
+      <c r="P120" s="28"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4804,29 +4804,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="25">
+      <c r="A121" s="30">
         <v>119</v>
       </c>
-      <c r="B121" s="25"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="26"/>
-      <c r="K121" s="26"/>
-      <c r="L121" s="26"/>
-      <c r="M121" s="26"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="26"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="28"/>
+      <c r="O121" s="28"/>
+      <c r="P121" s="28"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4841,52 +4841,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="25">
+      <c r="A122" s="30">
         <v>120</v>
       </c>
-      <c r="B122" s="25"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="26"/>
-      <c r="L122" s="26"/>
-      <c r="M122" s="26"/>
-      <c r="N122" s="26"/>
-      <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="28"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="28"/>
+      <c r="O122" s="28"/>
+      <c r="P122" s="28"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="25">
+      <c r="A123" s="30">
         <v>121</v>
       </c>
-      <c r="B123" s="25"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="26"/>
-      <c r="L123" s="26"/>
-      <c r="M123" s="26"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="26"/>
-      <c r="P123" s="26"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="28"/>
+      <c r="M123" s="28"/>
+      <c r="N123" s="28"/>
+      <c r="O123" s="28"/>
+      <c r="P123" s="28"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -4900,1687 +4900,2061 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A124" s="25">
+    <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="30">
         <v>122</v>
       </c>
-      <c r="B124" s="25"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="26"/>
-      <c r="L124" s="26"/>
-      <c r="M124" s="26"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="26"/>
-      <c r="P124" s="26"/>
+      <c r="D124" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="25"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="25"/>
+      <c r="T124" s="25"/>
+      <c r="U124" s="25"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="25">
+      <c r="A125" s="30">
         <v>123</v>
       </c>
-      <c r="B125" s="25"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
-      <c r="L125" s="26"/>
-      <c r="M125" s="26"/>
-      <c r="N125" s="26"/>
-      <c r="O125" s="26"/>
-      <c r="P125" s="26"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="28"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="28"/>
+      <c r="O125" s="28"/>
+      <c r="P125" s="28"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="25">
+      <c r="A126" s="30">
         <v>124</v>
       </c>
-      <c r="B126" s="25"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
-      <c r="P126" s="26"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
+      <c r="O126" s="28"/>
+      <c r="P126" s="28"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="25">
+      <c r="A127" s="30">
         <v>125</v>
       </c>
-      <c r="B127" s="25"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="26"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="26"/>
-      <c r="P127" s="26"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="28"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="28"/>
+      <c r="O127" s="28"/>
+      <c r="P127" s="28"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="25">
+      <c r="A128" s="30">
         <v>126</v>
       </c>
-      <c r="B128" s="25"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="26"/>
-      <c r="P128" s="26"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="28"/>
+      <c r="M128" s="28"/>
+      <c r="N128" s="28"/>
+      <c r="O128" s="28"/>
+      <c r="P128" s="28"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="25">
+      <c r="A129" s="30">
         <v>127</v>
       </c>
-      <c r="B129" s="25"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="26"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="26"/>
-      <c r="P129" s="26"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="28"/>
+      <c r="O129" s="28"/>
+      <c r="P129" s="28"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="25">
+      <c r="A130" s="30">
         <v>128</v>
       </c>
-      <c r="B130" s="25"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="26"/>
-      <c r="K130" s="26"/>
-      <c r="L130" s="26"/>
-      <c r="M130" s="26"/>
-      <c r="N130" s="26"/>
-      <c r="O130" s="26"/>
-      <c r="P130" s="26"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="28"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="28"/>
+      <c r="O130" s="28"/>
+      <c r="P130" s="28"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" s="25">
+      <c r="A131" s="30">
         <v>129</v>
       </c>
-      <c r="B131" s="25"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="26"/>
-      <c r="P131" s="26"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="28"/>
+      <c r="O131" s="28"/>
+      <c r="P131" s="28"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132" s="25">
+      <c r="A132" s="30">
         <v>130</v>
       </c>
-      <c r="B132" s="25"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="8" t="str">
         <f t="shared" ref="C132:C195" si="2">IF(S132="", "",IF(S132&lt;=50%, "!!!", IF(S132&lt;=75%,"!!", IF(S132&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="26"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="26"/>
-      <c r="P132" s="26"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="28"/>
+      <c r="M132" s="28"/>
+      <c r="N132" s="28"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="28"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A133" s="25">
+      <c r="A133" s="30">
         <v>131</v>
       </c>
-      <c r="B133" s="25"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="26"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="26"/>
-      <c r="P133" s="26"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="28"/>
+      <c r="N133" s="28"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="28"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="25">
+      <c r="A134" s="30">
         <v>132</v>
       </c>
-      <c r="B134" s="25"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="26"/>
-      <c r="L134" s="26"/>
-      <c r="M134" s="26"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="26"/>
-      <c r="P134" s="26"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="28"/>
+      <c r="M134" s="28"/>
+      <c r="N134" s="28"/>
+      <c r="O134" s="28"/>
+      <c r="P134" s="28"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A135" s="25">
+      <c r="A135" s="30">
         <v>133</v>
       </c>
-      <c r="B135" s="25"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="26"/>
-      <c r="L135" s="26"/>
-      <c r="M135" s="26"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="26"/>
-      <c r="P135" s="26"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="28"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="28"/>
+      <c r="P135" s="28"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="25">
+      <c r="A136" s="30">
         <v>134</v>
       </c>
-      <c r="B136" s="25"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="26"/>
-      <c r="L136" s="26"/>
-      <c r="M136" s="26"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="26"/>
-      <c r="P136" s="26"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="28"/>
+      <c r="M136" s="28"/>
+      <c r="N136" s="28"/>
+      <c r="O136" s="28"/>
+      <c r="P136" s="28"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" s="25">
+      <c r="A137" s="30">
         <v>135</v>
       </c>
-      <c r="B137" s="25"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26"/>
-      <c r="K137" s="26"/>
-      <c r="L137" s="26"/>
-      <c r="M137" s="26"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="26"/>
-      <c r="P137" s="26"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="28"/>
+      <c r="M137" s="28"/>
+      <c r="N137" s="28"/>
+      <c r="O137" s="28"/>
+      <c r="P137" s="28"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="25">
+      <c r="A138" s="30">
         <v>136</v>
       </c>
-      <c r="B138" s="25"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="26"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="26"/>
-      <c r="P138" s="26"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="28"/>
+      <c r="M138" s="28"/>
+      <c r="N138" s="28"/>
+      <c r="O138" s="28"/>
+      <c r="P138" s="28"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="25">
+      <c r="A139" s="30">
         <v>137</v>
       </c>
-      <c r="B139" s="25"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26"/>
-      <c r="K139" s="26"/>
-      <c r="L139" s="26"/>
-      <c r="M139" s="26"/>
-      <c r="N139" s="26"/>
-      <c r="O139" s="26"/>
-      <c r="P139" s="26"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="28"/>
+      <c r="M139" s="28"/>
+      <c r="N139" s="28"/>
+      <c r="O139" s="28"/>
+      <c r="P139" s="28"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="25">
+      <c r="A140" s="30">
         <v>138</v>
       </c>
-      <c r="B140" s="25"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="26"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="26"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="26"/>
-      <c r="P140" s="26"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="28"/>
+      <c r="O140" s="28"/>
+      <c r="P140" s="28"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="25">
+      <c r="A141" s="30">
         <v>139</v>
       </c>
-      <c r="B141" s="25"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="26"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="26"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="26"/>
-      <c r="P141" s="26"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="28"/>
+      <c r="O141" s="28"/>
+      <c r="P141" s="28"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="25">
+      <c r="A142" s="30">
         <v>140</v>
       </c>
-      <c r="B142" s="25"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="26"/>
-      <c r="K142" s="26"/>
-      <c r="L142" s="26"/>
-      <c r="M142" s="26"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="26"/>
-      <c r="P142" s="26"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="28"/>
+      <c r="M142" s="28"/>
+      <c r="N142" s="28"/>
+      <c r="O142" s="28"/>
+      <c r="P142" s="28"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="25">
+      <c r="A143" s="30">
         <v>141</v>
       </c>
-      <c r="B143" s="25"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="26"/>
-      <c r="L143" s="26"/>
-      <c r="M143" s="26"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="26"/>
-      <c r="P143" s="26"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="28"/>
+      <c r="M143" s="28"/>
+      <c r="N143" s="28"/>
+      <c r="O143" s="28"/>
+      <c r="P143" s="28"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144" s="25">
+      <c r="A144" s="30">
         <v>142</v>
       </c>
-      <c r="B144" s="25"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="26"/>
-      <c r="L144" s="26"/>
-      <c r="M144" s="26"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="26"/>
-      <c r="P144" s="26"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="28"/>
+      <c r="M144" s="28"/>
+      <c r="N144" s="28"/>
+      <c r="O144" s="28"/>
+      <c r="P144" s="28"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="25">
+      <c r="A145" s="30">
         <v>143</v>
       </c>
-      <c r="B145" s="25"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="26"/>
-      <c r="L145" s="26"/>
-      <c r="M145" s="26"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="26"/>
-      <c r="P145" s="26"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="28"/>
+      <c r="M145" s="28"/>
+      <c r="N145" s="28"/>
+      <c r="O145" s="28"/>
+      <c r="P145" s="28"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="25">
+      <c r="A146" s="30">
         <v>144</v>
       </c>
-      <c r="B146" s="25"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="26"/>
-      <c r="K146" s="26"/>
-      <c r="L146" s="26"/>
-      <c r="M146" s="26"/>
-      <c r="N146" s="26"/>
-      <c r="O146" s="26"/>
-      <c r="P146" s="26"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="28"/>
+      <c r="M146" s="28"/>
+      <c r="N146" s="28"/>
+      <c r="O146" s="28"/>
+      <c r="P146" s="28"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="25">
+      <c r="A147" s="30">
         <v>145</v>
       </c>
-      <c r="B147" s="25"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="26"/>
-      <c r="J147" s="26"/>
-      <c r="K147" s="26"/>
-      <c r="L147" s="26"/>
-      <c r="M147" s="26"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="26"/>
-      <c r="P147" s="26"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="28"/>
+      <c r="M147" s="28"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="28"/>
+      <c r="P147" s="28"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="25">
+      <c r="A148" s="30">
         <v>146</v>
       </c>
-      <c r="B148" s="25"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="26"/>
-      <c r="K148" s="26"/>
-      <c r="L148" s="26"/>
-      <c r="M148" s="26"/>
-      <c r="N148" s="26"/>
-      <c r="O148" s="26"/>
-      <c r="P148" s="26"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="28"/>
+      <c r="M148" s="28"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="28"/>
+      <c r="P148" s="28"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="25">
+      <c r="A149" s="30">
         <v>147</v>
       </c>
-      <c r="B149" s="25"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="26"/>
-      <c r="K149" s="26"/>
-      <c r="L149" s="26"/>
-      <c r="M149" s="26"/>
-      <c r="N149" s="26"/>
-      <c r="O149" s="26"/>
-      <c r="P149" s="26"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="28"/>
+      <c r="M149" s="28"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="28"/>
+      <c r="P149" s="28"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="25">
+      <c r="A150" s="30">
         <v>148</v>
       </c>
-      <c r="B150" s="25"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="26"/>
-      <c r="K150" s="26"/>
-      <c r="L150" s="26"/>
-      <c r="M150" s="26"/>
-      <c r="N150" s="26"/>
-      <c r="O150" s="26"/>
-      <c r="P150" s="26"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="28"/>
+      <c r="M150" s="28"/>
+      <c r="N150" s="28"/>
+      <c r="O150" s="28"/>
+      <c r="P150" s="28"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="25">
+      <c r="A151" s="30">
         <v>149</v>
       </c>
-      <c r="B151" s="25"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="26"/>
-      <c r="K151" s="26"/>
-      <c r="L151" s="26"/>
-      <c r="M151" s="26"/>
-      <c r="N151" s="26"/>
-      <c r="O151" s="26"/>
-      <c r="P151" s="26"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="28"/>
+      <c r="M151" s="28"/>
+      <c r="N151" s="28"/>
+      <c r="O151" s="28"/>
+      <c r="P151" s="28"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="25">
+      <c r="A152" s="30">
         <v>150</v>
       </c>
-      <c r="B152" s="25"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="26"/>
-      <c r="K152" s="26"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="26"/>
-      <c r="N152" s="26"/>
-      <c r="O152" s="26"/>
-      <c r="P152" s="26"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="28"/>
+      <c r="P152" s="28"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="25">
+      <c r="A153" s="30">
         <v>151</v>
       </c>
-      <c r="B153" s="25"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="26"/>
-      <c r="K153" s="26"/>
-      <c r="L153" s="26"/>
-      <c r="M153" s="26"/>
-      <c r="N153" s="26"/>
-      <c r="O153" s="26"/>
-      <c r="P153" s="26"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="28"/>
+      <c r="P153" s="28"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="25">
+      <c r="A154" s="30">
         <v>152</v>
       </c>
-      <c r="B154" s="25"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="26"/>
-      <c r="K154" s="26"/>
-      <c r="L154" s="26"/>
-      <c r="M154" s="26"/>
-      <c r="N154" s="26"/>
-      <c r="O154" s="26"/>
-      <c r="P154" s="26"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="28"/>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="28"/>
+      <c r="P154" s="28"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="25">
+      <c r="A155" s="30">
         <v>153</v>
       </c>
-      <c r="B155" s="25"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="26"/>
-      <c r="K155" s="26"/>
-      <c r="L155" s="26"/>
-      <c r="M155" s="26"/>
-      <c r="N155" s="26"/>
-      <c r="O155" s="26"/>
-      <c r="P155" s="26"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="28"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="28"/>
+      <c r="P155" s="28"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="25">
+      <c r="A156" s="30">
         <v>154</v>
       </c>
-      <c r="B156" s="25"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="26"/>
-      <c r="K156" s="26"/>
-      <c r="L156" s="26"/>
-      <c r="M156" s="26"/>
-      <c r="N156" s="26"/>
-      <c r="O156" s="26"/>
-      <c r="P156" s="26"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="28"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="28"/>
+      <c r="P156" s="28"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="25">
+      <c r="A157" s="30">
         <v>155</v>
       </c>
-      <c r="B157" s="25"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="26"/>
-      <c r="L157" s="26"/>
-      <c r="M157" s="26"/>
-      <c r="N157" s="26"/>
-      <c r="O157" s="26"/>
-      <c r="P157" s="26"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="28"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="28"/>
+      <c r="P157" s="28"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="25">
+      <c r="A158" s="30">
         <v>156</v>
       </c>
-      <c r="B158" s="25"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="26"/>
-      <c r="K158" s="26"/>
-      <c r="L158" s="26"/>
-      <c r="M158" s="26"/>
-      <c r="N158" s="26"/>
-      <c r="O158" s="26"/>
-      <c r="P158" s="26"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="28"/>
+      <c r="P158" s="28"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="25">
+      <c r="A159" s="30">
         <v>157</v>
       </c>
-      <c r="B159" s="25"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="26"/>
-      <c r="J159" s="26"/>
-      <c r="K159" s="26"/>
-      <c r="L159" s="26"/>
-      <c r="M159" s="26"/>
-      <c r="N159" s="26"/>
-      <c r="O159" s="26"/>
-      <c r="P159" s="26"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="28"/>
+      <c r="I159" s="28"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="28"/>
+      <c r="M159" s="28"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="28"/>
+      <c r="P159" s="28"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="25">
+      <c r="A160" s="30">
         <v>158</v>
       </c>
-      <c r="B160" s="25"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
-      <c r="I160" s="26"/>
-      <c r="J160" s="26"/>
-      <c r="K160" s="26"/>
-      <c r="L160" s="26"/>
-      <c r="M160" s="26"/>
-      <c r="N160" s="26"/>
-      <c r="O160" s="26"/>
-      <c r="P160" s="26"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="28"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="28"/>
+      <c r="P160" s="28"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="25">
+      <c r="A161" s="30">
         <v>159</v>
       </c>
-      <c r="B161" s="25"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="26"/>
-      <c r="G161" s="26"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="26"/>
-      <c r="J161" s="26"/>
-      <c r="K161" s="26"/>
-      <c r="L161" s="26"/>
-      <c r="M161" s="26"/>
-      <c r="N161" s="26"/>
-      <c r="O161" s="26"/>
-      <c r="P161" s="26"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="28"/>
+      <c r="P161" s="28"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162" s="25">
+      <c r="A162" s="30">
         <v>160</v>
       </c>
-      <c r="B162" s="25"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="26"/>
-      <c r="G162" s="26"/>
-      <c r="H162" s="26"/>
-      <c r="I162" s="26"/>
-      <c r="J162" s="26"/>
-      <c r="K162" s="26"/>
-      <c r="L162" s="26"/>
-      <c r="M162" s="26"/>
-      <c r="N162" s="26"/>
-      <c r="O162" s="26"/>
-      <c r="P162" s="26"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="28"/>
+      <c r="P162" s="28"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="25">
+      <c r="A163" s="30">
         <v>161</v>
       </c>
-      <c r="B163" s="25"/>
+      <c r="B163" s="30"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="26"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="26"/>
-      <c r="L163" s="26"/>
-      <c r="M163" s="26"/>
-      <c r="N163" s="26"/>
-      <c r="O163" s="26"/>
-      <c r="P163" s="26"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="28"/>
+      <c r="N163" s="28"/>
+      <c r="O163" s="28"/>
+      <c r="P163" s="28"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="25">
+      <c r="A164" s="30">
         <v>162</v>
       </c>
-      <c r="B164" s="25"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="26"/>
-      <c r="L164" s="26"/>
-      <c r="M164" s="26"/>
-      <c r="N164" s="26"/>
-      <c r="O164" s="26"/>
-      <c r="P164" s="26"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28"/>
+      <c r="I164" s="28"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="28"/>
+      <c r="L164" s="28"/>
+      <c r="M164" s="28"/>
+      <c r="N164" s="28"/>
+      <c r="O164" s="28"/>
+      <c r="P164" s="28"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="25">
+      <c r="A165" s="30">
         <v>163</v>
       </c>
-      <c r="B165" s="25"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="26"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="26"/>
-      <c r="L165" s="26"/>
-      <c r="M165" s="26"/>
-      <c r="N165" s="26"/>
-      <c r="O165" s="26"/>
-      <c r="P165" s="26"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="28"/>
+      <c r="I165" s="28"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="28"/>
+      <c r="M165" s="28"/>
+      <c r="N165" s="28"/>
+      <c r="O165" s="28"/>
+      <c r="P165" s="28"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="25">
+      <c r="A166" s="30">
         <v>164</v>
       </c>
-      <c r="B166" s="25"/>
+      <c r="B166" s="30"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="26"/>
-      <c r="J166" s="26"/>
-      <c r="K166" s="26"/>
-      <c r="L166" s="26"/>
-      <c r="M166" s="26"/>
-      <c r="N166" s="26"/>
-      <c r="O166" s="26"/>
-      <c r="P166" s="26"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
+      <c r="H166" s="28"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="28"/>
+      <c r="M166" s="28"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="28"/>
+      <c r="P166" s="28"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="25">
+      <c r="A167" s="30">
         <v>165</v>
       </c>
-      <c r="B167" s="25"/>
+      <c r="B167" s="30"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="26"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="26"/>
-      <c r="L167" s="26"/>
-      <c r="M167" s="26"/>
-      <c r="N167" s="26"/>
-      <c r="O167" s="26"/>
-      <c r="P167" s="26"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="28"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="28"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="28"/>
+      <c r="P167" s="28"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="25">
+      <c r="A168" s="30">
         <v>166</v>
       </c>
-      <c r="B168" s="25"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="26"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="26"/>
-      <c r="L168" s="26"/>
-      <c r="M168" s="26"/>
-      <c r="N168" s="26"/>
-      <c r="O168" s="26"/>
-      <c r="P168" s="26"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="28"/>
+      <c r="M168" s="28"/>
+      <c r="N168" s="28"/>
+      <c r="O168" s="28"/>
+      <c r="P168" s="28"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="25">
+      <c r="A169" s="30">
         <v>167</v>
       </c>
-      <c r="B169" s="25"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="26"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="26"/>
-      <c r="J169" s="26"/>
-      <c r="K169" s="26"/>
-      <c r="L169" s="26"/>
-      <c r="M169" s="26"/>
-      <c r="N169" s="26"/>
-      <c r="O169" s="26"/>
-      <c r="P169" s="26"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="28"/>
+      <c r="M169" s="28"/>
+      <c r="N169" s="28"/>
+      <c r="O169" s="28"/>
+      <c r="P169" s="28"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="25">
+      <c r="A170" s="30">
         <v>168</v>
       </c>
-      <c r="B170" s="25"/>
+      <c r="B170" s="30"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="26"/>
-      <c r="J170" s="26"/>
-      <c r="K170" s="26"/>
-      <c r="L170" s="26"/>
-      <c r="M170" s="26"/>
-      <c r="N170" s="26"/>
-      <c r="O170" s="26"/>
-      <c r="P170" s="26"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="28"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="28"/>
+      <c r="L170" s="28"/>
+      <c r="M170" s="28"/>
+      <c r="N170" s="28"/>
+      <c r="O170" s="28"/>
+      <c r="P170" s="28"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A171" s="25">
+      <c r="A171" s="30">
         <v>169</v>
       </c>
-      <c r="B171" s="25"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="26"/>
-      <c r="K171" s="26"/>
-      <c r="L171" s="26"/>
-      <c r="M171" s="26"/>
-      <c r="N171" s="26"/>
-      <c r="O171" s="26"/>
-      <c r="P171" s="26"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="28"/>
+      <c r="M171" s="28"/>
+      <c r="N171" s="28"/>
+      <c r="O171" s="28"/>
+      <c r="P171" s="28"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="25">
+      <c r="A172" s="30">
         <v>170</v>
       </c>
-      <c r="B172" s="25"/>
+      <c r="B172" s="30"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="26"/>
-      <c r="K172" s="26"/>
-      <c r="L172" s="26"/>
-      <c r="M172" s="26"/>
-      <c r="N172" s="26"/>
-      <c r="O172" s="26"/>
-      <c r="P172" s="26"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="28"/>
+      <c r="M172" s="28"/>
+      <c r="N172" s="28"/>
+      <c r="O172" s="28"/>
+      <c r="P172" s="28"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A173" s="25">
+      <c r="A173" s="30">
         <v>171</v>
       </c>
-      <c r="B173" s="25"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="26"/>
-      <c r="J173" s="26"/>
-      <c r="K173" s="26"/>
-      <c r="L173" s="26"/>
-      <c r="M173" s="26"/>
-      <c r="N173" s="26"/>
-      <c r="O173" s="26"/>
-      <c r="P173" s="26"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="28"/>
+      <c r="L173" s="28"/>
+      <c r="M173" s="28"/>
+      <c r="N173" s="28"/>
+      <c r="O173" s="28"/>
+      <c r="P173" s="28"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="25">
+      <c r="A174" s="30">
         <v>172</v>
       </c>
-      <c r="B174" s="25"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="26"/>
-      <c r="K174" s="26"/>
-      <c r="L174" s="26"/>
-      <c r="M174" s="26"/>
-      <c r="N174" s="26"/>
-      <c r="O174" s="26"/>
-      <c r="P174" s="26"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="28"/>
+      <c r="M174" s="28"/>
+      <c r="N174" s="28"/>
+      <c r="O174" s="28"/>
+      <c r="P174" s="28"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="25">
+      <c r="A175" s="30">
         <v>173</v>
       </c>
-      <c r="B175" s="25"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="26"/>
-      <c r="J175" s="26"/>
-      <c r="K175" s="26"/>
-      <c r="L175" s="26"/>
-      <c r="M175" s="26"/>
-      <c r="N175" s="26"/>
-      <c r="O175" s="26"/>
-      <c r="P175" s="26"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="28"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="28"/>
+      <c r="L175" s="28"/>
+      <c r="M175" s="28"/>
+      <c r="N175" s="28"/>
+      <c r="O175" s="28"/>
+      <c r="P175" s="28"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="25">
+      <c r="A176" s="30">
         <v>174</v>
       </c>
-      <c r="B176" s="25"/>
+      <c r="B176" s="30"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="26"/>
-      <c r="K176" s="26"/>
-      <c r="L176" s="26"/>
-      <c r="M176" s="26"/>
-      <c r="N176" s="26"/>
-      <c r="O176" s="26"/>
-      <c r="P176" s="26"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="28"/>
+      <c r="L176" s="28"/>
+      <c r="M176" s="28"/>
+      <c r="N176" s="28"/>
+      <c r="O176" s="28"/>
+      <c r="P176" s="28"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="25">
+      <c r="A177" s="30">
         <v>175</v>
       </c>
-      <c r="B177" s="25"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="26"/>
-      <c r="L177" s="26"/>
-      <c r="M177" s="26"/>
-      <c r="N177" s="26"/>
-      <c r="O177" s="26"/>
-      <c r="P177" s="26"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="28"/>
+      <c r="M177" s="28"/>
+      <c r="N177" s="28"/>
+      <c r="O177" s="28"/>
+      <c r="P177" s="28"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="25">
+      <c r="A178" s="30">
         <v>176</v>
       </c>
-      <c r="B178" s="25"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="26"/>
-      <c r="L178" s="26"/>
-      <c r="M178" s="26"/>
-      <c r="N178" s="26"/>
-      <c r="O178" s="26"/>
-      <c r="P178" s="26"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="28"/>
+      <c r="M178" s="28"/>
+      <c r="N178" s="28"/>
+      <c r="O178" s="28"/>
+      <c r="P178" s="28"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="25">
+      <c r="A179" s="30">
         <v>177</v>
       </c>
-      <c r="B179" s="25"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="26"/>
-      <c r="I179" s="26"/>
-      <c r="J179" s="26"/>
-      <c r="K179" s="26"/>
-      <c r="L179" s="26"/>
-      <c r="M179" s="26"/>
-      <c r="N179" s="26"/>
-      <c r="O179" s="26"/>
-      <c r="P179" s="26"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="28"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="28"/>
+      <c r="M179" s="28"/>
+      <c r="N179" s="28"/>
+      <c r="O179" s="28"/>
+      <c r="P179" s="28"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="25">
+      <c r="A180" s="30">
         <v>178</v>
       </c>
-      <c r="B180" s="25"/>
+      <c r="B180" s="30"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="26"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="26"/>
-      <c r="L180" s="26"/>
-      <c r="M180" s="26"/>
-      <c r="N180" s="26"/>
-      <c r="O180" s="26"/>
-      <c r="P180" s="26"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="28"/>
+      <c r="I180" s="28"/>
+      <c r="J180" s="28"/>
+      <c r="K180" s="28"/>
+      <c r="L180" s="28"/>
+      <c r="M180" s="28"/>
+      <c r="N180" s="28"/>
+      <c r="O180" s="28"/>
+      <c r="P180" s="28"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="25">
+      <c r="A181" s="30">
         <v>179</v>
       </c>
-      <c r="B181" s="25"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="26"/>
-      <c r="H181" s="26"/>
-      <c r="I181" s="26"/>
-      <c r="J181" s="26"/>
-      <c r="K181" s="26"/>
-      <c r="L181" s="26"/>
-      <c r="M181" s="26"/>
-      <c r="N181" s="26"/>
-      <c r="O181" s="26"/>
-      <c r="P181" s="26"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="28"/>
+      <c r="L181" s="28"/>
+      <c r="M181" s="28"/>
+      <c r="N181" s="28"/>
+      <c r="O181" s="28"/>
+      <c r="P181" s="28"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="25">
+      <c r="A182" s="30">
         <v>180</v>
       </c>
-      <c r="B182" s="25"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="26"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="26"/>
-      <c r="J182" s="26"/>
-      <c r="K182" s="26"/>
-      <c r="L182" s="26"/>
-      <c r="M182" s="26"/>
-      <c r="N182" s="26"/>
-      <c r="O182" s="26"/>
-      <c r="P182" s="26"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="28"/>
+      <c r="M182" s="28"/>
+      <c r="N182" s="28"/>
+      <c r="O182" s="28"/>
+      <c r="P182" s="28"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="25">
+      <c r="A183" s="30">
         <v>181</v>
       </c>
-      <c r="B183" s="25"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="26"/>
-      <c r="J183" s="26"/>
-      <c r="K183" s="26"/>
-      <c r="L183" s="26"/>
-      <c r="M183" s="26"/>
-      <c r="N183" s="26"/>
-      <c r="O183" s="26"/>
-      <c r="P183" s="26"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="28"/>
+      <c r="M183" s="28"/>
+      <c r="N183" s="28"/>
+      <c r="O183" s="28"/>
+      <c r="P183" s="28"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="25">
+      <c r="A184" s="30">
         <v>182</v>
       </c>
-      <c r="B184" s="25"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="26"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="26"/>
-      <c r="K184" s="26"/>
-      <c r="L184" s="26"/>
-      <c r="M184" s="26"/>
-      <c r="N184" s="26"/>
-      <c r="O184" s="26"/>
-      <c r="P184" s="26"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="28"/>
+      <c r="L184" s="28"/>
+      <c r="M184" s="28"/>
+      <c r="N184" s="28"/>
+      <c r="O184" s="28"/>
+      <c r="P184" s="28"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="25">
+      <c r="A185" s="30">
         <v>183</v>
       </c>
-      <c r="B185" s="25"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="26"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="26"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="26"/>
-      <c r="L185" s="26"/>
-      <c r="M185" s="26"/>
-      <c r="N185" s="26"/>
-      <c r="O185" s="26"/>
-      <c r="P185" s="26"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="28"/>
+      <c r="M185" s="28"/>
+      <c r="N185" s="28"/>
+      <c r="O185" s="28"/>
+      <c r="P185" s="28"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="25">
+      <c r="A186" s="30">
         <v>184</v>
       </c>
-      <c r="B186" s="25"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="26"/>
-      <c r="K186" s="26"/>
-      <c r="L186" s="26"/>
-      <c r="M186" s="26"/>
-      <c r="N186" s="26"/>
-      <c r="O186" s="26"/>
-      <c r="P186" s="26"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="28"/>
+      <c r="M186" s="28"/>
+      <c r="N186" s="28"/>
+      <c r="O186" s="28"/>
+      <c r="P186" s="28"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="25">
+      <c r="A187" s="30">
         <v>185</v>
       </c>
-      <c r="B187" s="25"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="26"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26"/>
-      <c r="J187" s="26"/>
-      <c r="K187" s="26"/>
-      <c r="L187" s="26"/>
-      <c r="M187" s="26"/>
-      <c r="N187" s="26"/>
-      <c r="O187" s="26"/>
-      <c r="P187" s="26"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="28"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="28"/>
+      <c r="M187" s="28"/>
+      <c r="N187" s="28"/>
+      <c r="O187" s="28"/>
+      <c r="P187" s="28"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="25">
+      <c r="A188" s="30">
         <v>186</v>
       </c>
-      <c r="B188" s="25"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="26"/>
-      <c r="G188" s="26"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="26"/>
-      <c r="J188" s="26"/>
-      <c r="K188" s="26"/>
-      <c r="L188" s="26"/>
-      <c r="M188" s="26"/>
-      <c r="N188" s="26"/>
-      <c r="O188" s="26"/>
-      <c r="P188" s="26"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="28"/>
+      <c r="M188" s="28"/>
+      <c r="N188" s="28"/>
+      <c r="O188" s="28"/>
+      <c r="P188" s="28"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="25">
+      <c r="A189" s="30">
         <v>187</v>
       </c>
-      <c r="B189" s="25"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-      <c r="F189" s="26"/>
-      <c r="G189" s="26"/>
-      <c r="H189" s="26"/>
-      <c r="I189" s="26"/>
-      <c r="J189" s="26"/>
-      <c r="K189" s="26"/>
-      <c r="L189" s="26"/>
-      <c r="M189" s="26"/>
-      <c r="N189" s="26"/>
-      <c r="O189" s="26"/>
-      <c r="P189" s="26"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="28"/>
+      <c r="M189" s="28"/>
+      <c r="N189" s="28"/>
+      <c r="O189" s="28"/>
+      <c r="P189" s="28"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="25">
+      <c r="A190" s="30">
         <v>188</v>
       </c>
-      <c r="B190" s="25"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-      <c r="F190" s="26"/>
-      <c r="G190" s="26"/>
-      <c r="H190" s="26"/>
-      <c r="I190" s="26"/>
-      <c r="J190" s="26"/>
-      <c r="K190" s="26"/>
-      <c r="L190" s="26"/>
-      <c r="M190" s="26"/>
-      <c r="N190" s="26"/>
-      <c r="O190" s="26"/>
-      <c r="P190" s="26"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
+      <c r="N190" s="28"/>
+      <c r="O190" s="28"/>
+      <c r="P190" s="28"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="25">
+      <c r="A191" s="30">
         <v>189</v>
       </c>
-      <c r="B191" s="25"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-      <c r="F191" s="26"/>
-      <c r="G191" s="26"/>
-      <c r="H191" s="26"/>
-      <c r="I191" s="26"/>
-      <c r="J191" s="26"/>
-      <c r="K191" s="26"/>
-      <c r="L191" s="26"/>
-      <c r="M191" s="26"/>
-      <c r="N191" s="26"/>
-      <c r="O191" s="26"/>
-      <c r="P191" s="26"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="28"/>
+      <c r="M191" s="28"/>
+      <c r="N191" s="28"/>
+      <c r="O191" s="28"/>
+      <c r="P191" s="28"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="25">
+      <c r="A192" s="30">
         <v>190</v>
       </c>
-      <c r="B192" s="25"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-      <c r="F192" s="26"/>
-      <c r="G192" s="26"/>
-      <c r="H192" s="26"/>
-      <c r="I192" s="26"/>
-      <c r="J192" s="26"/>
-      <c r="K192" s="26"/>
-      <c r="L192" s="26"/>
-      <c r="M192" s="26"/>
-      <c r="N192" s="26"/>
-      <c r="O192" s="26"/>
-      <c r="P192" s="26"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="28"/>
+      <c r="M192" s="28"/>
+      <c r="N192" s="28"/>
+      <c r="O192" s="28"/>
+      <c r="P192" s="28"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="25">
+      <c r="A193" s="30">
         <v>191</v>
       </c>
-      <c r="B193" s="25"/>
+      <c r="B193" s="30"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="26"/>
-      <c r="G193" s="26"/>
-      <c r="H193" s="26"/>
-      <c r="I193" s="26"/>
-      <c r="J193" s="26"/>
-      <c r="K193" s="26"/>
-      <c r="L193" s="26"/>
-      <c r="M193" s="26"/>
-      <c r="N193" s="26"/>
-      <c r="O193" s="26"/>
-      <c r="P193" s="26"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
+      <c r="L193" s="28"/>
+      <c r="M193" s="28"/>
+      <c r="N193" s="28"/>
+      <c r="O193" s="28"/>
+      <c r="P193" s="28"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="25">
+      <c r="A194" s="30">
         <v>192</v>
       </c>
-      <c r="B194" s="25"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
-      <c r="G194" s="26"/>
-      <c r="H194" s="26"/>
-      <c r="I194" s="26"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="26"/>
-      <c r="L194" s="26"/>
-      <c r="M194" s="26"/>
-      <c r="N194" s="26"/>
-      <c r="O194" s="26"/>
-      <c r="P194" s="26"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="28"/>
+      <c r="M194" s="28"/>
+      <c r="N194" s="28"/>
+      <c r="O194" s="28"/>
+      <c r="P194" s="28"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A195" s="25">
+      <c r="A195" s="30">
         <v>193</v>
       </c>
-      <c r="B195" s="25"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26"/>
-      <c r="G195" s="26"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="26"/>
-      <c r="K195" s="26"/>
-      <c r="L195" s="26"/>
-      <c r="M195" s="26"/>
-      <c r="N195" s="26"/>
-      <c r="O195" s="26"/>
-      <c r="P195" s="26"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="28"/>
+      <c r="N195" s="28"/>
+      <c r="O195" s="28"/>
+      <c r="P195" s="28"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="25">
+      <c r="A196" s="30">
         <v>194</v>
       </c>
-      <c r="B196" s="25"/>
+      <c r="B196" s="30"/>
       <c r="C196" s="8" t="str">
         <f t="shared" ref="C196" si="3">IF(S196="", "",IF(S196&lt;=50%, "!!!", IF(S196&lt;=75%,"!!", IF(S196&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="26"/>
-      <c r="G196" s="26"/>
-      <c r="H196" s="26"/>
-      <c r="I196" s="26"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="26"/>
-      <c r="L196" s="26"/>
-      <c r="M196" s="26"/>
-      <c r="N196" s="26"/>
-      <c r="O196" s="26"/>
-      <c r="P196" s="26"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="28"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
+      <c r="L196" s="28"/>
+      <c r="M196" s="28"/>
+      <c r="N196" s="28"/>
+      <c r="O196" s="28"/>
+      <c r="P196" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="391">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:P44"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="D192:P192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:P193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="D194:P194"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:P181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D182:P182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:P183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="D184:P184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="D185:P185"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:P172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:P173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D174:P174"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="D195:P195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="D196:P196"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:P188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:P189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:P190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="D191:P191"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="D175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:P176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:P177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:P178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="D179:P179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:P180"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:P186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="D187:P187"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:P163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:P164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:P165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:P166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:P167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D168:P168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="D169:P169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:P170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="D171:P171"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="D154:P154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:P155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:P156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="D157:P157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="D158:P158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:P159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:P160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:P161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="D162:P162"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:P145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:P146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="D147:P147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D148:P148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:P149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:P150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="D151:P151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D152:P152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:P153"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:P136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:P137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="D138:P138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="D139:P139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:P140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:P141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="D142:P142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:P143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:P144"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:P127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:P128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="D129:P129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:P130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:P131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:P132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:P133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:P134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="D135:P135"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="D118:P118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:P120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="D121:P121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="D122:P122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:P123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:P125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="D126:P126"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:P108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:P110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:P111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="D112:P112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:P113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:P114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:P115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:P116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:P117"/>
+    <mergeCell ref="D109:U109"/>
+    <mergeCell ref="D119:U119"/>
+    <mergeCell ref="D124:U124"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:P100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:P101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:P102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:P103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:P104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:P105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:P106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:P107"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:P90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:P91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:P92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:P93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:P94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:P95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:P96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:P98"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:P81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:P82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:P83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:P84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:P86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:P88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:P89"/>
+    <mergeCell ref="D85:U85"/>
+    <mergeCell ref="D97:U97"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:P72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:P76"/>
+    <mergeCell ref="D74:U74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:P78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:P79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:P80"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:P70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:P71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:P57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D61:U61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:P51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:P53"/>
+    <mergeCell ref="D45:U45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:P49"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="D13:U13"/>
     <mergeCell ref="D1:P1"/>
     <mergeCell ref="D11:P11"/>
@@ -6605,373 +6979,6 @@
     <mergeCell ref="D6:P6"/>
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:P43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:P51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:P53"/>
-    <mergeCell ref="D45:U45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:P49"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:P57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:P62"/>
-    <mergeCell ref="D61:U61"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:P78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:P79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:P80"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:P76"/>
-    <mergeCell ref="D74:U74"/>
-    <mergeCell ref="D98:P98"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:P81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:P82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:P83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:P84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:P86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:P88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:P89"/>
-    <mergeCell ref="D85:U85"/>
-    <mergeCell ref="D97:U97"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:P104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:P105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:P106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:P107"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:P90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:P91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:P92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:P93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:P94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:P95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:P96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:P99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:P100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:P101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:P102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:P103"/>
-    <mergeCell ref="D126:P126"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="D108:P108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:P110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:P111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="D112:P112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:P113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:P114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:P115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:P116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:P117"/>
-    <mergeCell ref="D109:U109"/>
-    <mergeCell ref="D119:U119"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:P132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:P133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:P134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="D135:P135"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="D118:P118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:P120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="D121:P121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="D122:P122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:P123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="D124:P124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D125:P125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:P127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:P128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="D129:P129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:P130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:P131"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:P153"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:P136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:P137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="D138:P138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="D139:P139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:P140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:P141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="D142:P142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:P143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:P144"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:P159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:P160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:P161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="D162:P162"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:P145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="D146:P146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="D147:P147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D148:P148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:P149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:P150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="D151:P151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="D152:P152"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="D154:P154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:P155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:P156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="D157:P157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="D158:P158"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:P180"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:P186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="D187:P187"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:P163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:P164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:P165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:P166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:P167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D168:P168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="D169:P169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="D170:P170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="D171:P171"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="D175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:P176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:P177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:P178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="D179:P179"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:P195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="D196:P196"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:P188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:P189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:P190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="D191:P191"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:P44"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="D192:P192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:P193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="D194:P194"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:P181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D182:P182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:P183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="D184:P184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="D185:P185"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="D172:P172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:P173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="D174:P174"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
@@ -6984,7 +6991,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A197:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C196 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD196 V119:XFD119">
+  <conditionalFormatting sqref="A1:XFD1 A197:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C196 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 D125:XFD196 V124:XFD124">
     <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
@@ -7011,13 +7018,13 @@
           <x14:formula1>
             <xm:f>'Ghi chú'!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T1048576</xm:sqref>
+          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T123 T125:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Ghi chú'!$L$4:$L$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R1048576</xm:sqref>
+          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R123 R125:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="64">
   <si>
     <t>No.</t>
   </si>
@@ -207,6 +207,15 @@
   <si>
     <t>Fix lại giao diện chức năng CallCenter</t>
   </si>
+  <si>
+    <t>Fix lại chức năng Khách hàng</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện Tạo đơn hàng trong Live Chat</t>
+  </si>
+  <si>
+    <t>Fix lại chức năng Lập đơn hàng trong CallCenter</t>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,6 +383,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,13 +404,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,7 +419,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -937,10 +980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V196"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124:U124"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130:P130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,28 +1015,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1012,29 +1055,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1049,52 +1092,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1109,52 +1152,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1169,52 +1212,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30"/>
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1229,52 +1272,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30"/>
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1289,52 +1332,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1349,59 +1392,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1416,52 +1459,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+      <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1476,52 +1519,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+      <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1536,52 +1579,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="28">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+      <c r="A20" s="28">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1596,52 +1639,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="28">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+      <c r="A22" s="28">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1656,52 +1699,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+      <c r="A23" s="28">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
         <v>23</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1716,59 +1759,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+      <c r="A25" s="28">
         <v>24</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+      <c r="A26" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1783,29 +1826,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+      <c r="A27" s="28">
         <v>26</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1823,52 +1866,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+      <c r="A28" s="28">
         <v>27</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+      <c r="A29" s="28">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -1886,52 +1929,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+      <c r="A30" s="28">
         <v>29</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+      <c r="A31" s="28">
         <v>30</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -1949,29 +1992,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="28">
         <v>31</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -1989,29 +2032,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
+      <c r="A33" s="28">
         <v>32</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2026,52 +2069,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+      <c r="A34" s="28">
         <v>33</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+      <c r="A35" s="28">
         <v>34</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2089,29 +2132,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2130,29 +2173,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
+      <c r="A37" s="28">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2167,52 +2210,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+      <c r="A38" s="28">
         <v>37</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+      <c r="A39" s="28">
         <v>38</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2227,52 +2270,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+      <c r="A40" s="28">
         <v>39</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="28">
         <v>40</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2290,29 +2333,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
+      <c r="A42" s="28">
         <v>41</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2327,29 +2370,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="30">
+      <c r="A43" s="28">
         <v>42</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2364,29 +2407,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="30">
+      <c r="A44" s="28">
         <v>43</v>
       </c>
-      <c r="B44" s="30"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2401,59 +2444,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
+      <c r="A45" s="28">
         <v>44</v>
       </c>
-      <c r="B45" s="30"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+      <c r="A46" s="28">
         <v>45</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2471,52 +2514,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+      <c r="A47" s="28">
         <v>46</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="30">
+      <c r="A48" s="28">
         <v>47</v>
       </c>
-      <c r="B48" s="30"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2531,29 +2574,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
+      <c r="A49" s="28">
         <v>48</v>
       </c>
-      <c r="B49" s="30"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2568,29 +2611,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
+      <c r="A50" s="28">
         <v>49</v>
       </c>
-      <c r="B50" s="30"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2605,29 +2648,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+      <c r="A51" s="28">
         <v>50</v>
       </c>
-      <c r="B51" s="30"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2642,52 +2685,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+      <c r="A52" s="28">
         <v>51</v>
       </c>
-      <c r="B52" s="30"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
+      <c r="A53" s="28">
         <v>52</v>
       </c>
-      <c r="B53" s="30"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2702,29 +2745,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="30">
+      <c r="A54" s="28">
         <v>53</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2739,52 +2782,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
+      <c r="A55" s="28">
         <v>54</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="30">
+      <c r="A56" s="28">
         <v>55</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2799,52 +2842,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
+      <c r="A57" s="28">
         <v>56</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="30">
+      <c r="A58" s="28">
         <v>57</v>
       </c>
-      <c r="B58" s="30"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2859,52 +2902,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="30">
+      <c r="A59" s="28">
         <v>58</v>
       </c>
-      <c r="B59" s="30"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="30">
+      <c r="A60" s="28">
         <v>59</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -2919,59 +2962,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
+      <c r="A61" s="28">
         <v>60</v>
       </c>
-      <c r="B61" s="30"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="30">
+      <c r="A62" s="28">
         <v>61</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -2986,52 +3029,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
+      <c r="A63" s="28">
         <v>62</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
+      <c r="A64" s="28">
         <v>63</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3046,52 +3089,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="30">
+      <c r="A65" s="28">
         <v>64</v>
       </c>
-      <c r="B65" s="30"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="30">
+      <c r="A66" s="28">
         <v>65</v>
       </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3106,29 +3149,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="30">
+      <c r="A67" s="28">
         <v>66</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:C131" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
+        <f t="shared" ref="C67:C133" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3143,52 +3186,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
+      <c r="A68" s="28">
         <v>67</v>
       </c>
-      <c r="B68" s="30"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="30">
+      <c r="A69" s="28">
         <v>68</v>
       </c>
-      <c r="B69" s="30"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3203,52 +3246,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="30">
+      <c r="A70" s="28">
         <v>69</v>
       </c>
-      <c r="B70" s="30"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="30">
+      <c r="A71" s="28">
         <v>70</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3263,52 +3306,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="30">
+      <c r="A72" s="28">
         <v>71</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="30">
+      <c r="A73" s="28">
         <v>72</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3323,59 +3366,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="30">
+      <c r="A74" s="28">
         <v>73</v>
       </c>
-      <c r="B74" s="30"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="25"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="30">
+      <c r="A75" s="28">
         <v>74</v>
       </c>
-      <c r="B75" s="30"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3390,29 +3433,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="30">
+      <c r="A76" s="28">
         <v>75</v>
       </c>
-      <c r="B76" s="30"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3427,52 +3470,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="30">
+      <c r="A77" s="28">
         <v>76</v>
       </c>
-      <c r="B77" s="30"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="30">
+      <c r="A78" s="28">
         <v>77</v>
       </c>
-      <c r="B78" s="30"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3487,52 +3530,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="30">
+      <c r="A79" s="28">
         <v>78</v>
       </c>
-      <c r="B79" s="30"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="30">
+      <c r="A80" s="28">
         <v>79</v>
       </c>
-      <c r="B80" s="30"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3547,52 +3590,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="30">
+      <c r="A81" s="28">
         <v>80</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="30">
+      <c r="A82" s="28">
         <v>81</v>
       </c>
-      <c r="B82" s="30"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3607,52 +3650,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="30">
+      <c r="A83" s="28">
         <v>82</v>
       </c>
-      <c r="B83" s="30"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="30">
+      <c r="A84" s="28">
         <v>83</v>
       </c>
-      <c r="B84" s="30"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3667,59 +3710,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="30">
+      <c r="A85" s="28">
         <v>84</v>
       </c>
-      <c r="B85" s="30"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="25"/>
-      <c r="U85" s="25"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="30">
+      <c r="A86" s="28">
         <v>85</v>
       </c>
-      <c r="B86" s="30"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3734,52 +3777,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="30">
+      <c r="A87" s="28">
         <v>86</v>
       </c>
-      <c r="B87" s="30"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-      <c r="P87" s="28"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="30">
+      <c r="A88" s="28">
         <v>87</v>
       </c>
-      <c r="B88" s="30"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="28" t="s">
+      <c r="D88" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3794,52 +3837,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="30">
+      <c r="A89" s="28">
         <v>88</v>
       </c>
-      <c r="B89" s="30"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27">
+      <c r="A90" s="31">
         <v>89</v>
       </c>
-      <c r="B90" s="27"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="32" t="s">
+      <c r="D90" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3856,52 +3899,52 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="30">
+      <c r="A91" s="28">
         <v>90</v>
       </c>
-      <c r="B91" s="30"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="27">
+      <c r="A92" s="31">
         <v>91</v>
       </c>
-      <c r="B92" s="27"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="32"/>
-      <c r="O92" s="32"/>
-      <c r="P92" s="32"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -3918,52 +3961,52 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="30">
+      <c r="A93" s="28">
         <v>92</v>
       </c>
-      <c r="B93" s="30"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="28"/>
-      <c r="O93" s="28"/>
-      <c r="P93" s="28"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27">
+      <c r="A94" s="31">
         <v>93</v>
       </c>
-      <c r="B94" s="27"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="31"/>
-      <c r="O94" s="31"/>
-      <c r="P94" s="31"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -3980,52 +4023,52 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="30">
+      <c r="A95" s="28">
         <v>94</v>
       </c>
-      <c r="B95" s="30"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="27"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="30">
+      <c r="A96" s="28">
         <v>95</v>
       </c>
-      <c r="B96" s="30"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4040,59 +4083,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="30">
+      <c r="A97" s="28">
         <v>96</v>
       </c>
-      <c r="B97" s="30"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
-      <c r="N97" s="25"/>
-      <c r="O97" s="25"/>
-      <c r="P97" s="25"/>
-      <c r="Q97" s="25"/>
-      <c r="R97" s="25"/>
-      <c r="S97" s="25"/>
-      <c r="T97" s="25"/>
-      <c r="U97" s="25"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="30">
+      <c r="A98" s="28">
         <v>97</v>
       </c>
-      <c r="B98" s="30"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="27"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4107,29 +4150,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="30">
+      <c r="A99" s="28">
         <v>98</v>
       </c>
-      <c r="B99" s="30"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4144,52 +4187,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="30">
+      <c r="A100" s="28">
         <v>99</v>
       </c>
-      <c r="B100" s="30"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="30">
+      <c r="A101" s="28">
         <v>100</v>
       </c>
-      <c r="B101" s="30"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="28"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="27"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4204,29 +4247,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="30">
+      <c r="A102" s="28">
         <v>101</v>
       </c>
-      <c r="B102" s="30"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4241,52 +4284,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="30">
+      <c r="A103" s="28">
         <v>102</v>
       </c>
-      <c r="B103" s="30"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="28"/>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="30">
+      <c r="A104" s="28">
         <v>103</v>
       </c>
-      <c r="B104" s="30"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="28"/>
-      <c r="O104" s="28"/>
-      <c r="P104" s="28"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4301,29 +4344,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="30">
+      <c r="A105" s="28">
         <v>104</v>
       </c>
-      <c r="B105" s="30"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="D105" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="28"/>
-      <c r="O105" s="28"/>
-      <c r="P105" s="28"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4338,52 +4381,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="30">
+      <c r="A106" s="28">
         <v>105</v>
       </c>
-      <c r="B106" s="30"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="30">
+      <c r="A107" s="28">
         <v>106</v>
       </c>
-      <c r="B107" s="30"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="28" t="s">
+      <c r="D107" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4398,77 +4441,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="30">
+      <c r="A108" s="28">
         <v>107</v>
       </c>
-      <c r="B108" s="30"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="25"/>
-      <c r="S109" s="25"/>
-      <c r="T109" s="25"/>
-      <c r="U109" s="25"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="30">
+      <c r="A110" s="28">
         <v>108</v>
       </c>
-      <c r="B110" s="30"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="28"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4483,52 +4526,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="30">
+      <c r="A111" s="28">
         <v>109</v>
       </c>
-      <c r="B111" s="30"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="28"/>
-      <c r="N111" s="28"/>
-      <c r="O111" s="28"/>
-      <c r="P111" s="28"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="27"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="30">
+      <c r="A112" s="28">
         <v>110</v>
       </c>
-      <c r="B112" s="30"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="28"/>
-      <c r="O112" s="28"/>
-      <c r="P112" s="28"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="27"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="27"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4543,52 +4586,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="30">
+      <c r="A113" s="28">
         <v>111</v>
       </c>
-      <c r="B113" s="30"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="28"/>
-      <c r="M113" s="28"/>
-      <c r="N113" s="28"/>
-      <c r="O113" s="28"/>
-      <c r="P113" s="28"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="30">
+      <c r="A114" s="28">
         <v>112</v>
       </c>
-      <c r="B114" s="30"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="28" t="s">
+      <c r="D114" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="28"/>
-      <c r="M114" s="28"/>
-      <c r="N114" s="28"/>
-      <c r="O114" s="28"/>
-      <c r="P114" s="28"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4603,29 +4646,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="30">
+      <c r="A115" s="28">
         <v>113</v>
       </c>
-      <c r="B115" s="30"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="28"/>
-      <c r="M115" s="28"/>
-      <c r="N115" s="28"/>
-      <c r="O115" s="28"/>
-      <c r="P115" s="28"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="27"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4640,29 +4683,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="30">
+      <c r="A116" s="28">
         <v>114</v>
       </c>
-      <c r="B116" s="30"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="28" t="s">
+      <c r="D116" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="28"/>
-      <c r="O116" s="28"/>
-      <c r="P116" s="28"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="27"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4677,52 +4720,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="30">
+      <c r="A117" s="28">
         <v>115</v>
       </c>
-      <c r="B117" s="30"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="28"/>
-      <c r="N117" s="28"/>
-      <c r="O117" s="28"/>
-      <c r="P117" s="28"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="30">
+      <c r="A118" s="28">
         <v>116</v>
       </c>
-      <c r="B118" s="30"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="28" t="s">
+      <c r="D118" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="28"/>
-      <c r="N118" s="28"/>
-      <c r="O118" s="28"/>
-      <c r="P118" s="28"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="27"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4737,59 +4780,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="30">
+      <c r="A119" s="28">
         <v>117</v>
       </c>
-      <c r="B119" s="30"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="25"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="25"/>
-      <c r="R119" s="25"/>
-      <c r="S119" s="25"/>
-      <c r="T119" s="25"/>
-      <c r="U119" s="25"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="29"/>
+      <c r="Q119" s="29"/>
+      <c r="R119" s="29"/>
+      <c r="S119" s="29"/>
+      <c r="T119" s="29"/>
+      <c r="U119" s="29"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="30">
+      <c r="A120" s="28">
         <v>118</v>
       </c>
-      <c r="B120" s="30"/>
+      <c r="B120" s="28"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="28" t="s">
+      <c r="D120" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="28"/>
-      <c r="N120" s="28"/>
-      <c r="O120" s="28"/>
-      <c r="P120" s="28"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="27"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4804,29 +4847,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="30">
+      <c r="A121" s="28">
         <v>119</v>
       </c>
-      <c r="B121" s="30"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="28" t="s">
+      <c r="D121" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="28"/>
-      <c r="O121" s="28"/>
-      <c r="P121" s="28"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="27"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4841,52 +4884,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="30">
+      <c r="A122" s="28">
         <v>120</v>
       </c>
-      <c r="B122" s="30"/>
+      <c r="B122" s="28"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="28"/>
-      <c r="O122" s="28"/>
-      <c r="P122" s="28"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="30">
+      <c r="A123" s="28">
         <v>121</v>
       </c>
-      <c r="B123" s="30"/>
+      <c r="B123" s="28"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="28"/>
-      <c r="M123" s="28"/>
-      <c r="N123" s="28"/>
-      <c r="O123" s="28"/>
-      <c r="P123" s="28"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -4901,1733 +4944,1855 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="30">
+      <c r="A124" s="28">
         <v>122</v>
       </c>
-      <c r="B124" s="30"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="25"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="25"/>
-      <c r="Q124" s="25"/>
-      <c r="R124" s="25"/>
-      <c r="S124" s="25"/>
-      <c r="T124" s="25"/>
-      <c r="U124" s="25"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="29"/>
+      <c r="R124" s="29"/>
+      <c r="S124" s="29"/>
+      <c r="T124" s="29"/>
+      <c r="U124" s="29"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="30">
+      <c r="A125" s="28">
         <v>123</v>
       </c>
-      <c r="B125" s="30"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="28"/>
-      <c r="M125" s="28"/>
-      <c r="N125" s="28"/>
-      <c r="O125" s="28"/>
-      <c r="P125" s="28"/>
+        <v>OK</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+      <c r="Q125" s="9">
+        <v>43486</v>
+      </c>
+      <c r="R125" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="S125" s="10">
+        <v>1</v>
+      </c>
+      <c r="T125" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="U125" s="25"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="30">
-        <v>124</v>
-      </c>
-      <c r="B126" s="30"/>
+      <c r="A126" s="28">
+        <v>123</v>
+      </c>
+      <c r="B126" s="28"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="28"/>
-      <c r="M126" s="28"/>
-      <c r="N126" s="28"/>
-      <c r="O126" s="28"/>
-      <c r="P126" s="28"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="27"/>
+      <c r="R126" s="26"/>
+      <c r="T126" s="26"/>
+      <c r="U126" s="25"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="30">
-        <v>125</v>
-      </c>
-      <c r="B127" s="30"/>
+      <c r="A127" s="28">
+        <v>124</v>
+      </c>
+      <c r="B127" s="28"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28"/>
-      <c r="M127" s="28"/>
-      <c r="N127" s="28"/>
-      <c r="O127" s="28"/>
-      <c r="P127" s="28"/>
+        <v>OK</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="27"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="27"/>
+      <c r="Q127" s="9">
+        <v>43487</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S127" s="10">
+        <v>1</v>
+      </c>
+      <c r="T127" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="30">
-        <v>126</v>
-      </c>
-      <c r="B128" s="30"/>
+      <c r="A128" s="28">
+        <v>125</v>
+      </c>
+      <c r="B128" s="28"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="28"/>
-      <c r="M128" s="28"/>
-      <c r="N128" s="28"/>
-      <c r="O128" s="28"/>
-      <c r="P128" s="28"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="30">
-        <v>127</v>
-      </c>
-      <c r="B129" s="30"/>
+        <v>OK</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="9">
+        <v>43487</v>
+      </c>
+      <c r="R128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S128" s="10">
+        <v>1</v>
+      </c>
+      <c r="T128" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="28">
+        <v>126</v>
+      </c>
+      <c r="B129" s="28"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="28"/>
-      <c r="M129" s="28"/>
-      <c r="N129" s="28"/>
-      <c r="O129" s="28"/>
-      <c r="P129" s="28"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="30">
-        <v>128</v>
-      </c>
-      <c r="B130" s="30"/>
+        <v>!</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="27"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="9">
+        <v>43487</v>
+      </c>
+      <c r="R129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S129" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T129" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="28">
+        <v>127</v>
+      </c>
+      <c r="B130" s="28"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="28"/>
-      <c r="M130" s="28"/>
-      <c r="N130" s="28"/>
-      <c r="O130" s="28"/>
-      <c r="P130" s="28"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" s="30">
-        <v>129</v>
-      </c>
-      <c r="B131" s="30"/>
+        <v>OK</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="9">
+        <v>43487</v>
+      </c>
+      <c r="R130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S130" s="10">
+        <v>1</v>
+      </c>
+      <c r="T130" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="28">
+        <v>128</v>
+      </c>
+      <c r="B131" s="28"/>
       <c r="C131" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="28"/>
-      <c r="M131" s="28"/>
-      <c r="N131" s="28"/>
-      <c r="O131" s="28"/>
-      <c r="P131" s="28"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132" s="30">
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="27"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="27"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="28">
+        <v>129</v>
+      </c>
+      <c r="B132" s="28"/>
+      <c r="C132" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="28">
         <v>130</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="8" t="str">
-        <f t="shared" ref="C132:C195" si="2">IF(S132="", "",IF(S132&lt;=50%, "!!!", IF(S132&lt;=75%,"!!", IF(S132&lt;100%, "!", "OK"))))</f>
-        <v/>
-      </c>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="28"/>
-      <c r="M132" s="28"/>
-      <c r="N132" s="28"/>
-      <c r="O132" s="28"/>
-      <c r="P132" s="28"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A133" s="30">
+      <c r="B133" s="28"/>
+      <c r="C133" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="27"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="28">
         <v>131</v>
       </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
-      <c r="M133" s="28"/>
-      <c r="N133" s="28"/>
-      <c r="O133" s="28"/>
-      <c r="P133" s="28"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="30">
+      <c r="B134" s="28"/>
+      <c r="C134" s="8" t="str">
+        <f t="shared" ref="C134:C197" si="2">IF(S134="", "",IF(S134&lt;=50%, "!!!", IF(S134&lt;=75%,"!!", IF(S134&lt;100%, "!", "OK"))))</f>
+        <v/>
+      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="28">
         <v>132</v>
       </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="28"/>
-      <c r="L134" s="28"/>
-      <c r="M134" s="28"/>
-      <c r="N134" s="28"/>
-      <c r="O134" s="28"/>
-      <c r="P134" s="28"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A135" s="30">
-        <v>133</v>
-      </c>
-      <c r="B135" s="30"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="28"/>
-      <c r="L135" s="28"/>
-      <c r="M135" s="28"/>
-      <c r="N135" s="28"/>
-      <c r="O135" s="28"/>
-      <c r="P135" s="28"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="30">
-        <v>134</v>
-      </c>
-      <c r="B136" s="30"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="28">
+        <v>133</v>
+      </c>
+      <c r="B136" s="28"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="28"/>
-      <c r="L136" s="28"/>
-      <c r="M136" s="28"/>
-      <c r="N136" s="28"/>
-      <c r="O136" s="28"/>
-      <c r="P136" s="28"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" s="30">
-        <v>135</v>
-      </c>
-      <c r="B137" s="30"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="27"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="28">
+        <v>134</v>
+      </c>
+      <c r="B137" s="28"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="28"/>
-      <c r="L137" s="28"/>
-      <c r="M137" s="28"/>
-      <c r="N137" s="28"/>
-      <c r="O137" s="28"/>
-      <c r="P137" s="28"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="30">
-        <v>136</v>
-      </c>
-      <c r="B138" s="30"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+      <c r="O137" s="27"/>
+      <c r="P137" s="27"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="28">
+        <v>135</v>
+      </c>
+      <c r="B138" s="28"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="28"/>
-      <c r="L138" s="28"/>
-      <c r="M138" s="28"/>
-      <c r="N138" s="28"/>
-      <c r="O138" s="28"/>
-      <c r="P138" s="28"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="30">
-        <v>137</v>
-      </c>
-      <c r="B139" s="30"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="28">
+        <v>136</v>
+      </c>
+      <c r="B139" s="28"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="28"/>
-      <c r="M139" s="28"/>
-      <c r="N139" s="28"/>
-      <c r="O139" s="28"/>
-      <c r="P139" s="28"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="30">
-        <v>138</v>
-      </c>
-      <c r="B140" s="30"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="27"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="27"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" s="28">
+        <v>137</v>
+      </c>
+      <c r="B140" s="28"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
-      <c r="K140" s="28"/>
-      <c r="L140" s="28"/>
-      <c r="M140" s="28"/>
-      <c r="N140" s="28"/>
-      <c r="O140" s="28"/>
-      <c r="P140" s="28"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="30">
-        <v>139</v>
-      </c>
-      <c r="B141" s="30"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="27"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="27"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="28">
+        <v>138</v>
+      </c>
+      <c r="B141" s="28"/>
       <c r="C141" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
-      <c r="M141" s="28"/>
-      <c r="N141" s="28"/>
-      <c r="O141" s="28"/>
-      <c r="P141" s="28"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="30">
-        <v>140</v>
-      </c>
-      <c r="B142" s="30"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="27"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="28">
+        <v>139</v>
+      </c>
+      <c r="B142" s="28"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="28"/>
-      <c r="L142" s="28"/>
-      <c r="M142" s="28"/>
-      <c r="N142" s="28"/>
-      <c r="O142" s="28"/>
-      <c r="P142" s="28"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="30">
-        <v>141</v>
-      </c>
-      <c r="B143" s="30"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="27"/>
+      <c r="L142" s="27"/>
+      <c r="M142" s="27"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="27"/>
+      <c r="P142" s="27"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="28">
+        <v>140</v>
+      </c>
+      <c r="B143" s="28"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="28"/>
-      <c r="M143" s="28"/>
-      <c r="N143" s="28"/>
-      <c r="O143" s="28"/>
-      <c r="P143" s="28"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144" s="30">
-        <v>142</v>
-      </c>
-      <c r="B144" s="30"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="27"/>
+      <c r="M143" s="27"/>
+      <c r="N143" s="27"/>
+      <c r="O143" s="27"/>
+      <c r="P143" s="27"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="28">
+        <v>141</v>
+      </c>
+      <c r="B144" s="28"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="28"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="28"/>
-      <c r="L144" s="28"/>
-      <c r="M144" s="28"/>
-      <c r="N144" s="28"/>
-      <c r="O144" s="28"/>
-      <c r="P144" s="28"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="27"/>
+      <c r="L144" s="27"/>
+      <c r="M144" s="27"/>
+      <c r="N144" s="27"/>
+      <c r="O144" s="27"/>
+      <c r="P144" s="27"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="30">
-        <v>143</v>
-      </c>
-      <c r="B145" s="30"/>
+      <c r="A145" s="28">
+        <v>142</v>
+      </c>
+      <c r="B145" s="28"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="28"/>
-      <c r="L145" s="28"/>
-      <c r="M145" s="28"/>
-      <c r="N145" s="28"/>
-      <c r="O145" s="28"/>
-      <c r="P145" s="28"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="27"/>
+      <c r="M145" s="27"/>
+      <c r="N145" s="27"/>
+      <c r="O145" s="27"/>
+      <c r="P145" s="27"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="30">
-        <v>144</v>
-      </c>
-      <c r="B146" s="30"/>
+      <c r="A146" s="28">
+        <v>143</v>
+      </c>
+      <c r="B146" s="28"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="28"/>
-      <c r="L146" s="28"/>
-      <c r="M146" s="28"/>
-      <c r="N146" s="28"/>
-      <c r="O146" s="28"/>
-      <c r="P146" s="28"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="27"/>
+      <c r="M146" s="27"/>
+      <c r="N146" s="27"/>
+      <c r="O146" s="27"/>
+      <c r="P146" s="27"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="30">
-        <v>145</v>
-      </c>
-      <c r="B147" s="30"/>
+      <c r="A147" s="28">
+        <v>144</v>
+      </c>
+      <c r="B147" s="28"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="28"/>
-      <c r="L147" s="28"/>
-      <c r="M147" s="28"/>
-      <c r="N147" s="28"/>
-      <c r="O147" s="28"/>
-      <c r="P147" s="28"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="27"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="27"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="30">
-        <v>146</v>
-      </c>
-      <c r="B148" s="30"/>
+      <c r="A148" s="28">
+        <v>145</v>
+      </c>
+      <c r="B148" s="28"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
-      <c r="K148" s="28"/>
-      <c r="L148" s="28"/>
-      <c r="M148" s="28"/>
-      <c r="N148" s="28"/>
-      <c r="O148" s="28"/>
-      <c r="P148" s="28"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="27"/>
+      <c r="N148" s="27"/>
+      <c r="O148" s="27"/>
+      <c r="P148" s="27"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="30">
-        <v>147</v>
-      </c>
-      <c r="B149" s="30"/>
+      <c r="A149" s="28">
+        <v>146</v>
+      </c>
+      <c r="B149" s="28"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="28"/>
-      <c r="L149" s="28"/>
-      <c r="M149" s="28"/>
-      <c r="N149" s="28"/>
-      <c r="O149" s="28"/>
-      <c r="P149" s="28"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="27"/>
+      <c r="N149" s="27"/>
+      <c r="O149" s="27"/>
+      <c r="P149" s="27"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="30">
-        <v>148</v>
-      </c>
-      <c r="B150" s="30"/>
+      <c r="A150" s="28">
+        <v>147</v>
+      </c>
+      <c r="B150" s="28"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="28"/>
-      <c r="K150" s="28"/>
-      <c r="L150" s="28"/>
-      <c r="M150" s="28"/>
-      <c r="N150" s="28"/>
-      <c r="O150" s="28"/>
-      <c r="P150" s="28"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="27"/>
+      <c r="N150" s="27"/>
+      <c r="O150" s="27"/>
+      <c r="P150" s="27"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="30">
-        <v>149</v>
-      </c>
-      <c r="B151" s="30"/>
+      <c r="A151" s="28">
+        <v>148</v>
+      </c>
+      <c r="B151" s="28"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="28"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="28"/>
-      <c r="L151" s="28"/>
-      <c r="M151" s="28"/>
-      <c r="N151" s="28"/>
-      <c r="O151" s="28"/>
-      <c r="P151" s="28"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="27"/>
+      <c r="M151" s="27"/>
+      <c r="N151" s="27"/>
+      <c r="O151" s="27"/>
+      <c r="P151" s="27"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="30">
-        <v>150</v>
-      </c>
-      <c r="B152" s="30"/>
+      <c r="A152" s="28">
+        <v>149</v>
+      </c>
+      <c r="B152" s="28"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="28"/>
-      <c r="L152" s="28"/>
-      <c r="M152" s="28"/>
-      <c r="N152" s="28"/>
-      <c r="O152" s="28"/>
-      <c r="P152" s="28"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="27"/>
+      <c r="N152" s="27"/>
+      <c r="O152" s="27"/>
+      <c r="P152" s="27"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="30">
-        <v>151</v>
-      </c>
-      <c r="B153" s="30"/>
+      <c r="A153" s="28">
+        <v>150</v>
+      </c>
+      <c r="B153" s="28"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="28"/>
-      <c r="M153" s="28"/>
-      <c r="N153" s="28"/>
-      <c r="O153" s="28"/>
-      <c r="P153" s="28"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="27"/>
+      <c r="N153" s="27"/>
+      <c r="O153" s="27"/>
+      <c r="P153" s="27"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="30">
-        <v>152</v>
-      </c>
-      <c r="B154" s="30"/>
+      <c r="A154" s="28">
+        <v>151</v>
+      </c>
+      <c r="B154" s="28"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="28"/>
-      <c r="L154" s="28"/>
-      <c r="M154" s="28"/>
-      <c r="N154" s="28"/>
-      <c r="O154" s="28"/>
-      <c r="P154" s="28"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="27"/>
+      <c r="O154" s="27"/>
+      <c r="P154" s="27"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="30">
-        <v>153</v>
-      </c>
-      <c r="B155" s="30"/>
+      <c r="A155" s="28">
+        <v>152</v>
+      </c>
+      <c r="B155" s="28"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="28"/>
-      <c r="M155" s="28"/>
-      <c r="N155" s="28"/>
-      <c r="O155" s="28"/>
-      <c r="P155" s="28"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="27"/>
+      <c r="O155" s="27"/>
+      <c r="P155" s="27"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="30">
-        <v>154</v>
-      </c>
-      <c r="B156" s="30"/>
+      <c r="A156" s="28">
+        <v>153</v>
+      </c>
+      <c r="B156" s="28"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="28"/>
-      <c r="M156" s="28"/>
-      <c r="N156" s="28"/>
-      <c r="O156" s="28"/>
-      <c r="P156" s="28"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="27"/>
+      <c r="O156" s="27"/>
+      <c r="P156" s="27"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="30">
-        <v>155</v>
-      </c>
-      <c r="B157" s="30"/>
+      <c r="A157" s="28">
+        <v>154</v>
+      </c>
+      <c r="B157" s="28"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="28"/>
-      <c r="M157" s="28"/>
-      <c r="N157" s="28"/>
-      <c r="O157" s="28"/>
-      <c r="P157" s="28"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="27"/>
+      <c r="O157" s="27"/>
+      <c r="P157" s="27"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="30">
-        <v>156</v>
-      </c>
-      <c r="B158" s="30"/>
+      <c r="A158" s="28">
+        <v>155</v>
+      </c>
+      <c r="B158" s="28"/>
       <c r="C158" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
-      <c r="K158" s="28"/>
-      <c r="L158" s="28"/>
-      <c r="M158" s="28"/>
-      <c r="N158" s="28"/>
-      <c r="O158" s="28"/>
-      <c r="P158" s="28"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="27"/>
+      <c r="O158" s="27"/>
+      <c r="P158" s="27"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="30">
-        <v>157</v>
-      </c>
-      <c r="B159" s="30"/>
+      <c r="A159" s="28">
+        <v>156</v>
+      </c>
+      <c r="B159" s="28"/>
       <c r="C159" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="28"/>
-      <c r="H159" s="28"/>
-      <c r="I159" s="28"/>
-      <c r="J159" s="28"/>
-      <c r="K159" s="28"/>
-      <c r="L159" s="28"/>
-      <c r="M159" s="28"/>
-      <c r="N159" s="28"/>
-      <c r="O159" s="28"/>
-      <c r="P159" s="28"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="27"/>
+      <c r="M159" s="27"/>
+      <c r="N159" s="27"/>
+      <c r="O159" s="27"/>
+      <c r="P159" s="27"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="30">
-        <v>158</v>
-      </c>
-      <c r="B160" s="30"/>
+      <c r="A160" s="28">
+        <v>157</v>
+      </c>
+      <c r="B160" s="28"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
-      <c r="L160" s="28"/>
-      <c r="M160" s="28"/>
-      <c r="N160" s="28"/>
-      <c r="O160" s="28"/>
-      <c r="P160" s="28"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="27"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="27"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="27"/>
+      <c r="O160" s="27"/>
+      <c r="P160" s="27"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="30">
-        <v>159</v>
-      </c>
-      <c r="B161" s="30"/>
+      <c r="A161" s="28">
+        <v>158</v>
+      </c>
+      <c r="B161" s="28"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="28"/>
-      <c r="M161" s="28"/>
-      <c r="N161" s="28"/>
-      <c r="O161" s="28"/>
-      <c r="P161" s="28"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="27"/>
+      <c r="M161" s="27"/>
+      <c r="N161" s="27"/>
+      <c r="O161" s="27"/>
+      <c r="P161" s="27"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162" s="30">
-        <v>160</v>
-      </c>
-      <c r="B162" s="30"/>
+      <c r="A162" s="28">
+        <v>159</v>
+      </c>
+      <c r="B162" s="28"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
-      <c r="M162" s="28"/>
-      <c r="N162" s="28"/>
-      <c r="O162" s="28"/>
-      <c r="P162" s="28"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="27"/>
+      <c r="M162" s="27"/>
+      <c r="N162" s="27"/>
+      <c r="O162" s="27"/>
+      <c r="P162" s="27"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="30">
-        <v>161</v>
-      </c>
-      <c r="B163" s="30"/>
+      <c r="A163" s="28">
+        <v>160</v>
+      </c>
+      <c r="B163" s="28"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
-      <c r="L163" s="28"/>
-      <c r="M163" s="28"/>
-      <c r="N163" s="28"/>
-      <c r="O163" s="28"/>
-      <c r="P163" s="28"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="27"/>
+      <c r="M163" s="27"/>
+      <c r="N163" s="27"/>
+      <c r="O163" s="27"/>
+      <c r="P163" s="27"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="30">
-        <v>162</v>
-      </c>
-      <c r="B164" s="30"/>
+      <c r="A164" s="28">
+        <v>161</v>
+      </c>
+      <c r="B164" s="28"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="28"/>
-      <c r="I164" s="28"/>
-      <c r="J164" s="28"/>
-      <c r="K164" s="28"/>
-      <c r="L164" s="28"/>
-      <c r="M164" s="28"/>
-      <c r="N164" s="28"/>
-      <c r="O164" s="28"/>
-      <c r="P164" s="28"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="27"/>
+      <c r="M164" s="27"/>
+      <c r="N164" s="27"/>
+      <c r="O164" s="27"/>
+      <c r="P164" s="27"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="30">
-        <v>163</v>
-      </c>
-      <c r="B165" s="30"/>
+      <c r="A165" s="28">
+        <v>162</v>
+      </c>
+      <c r="B165" s="28"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
-      <c r="L165" s="28"/>
-      <c r="M165" s="28"/>
-      <c r="N165" s="28"/>
-      <c r="O165" s="28"/>
-      <c r="P165" s="28"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
+      <c r="K165" s="27"/>
+      <c r="L165" s="27"/>
+      <c r="M165" s="27"/>
+      <c r="N165" s="27"/>
+      <c r="O165" s="27"/>
+      <c r="P165" s="27"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="30">
-        <v>164</v>
-      </c>
-      <c r="B166" s="30"/>
+      <c r="A166" s="28">
+        <v>163</v>
+      </c>
+      <c r="B166" s="28"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="28"/>
-      <c r="I166" s="28"/>
-      <c r="J166" s="28"/>
-      <c r="K166" s="28"/>
-      <c r="L166" s="28"/>
-      <c r="M166" s="28"/>
-      <c r="N166" s="28"/>
-      <c r="O166" s="28"/>
-      <c r="P166" s="28"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="27"/>
+      <c r="K166" s="27"/>
+      <c r="L166" s="27"/>
+      <c r="M166" s="27"/>
+      <c r="N166" s="27"/>
+      <c r="O166" s="27"/>
+      <c r="P166" s="27"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="30">
-        <v>165</v>
-      </c>
-      <c r="B167" s="30"/>
+      <c r="A167" s="28">
+        <v>164</v>
+      </c>
+      <c r="B167" s="28"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="28"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="28"/>
-      <c r="O167" s="28"/>
-      <c r="P167" s="28"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="27"/>
+      <c r="L167" s="27"/>
+      <c r="M167" s="27"/>
+      <c r="N167" s="27"/>
+      <c r="O167" s="27"/>
+      <c r="P167" s="27"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="30">
-        <v>166</v>
-      </c>
-      <c r="B168" s="30"/>
+      <c r="A168" s="28">
+        <v>165</v>
+      </c>
+      <c r="B168" s="28"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="28"/>
-      <c r="I168" s="28"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="28"/>
-      <c r="L168" s="28"/>
-      <c r="M168" s="28"/>
-      <c r="N168" s="28"/>
-      <c r="O168" s="28"/>
-      <c r="P168" s="28"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="27"/>
+      <c r="P168" s="27"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="30">
-        <v>167</v>
-      </c>
-      <c r="B169" s="30"/>
+      <c r="A169" s="28">
+        <v>166</v>
+      </c>
+      <c r="B169" s="28"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
-      <c r="L169" s="28"/>
-      <c r="M169" s="28"/>
-      <c r="N169" s="28"/>
-      <c r="O169" s="28"/>
-      <c r="P169" s="28"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="27"/>
+      <c r="L169" s="27"/>
+      <c r="M169" s="27"/>
+      <c r="N169" s="27"/>
+      <c r="O169" s="27"/>
+      <c r="P169" s="27"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="30">
-        <v>168</v>
-      </c>
-      <c r="B170" s="30"/>
+      <c r="A170" s="28">
+        <v>167</v>
+      </c>
+      <c r="B170" s="28"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
-      <c r="I170" s="28"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="28"/>
-      <c r="L170" s="28"/>
-      <c r="M170" s="28"/>
-      <c r="N170" s="28"/>
-      <c r="O170" s="28"/>
-      <c r="P170" s="28"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+      <c r="K170" s="27"/>
+      <c r="L170" s="27"/>
+      <c r="M170" s="27"/>
+      <c r="N170" s="27"/>
+      <c r="O170" s="27"/>
+      <c r="P170" s="27"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A171" s="30">
-        <v>169</v>
-      </c>
-      <c r="B171" s="30"/>
+      <c r="A171" s="28">
+        <v>168</v>
+      </c>
+      <c r="B171" s="28"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
-      <c r="L171" s="28"/>
-      <c r="M171" s="28"/>
-      <c r="N171" s="28"/>
-      <c r="O171" s="28"/>
-      <c r="P171" s="28"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="27"/>
+      <c r="M171" s="27"/>
+      <c r="N171" s="27"/>
+      <c r="O171" s="27"/>
+      <c r="P171" s="27"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="30">
-        <v>170</v>
-      </c>
-      <c r="B172" s="30"/>
+      <c r="A172" s="28">
+        <v>169</v>
+      </c>
+      <c r="B172" s="28"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="28"/>
-      <c r="L172" s="28"/>
-      <c r="M172" s="28"/>
-      <c r="N172" s="28"/>
-      <c r="O172" s="28"/>
-      <c r="P172" s="28"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="27"/>
+      <c r="K172" s="27"/>
+      <c r="L172" s="27"/>
+      <c r="M172" s="27"/>
+      <c r="N172" s="27"/>
+      <c r="O172" s="27"/>
+      <c r="P172" s="27"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A173" s="30">
-        <v>171</v>
-      </c>
-      <c r="B173" s="30"/>
+      <c r="A173" s="28">
+        <v>170</v>
+      </c>
+      <c r="B173" s="28"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="28"/>
-      <c r="I173" s="28"/>
-      <c r="J173" s="28"/>
-      <c r="K173" s="28"/>
-      <c r="L173" s="28"/>
-      <c r="M173" s="28"/>
-      <c r="N173" s="28"/>
-      <c r="O173" s="28"/>
-      <c r="P173" s="28"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="27"/>
+      <c r="M173" s="27"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="27"/>
+      <c r="P173" s="27"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="30">
-        <v>172</v>
-      </c>
-      <c r="B174" s="30"/>
+      <c r="A174" s="28">
+        <v>171</v>
+      </c>
+      <c r="B174" s="28"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="28"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="28"/>
-      <c r="K174" s="28"/>
-      <c r="L174" s="28"/>
-      <c r="M174" s="28"/>
-      <c r="N174" s="28"/>
-      <c r="O174" s="28"/>
-      <c r="P174" s="28"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+      <c r="K174" s="27"/>
+      <c r="L174" s="27"/>
+      <c r="M174" s="27"/>
+      <c r="N174" s="27"/>
+      <c r="O174" s="27"/>
+      <c r="P174" s="27"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="30">
-        <v>173</v>
-      </c>
-      <c r="B175" s="30"/>
+      <c r="A175" s="28">
+        <v>172</v>
+      </c>
+      <c r="B175" s="28"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="28"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="28"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="28"/>
-      <c r="N175" s="28"/>
-      <c r="O175" s="28"/>
-      <c r="P175" s="28"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="27"/>
+      <c r="K175" s="27"/>
+      <c r="L175" s="27"/>
+      <c r="M175" s="27"/>
+      <c r="N175" s="27"/>
+      <c r="O175" s="27"/>
+      <c r="P175" s="27"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="30">
-        <v>174</v>
-      </c>
-      <c r="B176" s="30"/>
+      <c r="A176" s="28">
+        <v>173</v>
+      </c>
+      <c r="B176" s="28"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="28"/>
-      <c r="L176" s="28"/>
-      <c r="M176" s="28"/>
-      <c r="N176" s="28"/>
-      <c r="O176" s="28"/>
-      <c r="P176" s="28"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+      <c r="K176" s="27"/>
+      <c r="L176" s="27"/>
+      <c r="M176" s="27"/>
+      <c r="N176" s="27"/>
+      <c r="O176" s="27"/>
+      <c r="P176" s="27"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="30">
-        <v>175</v>
-      </c>
-      <c r="B177" s="30"/>
+      <c r="A177" s="28">
+        <v>174</v>
+      </c>
+      <c r="B177" s="28"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="28"/>
-      <c r="L177" s="28"/>
-      <c r="M177" s="28"/>
-      <c r="N177" s="28"/>
-      <c r="O177" s="28"/>
-      <c r="P177" s="28"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="27"/>
+      <c r="P177" s="27"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="30">
-        <v>176</v>
-      </c>
-      <c r="B178" s="30"/>
+      <c r="A178" s="28">
+        <v>175</v>
+      </c>
+      <c r="B178" s="28"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
-      <c r="L178" s="28"/>
-      <c r="M178" s="28"/>
-      <c r="N178" s="28"/>
-      <c r="O178" s="28"/>
-      <c r="P178" s="28"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
+      <c r="L178" s="27"/>
+      <c r="M178" s="27"/>
+      <c r="N178" s="27"/>
+      <c r="O178" s="27"/>
+      <c r="P178" s="27"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="30">
-        <v>177</v>
-      </c>
-      <c r="B179" s="30"/>
+      <c r="A179" s="28">
+        <v>176</v>
+      </c>
+      <c r="B179" s="28"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="28"/>
-      <c r="L179" s="28"/>
-      <c r="M179" s="28"/>
-      <c r="N179" s="28"/>
-      <c r="O179" s="28"/>
-      <c r="P179" s="28"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="27"/>
+      <c r="N179" s="27"/>
+      <c r="O179" s="27"/>
+      <c r="P179" s="27"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="30">
-        <v>178</v>
-      </c>
-      <c r="B180" s="30"/>
+      <c r="A180" s="28">
+        <v>177</v>
+      </c>
+      <c r="B180" s="28"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
-      <c r="K180" s="28"/>
-      <c r="L180" s="28"/>
-      <c r="M180" s="28"/>
-      <c r="N180" s="28"/>
-      <c r="O180" s="28"/>
-      <c r="P180" s="28"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="27"/>
+      <c r="N180" s="27"/>
+      <c r="O180" s="27"/>
+      <c r="P180" s="27"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="30">
-        <v>179</v>
-      </c>
-      <c r="B181" s="30"/>
+      <c r="A181" s="28">
+        <v>178</v>
+      </c>
+      <c r="B181" s="28"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="28"/>
-      <c r="L181" s="28"/>
-      <c r="M181" s="28"/>
-      <c r="N181" s="28"/>
-      <c r="O181" s="28"/>
-      <c r="P181" s="28"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="27"/>
+      <c r="N181" s="27"/>
+      <c r="O181" s="27"/>
+      <c r="P181" s="27"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="30">
-        <v>180</v>
-      </c>
-      <c r="B182" s="30"/>
+      <c r="A182" s="28">
+        <v>179</v>
+      </c>
+      <c r="B182" s="28"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
-      <c r="K182" s="28"/>
-      <c r="L182" s="28"/>
-      <c r="M182" s="28"/>
-      <c r="N182" s="28"/>
-      <c r="O182" s="28"/>
-      <c r="P182" s="28"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="27"/>
+      <c r="N182" s="27"/>
+      <c r="O182" s="27"/>
+      <c r="P182" s="27"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="30">
-        <v>181</v>
-      </c>
-      <c r="B183" s="30"/>
+      <c r="A183" s="28">
+        <v>180</v>
+      </c>
+      <c r="B183" s="28"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="28"/>
-      <c r="K183" s="28"/>
-      <c r="L183" s="28"/>
-      <c r="M183" s="28"/>
-      <c r="N183" s="28"/>
-      <c r="O183" s="28"/>
-      <c r="P183" s="28"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+      <c r="K183" s="27"/>
+      <c r="L183" s="27"/>
+      <c r="M183" s="27"/>
+      <c r="N183" s="27"/>
+      <c r="O183" s="27"/>
+      <c r="P183" s="27"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="30">
-        <v>182</v>
-      </c>
-      <c r="B184" s="30"/>
+      <c r="A184" s="28">
+        <v>181</v>
+      </c>
+      <c r="B184" s="28"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
-      <c r="K184" s="28"/>
-      <c r="L184" s="28"/>
-      <c r="M184" s="28"/>
-      <c r="N184" s="28"/>
-      <c r="O184" s="28"/>
-      <c r="P184" s="28"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+      <c r="K184" s="27"/>
+      <c r="L184" s="27"/>
+      <c r="M184" s="27"/>
+      <c r="N184" s="27"/>
+      <c r="O184" s="27"/>
+      <c r="P184" s="27"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="30">
-        <v>183</v>
-      </c>
-      <c r="B185" s="30"/>
+      <c r="A185" s="28">
+        <v>182</v>
+      </c>
+      <c r="B185" s="28"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28"/>
-      <c r="J185" s="28"/>
-      <c r="K185" s="28"/>
-      <c r="L185" s="28"/>
-      <c r="M185" s="28"/>
-      <c r="N185" s="28"/>
-      <c r="O185" s="28"/>
-      <c r="P185" s="28"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+      <c r="K185" s="27"/>
+      <c r="L185" s="27"/>
+      <c r="M185" s="27"/>
+      <c r="N185" s="27"/>
+      <c r="O185" s="27"/>
+      <c r="P185" s="27"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="30">
-        <v>184</v>
-      </c>
-      <c r="B186" s="30"/>
+      <c r="A186" s="28">
+        <v>183</v>
+      </c>
+      <c r="B186" s="28"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
-      <c r="H186" s="28"/>
-      <c r="I186" s="28"/>
-      <c r="J186" s="28"/>
-      <c r="K186" s="28"/>
-      <c r="L186" s="28"/>
-      <c r="M186" s="28"/>
-      <c r="N186" s="28"/>
-      <c r="O186" s="28"/>
-      <c r="P186" s="28"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+      <c r="K186" s="27"/>
+      <c r="L186" s="27"/>
+      <c r="M186" s="27"/>
+      <c r="N186" s="27"/>
+      <c r="O186" s="27"/>
+      <c r="P186" s="27"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="30">
-        <v>185</v>
-      </c>
-      <c r="B187" s="30"/>
+      <c r="A187" s="28">
+        <v>184</v>
+      </c>
+      <c r="B187" s="28"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="28"/>
-      <c r="I187" s="28"/>
-      <c r="J187" s="28"/>
-      <c r="K187" s="28"/>
-      <c r="L187" s="28"/>
-      <c r="M187" s="28"/>
-      <c r="N187" s="28"/>
-      <c r="O187" s="28"/>
-      <c r="P187" s="28"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+      <c r="K187" s="27"/>
+      <c r="L187" s="27"/>
+      <c r="M187" s="27"/>
+      <c r="N187" s="27"/>
+      <c r="O187" s="27"/>
+      <c r="P187" s="27"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="30">
-        <v>186</v>
-      </c>
-      <c r="B188" s="30"/>
+      <c r="A188" s="28">
+        <v>185</v>
+      </c>
+      <c r="B188" s="28"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28"/>
-      <c r="J188" s="28"/>
-      <c r="K188" s="28"/>
-      <c r="L188" s="28"/>
-      <c r="M188" s="28"/>
-      <c r="N188" s="28"/>
-      <c r="O188" s="28"/>
-      <c r="P188" s="28"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="27"/>
+      <c r="P188" s="27"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="30">
-        <v>187</v>
-      </c>
-      <c r="B189" s="30"/>
+      <c r="A189" s="28">
+        <v>186</v>
+      </c>
+      <c r="B189" s="28"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="28"/>
-      <c r="H189" s="28"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="28"/>
-      <c r="L189" s="28"/>
-      <c r="M189" s="28"/>
-      <c r="N189" s="28"/>
-      <c r="O189" s="28"/>
-      <c r="P189" s="28"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+      <c r="K189" s="27"/>
+      <c r="L189" s="27"/>
+      <c r="M189" s="27"/>
+      <c r="N189" s="27"/>
+      <c r="O189" s="27"/>
+      <c r="P189" s="27"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="30">
-        <v>188</v>
-      </c>
-      <c r="B190" s="30"/>
+      <c r="A190" s="28">
+        <v>187</v>
+      </c>
+      <c r="B190" s="28"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="28"/>
-      <c r="L190" s="28"/>
-      <c r="M190" s="28"/>
-      <c r="N190" s="28"/>
-      <c r="O190" s="28"/>
-      <c r="P190" s="28"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+      <c r="K190" s="27"/>
+      <c r="L190" s="27"/>
+      <c r="M190" s="27"/>
+      <c r="N190" s="27"/>
+      <c r="O190" s="27"/>
+      <c r="P190" s="27"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="30">
-        <v>189</v>
-      </c>
-      <c r="B191" s="30"/>
+      <c r="A191" s="28">
+        <v>188</v>
+      </c>
+      <c r="B191" s="28"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
-      <c r="L191" s="28"/>
-      <c r="M191" s="28"/>
-      <c r="N191" s="28"/>
-      <c r="O191" s="28"/>
-      <c r="P191" s="28"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+      <c r="K191" s="27"/>
+      <c r="L191" s="27"/>
+      <c r="M191" s="27"/>
+      <c r="N191" s="27"/>
+      <c r="O191" s="27"/>
+      <c r="P191" s="27"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="30">
-        <v>190</v>
-      </c>
-      <c r="B192" s="30"/>
+      <c r="A192" s="28">
+        <v>189</v>
+      </c>
+      <c r="B192" s="28"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="28"/>
-      <c r="I192" s="28"/>
-      <c r="J192" s="28"/>
-      <c r="K192" s="28"/>
-      <c r="L192" s="28"/>
-      <c r="M192" s="28"/>
-      <c r="N192" s="28"/>
-      <c r="O192" s="28"/>
-      <c r="P192" s="28"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
+      <c r="K192" s="27"/>
+      <c r="L192" s="27"/>
+      <c r="M192" s="27"/>
+      <c r="N192" s="27"/>
+      <c r="O192" s="27"/>
+      <c r="P192" s="27"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="30">
-        <v>191</v>
-      </c>
-      <c r="B193" s="30"/>
+      <c r="A193" s="28">
+        <v>190</v>
+      </c>
+      <c r="B193" s="28"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
-      <c r="K193" s="28"/>
-      <c r="L193" s="28"/>
-      <c r="M193" s="28"/>
-      <c r="N193" s="28"/>
-      <c r="O193" s="28"/>
-      <c r="P193" s="28"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
+      <c r="K193" s="27"/>
+      <c r="L193" s="27"/>
+      <c r="M193" s="27"/>
+      <c r="N193" s="27"/>
+      <c r="O193" s="27"/>
+      <c r="P193" s="27"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="30">
-        <v>192</v>
-      </c>
-      <c r="B194" s="30"/>
+      <c r="A194" s="28">
+        <v>191</v>
+      </c>
+      <c r="B194" s="28"/>
       <c r="C194" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="28"/>
-      <c r="G194" s="28"/>
-      <c r="H194" s="28"/>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
-      <c r="K194" s="28"/>
-      <c r="L194" s="28"/>
-      <c r="M194" s="28"/>
-      <c r="N194" s="28"/>
-      <c r="O194" s="28"/>
-      <c r="P194" s="28"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+      <c r="K194" s="27"/>
+      <c r="L194" s="27"/>
+      <c r="M194" s="27"/>
+      <c r="N194" s="27"/>
+      <c r="O194" s="27"/>
+      <c r="P194" s="27"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A195" s="30">
-        <v>193</v>
-      </c>
-      <c r="B195" s="30"/>
+      <c r="A195" s="28">
+        <v>192</v>
+      </c>
+      <c r="B195" s="28"/>
       <c r="C195" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="28"/>
-      <c r="I195" s="28"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="28"/>
-      <c r="L195" s="28"/>
-      <c r="M195" s="28"/>
-      <c r="N195" s="28"/>
-      <c r="O195" s="28"/>
-      <c r="P195" s="28"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
+      <c r="K195" s="27"/>
+      <c r="L195" s="27"/>
+      <c r="M195" s="27"/>
+      <c r="N195" s="27"/>
+      <c r="O195" s="27"/>
+      <c r="P195" s="27"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="30">
+      <c r="A196" s="28">
+        <v>193</v>
+      </c>
+      <c r="B196" s="28"/>
+      <c r="C196" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="27"/>
+      <c r="K196" s="27"/>
+      <c r="L196" s="27"/>
+      <c r="M196" s="27"/>
+      <c r="N196" s="27"/>
+      <c r="O196" s="27"/>
+      <c r="P196" s="27"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A197" s="28">
         <v>194</v>
       </c>
-      <c r="B196" s="30"/>
-      <c r="C196" s="8" t="str">
-        <f t="shared" ref="C196" si="3">IF(S196="", "",IF(S196&lt;=50%, "!!!", IF(S196&lt;=75%,"!!", IF(S196&lt;100%, "!", "OK"))))</f>
-        <v/>
-      </c>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="28"/>
-      <c r="G196" s="28"/>
-      <c r="H196" s="28"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="28"/>
-      <c r="L196" s="28"/>
-      <c r="M196" s="28"/>
-      <c r="N196" s="28"/>
-      <c r="O196" s="28"/>
-      <c r="P196" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="27"/>
+      <c r="K197" s="27"/>
+      <c r="L197" s="27"/>
+      <c r="M197" s="27"/>
+      <c r="N197" s="27"/>
+      <c r="O197" s="27"/>
+      <c r="P197" s="27"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A198" s="28">
+        <v>195</v>
+      </c>
+      <c r="B198" s="28"/>
+      <c r="C198" s="8" t="str">
+        <f t="shared" ref="C198:C199" si="3">IF(S198="", "",IF(S198&lt;=50%, "!!!", IF(S198&lt;=75%,"!!", IF(S198&lt;100%, "!", "OK"))))</f>
+        <v/>
+      </c>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="27"/>
+      <c r="K198" s="27"/>
+      <c r="L198" s="27"/>
+      <c r="M198" s="27"/>
+      <c r="N198" s="27"/>
+      <c r="O198" s="27"/>
+      <c r="P198" s="27"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C199" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="391">
+  <mergeCells count="395">
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="D44:P44"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="D192:P192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:P193"/>
     <mergeCell ref="A194:B194"/>
     <mergeCell ref="D194:P194"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:P181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D182:P182"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="D195:P195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="D196:P196"/>
     <mergeCell ref="A183:B183"/>
     <mergeCell ref="D183:P183"/>
     <mergeCell ref="A184:B184"/>
     <mergeCell ref="D184:P184"/>
     <mergeCell ref="A185:B185"/>
     <mergeCell ref="D185:P185"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="D172:P172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:P173"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:P186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="D187:P187"/>
     <mergeCell ref="A174:B174"/>
     <mergeCell ref="D174:P174"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:P195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="D196:P196"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:P188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:P189"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="D175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:P176"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="D197:P197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="D198:P198"/>
     <mergeCell ref="A190:B190"/>
     <mergeCell ref="D190:P190"/>
     <mergeCell ref="A191:B191"/>
     <mergeCell ref="D191:P191"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="D175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:P176"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="D192:P192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:P193"/>
     <mergeCell ref="A177:B177"/>
     <mergeCell ref="D177:P177"/>
     <mergeCell ref="A178:B178"/>
@@ -6636,14 +6801,14 @@
     <mergeCell ref="D179:P179"/>
     <mergeCell ref="A180:B180"/>
     <mergeCell ref="D180:P180"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:P186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="D187:P187"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:P163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:P164"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:P181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D182:P182"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:P188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:P189"/>
     <mergeCell ref="A165:B165"/>
     <mergeCell ref="D165:P165"/>
     <mergeCell ref="A166:B166"/>
@@ -6658,10 +6823,10 @@
     <mergeCell ref="D170:P170"/>
     <mergeCell ref="A171:B171"/>
     <mergeCell ref="D171:P171"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="D154:P154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:P155"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:P172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:P173"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="D156:P156"/>
     <mergeCell ref="A157:B157"/>
@@ -6676,10 +6841,10 @@
     <mergeCell ref="D161:P161"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="D162:P162"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:P145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="D146:P146"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:P163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:P164"/>
     <mergeCell ref="A147:B147"/>
     <mergeCell ref="D147:P147"/>
     <mergeCell ref="A148:B148"/>
@@ -6694,10 +6859,10 @@
     <mergeCell ref="D152:P152"/>
     <mergeCell ref="A153:B153"/>
     <mergeCell ref="D153:P153"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:P136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:P137"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="D154:P154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:P155"/>
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="D138:P138"/>
     <mergeCell ref="A139:B139"/>
@@ -6712,10 +6877,10 @@
     <mergeCell ref="D143:P143"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:P144"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:P127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:P128"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:P145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:P146"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="D129:P129"/>
     <mergeCell ref="A130:B130"/>
@@ -6730,6 +6895,10 @@
     <mergeCell ref="D134:P134"/>
     <mergeCell ref="A135:B135"/>
     <mergeCell ref="D135:P135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:P136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:P137"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="D118:P118"/>
     <mergeCell ref="A119:B119"/>
@@ -6742,10 +6911,21 @@
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="D123:P123"/>
     <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D125:P125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="D126:P126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:P127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:P128"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:P107"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:P114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:P115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:P116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:P117"/>
+    <mergeCell ref="D109:U109"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="D108:P108"/>
     <mergeCell ref="A110:B110"/>
@@ -6756,15 +6936,12 @@
     <mergeCell ref="D112:P112"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="D113:P113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:P114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:P115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:P116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:P117"/>
-    <mergeCell ref="D109:U109"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:P92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:P93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:P94"/>
     <mergeCell ref="D119:U119"/>
     <mergeCell ref="D124:U124"/>
     <mergeCell ref="A99:B99"/>
@@ -6783,22 +6960,6 @@
     <mergeCell ref="D105:P105"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="D106:P106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:P107"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:P90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:P91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:P92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:P93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:P94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:P95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:P96"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="D98:P98"/>
@@ -6819,6 +6980,10 @@
     <mergeCell ref="D88:P88"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="D89:P89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:P90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:P91"/>
     <mergeCell ref="D85:U85"/>
     <mergeCell ref="D97:U97"/>
     <mergeCell ref="A72:B72"/>
@@ -6839,6 +7004,10 @@
     <mergeCell ref="D79:P79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="D80:P80"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:P95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:P96"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="D63:P63"/>
     <mergeCell ref="A64:B64"/>
@@ -6917,11 +7086,6 @@
     <mergeCell ref="D36:P36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:P37"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:P41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:P42"/>
     <mergeCell ref="A38:B38"/>
@@ -6931,6 +7095,19 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D25:U25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="A34:B34"/>
@@ -6951,10 +7128,10 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D126:P126"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:P125"/>
     <mergeCell ref="D13:U13"/>
     <mergeCell ref="D1:P1"/>
     <mergeCell ref="D11:P11"/>
@@ -6975,33 +7152,49 @@
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="D3:P3"/>
     <mergeCell ref="D4:P4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A197:XFD1048576 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 A3:C196 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 D125:XFD196 V124:XFD124">
-    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 A126:B199 D127:XFD199 C122:C199">
+    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"!!!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:P48">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"!!!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126:U126">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"!!!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:B125 V125:XFD125">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"!!!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q125:U125">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:P48">
+  <conditionalFormatting sqref="D125:P125">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="66">
   <si>
     <t>No.</t>
   </si>
@@ -216,6 +216,12 @@
   <si>
     <t>Fix lại chức năng Lập đơn hàng trong CallCenter</t>
   </si>
+  <si>
+    <t>Fix lại chức năng Lập đơn hàng trong CallCenter (Thêm trường NguonDatHang)</t>
+  </si>
+  <si>
+    <t>Fix lại giao diện chức năng CallCenter (Hiển thị SĐT người nhận)</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -982,8 +994,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:P130"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133:P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,28 +1027,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1055,29 +1067,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1092,52 +1104,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1152,52 +1164,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1212,52 +1224,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28"/>
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1272,52 +1284,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
-        <v>8</v>
-      </c>
-      <c r="B9" s="28"/>
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1332,52 +1344,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1392,59 +1404,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1459,52 +1471,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1519,52 +1531,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1579,52 +1591,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1639,52 +1651,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1699,52 +1711,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="30">
         <v>23</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1759,59 +1771,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+      <c r="A25" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="30">
         <v>25</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1826,29 +1838,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="A27" s="30">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1866,52 +1878,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="30">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -1929,52 +1941,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="30">
         <v>29</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+      <c r="A31" s="30">
         <v>30</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -1992,29 +2004,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="30">
         <v>31</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -2032,29 +2044,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="A33" s="30">
         <v>32</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2069,52 +2081,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="30">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="A35" s="30">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2132,29 +2144,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
+      <c r="A36" s="33">
         <v>35</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2173,29 +2185,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
+      <c r="A37" s="30">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2210,52 +2222,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="30">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+      <c r="A39" s="30">
         <v>38</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2270,52 +2282,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="30">
         <v>39</v>
       </c>
-      <c r="B40" s="28"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="A41" s="30">
         <v>40</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2333,29 +2345,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="30">
         <v>41</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2370,29 +2382,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+      <c r="A43" s="30">
         <v>42</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2407,29 +2419,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="A44" s="30">
         <v>43</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2444,59 +2456,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="A45" s="30">
         <v>44</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="30">
         <v>45</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2514,52 +2526,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+      <c r="A47" s="30">
         <v>46</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="A48" s="30">
         <v>47</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2574,29 +2586,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
+      <c r="A49" s="30">
         <v>48</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2611,29 +2623,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="A50" s="30">
         <v>49</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2648,29 +2660,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
+      <c r="A51" s="30">
         <v>50</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2685,52 +2697,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="A52" s="30">
         <v>51</v>
       </c>
-      <c r="B52" s="28"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
+      <c r="A53" s="30">
         <v>52</v>
       </c>
-      <c r="B53" s="28"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2745,29 +2757,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="A54" s="30">
         <v>53</v>
       </c>
-      <c r="B54" s="28"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2782,52 +2794,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
+      <c r="A55" s="30">
         <v>54</v>
       </c>
-      <c r="B55" s="28"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="A56" s="30">
         <v>55</v>
       </c>
-      <c r="B56" s="28"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2842,52 +2854,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="A57" s="30">
         <v>56</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="A58" s="30">
         <v>57</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2902,52 +2914,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
+      <c r="A59" s="30">
         <v>58</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="A60" s="30">
         <v>59</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -2962,59 +2974,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="28">
+      <c r="A61" s="30">
         <v>60</v>
       </c>
-      <c r="B61" s="28"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="A62" s="30">
         <v>61</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -3029,52 +3041,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
+      <c r="A63" s="30">
         <v>62</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
+      <c r="A64" s="30">
         <v>63</v>
       </c>
-      <c r="B64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3089,52 +3101,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="28">
+      <c r="A65" s="30">
         <v>64</v>
       </c>
-      <c r="B65" s="28"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
+      <c r="A66" s="30">
         <v>65</v>
       </c>
-      <c r="B66" s="28"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3149,29 +3161,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
+      <c r="A67" s="30">
         <v>66</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C133" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3186,52 +3198,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
+      <c r="A68" s="30">
         <v>67</v>
       </c>
-      <c r="B68" s="28"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
+      <c r="A69" s="30">
         <v>68</v>
       </c>
-      <c r="B69" s="28"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3246,52 +3258,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
+      <c r="A70" s="30">
         <v>69</v>
       </c>
-      <c r="B70" s="28"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
+      <c r="A71" s="30">
         <v>70</v>
       </c>
-      <c r="B71" s="28"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3306,52 +3318,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="28">
+      <c r="A72" s="30">
         <v>71</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
+      <c r="A73" s="30">
         <v>72</v>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3366,59 +3378,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
+      <c r="A74" s="30">
         <v>73</v>
       </c>
-      <c r="B74" s="28"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
+      <c r="A75" s="30">
         <v>74</v>
       </c>
-      <c r="B75" s="28"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3433,29 +3445,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
+      <c r="A76" s="30">
         <v>75</v>
       </c>
-      <c r="B76" s="28"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3470,52 +3482,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="28">
+      <c r="A77" s="30">
         <v>76</v>
       </c>
-      <c r="B77" s="28"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="28">
+      <c r="A78" s="30">
         <v>77</v>
       </c>
-      <c r="B78" s="28"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3530,52 +3542,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="28">
+      <c r="A79" s="30">
         <v>78</v>
       </c>
-      <c r="B79" s="28"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="28">
+      <c r="A80" s="30">
         <v>79</v>
       </c>
-      <c r="B80" s="28"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3590,52 +3602,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
+      <c r="A81" s="30">
         <v>80</v>
       </c>
-      <c r="B81" s="28"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
+      <c r="A82" s="30">
         <v>81</v>
       </c>
-      <c r="B82" s="28"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3650,52 +3662,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
+      <c r="A83" s="30">
         <v>82</v>
       </c>
-      <c r="B83" s="28"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="28">
+      <c r="A84" s="30">
         <v>83</v>
       </c>
-      <c r="B84" s="28"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3710,59 +3722,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="28">
+      <c r="A85" s="30">
         <v>84</v>
       </c>
-      <c r="B85" s="28"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31"/>
+      <c r="T85" s="31"/>
+      <c r="U85" s="31"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="28">
+      <c r="A86" s="30">
         <v>85</v>
       </c>
-      <c r="B86" s="28"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3777,52 +3789,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="28">
+      <c r="A87" s="30">
         <v>86</v>
       </c>
-      <c r="B87" s="28"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="28">
+      <c r="A88" s="30">
         <v>87</v>
       </c>
-      <c r="B88" s="28"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3837,52 +3849,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
+      <c r="A89" s="30">
         <v>88</v>
       </c>
-      <c r="B89" s="28"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31">
+      <c r="A90" s="33">
         <v>89</v>
       </c>
-      <c r="B90" s="31"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="D90" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3899,176 +3911,176 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="28">
+      <c r="A91" s="30">
         <v>90</v>
       </c>
-      <c r="B91" s="28"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31">
+      <c r="A92" s="33">
         <v>91</v>
       </c>
-      <c r="B92" s="31"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
-      <c r="R92" s="20" t="s">
+      <c r="R92" s="27" t="s">
         <v>7</v>
       </c>
       <c r="S92" s="15">
         <v>1</v>
       </c>
-      <c r="T92" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="U92" s="21"/>
+      <c r="T92" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U92" s="28"/>
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
+      <c r="A93" s="30">
         <v>92</v>
       </c>
-      <c r="B93" s="28"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31">
+      <c r="A94" s="33">
         <v>93</v>
       </c>
-      <c r="B94" s="31"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="33"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
-      <c r="R94" s="20" t="s">
+      <c r="R94" s="27" t="s">
         <v>7</v>
       </c>
       <c r="S94" s="15">
         <v>1</v>
       </c>
-      <c r="T94" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="21"/>
+      <c r="T94" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="28"/>
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
+      <c r="A95" s="30">
         <v>94</v>
       </c>
-      <c r="B95" s="28"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
+      <c r="A96" s="30">
         <v>95</v>
       </c>
-      <c r="B96" s="28"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4083,59 +4095,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
+      <c r="A97" s="30">
         <v>96</v>
       </c>
-      <c r="B97" s="28"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="29"/>
-      <c r="U97" s="29"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="31"/>
+      <c r="T97" s="31"/>
+      <c r="U97" s="31"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
+      <c r="A98" s="30">
         <v>97</v>
       </c>
-      <c r="B98" s="28"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="27"/>
-      <c r="P98" s="27"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4150,29 +4162,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="28">
+      <c r="A99" s="30">
         <v>98</v>
       </c>
-      <c r="B99" s="28"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D99" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="27"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4187,52 +4199,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="28">
+      <c r="A100" s="30">
         <v>99</v>
       </c>
-      <c r="B100" s="28"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="28">
+      <c r="A101" s="30">
         <v>100</v>
       </c>
-      <c r="B101" s="28"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="27"/>
-      <c r="P101" s="27"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4247,29 +4259,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="28">
+      <c r="A102" s="30">
         <v>101</v>
       </c>
-      <c r="B102" s="28"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D102" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="27"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4284,52 +4296,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="28">
+      <c r="A103" s="30">
         <v>102</v>
       </c>
-      <c r="B103" s="28"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="28">
+      <c r="A104" s="30">
         <v>103</v>
       </c>
-      <c r="B104" s="28"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D104" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
-      <c r="P104" s="27"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4344,29 +4356,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="28">
+      <c r="A105" s="30">
         <v>104</v>
       </c>
-      <c r="B105" s="28"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="27" t="s">
+      <c r="D105" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4381,52 +4393,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="28">
+      <c r="A106" s="30">
         <v>105</v>
       </c>
-      <c r="B106" s="28"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="27"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="28">
+      <c r="A107" s="30">
         <v>106</v>
       </c>
-      <c r="B107" s="28"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4441,77 +4453,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="28">
+      <c r="A108" s="30">
         <v>107</v>
       </c>
-      <c r="B108" s="28"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="29" t="s">
+      <c r="D109" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="29"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="31"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="31"/>
+      <c r="O109" s="31"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="31"/>
+      <c r="R109" s="31"/>
+      <c r="S109" s="31"/>
+      <c r="T109" s="31"/>
+      <c r="U109" s="31"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="28">
+      <c r="A110" s="30">
         <v>108</v>
       </c>
-      <c r="B110" s="28"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="27"/>
-      <c r="N110" s="27"/>
-      <c r="O110" s="27"/>
-      <c r="P110" s="27"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4526,52 +4538,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="28">
+      <c r="A111" s="30">
         <v>109</v>
       </c>
-      <c r="B111" s="28"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="27"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="28">
+      <c r="A112" s="30">
         <v>110</v>
       </c>
-      <c r="B112" s="28"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="27"/>
-      <c r="O112" s="27"/>
-      <c r="P112" s="27"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4586,52 +4598,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="28">
+      <c r="A113" s="30">
         <v>111</v>
       </c>
-      <c r="B113" s="28"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="27"/>
-      <c r="O113" s="27"/>
-      <c r="P113" s="27"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="28">
+      <c r="A114" s="30">
         <v>112</v>
       </c>
-      <c r="B114" s="28"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-      <c r="M114" s="27"/>
-      <c r="N114" s="27"/>
-      <c r="O114" s="27"/>
-      <c r="P114" s="27"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4646,29 +4658,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="28">
+      <c r="A115" s="30">
         <v>113</v>
       </c>
-      <c r="B115" s="28"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D115" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="27"/>
-      <c r="N115" s="27"/>
-      <c r="O115" s="27"/>
-      <c r="P115" s="27"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="29"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4683,29 +4695,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="28">
+      <c r="A116" s="30">
         <v>114</v>
       </c>
-      <c r="B116" s="28"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="27"/>
-      <c r="N116" s="27"/>
-      <c r="O116" s="27"/>
-      <c r="P116" s="27"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4720,52 +4732,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="28">
+      <c r="A117" s="30">
         <v>115</v>
       </c>
-      <c r="B117" s="28"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="27"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="28">
+      <c r="A118" s="30">
         <v>116</v>
       </c>
-      <c r="B118" s="28"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
-      <c r="P118" s="27"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="29"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4780,59 +4792,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="28">
+      <c r="A119" s="30">
         <v>117</v>
       </c>
-      <c r="B119" s="28"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="29" t="s">
+      <c r="D119" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="29"/>
-      <c r="N119" s="29"/>
-      <c r="O119" s="29"/>
-      <c r="P119" s="29"/>
-      <c r="Q119" s="29"/>
-      <c r="R119" s="29"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="29"/>
-      <c r="U119" s="29"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="31"/>
+      <c r="O119" s="31"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="31"/>
+      <c r="T119" s="31"/>
+      <c r="U119" s="31"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="28">
+      <c r="A120" s="30">
         <v>118</v>
       </c>
-      <c r="B120" s="28"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
-      <c r="K120" s="27"/>
-      <c r="L120" s="27"/>
-      <c r="M120" s="27"/>
-      <c r="N120" s="27"/>
-      <c r="O120" s="27"/>
-      <c r="P120" s="27"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4847,29 +4859,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="28">
+      <c r="A121" s="30">
         <v>119</v>
       </c>
-      <c r="B121" s="28"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="D121" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
-      <c r="O121" s="27"/>
-      <c r="P121" s="27"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="29"/>
+      <c r="P121" s="29"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4884,52 +4896,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="28">
+      <c r="A122" s="30">
         <v>120</v>
       </c>
-      <c r="B122" s="28"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="27"/>
-      <c r="O122" s="27"/>
-      <c r="P122" s="27"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="29"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="28">
+      <c r="A123" s="30">
         <v>121</v>
       </c>
-      <c r="B123" s="28"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D123" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="27"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="27"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="29"/>
+      <c r="P123" s="29"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -4944,59 +4956,59 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="28">
+      <c r="A124" s="30">
         <v>122</v>
       </c>
-      <c r="B124" s="28"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="29" t="s">
+      <c r="D124" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29"/>
-      <c r="N124" s="29"/>
-      <c r="O124" s="29"/>
-      <c r="P124" s="29"/>
-      <c r="Q124" s="29"/>
-      <c r="R124" s="29"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="29"/>
-      <c r="U124" s="29"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
+      <c r="N124" s="31"/>
+      <c r="O124" s="31"/>
+      <c r="P124" s="31"/>
+      <c r="Q124" s="31"/>
+      <c r="R124" s="31"/>
+      <c r="S124" s="31"/>
+      <c r="T124" s="31"/>
+      <c r="U124" s="31"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="28">
+      <c r="A125" s="30">
         <v>123</v>
       </c>
-      <c r="B125" s="28"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D125" s="27" t="s">
+      <c r="D125" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="29"/>
       <c r="Q125" s="9">
         <v>43486</v>
       </c>
@@ -5012,55 +5024,55 @@
       <c r="U125" s="25"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="28">
+      <c r="A126" s="30">
         <v>123</v>
       </c>
-      <c r="B126" s="28"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="27"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="29"/>
       <c r="R126" s="26"/>
       <c r="T126" s="26"/>
       <c r="U126" s="25"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="28">
+      <c r="A127" s="30">
         <v>124</v>
       </c>
-      <c r="B127" s="28"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
-      <c r="N127" s="27"/>
-      <c r="O127" s="27"/>
-      <c r="P127" s="27"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="29"/>
       <c r="Q127" s="9">
         <v>43487</v>
       </c>
@@ -5075,29 +5087,29 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="28">
+      <c r="A128" s="30">
         <v>125</v>
       </c>
-      <c r="B128" s="28"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-      <c r="D128" s="27" t="s">
+        <v>!</v>
+      </c>
+      <c r="D128" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
-      <c r="P128" s="27"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
       <c r="Q128" s="9">
         <v>43487</v>
       </c>
@@ -5105,36 +5117,36 @@
         <v>7</v>
       </c>
       <c r="S128" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T128" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A129" s="28">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A129" s="30">
         <v>126</v>
       </c>
-      <c r="B129" s="28"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="D129" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
-      <c r="P129" s="27"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="29"/>
       <c r="Q129" s="9">
         <v>43487</v>
       </c>
@@ -5148,30 +5160,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A130" s="28">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A130" s="30">
         <v>127</v>
       </c>
-      <c r="B130" s="28"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="29"/>
       <c r="Q130" s="9">
         <v>43487</v>
       </c>
@@ -5185,1569 +5197,1601 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A131" s="28">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A131" s="30">
         <v>128</v>
       </c>
-      <c r="B131" s="28"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-      <c r="N131" s="27"/>
-      <c r="O131" s="27"/>
-      <c r="P131" s="27"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A132" s="28">
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
+      <c r="O131" s="29"/>
+      <c r="P131" s="29"/>
+    </row>
+    <row r="132" spans="1:22" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="33">
         <v>129</v>
       </c>
-      <c r="B132" s="28"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A133" s="28">
+        <v>!</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36"/>
+      <c r="O132" s="36"/>
+      <c r="P132" s="36"/>
+      <c r="Q132" s="13">
+        <v>43488</v>
+      </c>
+      <c r="R132" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S132" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="T132" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U132" s="28"/>
+      <c r="V132" s="22"/>
+    </row>
+    <row r="133" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="33">
         <v>130</v>
       </c>
-      <c r="B133" s="28"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A134" s="28">
+        <v>OK</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
+      <c r="Q133" s="13">
+        <v>43488</v>
+      </c>
+      <c r="R133" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S133" s="15">
+        <v>1</v>
+      </c>
+      <c r="T133" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U133" s="28"/>
+      <c r="V133" s="22"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A134" s="30">
         <v>131</v>
       </c>
-      <c r="B134" s="28"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="8" t="str">
         <f t="shared" ref="C134:C197" si="2">IF(S134="", "",IF(S134&lt;=50%, "!!!", IF(S134&lt;=75%,"!!", IF(S134&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="27"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A135" s="28">
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
+      <c r="O134" s="29"/>
+      <c r="P134" s="29"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A135" s="30">
         <v>132</v>
       </c>
-      <c r="B135" s="28"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A136" s="28">
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="29"/>
+      <c r="P135" s="29"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A136" s="30">
         <v>133</v>
       </c>
-      <c r="B136" s="28"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="27"/>
-      <c r="O136" s="27"/>
-      <c r="P136" s="27"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A137" s="28">
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="29"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A137" s="30">
         <v>134</v>
       </c>
-      <c r="B137" s="28"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="27"/>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A138" s="28">
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
+      <c r="O137" s="29"/>
+      <c r="P137" s="29"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A138" s="30">
         <v>135</v>
       </c>
-      <c r="B138" s="28"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="27"/>
-      <c r="O138" s="27"/>
-      <c r="P138" s="27"/>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A139" s="28">
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="29"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A139" s="30">
         <v>136</v>
       </c>
-      <c r="B139" s="28"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="27"/>
-      <c r="L139" s="27"/>
-      <c r="M139" s="27"/>
-      <c r="N139" s="27"/>
-      <c r="O139" s="27"/>
-      <c r="P139" s="27"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A140" s="28">
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="29"/>
+      <c r="M139" s="29"/>
+      <c r="N139" s="29"/>
+      <c r="O139" s="29"/>
+      <c r="P139" s="29"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A140" s="30">
         <v>137</v>
       </c>
-      <c r="B140" s="28"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
-      <c r="K140" s="27"/>
-      <c r="L140" s="27"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="27"/>
-      <c r="O140" s="27"/>
-      <c r="P140" s="27"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A141" s="28">
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
+      <c r="O140" s="29"/>
+      <c r="P140" s="29"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A141" s="30">
         <v>138</v>
       </c>
-      <c r="B141" s="28"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="27"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A142" s="28">
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="29"/>
+      <c r="O141" s="29"/>
+      <c r="P141" s="29"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A142" s="30">
         <v>139</v>
       </c>
-      <c r="B142" s="28"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="27"/>
-      <c r="O142" s="27"/>
-      <c r="P142" s="27"/>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A143" s="28">
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="29"/>
+      <c r="O142" s="29"/>
+      <c r="P142" s="29"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A143" s="30">
         <v>140</v>
       </c>
-      <c r="B143" s="28"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="27"/>
-      <c r="O143" s="27"/>
-      <c r="P143" s="27"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A144" s="28">
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="29"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="29"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A144" s="30">
         <v>141</v>
       </c>
-      <c r="B144" s="28"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="27"/>
-      <c r="O144" s="27"/>
-      <c r="P144" s="27"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="29"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="28">
+      <c r="A145" s="30">
         <v>142</v>
       </c>
-      <c r="B145" s="28"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="27"/>
-      <c r="O145" s="27"/>
-      <c r="P145" s="27"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="29"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="29"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="28">
+      <c r="A146" s="30">
         <v>143</v>
       </c>
-      <c r="B146" s="28"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="27"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="27"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="27"/>
-      <c r="O146" s="27"/>
-      <c r="P146" s="27"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="28">
+      <c r="A147" s="30">
         <v>144</v>
       </c>
-      <c r="B147" s="28"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="27"/>
-      <c r="O147" s="27"/>
-      <c r="P147" s="27"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="29"/>
+      <c r="M147" s="29"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="29"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="28">
+      <c r="A148" s="30">
         <v>145</v>
       </c>
-      <c r="B148" s="28"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="27"/>
-      <c r="M148" s="27"/>
-      <c r="N148" s="27"/>
-      <c r="O148" s="27"/>
-      <c r="P148" s="27"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="29"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="28">
+      <c r="A149" s="30">
         <v>146</v>
       </c>
-      <c r="B149" s="28"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="27"/>
-      <c r="M149" s="27"/>
-      <c r="N149" s="27"/>
-      <c r="O149" s="27"/>
-      <c r="P149" s="27"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
+      <c r="M149" s="29"/>
+      <c r="N149" s="29"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="29"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="28">
+      <c r="A150" s="30">
         <v>147</v>
       </c>
-      <c r="B150" s="28"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="27"/>
-      <c r="L150" s="27"/>
-      <c r="M150" s="27"/>
-      <c r="N150" s="27"/>
-      <c r="O150" s="27"/>
-      <c r="P150" s="27"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="29"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="29"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="28">
+      <c r="A151" s="30">
         <v>148</v>
       </c>
-      <c r="B151" s="28"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="27"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="27"/>
-      <c r="O151" s="27"/>
-      <c r="P151" s="27"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="29"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="28">
+      <c r="A152" s="30">
         <v>149</v>
       </c>
-      <c r="B152" s="28"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="27"/>
-      <c r="L152" s="27"/>
-      <c r="M152" s="27"/>
-      <c r="N152" s="27"/>
-      <c r="O152" s="27"/>
-      <c r="P152" s="27"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="29"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="29"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="29"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="28">
+      <c r="A153" s="30">
         <v>150</v>
       </c>
-      <c r="B153" s="28"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
-      <c r="M153" s="27"/>
-      <c r="N153" s="27"/>
-      <c r="O153" s="27"/>
-      <c r="P153" s="27"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="29"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="28">
+      <c r="A154" s="30">
         <v>151</v>
       </c>
-      <c r="B154" s="28"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="27"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="27"/>
-      <c r="M154" s="27"/>
-      <c r="N154" s="27"/>
-      <c r="O154" s="27"/>
-      <c r="P154" s="27"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="29"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="28">
+      <c r="A155" s="30">
         <v>152</v>
       </c>
-      <c r="B155" s="28"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="27"/>
-      <c r="M155" s="27"/>
-      <c r="N155" s="27"/>
-      <c r="O155" s="27"/>
-      <c r="P155" s="27"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="29"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="28">
+      <c r="A156" s="30">
         <v>153</v>
       </c>
-      <c r="B156" s="28"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="27"/>
-      <c r="M156" s="27"/>
-      <c r="N156" s="27"/>
-      <c r="O156" s="27"/>
-      <c r="P156" s="27"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="29"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="28">
+      <c r="A157" s="30">
         <v>154</v>
       </c>
-      <c r="B157" s="28"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="27"/>
-      <c r="M157" s="27"/>
-      <c r="N157" s="27"/>
-      <c r="O157" s="27"/>
-      <c r="P157" s="27"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
+      <c r="M157" s="29"/>
+      <c r="N157" s="29"/>
+      <c r="O157" s="29"/>
+      <c r="P157" s="29"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="28">
+      <c r="A158" s="30">
         <v>155</v>
       </c>
-      <c r="B158" s="28"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
-      <c r="L158" s="27"/>
-      <c r="M158" s="27"/>
-      <c r="N158" s="27"/>
-      <c r="O158" s="27"/>
-      <c r="P158" s="27"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="29"/>
+      <c r="O158" s="29"/>
+      <c r="P158" s="29"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="28">
+      <c r="A159" s="30">
         <v>156</v>
       </c>
-      <c r="B159" s="28"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="27"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="27"/>
-      <c r="P159" s="27"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="29"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="28">
+      <c r="A160" s="30">
         <v>157</v>
       </c>
-      <c r="B160" s="28"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="27"/>
-      <c r="L160" s="27"/>
-      <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
-      <c r="O160" s="27"/>
-      <c r="P160" s="27"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="29"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="28">
+      <c r="A161" s="30">
         <v>158</v>
       </c>
-      <c r="B161" s="28"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="27"/>
-      <c r="M161" s="27"/>
-      <c r="N161" s="27"/>
-      <c r="O161" s="27"/>
-      <c r="P161" s="27"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="29"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162" s="28">
+      <c r="A162" s="30">
         <v>159</v>
       </c>
-      <c r="B162" s="28"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="27"/>
-      <c r="L162" s="27"/>
-      <c r="M162" s="27"/>
-      <c r="N162" s="27"/>
-      <c r="O162" s="27"/>
-      <c r="P162" s="27"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
+      <c r="I162" s="29"/>
+      <c r="J162" s="29"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="29"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="29"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="28">
+      <c r="A163" s="30">
         <v>160</v>
       </c>
-      <c r="B163" s="28"/>
+      <c r="B163" s="30"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="27"/>
-      <c r="M163" s="27"/>
-      <c r="N163" s="27"/>
-      <c r="O163" s="27"/>
-      <c r="P163" s="27"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="29"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="28">
+      <c r="A164" s="30">
         <v>161</v>
       </c>
-      <c r="B164" s="28"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="27"/>
-      <c r="K164" s="27"/>
-      <c r="L164" s="27"/>
-      <c r="M164" s="27"/>
-      <c r="N164" s="27"/>
-      <c r="O164" s="27"/>
-      <c r="P164" s="27"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="29"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="28">
+      <c r="A165" s="30">
         <v>162</v>
       </c>
-      <c r="B165" s="28"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="27"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="27"/>
-      <c r="M165" s="27"/>
-      <c r="N165" s="27"/>
-      <c r="O165" s="27"/>
-      <c r="P165" s="27"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+      <c r="I165" s="29"/>
+      <c r="J165" s="29"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="29"/>
+      <c r="M165" s="29"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="29"/>
+      <c r="P165" s="29"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="28">
+      <c r="A166" s="30">
         <v>163</v>
       </c>
-      <c r="B166" s="28"/>
+      <c r="B166" s="30"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="27"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="27"/>
-      <c r="M166" s="27"/>
-      <c r="N166" s="27"/>
-      <c r="O166" s="27"/>
-      <c r="P166" s="27"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="29"/>
+      <c r="J166" s="29"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="29"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="28">
+      <c r="A167" s="30">
         <v>164</v>
       </c>
-      <c r="B167" s="28"/>
+      <c r="B167" s="30"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="27"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="27"/>
-      <c r="P167" s="27"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="29"/>
+      <c r="J167" s="29"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="29"/>
+      <c r="M167" s="29"/>
+      <c r="N167" s="29"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="29"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="28">
+      <c r="A168" s="30">
         <v>165</v>
       </c>
-      <c r="B168" s="28"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="27"/>
-      <c r="M168" s="27"/>
-      <c r="N168" s="27"/>
-      <c r="O168" s="27"/>
-      <c r="P168" s="27"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="29"/>
+      <c r="M168" s="29"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="29"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="28">
+      <c r="A169" s="30">
         <v>166</v>
       </c>
-      <c r="B169" s="28"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="27"/>
-      <c r="M169" s="27"/>
-      <c r="N169" s="27"/>
-      <c r="O169" s="27"/>
-      <c r="P169" s="27"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
+      <c r="I169" s="29"/>
+      <c r="J169" s="29"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="29"/>
+      <c r="M169" s="29"/>
+      <c r="N169" s="29"/>
+      <c r="O169" s="29"/>
+      <c r="P169" s="29"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="28">
+      <c r="A170" s="30">
         <v>167</v>
       </c>
-      <c r="B170" s="28"/>
+      <c r="B170" s="30"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="27"/>
-      <c r="K170" s="27"/>
-      <c r="L170" s="27"/>
-      <c r="M170" s="27"/>
-      <c r="N170" s="27"/>
-      <c r="O170" s="27"/>
-      <c r="P170" s="27"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="29"/>
+      <c r="M170" s="29"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="29"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A171" s="28">
+      <c r="A171" s="30">
         <v>168</v>
       </c>
-      <c r="B171" s="28"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="27"/>
-      <c r="K171" s="27"/>
-      <c r="L171" s="27"/>
-      <c r="M171" s="27"/>
-      <c r="N171" s="27"/>
-      <c r="O171" s="27"/>
-      <c r="P171" s="27"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="29"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29"/>
+      <c r="O171" s="29"/>
+      <c r="P171" s="29"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="28">
+      <c r="A172" s="30">
         <v>169</v>
       </c>
-      <c r="B172" s="28"/>
+      <c r="B172" s="30"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="27"/>
-      <c r="L172" s="27"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="27"/>
-      <c r="O172" s="27"/>
-      <c r="P172" s="27"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
+      <c r="I172" s="29"/>
+      <c r="J172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="29"/>
+      <c r="M172" s="29"/>
+      <c r="N172" s="29"/>
+      <c r="O172" s="29"/>
+      <c r="P172" s="29"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A173" s="28">
+      <c r="A173" s="30">
         <v>170</v>
       </c>
-      <c r="B173" s="28"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="27"/>
-      <c r="L173" s="27"/>
-      <c r="M173" s="27"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="27"/>
-      <c r="P173" s="27"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="29"/>
+      <c r="I173" s="29"/>
+      <c r="J173" s="29"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="29"/>
+      <c r="M173" s="29"/>
+      <c r="N173" s="29"/>
+      <c r="O173" s="29"/>
+      <c r="P173" s="29"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="28">
+      <c r="A174" s="30">
         <v>171</v>
       </c>
-      <c r="B174" s="28"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="27"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="27"/>
-      <c r="P174" s="27"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="29"/>
+      <c r="I174" s="29"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="29"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="29"/>
+      <c r="O174" s="29"/>
+      <c r="P174" s="29"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="28">
+      <c r="A175" s="30">
         <v>172</v>
       </c>
-      <c r="B175" s="28"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="27"/>
-      <c r="K175" s="27"/>
-      <c r="L175" s="27"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="27"/>
-      <c r="O175" s="27"/>
-      <c r="P175" s="27"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="29"/>
+      <c r="J175" s="29"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="29"/>
+      <c r="M175" s="29"/>
+      <c r="N175" s="29"/>
+      <c r="O175" s="29"/>
+      <c r="P175" s="29"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="28">
+      <c r="A176" s="30">
         <v>173</v>
       </c>
-      <c r="B176" s="28"/>
+      <c r="B176" s="30"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="27"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-      <c r="O176" s="27"/>
-      <c r="P176" s="27"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
+      <c r="I176" s="29"/>
+      <c r="J176" s="29"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="29"/>
+      <c r="M176" s="29"/>
+      <c r="N176" s="29"/>
+      <c r="O176" s="29"/>
+      <c r="P176" s="29"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="28">
+      <c r="A177" s="30">
         <v>174</v>
       </c>
-      <c r="B177" s="28"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="27"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="29"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="29"/>
+      <c r="M177" s="29"/>
+      <c r="N177" s="29"/>
+      <c r="O177" s="29"/>
+      <c r="P177" s="29"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="28">
+      <c r="A178" s="30">
         <v>175</v>
       </c>
-      <c r="B178" s="28"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-      <c r="O178" s="27"/>
-      <c r="P178" s="27"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="29"/>
+      <c r="J178" s="29"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="29"/>
+      <c r="M178" s="29"/>
+      <c r="N178" s="29"/>
+      <c r="O178" s="29"/>
+      <c r="P178" s="29"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="28">
+      <c r="A179" s="30">
         <v>176</v>
       </c>
-      <c r="B179" s="28"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
-      <c r="P179" s="27"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="29"/>
+      <c r="H179" s="29"/>
+      <c r="I179" s="29"/>
+      <c r="J179" s="29"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="29"/>
+      <c r="M179" s="29"/>
+      <c r="N179" s="29"/>
+      <c r="O179" s="29"/>
+      <c r="P179" s="29"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="28">
+      <c r="A180" s="30">
         <v>177</v>
       </c>
-      <c r="B180" s="28"/>
+      <c r="B180" s="30"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
+      <c r="F180" s="29"/>
+      <c r="G180" s="29"/>
+      <c r="H180" s="29"/>
+      <c r="I180" s="29"/>
+      <c r="J180" s="29"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="29"/>
+      <c r="M180" s="29"/>
+      <c r="N180" s="29"/>
+      <c r="O180" s="29"/>
+      <c r="P180" s="29"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="28">
+      <c r="A181" s="30">
         <v>178</v>
       </c>
-      <c r="B181" s="28"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="27"/>
-      <c r="P181" s="27"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="29"/>
+      <c r="I181" s="29"/>
+      <c r="J181" s="29"/>
+      <c r="K181" s="29"/>
+      <c r="L181" s="29"/>
+      <c r="M181" s="29"/>
+      <c r="N181" s="29"/>
+      <c r="O181" s="29"/>
+      <c r="P181" s="29"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="28">
+      <c r="A182" s="30">
         <v>179</v>
       </c>
-      <c r="B182" s="28"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
-      <c r="O182" s="27"/>
-      <c r="P182" s="27"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="29"/>
+      <c r="H182" s="29"/>
+      <c r="I182" s="29"/>
+      <c r="J182" s="29"/>
+      <c r="K182" s="29"/>
+      <c r="L182" s="29"/>
+      <c r="M182" s="29"/>
+      <c r="N182" s="29"/>
+      <c r="O182" s="29"/>
+      <c r="P182" s="29"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="28">
+      <c r="A183" s="30">
         <v>180</v>
       </c>
-      <c r="B183" s="28"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="27"/>
-      <c r="N183" s="27"/>
-      <c r="O183" s="27"/>
-      <c r="P183" s="27"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="29"/>
+      <c r="F183" s="29"/>
+      <c r="G183" s="29"/>
+      <c r="H183" s="29"/>
+      <c r="I183" s="29"/>
+      <c r="J183" s="29"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="29"/>
+      <c r="M183" s="29"/>
+      <c r="N183" s="29"/>
+      <c r="O183" s="29"/>
+      <c r="P183" s="29"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="28">
+      <c r="A184" s="30">
         <v>181</v>
       </c>
-      <c r="B184" s="28"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="27"/>
-      <c r="L184" s="27"/>
-      <c r="M184" s="27"/>
-      <c r="N184" s="27"/>
-      <c r="O184" s="27"/>
-      <c r="P184" s="27"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="29"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="29"/>
+      <c r="H184" s="29"/>
+      <c r="I184" s="29"/>
+      <c r="J184" s="29"/>
+      <c r="K184" s="29"/>
+      <c r="L184" s="29"/>
+      <c r="M184" s="29"/>
+      <c r="N184" s="29"/>
+      <c r="O184" s="29"/>
+      <c r="P184" s="29"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="28">
+      <c r="A185" s="30">
         <v>182</v>
       </c>
-      <c r="B185" s="28"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="27"/>
-      <c r="M185" s="27"/>
-      <c r="N185" s="27"/>
-      <c r="O185" s="27"/>
-      <c r="P185" s="27"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="29"/>
+      <c r="F185" s="29"/>
+      <c r="G185" s="29"/>
+      <c r="H185" s="29"/>
+      <c r="I185" s="29"/>
+      <c r="J185" s="29"/>
+      <c r="K185" s="29"/>
+      <c r="L185" s="29"/>
+      <c r="M185" s="29"/>
+      <c r="N185" s="29"/>
+      <c r="O185" s="29"/>
+      <c r="P185" s="29"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="28">
+      <c r="A186" s="30">
         <v>183</v>
       </c>
-      <c r="B186" s="28"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
-      <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
-      <c r="N186" s="27"/>
-      <c r="O186" s="27"/>
-      <c r="P186" s="27"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="29"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="29"/>
+      <c r="H186" s="29"/>
+      <c r="I186" s="29"/>
+      <c r="J186" s="29"/>
+      <c r="K186" s="29"/>
+      <c r="L186" s="29"/>
+      <c r="M186" s="29"/>
+      <c r="N186" s="29"/>
+      <c r="O186" s="29"/>
+      <c r="P186" s="29"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="28">
+      <c r="A187" s="30">
         <v>184</v>
       </c>
-      <c r="B187" s="28"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
-      <c r="L187" s="27"/>
-      <c r="M187" s="27"/>
-      <c r="N187" s="27"/>
-      <c r="O187" s="27"/>
-      <c r="P187" s="27"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="29"/>
+      <c r="H187" s="29"/>
+      <c r="I187" s="29"/>
+      <c r="J187" s="29"/>
+      <c r="K187" s="29"/>
+      <c r="L187" s="29"/>
+      <c r="M187" s="29"/>
+      <c r="N187" s="29"/>
+      <c r="O187" s="29"/>
+      <c r="P187" s="29"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="28">
+      <c r="A188" s="30">
         <v>185</v>
       </c>
-      <c r="B188" s="28"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="27"/>
-      <c r="P188" s="27"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="29"/>
+      <c r="H188" s="29"/>
+      <c r="I188" s="29"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="29"/>
+      <c r="M188" s="29"/>
+      <c r="N188" s="29"/>
+      <c r="O188" s="29"/>
+      <c r="P188" s="29"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="28">
+      <c r="A189" s="30">
         <v>186</v>
       </c>
-      <c r="B189" s="28"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
-      <c r="L189" s="27"/>
-      <c r="M189" s="27"/>
-      <c r="N189" s="27"/>
-      <c r="O189" s="27"/>
-      <c r="P189" s="27"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="29"/>
+      <c r="H189" s="29"/>
+      <c r="I189" s="29"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="29"/>
+      <c r="M189" s="29"/>
+      <c r="N189" s="29"/>
+      <c r="O189" s="29"/>
+      <c r="P189" s="29"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="28">
+      <c r="A190" s="30">
         <v>187</v>
       </c>
-      <c r="B190" s="28"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="27"/>
-      <c r="L190" s="27"/>
-      <c r="M190" s="27"/>
-      <c r="N190" s="27"/>
-      <c r="O190" s="27"/>
-      <c r="P190" s="27"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="29"/>
+      <c r="H190" s="29"/>
+      <c r="I190" s="29"/>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="29"/>
+      <c r="M190" s="29"/>
+      <c r="N190" s="29"/>
+      <c r="O190" s="29"/>
+      <c r="P190" s="29"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="28">
+      <c r="A191" s="30">
         <v>188</v>
       </c>
-      <c r="B191" s="28"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="27"/>
-      <c r="L191" s="27"/>
-      <c r="M191" s="27"/>
-      <c r="N191" s="27"/>
-      <c r="O191" s="27"/>
-      <c r="P191" s="27"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="29"/>
+      <c r="G191" s="29"/>
+      <c r="H191" s="29"/>
+      <c r="I191" s="29"/>
+      <c r="J191" s="29"/>
+      <c r="K191" s="29"/>
+      <c r="L191" s="29"/>
+      <c r="M191" s="29"/>
+      <c r="N191" s="29"/>
+      <c r="O191" s="29"/>
+      <c r="P191" s="29"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="28">
+      <c r="A192" s="30">
         <v>189</v>
       </c>
-      <c r="B192" s="28"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="27"/>
-      <c r="K192" s="27"/>
-      <c r="L192" s="27"/>
-      <c r="M192" s="27"/>
-      <c r="N192" s="27"/>
-      <c r="O192" s="27"/>
-      <c r="P192" s="27"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="29"/>
+      <c r="G192" s="29"/>
+      <c r="H192" s="29"/>
+      <c r="I192" s="29"/>
+      <c r="J192" s="29"/>
+      <c r="K192" s="29"/>
+      <c r="L192" s="29"/>
+      <c r="M192" s="29"/>
+      <c r="N192" s="29"/>
+      <c r="O192" s="29"/>
+      <c r="P192" s="29"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="28">
+      <c r="A193" s="30">
         <v>190</v>
       </c>
-      <c r="B193" s="28"/>
+      <c r="B193" s="30"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="27"/>
-      <c r="L193" s="27"/>
-      <c r="M193" s="27"/>
-      <c r="N193" s="27"/>
-      <c r="O193" s="27"/>
-      <c r="P193" s="27"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="29"/>
+      <c r="H193" s="29"/>
+      <c r="I193" s="29"/>
+      <c r="J193" s="29"/>
+      <c r="K193" s="29"/>
+      <c r="L193" s="29"/>
+      <c r="M193" s="29"/>
+      <c r="N193" s="29"/>
+      <c r="O193" s="29"/>
+      <c r="P193" s="29"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="28">
+      <c r="A194" s="30">
         <v>191</v>
       </c>
-      <c r="B194" s="28"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="27"/>
-      <c r="K194" s="27"/>
-      <c r="L194" s="27"/>
-      <c r="M194" s="27"/>
-      <c r="N194" s="27"/>
-      <c r="O194" s="27"/>
-      <c r="P194" s="27"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="29"/>
+      <c r="H194" s="29"/>
+      <c r="I194" s="29"/>
+      <c r="J194" s="29"/>
+      <c r="K194" s="29"/>
+      <c r="L194" s="29"/>
+      <c r="M194" s="29"/>
+      <c r="N194" s="29"/>
+      <c r="O194" s="29"/>
+      <c r="P194" s="29"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A195" s="28">
+      <c r="A195" s="30">
         <v>192</v>
       </c>
-      <c r="B195" s="28"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
-      <c r="K195" s="27"/>
-      <c r="L195" s="27"/>
-      <c r="M195" s="27"/>
-      <c r="N195" s="27"/>
-      <c r="O195" s="27"/>
-      <c r="P195" s="27"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="29"/>
+      <c r="H195" s="29"/>
+      <c r="I195" s="29"/>
+      <c r="J195" s="29"/>
+      <c r="K195" s="29"/>
+      <c r="L195" s="29"/>
+      <c r="M195" s="29"/>
+      <c r="N195" s="29"/>
+      <c r="O195" s="29"/>
+      <c r="P195" s="29"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="28">
+      <c r="A196" s="30">
         <v>193</v>
       </c>
-      <c r="B196" s="28"/>
+      <c r="B196" s="30"/>
       <c r="C196" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="27"/>
-      <c r="K196" s="27"/>
-      <c r="L196" s="27"/>
-      <c r="M196" s="27"/>
-      <c r="N196" s="27"/>
-      <c r="O196" s="27"/>
-      <c r="P196" s="27"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="29"/>
+      <c r="G196" s="29"/>
+      <c r="H196" s="29"/>
+      <c r="I196" s="29"/>
+      <c r="J196" s="29"/>
+      <c r="K196" s="29"/>
+      <c r="L196" s="29"/>
+      <c r="M196" s="29"/>
+      <c r="N196" s="29"/>
+      <c r="O196" s="29"/>
+      <c r="P196" s="29"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A197" s="28">
+      <c r="A197" s="30">
         <v>194</v>
       </c>
-      <c r="B197" s="28"/>
+      <c r="B197" s="30"/>
       <c r="C197" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
-      <c r="L197" s="27"/>
-      <c r="M197" s="27"/>
-      <c r="N197" s="27"/>
-      <c r="O197" s="27"/>
-      <c r="P197" s="27"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="29"/>
+      <c r="H197" s="29"/>
+      <c r="I197" s="29"/>
+      <c r="J197" s="29"/>
+      <c r="K197" s="29"/>
+      <c r="L197" s="29"/>
+      <c r="M197" s="29"/>
+      <c r="N197" s="29"/>
+      <c r="O197" s="29"/>
+      <c r="P197" s="29"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A198" s="28">
+      <c r="A198" s="30">
         <v>195</v>
       </c>
-      <c r="B198" s="28"/>
+      <c r="B198" s="30"/>
       <c r="C198" s="8" t="str">
         <f t="shared" ref="C198:C199" si="3">IF(S198="", "",IF(S198&lt;=50%, "!!!", IF(S198&lt;=75%,"!!", IF(S198&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="27"/>
-      <c r="K198" s="27"/>
-      <c r="L198" s="27"/>
-      <c r="M198" s="27"/>
-      <c r="N198" s="27"/>
-      <c r="O198" s="27"/>
-      <c r="P198" s="27"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="29"/>
+      <c r="H198" s="29"/>
+      <c r="I198" s="29"/>
+      <c r="J198" s="29"/>
+      <c r="K198" s="29"/>
+      <c r="L198" s="29"/>
+      <c r="M198" s="29"/>
+      <c r="N198" s="29"/>
+      <c r="O198" s="29"/>
+      <c r="P198" s="29"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C199" s="8" t="str">
@@ -7164,7 +7208,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 A126:B199 D127:XFD199 C122:C199">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 A126:B199 C122:C199 D127:XFD199">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
   <si>
     <t>No.</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>Fix lại giao diện chức năng CallCenter (Hiển thị SĐT người nhận)</t>
+  </si>
+  <si>
+    <t>Hoàn thiện</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng Đặt hàng trên LiveChat</t>
+  </si>
+  <si>
+    <t>Lấy thông tin khách hàng từ LiveChat</t>
+  </si>
+  <si>
+    <t>Thêm người dùng mới trên LiveChat</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -994,8 +1013,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133:P133"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139:P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5328,9 +5347,11 @@
       <c r="B135" s="30"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D135" s="29"/>
+        <v>OK</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="E135" s="29"/>
       <c r="F135" s="29"/>
       <c r="G135" s="29"/>
@@ -5343,6 +5364,21 @@
       <c r="N135" s="29"/>
       <c r="O135" s="29"/>
       <c r="P135" s="29"/>
+      <c r="Q135" s="9">
+        <v>43489</v>
+      </c>
+      <c r="R135" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S135" s="10">
+        <v>1</v>
+      </c>
+      <c r="T135" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U135" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="30">
@@ -5374,9 +5410,11 @@
       <c r="B137" s="30"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D137" s="29"/>
+        <v>OK</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="E137" s="29"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
@@ -5389,6 +5427,18 @@
       <c r="N137" s="29"/>
       <c r="O137" s="29"/>
       <c r="P137" s="29"/>
+      <c r="Q137" s="9">
+        <v>43490</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S137" s="10">
+        <v>1</v>
+      </c>
+      <c r="T137" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="30">
@@ -5397,9 +5447,11 @@
       <c r="B138" s="30"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D138" s="29"/>
+        <v>!!!</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="E138" s="29"/>
       <c r="F138" s="29"/>
       <c r="G138" s="29"/>
@@ -5412,6 +5464,18 @@
       <c r="N138" s="29"/>
       <c r="O138" s="29"/>
       <c r="P138" s="29"/>
+      <c r="Q138" s="9">
+        <v>43490</v>
+      </c>
+      <c r="R138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S138" s="10">
+        <v>0</v>
+      </c>
+      <c r="T138" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="30">
@@ -5420,9 +5484,11 @@
       <c r="B139" s="30"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D139" s="29"/>
+        <v>!!!</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="E139" s="29"/>
       <c r="F139" s="29"/>
       <c r="G139" s="29"/>
@@ -5435,6 +5501,18 @@
       <c r="N139" s="29"/>
       <c r="O139" s="29"/>
       <c r="P139" s="29"/>
+      <c r="Q139" s="9">
+        <v>43490</v>
+      </c>
+      <c r="R139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S139" s="10">
+        <v>0</v>
+      </c>
+      <c r="T139" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="30">
@@ -7198,48 +7276,48 @@
     <mergeCell ref="D4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 A126:B199 C122:C199 D127:XFD199">
-    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C199 D127:XFD199 A126:B199">
+    <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
-    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:P48">
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126:U126">
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:B125 V125:XFD125">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q125:U125">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125:P125">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="70">
   <si>
     <t>No.</t>
   </si>
@@ -443,14 +443,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1013,8 +1006,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139:P139"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R142" sqref="R142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,9 +5537,11 @@
       <c r="B141" s="30"/>
       <c r="C141" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D141" s="29"/>
+        <v>OK</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="E141" s="29"/>
       <c r="F141" s="29"/>
       <c r="G141" s="29"/>
@@ -5559,6 +5554,18 @@
       <c r="N141" s="29"/>
       <c r="O141" s="29"/>
       <c r="P141" s="29"/>
+      <c r="Q141" s="9">
+        <v>43491</v>
+      </c>
+      <c r="R141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S141" s="10">
+        <v>1</v>
+      </c>
+      <c r="T141" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="30">
@@ -5567,9 +5574,11 @@
       <c r="B142" s="30"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D142" s="29"/>
+        <v>!!!</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="E142" s="29"/>
       <c r="F142" s="29"/>
       <c r="G142" s="29"/>
@@ -5582,8 +5591,20 @@
       <c r="N142" s="29"/>
       <c r="O142" s="29"/>
       <c r="P142" s="29"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q142" s="9">
+        <v>43491</v>
+      </c>
+      <c r="R142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S142" s="10">
+        <v>0</v>
+      </c>
+      <c r="T142" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="30">
         <v>140</v>
       </c>
@@ -5592,19 +5613,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29"/>
-      <c r="N143" s="29"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="29"/>
+      <c r="D143" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31"/>
+      <c r="K143" s="31"/>
+      <c r="L143" s="31"/>
+      <c r="M143" s="31"/>
+      <c r="N143" s="31"/>
+      <c r="O143" s="31"/>
+      <c r="P143" s="31"/>
+      <c r="Q143" s="31"/>
+      <c r="R143" s="31"/>
+      <c r="S143" s="31"/>
+      <c r="T143" s="31"/>
+      <c r="U143" s="31"/>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="30">
@@ -6996,13 +7024,13 @@
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="D142:P142"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:P143"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:P144"/>
     <mergeCell ref="A145:B145"/>
     <mergeCell ref="D145:P145"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="D146:P146"/>
+    <mergeCell ref="D143:U143"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="D129:P129"/>
     <mergeCell ref="A130:B130"/>
@@ -7276,48 +7304,48 @@
     <mergeCell ref="D4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="10" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">
       <formula>"!!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" stopIfTrue="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C199 D127:XFD199 A126:B199">
-    <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C199 A126:B199 D127:XFD142 D144:XFD199 V143:XFD143">
+    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:XFD44">
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:P48">
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126:U126">
-    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:B125 V125:XFD125">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q125:U125">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125:P125">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7333,13 +7361,13 @@
           <x14:formula1>
             <xm:f>'Ghi chú'!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T123 T125:T1048576</xm:sqref>
+          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T123 T125:T142 T144:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Ghi chú'!$L$4:$L$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R123 R125:R1048576</xm:sqref>
+          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R123 R125:R142 R144:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="71">
   <si>
     <t>No.</t>
   </si>
@@ -234,6 +234,9 @@
   <si>
     <t>Thêm người dùng mới trên LiveChat</t>
   </si>
+  <si>
+    <t>Xử lý Server cho CallCenter (Hiện popup CallCenter)</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,6 +415,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1006,8 +1015,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R142" sqref="R142"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T144" sqref="T144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,28 +1048,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1079,29 +1088,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1116,52 +1125,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1176,52 +1185,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1236,52 +1245,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30"/>
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1296,52 +1305,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30"/>
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1356,52 +1365,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1416,59 +1425,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1483,52 +1492,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1543,52 +1552,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1603,52 +1612,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1663,52 +1672,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1723,52 +1732,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1783,59 +1792,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1850,29 +1859,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1890,52 +1899,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -1953,52 +1962,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -2016,29 +2025,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -2056,29 +2065,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
+      <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2093,52 +2102,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+      <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2156,29 +2165,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33">
+      <c r="A36" s="35">
         <v>35</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2197,29 +2206,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
+      <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2234,52 +2243,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+      <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2294,52 +2303,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+      <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2357,29 +2366,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
+      <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2394,29 +2403,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="30">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2431,29 +2440,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="30">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="30"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2468,59 +2477,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="30"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+      <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2538,52 +2547,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+      <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="30">
+      <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="30"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2598,29 +2607,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
+      <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="30"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2635,29 +2644,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="30"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2672,29 +2681,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="30"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2709,52 +2718,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="30"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="30"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2769,29 +2778,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="30">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2806,52 +2815,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="30">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2866,52 +2875,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="30">
+      <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="30"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2926,52 +2935,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="30">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
-      <c r="B59" s="30"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="30">
+      <c r="A60" s="32">
         <v>59</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -2986,59 +2995,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
+      <c r="A61" s="32">
         <v>60</v>
       </c>
-      <c r="B61" s="30"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="30">
+      <c r="A62" s="32">
         <v>61</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -3053,52 +3062,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
+      <c r="A63" s="32">
         <v>62</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
+      <c r="A64" s="32">
         <v>63</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3113,52 +3122,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="30">
+      <c r="A65" s="32">
         <v>64</v>
       </c>
-      <c r="B65" s="30"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="30">
+      <c r="A66" s="32">
         <v>65</v>
       </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3173,29 +3182,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="30">
+      <c r="A67" s="32">
         <v>66</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C133" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3210,52 +3219,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
+      <c r="A68" s="32">
         <v>67</v>
       </c>
-      <c r="B68" s="30"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="30">
+      <c r="A69" s="32">
         <v>68</v>
       </c>
-      <c r="B69" s="30"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3270,52 +3279,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="30">
+      <c r="A70" s="32">
         <v>69</v>
       </c>
-      <c r="B70" s="30"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="30">
+      <c r="A71" s="32">
         <v>70</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3330,52 +3339,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="30">
+      <c r="A72" s="32">
         <v>71</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="30">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3390,59 +3399,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="30">
+      <c r="A74" s="32">
         <v>73</v>
       </c>
-      <c r="B74" s="30"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="30">
+      <c r="A75" s="32">
         <v>74</v>
       </c>
-      <c r="B75" s="30"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3457,29 +3466,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="30">
+      <c r="A76" s="32">
         <v>75</v>
       </c>
-      <c r="B76" s="30"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3494,52 +3503,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="30">
+      <c r="A77" s="32">
         <v>76</v>
       </c>
-      <c r="B77" s="30"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="30">
+      <c r="A78" s="32">
         <v>77</v>
       </c>
-      <c r="B78" s="30"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3554,52 +3563,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="30">
+      <c r="A79" s="32">
         <v>78</v>
       </c>
-      <c r="B79" s="30"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="30">
+      <c r="A80" s="32">
         <v>79</v>
       </c>
-      <c r="B80" s="30"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3614,52 +3623,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="30">
+      <c r="A81" s="32">
         <v>80</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="30">
+      <c r="A82" s="32">
         <v>81</v>
       </c>
-      <c r="B82" s="30"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3674,52 +3683,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="30">
+      <c r="A83" s="32">
         <v>82</v>
       </c>
-      <c r="B83" s="30"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="30">
+      <c r="A84" s="32">
         <v>83</v>
       </c>
-      <c r="B84" s="30"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3734,59 +3743,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="30">
+      <c r="A85" s="32">
         <v>84</v>
       </c>
-      <c r="B85" s="30"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="31"/>
-      <c r="U85" s="31"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="30">
+      <c r="A86" s="32">
         <v>85</v>
       </c>
-      <c r="B86" s="30"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3801,52 +3810,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="30">
+      <c r="A87" s="32">
         <v>86</v>
       </c>
-      <c r="B87" s="30"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="30">
+      <c r="A88" s="32">
         <v>87</v>
       </c>
-      <c r="B88" s="30"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3861,52 +3870,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="30">
+      <c r="A89" s="32">
         <v>88</v>
       </c>
-      <c r="B89" s="30"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="29"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33">
+      <c r="A90" s="35">
         <v>89</v>
       </c>
-      <c r="B90" s="33"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3923,52 +3932,52 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="30">
+      <c r="A91" s="32">
         <v>90</v>
       </c>
-      <c r="B91" s="30"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33">
+      <c r="A92" s="35">
         <v>91</v>
       </c>
-      <c r="B92" s="33"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D92" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -3985,52 +3994,52 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="30">
+      <c r="A93" s="32">
         <v>92</v>
       </c>
-      <c r="B93" s="30"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33">
+      <c r="A94" s="35">
         <v>93</v>
       </c>
-      <c r="B94" s="33"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="36" t="s">
+      <c r="D94" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -4047,52 +4056,52 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="30">
+      <c r="A95" s="32">
         <v>94</v>
       </c>
-      <c r="B95" s="30"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="30">
+      <c r="A96" s="32">
         <v>95</v>
       </c>
-      <c r="B96" s="30"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4107,59 +4116,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="30">
+      <c r="A97" s="32">
         <v>96</v>
       </c>
-      <c r="B97" s="30"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="31"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="31"/>
-      <c r="T97" s="31"/>
-      <c r="U97" s="31"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
+      <c r="R97" s="33"/>
+      <c r="S97" s="33"/>
+      <c r="T97" s="33"/>
+      <c r="U97" s="33"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="30">
+      <c r="A98" s="32">
         <v>97</v>
       </c>
-      <c r="B98" s="30"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4174,29 +4183,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="30">
+      <c r="A99" s="32">
         <v>98</v>
       </c>
-      <c r="B99" s="30"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="31"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4211,52 +4220,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="30">
+      <c r="A100" s="32">
         <v>99</v>
       </c>
-      <c r="B100" s="30"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="30">
+      <c r="A101" s="32">
         <v>100</v>
       </c>
-      <c r="B101" s="30"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4271,29 +4280,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="30">
+      <c r="A102" s="32">
         <v>101</v>
       </c>
-      <c r="B102" s="30"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="29"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4308,52 +4317,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="30">
+      <c r="A103" s="32">
         <v>102</v>
       </c>
-      <c r="B103" s="30"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="31"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="30">
+      <c r="A104" s="32">
         <v>103</v>
       </c>
-      <c r="B104" s="30"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="D104" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="29"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="31"/>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4368,29 +4377,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="30">
+      <c r="A105" s="32">
         <v>104</v>
       </c>
-      <c r="B105" s="30"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="29" t="s">
+      <c r="D105" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="31"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="31"/>
+      <c r="M105" s="31"/>
+      <c r="N105" s="31"/>
+      <c r="O105" s="31"/>
+      <c r="P105" s="31"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4405,52 +4414,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="30">
+      <c r="A106" s="32">
         <v>105</v>
       </c>
-      <c r="B106" s="30"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="29"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="31"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="31"/>
+      <c r="O106" s="31"/>
+      <c r="P106" s="31"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="30">
+      <c r="A107" s="32">
         <v>106</v>
       </c>
-      <c r="B107" s="30"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="31"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="31"/>
+      <c r="O107" s="31"/>
+      <c r="P107" s="31"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4465,77 +4474,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="30">
+      <c r="A108" s="32">
         <v>107</v>
       </c>
-      <c r="B108" s="30"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
-      <c r="O108" s="29"/>
-      <c r="P108" s="29"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31"/>
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="31"/>
-      <c r="L109" s="31"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-      <c r="P109" s="31"/>
-      <c r="Q109" s="31"/>
-      <c r="R109" s="31"/>
-      <c r="S109" s="31"/>
-      <c r="T109" s="31"/>
-      <c r="U109" s="31"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="33"/>
+      <c r="P109" s="33"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="33"/>
+      <c r="S109" s="33"/>
+      <c r="T109" s="33"/>
+      <c r="U109" s="33"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="30">
+      <c r="A110" s="32">
         <v>108</v>
       </c>
-      <c r="B110" s="30"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="29"/>
-      <c r="O110" s="29"/>
-      <c r="P110" s="29"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="31"/>
+      <c r="M110" s="31"/>
+      <c r="N110" s="31"/>
+      <c r="O110" s="31"/>
+      <c r="P110" s="31"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4550,52 +4559,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="30">
+      <c r="A111" s="32">
         <v>109</v>
       </c>
-      <c r="B111" s="30"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
-      <c r="P111" s="29"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="31"/>
+      <c r="O111" s="31"/>
+      <c r="P111" s="31"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="30">
+      <c r="A112" s="32">
         <v>110</v>
       </c>
-      <c r="B112" s="30"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="29" t="s">
+      <c r="D112" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
-      <c r="P112" s="29"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="31"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="31"/>
+      <c r="O112" s="31"/>
+      <c r="P112" s="31"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4610,52 +4619,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="30">
+      <c r="A113" s="32">
         <v>111</v>
       </c>
-      <c r="B113" s="30"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
-      <c r="P113" s="29"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="31"/>
+      <c r="O113" s="31"/>
+      <c r="P113" s="31"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="30">
+      <c r="A114" s="32">
         <v>112</v>
       </c>
-      <c r="B114" s="30"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
-      <c r="P114" s="29"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="31"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="31"/>
+      <c r="O114" s="31"/>
+      <c r="P114" s="31"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4670,29 +4679,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="30">
+      <c r="A115" s="32">
         <v>113</v>
       </c>
-      <c r="B115" s="30"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="29"/>
-      <c r="O115" s="29"/>
-      <c r="P115" s="29"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="31"/>
+      <c r="M115" s="31"/>
+      <c r="N115" s="31"/>
+      <c r="O115" s="31"/>
+      <c r="P115" s="31"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4707,29 +4716,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="30">
+      <c r="A116" s="32">
         <v>114</v>
       </c>
-      <c r="B116" s="30"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="29" t="s">
+      <c r="D116" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="31"/>
+      <c r="N116" s="31"/>
+      <c r="O116" s="31"/>
+      <c r="P116" s="31"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4744,52 +4753,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="30">
+      <c r="A117" s="32">
         <v>115</v>
       </c>
-      <c r="B117" s="30"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="29"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
-      <c r="M117" s="29"/>
-      <c r="N117" s="29"/>
-      <c r="O117" s="29"/>
-      <c r="P117" s="29"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="31"/>
+      <c r="M117" s="31"/>
+      <c r="N117" s="31"/>
+      <c r="O117" s="31"/>
+      <c r="P117" s="31"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="30">
+      <c r="A118" s="32">
         <v>116</v>
       </c>
-      <c r="B118" s="30"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="29"/>
-      <c r="O118" s="29"/>
-      <c r="P118" s="29"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="31"/>
+      <c r="M118" s="31"/>
+      <c r="N118" s="31"/>
+      <c r="O118" s="31"/>
+      <c r="P118" s="31"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4804,59 +4813,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="30">
+      <c r="A119" s="32">
         <v>117</v>
       </c>
-      <c r="B119" s="30"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="31"/>
-      <c r="M119" s="31"/>
-      <c r="N119" s="31"/>
-      <c r="O119" s="31"/>
-      <c r="P119" s="31"/>
-      <c r="Q119" s="31"/>
-      <c r="R119" s="31"/>
-      <c r="S119" s="31"/>
-      <c r="T119" s="31"/>
-      <c r="U119" s="31"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="30">
+      <c r="A120" s="32">
         <v>118</v>
       </c>
-      <c r="B120" s="30"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="29" t="s">
+      <c r="D120" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="31"/>
+      <c r="M120" s="31"/>
+      <c r="N120" s="31"/>
+      <c r="O120" s="31"/>
+      <c r="P120" s="31"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4871,29 +4880,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="30">
+      <c r="A121" s="32">
         <v>119</v>
       </c>
-      <c r="B121" s="30"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="29" t="s">
+      <c r="D121" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="29"/>
-      <c r="N121" s="29"/>
-      <c r="O121" s="29"/>
-      <c r="P121" s="29"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="31"/>
+      <c r="M121" s="31"/>
+      <c r="N121" s="31"/>
+      <c r="O121" s="31"/>
+      <c r="P121" s="31"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4908,52 +4917,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="30">
+      <c r="A122" s="32">
         <v>120</v>
       </c>
-      <c r="B122" s="30"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="29"/>
-      <c r="O122" s="29"/>
-      <c r="P122" s="29"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="31"/>
+      <c r="M122" s="31"/>
+      <c r="N122" s="31"/>
+      <c r="O122" s="31"/>
+      <c r="P122" s="31"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="30">
+      <c r="A123" s="32">
         <v>121</v>
       </c>
-      <c r="B123" s="30"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="29"/>
-      <c r="M123" s="29"/>
-      <c r="N123" s="29"/>
-      <c r="O123" s="29"/>
-      <c r="P123" s="29"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="31"/>
+      <c r="M123" s="31"/>
+      <c r="N123" s="31"/>
+      <c r="O123" s="31"/>
+      <c r="P123" s="31"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -4968,59 +4977,59 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="30">
+      <c r="A124" s="32">
         <v>122</v>
       </c>
-      <c r="B124" s="30"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="31"/>
-      <c r="N124" s="31"/>
-      <c r="O124" s="31"/>
-      <c r="P124" s="31"/>
-      <c r="Q124" s="31"/>
-      <c r="R124" s="31"/>
-      <c r="S124" s="31"/>
-      <c r="T124" s="31"/>
-      <c r="U124" s="31"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="30">
+      <c r="A125" s="32">
         <v>123</v>
       </c>
-      <c r="B125" s="30"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-      <c r="M125" s="29"/>
-      <c r="N125" s="29"/>
-      <c r="O125" s="29"/>
-      <c r="P125" s="29"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="31"/>
+      <c r="L125" s="31"/>
+      <c r="M125" s="31"/>
+      <c r="N125" s="31"/>
+      <c r="O125" s="31"/>
+      <c r="P125" s="31"/>
       <c r="Q125" s="9">
         <v>43486</v>
       </c>
@@ -5036,55 +5045,55 @@
       <c r="U125" s="25"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="30">
+      <c r="A126" s="32">
         <v>123</v>
       </c>
-      <c r="B126" s="30"/>
+      <c r="B126" s="32"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
-      <c r="M126" s="29"/>
-      <c r="N126" s="29"/>
-      <c r="O126" s="29"/>
-      <c r="P126" s="29"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="31"/>
+      <c r="N126" s="31"/>
+      <c r="O126" s="31"/>
+      <c r="P126" s="31"/>
       <c r="R126" s="26"/>
       <c r="T126" s="26"/>
       <c r="U126" s="25"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="30">
+      <c r="A127" s="32">
         <v>124</v>
       </c>
-      <c r="B127" s="30"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D127" s="29" t="s">
+      <c r="D127" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="29"/>
-      <c r="M127" s="29"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="29"/>
-      <c r="P127" s="29"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="31"/>
+      <c r="L127" s="31"/>
+      <c r="M127" s="31"/>
+      <c r="N127" s="31"/>
+      <c r="O127" s="31"/>
+      <c r="P127" s="31"/>
       <c r="Q127" s="9">
         <v>43487</v>
       </c>
@@ -5099,29 +5108,29 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="30">
+      <c r="A128" s="32">
         <v>125</v>
       </c>
-      <c r="B128" s="30"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="29"/>
-      <c r="L128" s="29"/>
-      <c r="M128" s="29"/>
-      <c r="N128" s="29"/>
-      <c r="O128" s="29"/>
-      <c r="P128" s="29"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="31"/>
+      <c r="O128" s="31"/>
+      <c r="P128" s="31"/>
       <c r="Q128" s="9">
         <v>43487</v>
       </c>
@@ -5136,29 +5145,29 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A129" s="30">
+      <c r="A129" s="32">
         <v>126</v>
       </c>
-      <c r="B129" s="30"/>
+      <c r="B129" s="32"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="29"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="29"/>
-      <c r="M129" s="29"/>
-      <c r="N129" s="29"/>
-      <c r="O129" s="29"/>
-      <c r="P129" s="29"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="31"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="31"/>
+      <c r="M129" s="31"/>
+      <c r="N129" s="31"/>
+      <c r="O129" s="31"/>
+      <c r="P129" s="31"/>
       <c r="Q129" s="9">
         <v>43487</v>
       </c>
@@ -5173,29 +5182,29 @@
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A130" s="30">
+      <c r="A130" s="32">
         <v>127</v>
       </c>
-      <c r="B130" s="30"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D130" s="29" t="s">
+      <c r="D130" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="29"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="29"/>
-      <c r="M130" s="29"/>
-      <c r="N130" s="29"/>
-      <c r="O130" s="29"/>
-      <c r="P130" s="29"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="31"/>
+      <c r="L130" s="31"/>
+      <c r="M130" s="31"/>
+      <c r="N130" s="31"/>
+      <c r="O130" s="31"/>
+      <c r="P130" s="31"/>
       <c r="Q130" s="9">
         <v>43487</v>
       </c>
@@ -5210,52 +5219,52 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A131" s="30">
+      <c r="A131" s="32">
         <v>128</v>
       </c>
-      <c r="B131" s="30"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="29"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="29"/>
-      <c r="M131" s="29"/>
-      <c r="N131" s="29"/>
-      <c r="O131" s="29"/>
-      <c r="P131" s="29"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="31"/>
+      <c r="L131" s="31"/>
+      <c r="M131" s="31"/>
+      <c r="N131" s="31"/>
+      <c r="O131" s="31"/>
+      <c r="P131" s="31"/>
     </row>
     <row r="132" spans="1:22" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="33">
+      <c r="A132" s="35">
         <v>129</v>
       </c>
-      <c r="B132" s="33"/>
+      <c r="B132" s="35"/>
       <c r="C132" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>!</v>
-      </c>
-      <c r="D132" s="36" t="s">
+        <v>OK</v>
+      </c>
+      <c r="D132" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="36"/>
-      <c r="N132" s="36"/>
-      <c r="O132" s="36"/>
-      <c r="P132" s="36"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="38"/>
+      <c r="P132" s="38"/>
       <c r="Q132" s="13">
         <v>43488</v>
       </c>
@@ -5263,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="S132" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="T132" s="27" t="s">
         <v>8</v>
@@ -5272,29 +5281,29 @@
       <c r="V132" s="22"/>
     </row>
     <row r="133" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33">
+      <c r="A133" s="35">
         <v>130</v>
       </c>
-      <c r="B133" s="33"/>
+      <c r="B133" s="35"/>
       <c r="C133" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D133" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
-      <c r="N133" s="35"/>
-      <c r="O133" s="35"/>
-      <c r="P133" s="35"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="37"/>
+      <c r="L133" s="37"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="37"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="37"/>
       <c r="Q133" s="13">
         <v>43488</v>
       </c>
@@ -5311,52 +5320,52 @@
       <c r="V133" s="22"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A134" s="30">
+      <c r="A134" s="32">
         <v>131</v>
       </c>
-      <c r="B134" s="30"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="8" t="str">
         <f t="shared" ref="C134:C197" si="2">IF(S134="", "",IF(S134&lt;=50%, "!!!", IF(S134&lt;=75%,"!!", IF(S134&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
-      <c r="M134" s="29"/>
-      <c r="N134" s="29"/>
-      <c r="O134" s="29"/>
-      <c r="P134" s="29"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="31"/>
+      <c r="K134" s="31"/>
+      <c r="L134" s="31"/>
+      <c r="M134" s="31"/>
+      <c r="N134" s="31"/>
+      <c r="O134" s="31"/>
+      <c r="P134" s="31"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A135" s="30">
+      <c r="A135" s="32">
         <v>132</v>
       </c>
-      <c r="B135" s="30"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D135" s="29" t="s">
+      <c r="D135" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="31"/>
+      <c r="M135" s="31"/>
+      <c r="N135" s="31"/>
+      <c r="O135" s="31"/>
+      <c r="P135" s="31"/>
       <c r="Q135" s="9">
         <v>43489</v>
       </c>
@@ -5374,52 +5383,52 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A136" s="30">
+      <c r="A136" s="32">
         <v>133</v>
       </c>
-      <c r="B136" s="30"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
-      <c r="M136" s="29"/>
-      <c r="N136" s="29"/>
-      <c r="O136" s="29"/>
-      <c r="P136" s="29"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="31"/>
+      <c r="M136" s="31"/>
+      <c r="N136" s="31"/>
+      <c r="O136" s="31"/>
+      <c r="P136" s="31"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A137" s="30">
+      <c r="A137" s="32">
         <v>134</v>
       </c>
-      <c r="B137" s="30"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
-      <c r="M137" s="29"/>
-      <c r="N137" s="29"/>
-      <c r="O137" s="29"/>
-      <c r="P137" s="29"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
+      <c r="L137" s="31"/>
+      <c r="M137" s="31"/>
+      <c r="N137" s="31"/>
+      <c r="O137" s="31"/>
+      <c r="P137" s="31"/>
       <c r="Q137" s="9">
         <v>43490</v>
       </c>
@@ -5434,29 +5443,29 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A138" s="30">
+      <c r="A138" s="32">
         <v>135</v>
       </c>
-      <c r="B138" s="30"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="29"/>
-      <c r="L138" s="29"/>
-      <c r="M138" s="29"/>
-      <c r="N138" s="29"/>
-      <c r="O138" s="29"/>
-      <c r="P138" s="29"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
+      <c r="L138" s="31"/>
+      <c r="M138" s="31"/>
+      <c r="N138" s="31"/>
+      <c r="O138" s="31"/>
+      <c r="P138" s="31"/>
       <c r="Q138" s="9">
         <v>43490</v>
       </c>
@@ -5471,29 +5480,29 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A139" s="30">
+      <c r="A139" s="32">
         <v>136</v>
       </c>
-      <c r="B139" s="30"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D139" s="29" t="s">
+      <c r="D139" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="29"/>
-      <c r="P139" s="29"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="31"/>
+      <c r="L139" s="31"/>
+      <c r="M139" s="31"/>
+      <c r="N139" s="31"/>
+      <c r="O139" s="31"/>
+      <c r="P139" s="31"/>
       <c r="Q139" s="9">
         <v>43490</v>
       </c>
@@ -5508,89 +5517,89 @@
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A140" s="30">
+      <c r="A140" s="32">
         <v>137</v>
       </c>
-      <c r="B140" s="30"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
-      <c r="M140" s="29"/>
-      <c r="N140" s="29"/>
-      <c r="O140" s="29"/>
-      <c r="P140" s="29"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="31"/>
+      <c r="M140" s="31"/>
+      <c r="N140" s="31"/>
+      <c r="O140" s="31"/>
+      <c r="P140" s="31"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="30">
+      <c r="A141" s="32">
+        <v>139</v>
+      </c>
+      <c r="B141" s="32"/>
+      <c r="C141" s="8" t="str">
+        <f>IF(S141="", "",IF(S141&lt;=50%, "!!!", IF(S141&lt;=75%,"!!", IF(S141&lt;100%, "!", "OK"))))</f>
+        <v>!!!</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="31"/>
+      <c r="P141" s="31"/>
+      <c r="Q141" s="9">
+        <v>43491</v>
+      </c>
+      <c r="R141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S141" s="10">
+        <v>0</v>
+      </c>
+      <c r="T141" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A142" s="32">
         <v>138</v>
       </c>
-      <c r="B141" s="30"/>
-      <c r="C141" s="8" t="str">
+      <c r="B142" s="32"/>
+      <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D141" s="29" t="s">
+      <c r="D142" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29"/>
-      <c r="N141" s="29"/>
-      <c r="O141" s="29"/>
-      <c r="P141" s="29"/>
-      <c r="Q141" s="9">
-        <v>43491</v>
-      </c>
-      <c r="R141" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S141" s="10">
-        <v>1</v>
-      </c>
-      <c r="T141" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A142" s="30">
-        <v>139</v>
-      </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>!!!</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="29"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="29"/>
-      <c r="N142" s="29"/>
-      <c r="O142" s="29"/>
-      <c r="P142" s="29"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="31"/>
+      <c r="K142" s="31"/>
+      <c r="L142" s="31"/>
+      <c r="M142" s="31"/>
+      <c r="N142" s="31"/>
+      <c r="O142" s="31"/>
+      <c r="P142" s="31"/>
       <c r="Q142" s="9">
         <v>43491</v>
       </c>
@@ -5598,1306 +5607,1322 @@
         <v>7</v>
       </c>
       <c r="S142" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="30">
-        <v>140</v>
-      </c>
-      <c r="B143" s="30"/>
+      <c r="A143" s="32">
+        <v>139</v>
+      </c>
+      <c r="B143" s="32"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
-      <c r="K143" s="31"/>
-      <c r="L143" s="31"/>
-      <c r="M143" s="31"/>
-      <c r="N143" s="31"/>
-      <c r="O143" s="31"/>
-      <c r="P143" s="31"/>
-      <c r="Q143" s="31"/>
-      <c r="R143" s="31"/>
-      <c r="S143" s="31"/>
-      <c r="T143" s="31"/>
-      <c r="U143" s="31"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A144" s="30">
-        <v>141</v>
-      </c>
-      <c r="B144" s="30"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="33"/>
+      <c r="L143" s="33"/>
+      <c r="M143" s="33"/>
+      <c r="N143" s="33"/>
+      <c r="O143" s="33"/>
+      <c r="P143" s="33"/>
+      <c r="Q143" s="33"/>
+      <c r="R143" s="33"/>
+      <c r="S143" s="33"/>
+      <c r="T143" s="33"/>
+      <c r="U143" s="33"/>
+    </row>
+    <row r="144" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="35">
+        <v>139.5</v>
+      </c>
+      <c r="B144" s="35"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
-      <c r="M144" s="29"/>
-      <c r="N144" s="29"/>
-      <c r="O144" s="29"/>
-      <c r="P144" s="29"/>
+        <v>!!</v>
+      </c>
+      <c r="D144" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="37"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="37"/>
+      <c r="O144" s="37"/>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="13">
+        <v>43493</v>
+      </c>
+      <c r="R144" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S144" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T144" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="U144" s="30"/>
+      <c r="V144" s="22"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="30">
-        <v>142</v>
-      </c>
-      <c r="B145" s="30"/>
+      <c r="A145" s="32">
+        <v>140</v>
+      </c>
+      <c r="B145" s="32"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
-      <c r="M145" s="29"/>
-      <c r="N145" s="29"/>
-      <c r="O145" s="29"/>
-      <c r="P145" s="29"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="31"/>
+      <c r="K145" s="31"/>
+      <c r="L145" s="31"/>
+      <c r="M145" s="31"/>
+      <c r="N145" s="31"/>
+      <c r="O145" s="31"/>
+      <c r="P145" s="31"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="30">
-        <v>143</v>
-      </c>
-      <c r="B146" s="30"/>
+      <c r="A146" s="32">
+        <v>140.5</v>
+      </c>
+      <c r="B146" s="32"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29"/>
-      <c r="N146" s="29"/>
-      <c r="O146" s="29"/>
-      <c r="P146" s="29"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
+      <c r="L146" s="31"/>
+      <c r="M146" s="31"/>
+      <c r="N146" s="31"/>
+      <c r="O146" s="31"/>
+      <c r="P146" s="31"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="30">
-        <v>144</v>
-      </c>
-      <c r="B147" s="30"/>
+      <c r="A147" s="32">
+        <v>141</v>
+      </c>
+      <c r="B147" s="32"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
-      <c r="M147" s="29"/>
-      <c r="N147" s="29"/>
-      <c r="O147" s="29"/>
-      <c r="P147" s="29"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="31"/>
+      <c r="L147" s="31"/>
+      <c r="M147" s="31"/>
+      <c r="N147" s="31"/>
+      <c r="O147" s="31"/>
+      <c r="P147" s="31"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="30">
-        <v>145</v>
-      </c>
-      <c r="B148" s="30"/>
+      <c r="A148" s="32">
+        <v>141.5</v>
+      </c>
+      <c r="B148" s="32"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="29"/>
-      <c r="P148" s="29"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="31"/>
+      <c r="K148" s="31"/>
+      <c r="L148" s="31"/>
+      <c r="M148" s="31"/>
+      <c r="N148" s="31"/>
+      <c r="O148" s="31"/>
+      <c r="P148" s="31"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="30">
-        <v>146</v>
-      </c>
-      <c r="B149" s="30"/>
+      <c r="A149" s="32">
+        <v>142</v>
+      </c>
+      <c r="B149" s="32"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="29"/>
-      <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
-      <c r="M149" s="29"/>
-      <c r="N149" s="29"/>
-      <c r="O149" s="29"/>
-      <c r="P149" s="29"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="31"/>
+      <c r="L149" s="31"/>
+      <c r="M149" s="31"/>
+      <c r="N149" s="31"/>
+      <c r="O149" s="31"/>
+      <c r="P149" s="31"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="30">
-        <v>147</v>
-      </c>
-      <c r="B150" s="30"/>
+      <c r="A150" s="32">
+        <v>142.5</v>
+      </c>
+      <c r="B150" s="32"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="29"/>
-      <c r="L150" s="29"/>
-      <c r="M150" s="29"/>
-      <c r="N150" s="29"/>
-      <c r="O150" s="29"/>
-      <c r="P150" s="29"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="31"/>
+      <c r="L150" s="31"/>
+      <c r="M150" s="31"/>
+      <c r="N150" s="31"/>
+      <c r="O150" s="31"/>
+      <c r="P150" s="31"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="30">
-        <v>148</v>
-      </c>
-      <c r="B151" s="30"/>
+      <c r="A151" s="32">
+        <v>143</v>
+      </c>
+      <c r="B151" s="32"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="29"/>
-      <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
-      <c r="M151" s="29"/>
-      <c r="N151" s="29"/>
-      <c r="O151" s="29"/>
-      <c r="P151" s="29"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="31"/>
+      <c r="L151" s="31"/>
+      <c r="M151" s="31"/>
+      <c r="N151" s="31"/>
+      <c r="O151" s="31"/>
+      <c r="P151" s="31"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="30">
-        <v>149</v>
-      </c>
-      <c r="B152" s="30"/>
+      <c r="A152" s="32">
+        <v>143.5</v>
+      </c>
+      <c r="B152" s="32"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="29"/>
-      <c r="L152" s="29"/>
-      <c r="M152" s="29"/>
-      <c r="N152" s="29"/>
-      <c r="O152" s="29"/>
-      <c r="P152" s="29"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="31"/>
+      <c r="K152" s="31"/>
+      <c r="L152" s="31"/>
+      <c r="M152" s="31"/>
+      <c r="N152" s="31"/>
+      <c r="O152" s="31"/>
+      <c r="P152" s="31"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="30">
-        <v>150</v>
-      </c>
-      <c r="B153" s="30"/>
+      <c r="A153" s="32">
+        <v>144</v>
+      </c>
+      <c r="B153" s="32"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
-      <c r="P153" s="29"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
+      <c r="L153" s="31"/>
+      <c r="M153" s="31"/>
+      <c r="N153" s="31"/>
+      <c r="O153" s="31"/>
+      <c r="P153" s="31"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="30">
-        <v>151</v>
-      </c>
-      <c r="B154" s="30"/>
+      <c r="A154" s="32">
+        <v>144.5</v>
+      </c>
+      <c r="B154" s="32"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
-      <c r="P154" s="29"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
+      <c r="L154" s="31"/>
+      <c r="M154" s="31"/>
+      <c r="N154" s="31"/>
+      <c r="O154" s="31"/>
+      <c r="P154" s="31"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="30">
-        <v>152</v>
-      </c>
-      <c r="B155" s="30"/>
+      <c r="A155" s="32">
+        <v>145</v>
+      </c>
+      <c r="B155" s="32"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
-      <c r="P155" s="29"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="31"/>
+      <c r="J155" s="31"/>
+      <c r="K155" s="31"/>
+      <c r="L155" s="31"/>
+      <c r="M155" s="31"/>
+      <c r="N155" s="31"/>
+      <c r="O155" s="31"/>
+      <c r="P155" s="31"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="30">
-        <v>153</v>
-      </c>
-      <c r="B156" s="30"/>
+      <c r="A156" s="32">
+        <v>145.5</v>
+      </c>
+      <c r="B156" s="32"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="31"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
+      <c r="L156" s="31"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="31"/>
+      <c r="O156" s="31"/>
+      <c r="P156" s="31"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="30">
-        <v>154</v>
-      </c>
-      <c r="B157" s="30"/>
+      <c r="A157" s="32">
+        <v>146</v>
+      </c>
+      <c r="B157" s="32"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="31"/>
+      <c r="J157" s="31"/>
+      <c r="K157" s="31"/>
+      <c r="L157" s="31"/>
+      <c r="M157" s="31"/>
+      <c r="N157" s="31"/>
+      <c r="O157" s="31"/>
+      <c r="P157" s="31"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="30">
-        <v>155</v>
-      </c>
-      <c r="B158" s="30"/>
+      <c r="A158" s="32">
+        <v>146.5</v>
+      </c>
+      <c r="B158" s="32"/>
       <c r="C158" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29"/>
-      <c r="N158" s="29"/>
-      <c r="O158" s="29"/>
-      <c r="P158" s="29"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
+      <c r="I158" s="31"/>
+      <c r="J158" s="31"/>
+      <c r="K158" s="31"/>
+      <c r="L158" s="31"/>
+      <c r="M158" s="31"/>
+      <c r="N158" s="31"/>
+      <c r="O158" s="31"/>
+      <c r="P158" s="31"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="30">
-        <v>156</v>
-      </c>
-      <c r="B159" s="30"/>
+      <c r="A159" s="32">
+        <v>147</v>
+      </c>
+      <c r="B159" s="32"/>
       <c r="C159" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
-      <c r="P159" s="29"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
+      <c r="I159" s="31"/>
+      <c r="J159" s="31"/>
+      <c r="K159" s="31"/>
+      <c r="L159" s="31"/>
+      <c r="M159" s="31"/>
+      <c r="N159" s="31"/>
+      <c r="O159" s="31"/>
+      <c r="P159" s="31"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="30">
-        <v>157</v>
-      </c>
-      <c r="B160" s="30"/>
+      <c r="A160" s="32">
+        <v>147.5</v>
+      </c>
+      <c r="B160" s="32"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="29"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="31"/>
+      <c r="J160" s="31"/>
+      <c r="K160" s="31"/>
+      <c r="L160" s="31"/>
+      <c r="M160" s="31"/>
+      <c r="N160" s="31"/>
+      <c r="O160" s="31"/>
+      <c r="P160" s="31"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="30">
-        <v>158</v>
-      </c>
-      <c r="B161" s="30"/>
+      <c r="A161" s="32">
+        <v>148</v>
+      </c>
+      <c r="B161" s="32"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="29"/>
-      <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="29"/>
-      <c r="N161" s="29"/>
-      <c r="O161" s="29"/>
-      <c r="P161" s="29"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="31"/>
+      <c r="J161" s="31"/>
+      <c r="K161" s="31"/>
+      <c r="L161" s="31"/>
+      <c r="M161" s="31"/>
+      <c r="N161" s="31"/>
+      <c r="O161" s="31"/>
+      <c r="P161" s="31"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162" s="30">
-        <v>159</v>
-      </c>
-      <c r="B162" s="30"/>
+      <c r="A162" s="32">
+        <v>148.5</v>
+      </c>
+      <c r="B162" s="32"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="29"/>
-      <c r="K162" s="29"/>
-      <c r="L162" s="29"/>
-      <c r="M162" s="29"/>
-      <c r="N162" s="29"/>
-      <c r="O162" s="29"/>
-      <c r="P162" s="29"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="31"/>
+      <c r="H162" s="31"/>
+      <c r="I162" s="31"/>
+      <c r="J162" s="31"/>
+      <c r="K162" s="31"/>
+      <c r="L162" s="31"/>
+      <c r="M162" s="31"/>
+      <c r="N162" s="31"/>
+      <c r="O162" s="31"/>
+      <c r="P162" s="31"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="30">
-        <v>160</v>
-      </c>
-      <c r="B163" s="30"/>
+      <c r="A163" s="32">
+        <v>149</v>
+      </c>
+      <c r="B163" s="32"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="29"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="29"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
+      <c r="I163" s="31"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="31"/>
+      <c r="L163" s="31"/>
+      <c r="M163" s="31"/>
+      <c r="N163" s="31"/>
+      <c r="O163" s="31"/>
+      <c r="P163" s="31"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="30">
-        <v>161</v>
-      </c>
-      <c r="B164" s="30"/>
+      <c r="A164" s="32">
+        <v>149.5</v>
+      </c>
+      <c r="B164" s="32"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
-      <c r="M164" s="29"/>
-      <c r="N164" s="29"/>
-      <c r="O164" s="29"/>
-      <c r="P164" s="29"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="31"/>
+      <c r="I164" s="31"/>
+      <c r="J164" s="31"/>
+      <c r="K164" s="31"/>
+      <c r="L164" s="31"/>
+      <c r="M164" s="31"/>
+      <c r="N164" s="31"/>
+      <c r="O164" s="31"/>
+      <c r="P164" s="31"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="30">
-        <v>162</v>
-      </c>
-      <c r="B165" s="30"/>
+      <c r="A165" s="32">
+        <v>150</v>
+      </c>
+      <c r="B165" s="32"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="29"/>
-      <c r="L165" s="29"/>
-      <c r="M165" s="29"/>
-      <c r="N165" s="29"/>
-      <c r="O165" s="29"/>
-      <c r="P165" s="29"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
+      <c r="I165" s="31"/>
+      <c r="J165" s="31"/>
+      <c r="K165" s="31"/>
+      <c r="L165" s="31"/>
+      <c r="M165" s="31"/>
+      <c r="N165" s="31"/>
+      <c r="O165" s="31"/>
+      <c r="P165" s="31"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="30">
-        <v>163</v>
-      </c>
-      <c r="B166" s="30"/>
+      <c r="A166" s="32">
+        <v>150.5</v>
+      </c>
+      <c r="B166" s="32"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
-      <c r="J166" s="29"/>
-      <c r="K166" s="29"/>
-      <c r="L166" s="29"/>
-      <c r="M166" s="29"/>
-      <c r="N166" s="29"/>
-      <c r="O166" s="29"/>
-      <c r="P166" s="29"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
+      <c r="I166" s="31"/>
+      <c r="J166" s="31"/>
+      <c r="K166" s="31"/>
+      <c r="L166" s="31"/>
+      <c r="M166" s="31"/>
+      <c r="N166" s="31"/>
+      <c r="O166" s="31"/>
+      <c r="P166" s="31"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="30">
-        <v>164</v>
-      </c>
-      <c r="B167" s="30"/>
+      <c r="A167" s="32">
+        <v>151</v>
+      </c>
+      <c r="B167" s="32"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
-      <c r="J167" s="29"/>
-      <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
-      <c r="M167" s="29"/>
-      <c r="N167" s="29"/>
-      <c r="O167" s="29"/>
-      <c r="P167" s="29"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="31"/>
+      <c r="J167" s="31"/>
+      <c r="K167" s="31"/>
+      <c r="L167" s="31"/>
+      <c r="M167" s="31"/>
+      <c r="N167" s="31"/>
+      <c r="O167" s="31"/>
+      <c r="P167" s="31"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="30">
-        <v>165</v>
-      </c>
-      <c r="B168" s="30"/>
+      <c r="A168" s="32">
+        <v>151.5</v>
+      </c>
+      <c r="B168" s="32"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="29"/>
-      <c r="L168" s="29"/>
-      <c r="M168" s="29"/>
-      <c r="N168" s="29"/>
-      <c r="O168" s="29"/>
-      <c r="P168" s="29"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="31"/>
+      <c r="I168" s="31"/>
+      <c r="J168" s="31"/>
+      <c r="K168" s="31"/>
+      <c r="L168" s="31"/>
+      <c r="M168" s="31"/>
+      <c r="N168" s="31"/>
+      <c r="O168" s="31"/>
+      <c r="P168" s="31"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="30">
-        <v>166</v>
-      </c>
-      <c r="B169" s="30"/>
+      <c r="A169" s="32">
+        <v>152</v>
+      </c>
+      <c r="B169" s="32"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
-      <c r="J169" s="29"/>
-      <c r="K169" s="29"/>
-      <c r="L169" s="29"/>
-      <c r="M169" s="29"/>
-      <c r="N169" s="29"/>
-      <c r="O169" s="29"/>
-      <c r="P169" s="29"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
+      <c r="H169" s="31"/>
+      <c r="I169" s="31"/>
+      <c r="J169" s="31"/>
+      <c r="K169" s="31"/>
+      <c r="L169" s="31"/>
+      <c r="M169" s="31"/>
+      <c r="N169" s="31"/>
+      <c r="O169" s="31"/>
+      <c r="P169" s="31"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="30">
-        <v>167</v>
-      </c>
-      <c r="B170" s="30"/>
+      <c r="A170" s="32">
+        <v>152.5</v>
+      </c>
+      <c r="B170" s="32"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
-      <c r="J170" s="29"/>
-      <c r="K170" s="29"/>
-      <c r="L170" s="29"/>
-      <c r="M170" s="29"/>
-      <c r="N170" s="29"/>
-      <c r="O170" s="29"/>
-      <c r="P170" s="29"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31"/>
+      <c r="H170" s="31"/>
+      <c r="I170" s="31"/>
+      <c r="J170" s="31"/>
+      <c r="K170" s="31"/>
+      <c r="L170" s="31"/>
+      <c r="M170" s="31"/>
+      <c r="N170" s="31"/>
+      <c r="O170" s="31"/>
+      <c r="P170" s="31"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A171" s="30">
-        <v>168</v>
-      </c>
-      <c r="B171" s="30"/>
+      <c r="A171" s="32">
+        <v>153</v>
+      </c>
+      <c r="B171" s="32"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
-      <c r="J171" s="29"/>
-      <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29"/>
-      <c r="O171" s="29"/>
-      <c r="P171" s="29"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="31"/>
+      <c r="I171" s="31"/>
+      <c r="J171" s="31"/>
+      <c r="K171" s="31"/>
+      <c r="L171" s="31"/>
+      <c r="M171" s="31"/>
+      <c r="N171" s="31"/>
+      <c r="O171" s="31"/>
+      <c r="P171" s="31"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="30">
-        <v>169</v>
-      </c>
-      <c r="B172" s="30"/>
+      <c r="A172" s="32">
+        <v>153.5</v>
+      </c>
+      <c r="B172" s="32"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-      <c r="J172" s="29"/>
-      <c r="K172" s="29"/>
-      <c r="L172" s="29"/>
-      <c r="M172" s="29"/>
-      <c r="N172" s="29"/>
-      <c r="O172" s="29"/>
-      <c r="P172" s="29"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="31"/>
+      <c r="I172" s="31"/>
+      <c r="J172" s="31"/>
+      <c r="K172" s="31"/>
+      <c r="L172" s="31"/>
+      <c r="M172" s="31"/>
+      <c r="N172" s="31"/>
+      <c r="O172" s="31"/>
+      <c r="P172" s="31"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A173" s="30">
-        <v>170</v>
-      </c>
-      <c r="B173" s="30"/>
+      <c r="A173" s="32">
+        <v>154</v>
+      </c>
+      <c r="B173" s="32"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="29"/>
-      <c r="I173" s="29"/>
-      <c r="J173" s="29"/>
-      <c r="K173" s="29"/>
-      <c r="L173" s="29"/>
-      <c r="M173" s="29"/>
-      <c r="N173" s="29"/>
-      <c r="O173" s="29"/>
-      <c r="P173" s="29"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="31"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="31"/>
+      <c r="L173" s="31"/>
+      <c r="M173" s="31"/>
+      <c r="N173" s="31"/>
+      <c r="O173" s="31"/>
+      <c r="P173" s="31"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="30">
-        <v>171</v>
-      </c>
-      <c r="B174" s="30"/>
+      <c r="A174" s="32">
+        <v>154.5</v>
+      </c>
+      <c r="B174" s="32"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="29"/>
-      <c r="H174" s="29"/>
-      <c r="I174" s="29"/>
-      <c r="J174" s="29"/>
-      <c r="K174" s="29"/>
-      <c r="L174" s="29"/>
-      <c r="M174" s="29"/>
-      <c r="N174" s="29"/>
-      <c r="O174" s="29"/>
-      <c r="P174" s="29"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="31"/>
+      <c r="I174" s="31"/>
+      <c r="J174" s="31"/>
+      <c r="K174" s="31"/>
+      <c r="L174" s="31"/>
+      <c r="M174" s="31"/>
+      <c r="N174" s="31"/>
+      <c r="O174" s="31"/>
+      <c r="P174" s="31"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="30">
-        <v>172</v>
-      </c>
-      <c r="B175" s="30"/>
+      <c r="A175" s="32">
+        <v>155</v>
+      </c>
+      <c r="B175" s="32"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="29"/>
-      <c r="H175" s="29"/>
-      <c r="I175" s="29"/>
-      <c r="J175" s="29"/>
-      <c r="K175" s="29"/>
-      <c r="L175" s="29"/>
-      <c r="M175" s="29"/>
-      <c r="N175" s="29"/>
-      <c r="O175" s="29"/>
-      <c r="P175" s="29"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="31"/>
+      <c r="H175" s="31"/>
+      <c r="I175" s="31"/>
+      <c r="J175" s="31"/>
+      <c r="K175" s="31"/>
+      <c r="L175" s="31"/>
+      <c r="M175" s="31"/>
+      <c r="N175" s="31"/>
+      <c r="O175" s="31"/>
+      <c r="P175" s="31"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="30">
-        <v>173</v>
-      </c>
-      <c r="B176" s="30"/>
+      <c r="A176" s="32">
+        <v>155.5</v>
+      </c>
+      <c r="B176" s="32"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="29"/>
-      <c r="H176" s="29"/>
-      <c r="I176" s="29"/>
-      <c r="J176" s="29"/>
-      <c r="K176" s="29"/>
-      <c r="L176" s="29"/>
-      <c r="M176" s="29"/>
-      <c r="N176" s="29"/>
-      <c r="O176" s="29"/>
-      <c r="P176" s="29"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31"/>
+      <c r="H176" s="31"/>
+      <c r="I176" s="31"/>
+      <c r="J176" s="31"/>
+      <c r="K176" s="31"/>
+      <c r="L176" s="31"/>
+      <c r="M176" s="31"/>
+      <c r="N176" s="31"/>
+      <c r="O176" s="31"/>
+      <c r="P176" s="31"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="30">
-        <v>174</v>
-      </c>
-      <c r="B177" s="30"/>
+      <c r="A177" s="32">
+        <v>156</v>
+      </c>
+      <c r="B177" s="32"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="29"/>
-      <c r="I177" s="29"/>
-      <c r="J177" s="29"/>
-      <c r="K177" s="29"/>
-      <c r="L177" s="29"/>
-      <c r="M177" s="29"/>
-      <c r="N177" s="29"/>
-      <c r="O177" s="29"/>
-      <c r="P177" s="29"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="31"/>
+      <c r="I177" s="31"/>
+      <c r="J177" s="31"/>
+      <c r="K177" s="31"/>
+      <c r="L177" s="31"/>
+      <c r="M177" s="31"/>
+      <c r="N177" s="31"/>
+      <c r="O177" s="31"/>
+      <c r="P177" s="31"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="30">
-        <v>175</v>
-      </c>
-      <c r="B178" s="30"/>
+      <c r="A178" s="32">
+        <v>156.5</v>
+      </c>
+      <c r="B178" s="32"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="29"/>
-      <c r="J178" s="29"/>
-      <c r="K178" s="29"/>
-      <c r="L178" s="29"/>
-      <c r="M178" s="29"/>
-      <c r="N178" s="29"/>
-      <c r="O178" s="29"/>
-      <c r="P178" s="29"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="31"/>
+      <c r="I178" s="31"/>
+      <c r="J178" s="31"/>
+      <c r="K178" s="31"/>
+      <c r="L178" s="31"/>
+      <c r="M178" s="31"/>
+      <c r="N178" s="31"/>
+      <c r="O178" s="31"/>
+      <c r="P178" s="31"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="30">
-        <v>176</v>
-      </c>
-      <c r="B179" s="30"/>
+      <c r="A179" s="32">
+        <v>157</v>
+      </c>
+      <c r="B179" s="32"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="29"/>
-      <c r="I179" s="29"/>
-      <c r="J179" s="29"/>
-      <c r="K179" s="29"/>
-      <c r="L179" s="29"/>
-      <c r="M179" s="29"/>
-      <c r="N179" s="29"/>
-      <c r="O179" s="29"/>
-      <c r="P179" s="29"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="31"/>
+      <c r="I179" s="31"/>
+      <c r="J179" s="31"/>
+      <c r="K179" s="31"/>
+      <c r="L179" s="31"/>
+      <c r="M179" s="31"/>
+      <c r="N179" s="31"/>
+      <c r="O179" s="31"/>
+      <c r="P179" s="31"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="30">
-        <v>177</v>
-      </c>
-      <c r="B180" s="30"/>
+      <c r="A180" s="32">
+        <v>157.5</v>
+      </c>
+      <c r="B180" s="32"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D180" s="29"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="29"/>
-      <c r="I180" s="29"/>
-      <c r="J180" s="29"/>
-      <c r="K180" s="29"/>
-      <c r="L180" s="29"/>
-      <c r="M180" s="29"/>
-      <c r="N180" s="29"/>
-      <c r="O180" s="29"/>
-      <c r="P180" s="29"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="31"/>
+      <c r="I180" s="31"/>
+      <c r="J180" s="31"/>
+      <c r="K180" s="31"/>
+      <c r="L180" s="31"/>
+      <c r="M180" s="31"/>
+      <c r="N180" s="31"/>
+      <c r="O180" s="31"/>
+      <c r="P180" s="31"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="30">
-        <v>178</v>
-      </c>
-      <c r="B181" s="30"/>
+      <c r="A181" s="32">
+        <v>158</v>
+      </c>
+      <c r="B181" s="32"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
-      <c r="I181" s="29"/>
-      <c r="J181" s="29"/>
-      <c r="K181" s="29"/>
-      <c r="L181" s="29"/>
-      <c r="M181" s="29"/>
-      <c r="N181" s="29"/>
-      <c r="O181" s="29"/>
-      <c r="P181" s="29"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
+      <c r="I181" s="31"/>
+      <c r="J181" s="31"/>
+      <c r="K181" s="31"/>
+      <c r="L181" s="31"/>
+      <c r="M181" s="31"/>
+      <c r="N181" s="31"/>
+      <c r="O181" s="31"/>
+      <c r="P181" s="31"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="30">
-        <v>179</v>
-      </c>
-      <c r="B182" s="30"/>
+      <c r="A182" s="32">
+        <v>158.5</v>
+      </c>
+      <c r="B182" s="32"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="29"/>
-      <c r="I182" s="29"/>
-      <c r="J182" s="29"/>
-      <c r="K182" s="29"/>
-      <c r="L182" s="29"/>
-      <c r="M182" s="29"/>
-      <c r="N182" s="29"/>
-      <c r="O182" s="29"/>
-      <c r="P182" s="29"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31"/>
+      <c r="H182" s="31"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31"/>
+      <c r="K182" s="31"/>
+      <c r="L182" s="31"/>
+      <c r="M182" s="31"/>
+      <c r="N182" s="31"/>
+      <c r="O182" s="31"/>
+      <c r="P182" s="31"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="30">
-        <v>180</v>
-      </c>
-      <c r="B183" s="30"/>
+      <c r="A183" s="32">
+        <v>159</v>
+      </c>
+      <c r="B183" s="32"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="29"/>
-      <c r="H183" s="29"/>
-      <c r="I183" s="29"/>
-      <c r="J183" s="29"/>
-      <c r="K183" s="29"/>
-      <c r="L183" s="29"/>
-      <c r="M183" s="29"/>
-      <c r="N183" s="29"/>
-      <c r="O183" s="29"/>
-      <c r="P183" s="29"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="31"/>
+      <c r="I183" s="31"/>
+      <c r="J183" s="31"/>
+      <c r="K183" s="31"/>
+      <c r="L183" s="31"/>
+      <c r="M183" s="31"/>
+      <c r="N183" s="31"/>
+      <c r="O183" s="31"/>
+      <c r="P183" s="31"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="30">
-        <v>181</v>
-      </c>
-      <c r="B184" s="30"/>
+      <c r="A184" s="32">
+        <v>159.5</v>
+      </c>
+      <c r="B184" s="32"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
-      <c r="H184" s="29"/>
-      <c r="I184" s="29"/>
-      <c r="J184" s="29"/>
-      <c r="K184" s="29"/>
-      <c r="L184" s="29"/>
-      <c r="M184" s="29"/>
-      <c r="N184" s="29"/>
-      <c r="O184" s="29"/>
-      <c r="P184" s="29"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="31"/>
+      <c r="I184" s="31"/>
+      <c r="J184" s="31"/>
+      <c r="K184" s="31"/>
+      <c r="L184" s="31"/>
+      <c r="M184" s="31"/>
+      <c r="N184" s="31"/>
+      <c r="O184" s="31"/>
+      <c r="P184" s="31"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="30">
-        <v>182</v>
-      </c>
-      <c r="B185" s="30"/>
+      <c r="A185" s="32">
+        <v>160</v>
+      </c>
+      <c r="B185" s="32"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="29"/>
-      <c r="I185" s="29"/>
-      <c r="J185" s="29"/>
-      <c r="K185" s="29"/>
-      <c r="L185" s="29"/>
-      <c r="M185" s="29"/>
-      <c r="N185" s="29"/>
-      <c r="O185" s="29"/>
-      <c r="P185" s="29"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="31"/>
+      <c r="I185" s="31"/>
+      <c r="J185" s="31"/>
+      <c r="K185" s="31"/>
+      <c r="L185" s="31"/>
+      <c r="M185" s="31"/>
+      <c r="N185" s="31"/>
+      <c r="O185" s="31"/>
+      <c r="P185" s="31"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="30">
-        <v>183</v>
-      </c>
-      <c r="B186" s="30"/>
+      <c r="A186" s="32">
+        <v>160.5</v>
+      </c>
+      <c r="B186" s="32"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D186" s="29"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="29"/>
-      <c r="I186" s="29"/>
-      <c r="J186" s="29"/>
-      <c r="K186" s="29"/>
-      <c r="L186" s="29"/>
-      <c r="M186" s="29"/>
-      <c r="N186" s="29"/>
-      <c r="O186" s="29"/>
-      <c r="P186" s="29"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
+      <c r="K186" s="31"/>
+      <c r="L186" s="31"/>
+      <c r="M186" s="31"/>
+      <c r="N186" s="31"/>
+      <c r="O186" s="31"/>
+      <c r="P186" s="31"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="30">
-        <v>184</v>
-      </c>
-      <c r="B187" s="30"/>
+      <c r="A187" s="32">
+        <v>161</v>
+      </c>
+      <c r="B187" s="32"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="29"/>
-      <c r="I187" s="29"/>
-      <c r="J187" s="29"/>
-      <c r="K187" s="29"/>
-      <c r="L187" s="29"/>
-      <c r="M187" s="29"/>
-      <c r="N187" s="29"/>
-      <c r="O187" s="29"/>
-      <c r="P187" s="29"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
+      <c r="I187" s="31"/>
+      <c r="J187" s="31"/>
+      <c r="K187" s="31"/>
+      <c r="L187" s="31"/>
+      <c r="M187" s="31"/>
+      <c r="N187" s="31"/>
+      <c r="O187" s="31"/>
+      <c r="P187" s="31"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="30">
-        <v>185</v>
-      </c>
-      <c r="B188" s="30"/>
+      <c r="A188" s="32">
+        <v>161.5</v>
+      </c>
+      <c r="B188" s="32"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="29"/>
-      <c r="I188" s="29"/>
-      <c r="J188" s="29"/>
-      <c r="K188" s="29"/>
-      <c r="L188" s="29"/>
-      <c r="M188" s="29"/>
-      <c r="N188" s="29"/>
-      <c r="O188" s="29"/>
-      <c r="P188" s="29"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
+      <c r="I188" s="31"/>
+      <c r="J188" s="31"/>
+      <c r="K188" s="31"/>
+      <c r="L188" s="31"/>
+      <c r="M188" s="31"/>
+      <c r="N188" s="31"/>
+      <c r="O188" s="31"/>
+      <c r="P188" s="31"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="30">
-        <v>186</v>
-      </c>
-      <c r="B189" s="30"/>
+      <c r="A189" s="32">
+        <v>162</v>
+      </c>
+      <c r="B189" s="32"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D189" s="29"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="29"/>
-      <c r="I189" s="29"/>
-      <c r="J189" s="29"/>
-      <c r="K189" s="29"/>
-      <c r="L189" s="29"/>
-      <c r="M189" s="29"/>
-      <c r="N189" s="29"/>
-      <c r="O189" s="29"/>
-      <c r="P189" s="29"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31"/>
+      <c r="H189" s="31"/>
+      <c r="I189" s="31"/>
+      <c r="J189" s="31"/>
+      <c r="K189" s="31"/>
+      <c r="L189" s="31"/>
+      <c r="M189" s="31"/>
+      <c r="N189" s="31"/>
+      <c r="O189" s="31"/>
+      <c r="P189" s="31"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="30">
-        <v>187</v>
-      </c>
-      <c r="B190" s="30"/>
+      <c r="A190" s="32">
+        <v>162.5</v>
+      </c>
+      <c r="B190" s="32"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D190" s="29"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="29"/>
-      <c r="I190" s="29"/>
-      <c r="J190" s="29"/>
-      <c r="K190" s="29"/>
-      <c r="L190" s="29"/>
-      <c r="M190" s="29"/>
-      <c r="N190" s="29"/>
-      <c r="O190" s="29"/>
-      <c r="P190" s="29"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="31"/>
+      <c r="I190" s="31"/>
+      <c r="J190" s="31"/>
+      <c r="K190" s="31"/>
+      <c r="L190" s="31"/>
+      <c r="M190" s="31"/>
+      <c r="N190" s="31"/>
+      <c r="O190" s="31"/>
+      <c r="P190" s="31"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="30">
-        <v>188</v>
-      </c>
-      <c r="B191" s="30"/>
+      <c r="A191" s="32">
+        <v>163</v>
+      </c>
+      <c r="B191" s="32"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="29"/>
-      <c r="H191" s="29"/>
-      <c r="I191" s="29"/>
-      <c r="J191" s="29"/>
-      <c r="K191" s="29"/>
-      <c r="L191" s="29"/>
-      <c r="M191" s="29"/>
-      <c r="N191" s="29"/>
-      <c r="O191" s="29"/>
-      <c r="P191" s="29"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="31"/>
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
+      <c r="K191" s="31"/>
+      <c r="L191" s="31"/>
+      <c r="M191" s="31"/>
+      <c r="N191" s="31"/>
+      <c r="O191" s="31"/>
+      <c r="P191" s="31"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="30">
-        <v>189</v>
-      </c>
-      <c r="B192" s="30"/>
+      <c r="A192" s="32">
+        <v>163.5</v>
+      </c>
+      <c r="B192" s="32"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="29"/>
-      <c r="I192" s="29"/>
-      <c r="J192" s="29"/>
-      <c r="K192" s="29"/>
-      <c r="L192" s="29"/>
-      <c r="M192" s="29"/>
-      <c r="N192" s="29"/>
-      <c r="O192" s="29"/>
-      <c r="P192" s="29"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="31"/>
+      <c r="H192" s="31"/>
+      <c r="I192" s="31"/>
+      <c r="J192" s="31"/>
+      <c r="K192" s="31"/>
+      <c r="L192" s="31"/>
+      <c r="M192" s="31"/>
+      <c r="N192" s="31"/>
+      <c r="O192" s="31"/>
+      <c r="P192" s="31"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="30">
-        <v>190</v>
-      </c>
-      <c r="B193" s="30"/>
+      <c r="A193" s="32">
+        <v>164</v>
+      </c>
+      <c r="B193" s="32"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="29"/>
-      <c r="I193" s="29"/>
-      <c r="J193" s="29"/>
-      <c r="K193" s="29"/>
-      <c r="L193" s="29"/>
-      <c r="M193" s="29"/>
-      <c r="N193" s="29"/>
-      <c r="O193" s="29"/>
-      <c r="P193" s="29"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
+      <c r="I193" s="31"/>
+      <c r="J193" s="31"/>
+      <c r="K193" s="31"/>
+      <c r="L193" s="31"/>
+      <c r="M193" s="31"/>
+      <c r="N193" s="31"/>
+      <c r="O193" s="31"/>
+      <c r="P193" s="31"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="30">
-        <v>191</v>
-      </c>
-      <c r="B194" s="30"/>
+      <c r="A194" s="32">
+        <v>164.5</v>
+      </c>
+      <c r="B194" s="32"/>
       <c r="C194" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D194" s="29"/>
-      <c r="E194" s="29"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29"/>
-      <c r="H194" s="29"/>
-      <c r="I194" s="29"/>
-      <c r="J194" s="29"/>
-      <c r="K194" s="29"/>
-      <c r="L194" s="29"/>
-      <c r="M194" s="29"/>
-      <c r="N194" s="29"/>
-      <c r="O194" s="29"/>
-      <c r="P194" s="29"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="31"/>
+      <c r="H194" s="31"/>
+      <c r="I194" s="31"/>
+      <c r="J194" s="31"/>
+      <c r="K194" s="31"/>
+      <c r="L194" s="31"/>
+      <c r="M194" s="31"/>
+      <c r="N194" s="31"/>
+      <c r="O194" s="31"/>
+      <c r="P194" s="31"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A195" s="30">
-        <v>192</v>
-      </c>
-      <c r="B195" s="30"/>
+      <c r="A195" s="32">
+        <v>165</v>
+      </c>
+      <c r="B195" s="32"/>
       <c r="C195" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="29"/>
-      <c r="H195" s="29"/>
-      <c r="I195" s="29"/>
-      <c r="J195" s="29"/>
-      <c r="K195" s="29"/>
-      <c r="L195" s="29"/>
-      <c r="M195" s="29"/>
-      <c r="N195" s="29"/>
-      <c r="O195" s="29"/>
-      <c r="P195" s="29"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="31"/>
+      <c r="I195" s="31"/>
+      <c r="J195" s="31"/>
+      <c r="K195" s="31"/>
+      <c r="L195" s="31"/>
+      <c r="M195" s="31"/>
+      <c r="N195" s="31"/>
+      <c r="O195" s="31"/>
+      <c r="P195" s="31"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="30">
-        <v>193</v>
-      </c>
-      <c r="B196" s="30"/>
+      <c r="A196" s="32">
+        <v>165.5</v>
+      </c>
+      <c r="B196" s="32"/>
       <c r="C196" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D196" s="29"/>
-      <c r="E196" s="29"/>
-      <c r="F196" s="29"/>
-      <c r="G196" s="29"/>
-      <c r="H196" s="29"/>
-      <c r="I196" s="29"/>
-      <c r="J196" s="29"/>
-      <c r="K196" s="29"/>
-      <c r="L196" s="29"/>
-      <c r="M196" s="29"/>
-      <c r="N196" s="29"/>
-      <c r="O196" s="29"/>
-      <c r="P196" s="29"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="31"/>
+      <c r="I196" s="31"/>
+      <c r="J196" s="31"/>
+      <c r="K196" s="31"/>
+      <c r="L196" s="31"/>
+      <c r="M196" s="31"/>
+      <c r="N196" s="31"/>
+      <c r="O196" s="31"/>
+      <c r="P196" s="31"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A197" s="30">
-        <v>194</v>
-      </c>
-      <c r="B197" s="30"/>
+      <c r="A197" s="32">
+        <v>166</v>
+      </c>
+      <c r="B197" s="32"/>
       <c r="C197" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D197" s="29"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="29"/>
-      <c r="H197" s="29"/>
-      <c r="I197" s="29"/>
-      <c r="J197" s="29"/>
-      <c r="K197" s="29"/>
-      <c r="L197" s="29"/>
-      <c r="M197" s="29"/>
-      <c r="N197" s="29"/>
-      <c r="O197" s="29"/>
-      <c r="P197" s="29"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31"/>
+      <c r="H197" s="31"/>
+      <c r="I197" s="31"/>
+      <c r="J197" s="31"/>
+      <c r="K197" s="31"/>
+      <c r="L197" s="31"/>
+      <c r="M197" s="31"/>
+      <c r="N197" s="31"/>
+      <c r="O197" s="31"/>
+      <c r="P197" s="31"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A198" s="30">
-        <v>195</v>
-      </c>
-      <c r="B198" s="30"/>
+      <c r="A198" s="32">
+        <v>166.5</v>
+      </c>
+      <c r="B198" s="32"/>
       <c r="C198" s="8" t="str">
         <f t="shared" ref="C198:C199" si="3">IF(S198="", "",IF(S198&lt;=50%, "!!!", IF(S198&lt;=75%,"!!", IF(S198&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
-      <c r="H198" s="29"/>
-      <c r="I198" s="29"/>
-      <c r="J198" s="29"/>
-      <c r="K198" s="29"/>
-      <c r="L198" s="29"/>
-      <c r="M198" s="29"/>
-      <c r="N198" s="29"/>
-      <c r="O198" s="29"/>
-      <c r="P198" s="29"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="31"/>
+      <c r="H198" s="31"/>
+      <c r="I198" s="31"/>
+      <c r="J198" s="31"/>
+      <c r="K198" s="31"/>
+      <c r="L198" s="31"/>
+      <c r="M198" s="31"/>
+      <c r="N198" s="31"/>
+      <c r="O198" s="31"/>
+      <c r="P198" s="31"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C199" s="8" t="str">
@@ -7019,10 +7044,10 @@
     <mergeCell ref="D139:P139"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="D140:P140"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="D142:P142"/>
     <mergeCell ref="A141:B141"/>
     <mergeCell ref="D141:P141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="D142:P142"/>
     <mergeCell ref="A143:B143"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:P144"/>
@@ -7314,7 +7339,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C199 A126:B199 D127:XFD142 D144:XFD199 V143:XFD143">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C140 A126:B140 D127:XFD140 D144:XFD199 V143:XFD143 A141:XFD142 A143:C199">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
@@ -7361,13 +7386,13 @@
           <x14:formula1>
             <xm:f>'Ghi chú'!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T123 T125:T142 T144:T1048576</xm:sqref>
+          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T123 T144:T1048576 T125:T142</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Ghi chú'!$L$4:$L$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R123 R125:R142 R144:R1048576</xm:sqref>
+          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R123 R144:R1048576 R125:R142</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="73">
   <si>
     <t>No.</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Xử lý Server cho CallCenter (Hiện popup CallCenter)</t>
+  </si>
+  <si>
+    <t>Fix lại chức năng Đặt hàng trên LiveChat (Địa chỉ KH)</t>
+  </si>
+  <si>
+    <t>Xử lý Server cho CallCenter (Ẩn/Hiện popup CallCenter)</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
   <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T144" sqref="T144"/>
+      <selection activeCell="D148" sqref="D148:P148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5682,7 +5688,7 @@
       <c r="U144" s="30"/>
       <c r="V144" s="22"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="32">
         <v>140</v>
       </c>
@@ -5705,30 +5711,44 @@
       <c r="O145" s="31"/>
       <c r="P145" s="31"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="32">
         <v>140.5</v>
       </c>
       <c r="B146" s="32"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="31"/>
-      <c r="L146" s="31"/>
-      <c r="M146" s="31"/>
-      <c r="N146" s="31"/>
-      <c r="O146" s="31"/>
-      <c r="P146" s="31"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+        <v>!</v>
+      </c>
+      <c r="D146" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="37"/>
+      <c r="L146" s="37"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="37"/>
+      <c r="O146" s="37"/>
+      <c r="P146" s="37"/>
+      <c r="Q146" s="9">
+        <v>43494</v>
+      </c>
+      <c r="R146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S146" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="32">
         <v>141</v>
       </c>
@@ -5751,39 +5771,55 @@
       <c r="O147" s="31"/>
       <c r="P147" s="31"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="32">
         <v>141.5</v>
       </c>
       <c r="B148" s="32"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
-      <c r="K148" s="31"/>
-      <c r="L148" s="31"/>
-      <c r="M148" s="31"/>
-      <c r="N148" s="31"/>
-      <c r="O148" s="31"/>
-      <c r="P148" s="31"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+        <v>!</v>
+      </c>
+      <c r="D148" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="37"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="37"/>
+      <c r="L148" s="37"/>
+      <c r="M148" s="37"/>
+      <c r="N148" s="37"/>
+      <c r="O148" s="37"/>
+      <c r="P148" s="37"/>
+      <c r="Q148" s="9">
+        <v>43495</v>
+      </c>
+      <c r="R148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S148" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="T148" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="32">
         <v>142</v>
       </c>
       <c r="B149" s="32"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D149" s="31"/>
+        <v>OK</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="E149" s="31"/>
       <c r="F149" s="31"/>
       <c r="G149" s="31"/>
@@ -5796,8 +5832,20 @@
       <c r="N149" s="31"/>
       <c r="O149" s="31"/>
       <c r="P149" s="31"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q149" s="9">
+        <v>43495</v>
+      </c>
+      <c r="R149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S149" s="10">
+        <v>1</v>
+      </c>
+      <c r="T149" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="32">
         <v>142.5</v>
       </c>
@@ -5820,7 +5868,7 @@
       <c r="O150" s="31"/>
       <c r="P150" s="31"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="32">
         <v>143</v>
       </c>
@@ -5843,7 +5891,7 @@
       <c r="O151" s="31"/>
       <c r="P151" s="31"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="32">
         <v>143.5</v>
       </c>
@@ -5866,7 +5914,7 @@
       <c r="O152" s="31"/>
       <c r="P152" s="31"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="32">
         <v>144</v>
       </c>
@@ -5889,7 +5937,7 @@
       <c r="O153" s="31"/>
       <c r="P153" s="31"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="32">
         <v>144.5</v>
       </c>
@@ -5912,7 +5960,7 @@
       <c r="O154" s="31"/>
       <c r="P154" s="31"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="32">
         <v>145</v>
       </c>
@@ -5935,7 +5983,7 @@
       <c r="O155" s="31"/>
       <c r="P155" s="31"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="32">
         <v>145.5</v>
       </c>
@@ -5958,7 +6006,7 @@
       <c r="O156" s="31"/>
       <c r="P156" s="31"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="32">
         <v>146</v>
       </c>
@@ -5981,7 +6029,7 @@
       <c r="O157" s="31"/>
       <c r="P157" s="31"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="32">
         <v>146.5</v>
       </c>
@@ -6004,7 +6052,7 @@
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="32">
         <v>147</v>
       </c>
@@ -6027,7 +6075,7 @@
       <c r="O159" s="31"/>
       <c r="P159" s="31"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="32">
         <v>147.5</v>
       </c>
@@ -7339,7 +7387,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C140 A126:B140 D127:XFD140 D144:XFD199 V143:XFD143 A141:XFD142 A143:C199">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C140 A126:B140 D127:XFD140 V143:XFD143 A141:XFD142 A143:C199 D144:XFD199">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -243,12 +243,27 @@
   <si>
     <t>Xử lý Server cho CallCenter (Ẩn/Hiện popup CallCenter)</t>
   </si>
+  <si>
+    <t>Fix lại giao diện Đặt hàng trên LiveChat</t>
+  </si>
+  <si>
+    <t>Xử lý Server cho CallCenter (Check chữ ký)</t>
+  </si>
+  <si>
+    <t>NĂM 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE CÔNG VIỆC NĂM 2019
+Kiểm tra chữ ký cho CallCenter
+Kiểm tra trường hợp máy bận trên CallCenter
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +330,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -429,28 +451,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -562,7 +593,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148:P148"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T163" sqref="T163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,28 +1085,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1094,29 +1125,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1131,52 +1162,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1191,52 +1222,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1251,52 +1282,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="32">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32"/>
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1311,52 +1342,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32"/>
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1371,52 +1402,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1431,59 +1462,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1498,52 +1529,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1558,52 +1589,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1618,52 +1649,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1678,52 +1709,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1738,52 +1769,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1798,59 +1829,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1865,29 +1896,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1905,52 +1936,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -1968,52 +1999,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -2031,29 +2062,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -2071,29 +2102,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2108,52 +2139,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2171,29 +2202,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35">
+      <c r="A36" s="34">
         <v>35</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2212,29 +2243,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2249,52 +2280,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2309,52 +2340,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2372,29 +2403,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2409,29 +2440,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2446,29 +2477,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2483,59 +2514,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
-      <c r="B45" s="32"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>45</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2553,52 +2584,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>46</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>47</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2613,29 +2644,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <v>48</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2650,29 +2681,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <v>49</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2687,29 +2718,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <v>50</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2724,52 +2755,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
-      <c r="B52" s="32"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <v>52</v>
       </c>
-      <c r="B53" s="32"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2784,29 +2815,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>53</v>
       </c>
-      <c r="B54" s="32"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2821,52 +2852,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <v>54</v>
       </c>
-      <c r="B55" s="32"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
-      <c r="B56" s="32"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2881,52 +2912,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <v>56</v>
       </c>
-      <c r="B57" s="32"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="32">
+      <c r="A58" s="31">
         <v>57</v>
       </c>
-      <c r="B58" s="32"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2941,52 +2972,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="32">
+      <c r="A59" s="31">
         <v>58</v>
       </c>
-      <c r="B59" s="32"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <v>59</v>
       </c>
-      <c r="B60" s="32"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -3001,59 +3032,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="32">
+      <c r="A61" s="31">
         <v>60</v>
       </c>
-      <c r="B61" s="32"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="32">
+      <c r="A62" s="31">
         <v>61</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -3068,52 +3099,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="32">
+      <c r="A63" s="31">
         <v>62</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="32">
+      <c r="A64" s="31">
         <v>63</v>
       </c>
-      <c r="B64" s="32"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3128,52 +3159,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <v>64</v>
       </c>
-      <c r="B65" s="32"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="32">
+      <c r="A66" s="31">
         <v>65</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3188,29 +3219,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <v>66</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C133" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3225,52 +3256,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="32">
+      <c r="A68" s="31">
         <v>67</v>
       </c>
-      <c r="B68" s="32"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="32">
+      <c r="A69" s="31">
         <v>68</v>
       </c>
-      <c r="B69" s="32"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3285,52 +3316,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <v>69</v>
       </c>
-      <c r="B70" s="32"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="32">
+      <c r="A71" s="31">
         <v>70</v>
       </c>
-      <c r="B71" s="32"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3345,52 +3376,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="32">
+      <c r="A72" s="31">
         <v>71</v>
       </c>
-      <c r="B72" s="32"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="32">
+      <c r="A73" s="31">
         <v>72</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3405,59 +3436,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="32">
+      <c r="A74" s="31">
         <v>73</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
-      <c r="S74" s="33"/>
-      <c r="T74" s="33"/>
-      <c r="U74" s="33"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="32">
+      <c r="A75" s="31">
         <v>74</v>
       </c>
-      <c r="B75" s="32"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="32"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3472,29 +3503,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="32">
+      <c r="A76" s="31">
         <v>75</v>
       </c>
-      <c r="B76" s="32"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="32"/>
+      <c r="P76" s="32"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3509,52 +3540,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="32">
+      <c r="A77" s="31">
         <v>76</v>
       </c>
-      <c r="B77" s="32"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="32">
+      <c r="A78" s="31">
         <v>77</v>
       </c>
-      <c r="B78" s="32"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3569,52 +3600,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="32">
+      <c r="A79" s="31">
         <v>78</v>
       </c>
-      <c r="B79" s="32"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="32">
+      <c r="A80" s="31">
         <v>79</v>
       </c>
-      <c r="B80" s="32"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3629,52 +3660,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="32">
+      <c r="A81" s="31">
         <v>80</v>
       </c>
-      <c r="B81" s="32"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="32">
+      <c r="A82" s="31">
         <v>81</v>
       </c>
-      <c r="B82" s="32"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3689,52 +3720,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="32">
+      <c r="A83" s="31">
         <v>82</v>
       </c>
-      <c r="B83" s="32"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="32"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="32">
+      <c r="A84" s="31">
         <v>83</v>
       </c>
-      <c r="B84" s="32"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3749,59 +3780,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="32">
+      <c r="A85" s="31">
         <v>84</v>
       </c>
-      <c r="B85" s="32"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="32">
+      <c r="A86" s="31">
         <v>85</v>
       </c>
-      <c r="B86" s="32"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3816,52 +3847,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="32">
+      <c r="A87" s="31">
         <v>86</v>
       </c>
-      <c r="B87" s="32"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="32">
+      <c r="A88" s="31">
         <v>87</v>
       </c>
-      <c r="B88" s="32"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3876,52 +3907,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="32">
+      <c r="A89" s="31">
         <v>88</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
+      <c r="A90" s="34">
         <v>89</v>
       </c>
-      <c r="B90" s="35"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3938,52 +3969,52 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="32">
+      <c r="A91" s="31">
         <v>90</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="35">
+      <c r="A92" s="34">
         <v>91</v>
       </c>
-      <c r="B92" s="35"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -4000,52 +4031,52 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="32">
+      <c r="A93" s="31">
         <v>92</v>
       </c>
-      <c r="B93" s="32"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31"/>
-      <c r="O93" s="31"/>
-      <c r="P93" s="31"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="35">
+      <c r="A94" s="34">
         <v>93</v>
       </c>
-      <c r="B94" s="35"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -4062,52 +4093,52 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="32">
+      <c r="A95" s="31">
         <v>94</v>
       </c>
-      <c r="B95" s="32"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="31"/>
-      <c r="P95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="32">
+      <c r="A96" s="31">
         <v>95</v>
       </c>
-      <c r="B96" s="32"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4122,59 +4153,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="32">
+      <c r="A97" s="31">
         <v>96</v>
       </c>
-      <c r="B97" s="32"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="33" t="s">
+      <c r="D97" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="33"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="33"/>
-      <c r="N97" s="33"/>
-      <c r="O97" s="33"/>
-      <c r="P97" s="33"/>
-      <c r="Q97" s="33"/>
-      <c r="R97" s="33"/>
-      <c r="S97" s="33"/>
-      <c r="T97" s="33"/>
-      <c r="U97" s="33"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="32">
+      <c r="A98" s="31">
         <v>97</v>
       </c>
-      <c r="B98" s="32"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="31"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
+      <c r="P98" s="32"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4189,29 +4220,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="32">
+      <c r="A99" s="31">
         <v>98</v>
       </c>
-      <c r="B99" s="32"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="32"/>
+      <c r="P99" s="32"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4226,52 +4257,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="32">
+      <c r="A100" s="31">
         <v>99</v>
       </c>
-      <c r="B100" s="32"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="32">
+      <c r="A101" s="31">
         <v>100</v>
       </c>
-      <c r="B101" s="32"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="31"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4286,29 +4317,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="32">
+      <c r="A102" s="31">
         <v>101</v>
       </c>
-      <c r="B102" s="32"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
-      <c r="P102" s="31"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4323,52 +4354,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="32">
+      <c r="A103" s="31">
         <v>102</v>
       </c>
-      <c r="B103" s="32"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="32">
+      <c r="A104" s="31">
         <v>103</v>
       </c>
-      <c r="B104" s="32"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4383,29 +4414,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="32">
+      <c r="A105" s="31">
         <v>104</v>
       </c>
-      <c r="B105" s="32"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4420,52 +4451,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="32">
+      <c r="A106" s="31">
         <v>105</v>
       </c>
-      <c r="B106" s="32"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
-      <c r="O106" s="31"/>
-      <c r="P106" s="31"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="32">
+      <c r="A107" s="31">
         <v>106</v>
       </c>
-      <c r="B107" s="32"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="31"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4480,77 +4511,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="32">
+      <c r="A108" s="31">
         <v>107</v>
       </c>
-      <c r="B108" s="32"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31"/>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="33"/>
-      <c r="N109" s="33"/>
-      <c r="O109" s="33"/>
-      <c r="P109" s="33"/>
-      <c r="Q109" s="33"/>
-      <c r="R109" s="33"/>
-      <c r="S109" s="33"/>
-      <c r="T109" s="33"/>
-      <c r="U109" s="33"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="35"/>
+      <c r="N109" s="35"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="32">
+      <c r="A110" s="31">
         <v>108</v>
       </c>
-      <c r="B110" s="32"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="31"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
-      <c r="P110" s="31"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4565,52 +4596,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="32">
+      <c r="A111" s="31">
         <v>109</v>
       </c>
-      <c r="B111" s="32"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
-      <c r="K111" s="31"/>
-      <c r="L111" s="31"/>
-      <c r="M111" s="31"/>
-      <c r="N111" s="31"/>
-      <c r="O111" s="31"/>
-      <c r="P111" s="31"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="32">
+      <c r="A112" s="31">
         <v>110</v>
       </c>
-      <c r="B112" s="32"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="31"/>
-      <c r="N112" s="31"/>
-      <c r="O112" s="31"/>
-      <c r="P112" s="31"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4625,52 +4656,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="32">
+      <c r="A113" s="31">
         <v>111</v>
       </c>
-      <c r="B113" s="32"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="32">
+      <c r="A114" s="31">
         <v>112</v>
       </c>
-      <c r="B114" s="32"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="31"/>
-      <c r="M114" s="31"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="31"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="32"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4685,29 +4716,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="32">
+      <c r="A115" s="31">
         <v>113</v>
       </c>
-      <c r="B115" s="32"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="31"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
-      <c r="P115" s="31"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="32"/>
+      <c r="P115" s="32"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4722,29 +4753,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="32">
+      <c r="A116" s="31">
         <v>114</v>
       </c>
-      <c r="B116" s="32"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="31"/>
-      <c r="L116" s="31"/>
-      <c r="M116" s="31"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="31"/>
-      <c r="P116" s="31"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="32"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4759,52 +4790,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="32">
+      <c r="A117" s="31">
         <v>115</v>
       </c>
-      <c r="B117" s="32"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="31"/>
-      <c r="M117" s="31"/>
-      <c r="N117" s="31"/>
-      <c r="O117" s="31"/>
-      <c r="P117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="32">
+      <c r="A118" s="31">
         <v>116</v>
       </c>
-      <c r="B118" s="32"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="31"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="31"/>
-      <c r="N118" s="31"/>
-      <c r="O118" s="31"/>
-      <c r="P118" s="31"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="32"/>
+      <c r="P118" s="32"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4819,59 +4850,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="32">
+      <c r="A119" s="31">
         <v>117</v>
       </c>
-      <c r="B119" s="32"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="33"/>
-      <c r="M119" s="33"/>
-      <c r="N119" s="33"/>
-      <c r="O119" s="33"/>
-      <c r="P119" s="33"/>
-      <c r="Q119" s="33"/>
-      <c r="R119" s="33"/>
-      <c r="S119" s="33"/>
-      <c r="T119" s="33"/>
-      <c r="U119" s="33"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
+      <c r="Q119" s="35"/>
+      <c r="R119" s="35"/>
+      <c r="S119" s="35"/>
+      <c r="T119" s="35"/>
+      <c r="U119" s="35"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="32">
+      <c r="A120" s="31">
         <v>118</v>
       </c>
-      <c r="B120" s="32"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="31"/>
-      <c r="M120" s="31"/>
-      <c r="N120" s="31"/>
-      <c r="O120" s="31"/>
-      <c r="P120" s="31"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="32"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="32"/>
+      <c r="P120" s="32"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4886,29 +4917,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="32">
+      <c r="A121" s="31">
         <v>119</v>
       </c>
-      <c r="B121" s="32"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="31"/>
-      <c r="N121" s="31"/>
-      <c r="O121" s="31"/>
-      <c r="P121" s="31"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="32"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4923,52 +4954,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="32">
+      <c r="A122" s="31">
         <v>120</v>
       </c>
-      <c r="B122" s="32"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="31"/>
-      <c r="N122" s="31"/>
-      <c r="O122" s="31"/>
-      <c r="P122" s="31"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="32">
+      <c r="A123" s="31">
         <v>121</v>
       </c>
-      <c r="B123" s="32"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-      <c r="M123" s="31"/>
-      <c r="N123" s="31"/>
-      <c r="O123" s="31"/>
-      <c r="P123" s="31"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="32"/>
+      <c r="P123" s="32"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -4983,59 +5014,59 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="32">
+      <c r="A124" s="31">
         <v>122</v>
       </c>
-      <c r="B124" s="32"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="33"/>
-      <c r="L124" s="33"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="33"/>
-      <c r="O124" s="33"/>
-      <c r="P124" s="33"/>
-      <c r="Q124" s="33"/>
-      <c r="R124" s="33"/>
-      <c r="S124" s="33"/>
-      <c r="T124" s="33"/>
-      <c r="U124" s="33"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35"/>
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35"/>
+      <c r="S124" s="35"/>
+      <c r="T124" s="35"/>
+      <c r="U124" s="35"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="32">
+      <c r="A125" s="31">
         <v>123</v>
       </c>
-      <c r="B125" s="32"/>
+      <c r="B125" s="31"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="31"/>
-      <c r="M125" s="31"/>
-      <c r="N125" s="31"/>
-      <c r="O125" s="31"/>
-      <c r="P125" s="31"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
       <c r="Q125" s="9">
         <v>43486</v>
       </c>
@@ -5051,55 +5082,55 @@
       <c r="U125" s="25"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="32">
+      <c r="A126" s="31">
         <v>123</v>
       </c>
-      <c r="B126" s="32"/>
+      <c r="B126" s="31"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="31"/>
-      <c r="N126" s="31"/>
-      <c r="O126" s="31"/>
-      <c r="P126" s="31"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="32"/>
       <c r="R126" s="26"/>
       <c r="T126" s="26"/>
       <c r="U126" s="25"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="32">
+      <c r="A127" s="31">
         <v>124</v>
       </c>
-      <c r="B127" s="32"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="31"/>
-      <c r="N127" s="31"/>
-      <c r="O127" s="31"/>
-      <c r="P127" s="31"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="32"/>
+      <c r="N127" s="32"/>
+      <c r="O127" s="32"/>
+      <c r="P127" s="32"/>
       <c r="Q127" s="9">
         <v>43487</v>
       </c>
@@ -5114,29 +5145,29 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="32">
+      <c r="A128" s="31">
         <v>125</v>
       </c>
-      <c r="B128" s="32"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="31"/>
-      <c r="O128" s="31"/>
-      <c r="P128" s="31"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="32"/>
+      <c r="P128" s="32"/>
       <c r="Q128" s="9">
         <v>43487</v>
       </c>
@@ -5151,29 +5182,29 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A129" s="32">
+      <c r="A129" s="31">
         <v>126</v>
       </c>
-      <c r="B129" s="32"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
-      <c r="K129" s="31"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="31"/>
-      <c r="N129" s="31"/>
-      <c r="O129" s="31"/>
-      <c r="P129" s="31"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="32"/>
       <c r="Q129" s="9">
         <v>43487</v>
       </c>
@@ -5188,29 +5219,29 @@
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A130" s="32">
+      <c r="A130" s="31">
         <v>127</v>
       </c>
-      <c r="B130" s="32"/>
+      <c r="B130" s="31"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
-      <c r="K130" s="31"/>
-      <c r="L130" s="31"/>
-      <c r="M130" s="31"/>
-      <c r="N130" s="31"/>
-      <c r="O130" s="31"/>
-      <c r="P130" s="31"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
       <c r="Q130" s="9">
         <v>43487</v>
       </c>
@@ -5225,52 +5256,52 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A131" s="32">
+      <c r="A131" s="31">
         <v>128</v>
       </c>
-      <c r="B131" s="32"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D131" s="31"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
-      <c r="K131" s="31"/>
-      <c r="L131" s="31"/>
-      <c r="M131" s="31"/>
-      <c r="N131" s="31"/>
-      <c r="O131" s="31"/>
-      <c r="P131" s="31"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="32"/>
+      <c r="P131" s="32"/>
     </row>
     <row r="132" spans="1:22" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="35">
+      <c r="A132" s="34">
         <v>129</v>
       </c>
-      <c r="B132" s="35"/>
+      <c r="B132" s="34"/>
       <c r="C132" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D132" s="38" t="s">
+      <c r="D132" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
-      <c r="L132" s="38"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="38"/>
-      <c r="O132" s="38"/>
-      <c r="P132" s="38"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36"/>
+      <c r="O132" s="36"/>
+      <c r="P132" s="36"/>
       <c r="Q132" s="13">
         <v>43488</v>
       </c>
@@ -5287,29 +5318,29 @@
       <c r="V132" s="22"/>
     </row>
     <row r="133" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="35">
+      <c r="A133" s="34">
         <v>130</v>
       </c>
-      <c r="B133" s="35"/>
+      <c r="B133" s="34"/>
       <c r="C133" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D133" s="37" t="s">
+      <c r="D133" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37"/>
-      <c r="K133" s="37"/>
-      <c r="L133" s="37"/>
-      <c r="M133" s="37"/>
-      <c r="N133" s="37"/>
-      <c r="O133" s="37"/>
-      <c r="P133" s="37"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
       <c r="Q133" s="13">
         <v>43488</v>
       </c>
@@ -5326,52 +5357,52 @@
       <c r="V133" s="22"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A134" s="32">
+      <c r="A134" s="31">
         <v>131</v>
       </c>
-      <c r="B134" s="32"/>
+      <c r="B134" s="31"/>
       <c r="C134" s="8" t="str">
-        <f t="shared" ref="C134:C197" si="2">IF(S134="", "",IF(S134&lt;=50%, "!!!", IF(S134&lt;=75%,"!!", IF(S134&lt;100%, "!", "OK"))))</f>
-        <v/>
-      </c>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-      <c r="N134" s="31"/>
-      <c r="O134" s="31"/>
-      <c r="P134" s="31"/>
+        <f t="shared" ref="C134:C193" si="2">IF(S134="", "",IF(S134&lt;=50%, "!!!", IF(S134&lt;=75%,"!!", IF(S134&lt;100%, "!", "OK"))))</f>
+        <v/>
+      </c>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A135" s="32">
+      <c r="A135" s="31">
         <v>132</v>
       </c>
-      <c r="B135" s="32"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="31"/>
-      <c r="N135" s="31"/>
-      <c r="O135" s="31"/>
-      <c r="P135" s="31"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32"/>
+      <c r="L135" s="32"/>
+      <c r="M135" s="32"/>
+      <c r="N135" s="32"/>
+      <c r="O135" s="32"/>
+      <c r="P135" s="32"/>
       <c r="Q135" s="9">
         <v>43489</v>
       </c>
@@ -5389,52 +5420,52 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A136" s="32">
+      <c r="A136" s="31">
         <v>133</v>
       </c>
-      <c r="B136" s="32"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="31"/>
-      <c r="M136" s="31"/>
-      <c r="N136" s="31"/>
-      <c r="O136" s="31"/>
-      <c r="P136" s="31"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
+      <c r="L136" s="32"/>
+      <c r="M136" s="32"/>
+      <c r="N136" s="32"/>
+      <c r="O136" s="32"/>
+      <c r="P136" s="32"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A137" s="32">
+      <c r="A137" s="31">
         <v>134</v>
       </c>
-      <c r="B137" s="32"/>
+      <c r="B137" s="31"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="31"/>
-      <c r="L137" s="31"/>
-      <c r="M137" s="31"/>
-      <c r="N137" s="31"/>
-      <c r="O137" s="31"/>
-      <c r="P137" s="31"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="32"/>
+      <c r="P137" s="32"/>
       <c r="Q137" s="9">
         <v>43490</v>
       </c>
@@ -5449,29 +5480,29 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A138" s="32">
+      <c r="A138" s="31">
         <v>135</v>
       </c>
-      <c r="B138" s="32"/>
+      <c r="B138" s="31"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
-      <c r="K138" s="31"/>
-      <c r="L138" s="31"/>
-      <c r="M138" s="31"/>
-      <c r="N138" s="31"/>
-      <c r="O138" s="31"/>
-      <c r="P138" s="31"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="32"/>
+      <c r="M138" s="32"/>
+      <c r="N138" s="32"/>
+      <c r="O138" s="32"/>
+      <c r="P138" s="32"/>
       <c r="Q138" s="9">
         <v>43490</v>
       </c>
@@ -5486,29 +5517,29 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A139" s="32">
+      <c r="A139" s="31">
         <v>136</v>
       </c>
-      <c r="B139" s="32"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="31"/>
-      <c r="L139" s="31"/>
-      <c r="M139" s="31"/>
-      <c r="N139" s="31"/>
-      <c r="O139" s="31"/>
-      <c r="P139" s="31"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32"/>
+      <c r="L139" s="32"/>
+      <c r="M139" s="32"/>
+      <c r="N139" s="32"/>
+      <c r="O139" s="32"/>
+      <c r="P139" s="32"/>
       <c r="Q139" s="9">
         <v>43490</v>
       </c>
@@ -5523,52 +5554,52 @@
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A140" s="32">
+      <c r="A140" s="31">
         <v>137</v>
       </c>
-      <c r="B140" s="32"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
-      <c r="K140" s="31"/>
-      <c r="L140" s="31"/>
-      <c r="M140" s="31"/>
-      <c r="N140" s="31"/>
-      <c r="O140" s="31"/>
-      <c r="P140" s="31"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32"/>
+      <c r="L140" s="32"/>
+      <c r="M140" s="32"/>
+      <c r="N140" s="32"/>
+      <c r="O140" s="32"/>
+      <c r="P140" s="32"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="32">
+      <c r="A141" s="31">
         <v>139</v>
       </c>
-      <c r="B141" s="32"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="8" t="str">
         <f>IF(S141="", "",IF(S141&lt;=50%, "!!!", IF(S141&lt;=75%,"!!", IF(S141&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
-      <c r="K141" s="31"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="31"/>
-      <c r="N141" s="31"/>
-      <c r="O141" s="31"/>
-      <c r="P141" s="31"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="32"/>
+      <c r="L141" s="32"/>
+      <c r="M141" s="32"/>
+      <c r="N141" s="32"/>
+      <c r="O141" s="32"/>
+      <c r="P141" s="32"/>
       <c r="Q141" s="9">
         <v>43491</v>
       </c>
@@ -5583,29 +5614,29 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A142" s="32">
+      <c r="A142" s="31">
         <v>138</v>
       </c>
-      <c r="B142" s="32"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="31"/>
-      <c r="H142" s="31"/>
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
-      <c r="K142" s="31"/>
-      <c r="L142" s="31"/>
-      <c r="M142" s="31"/>
-      <c r="N142" s="31"/>
-      <c r="O142" s="31"/>
-      <c r="P142" s="31"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
+      <c r="L142" s="32"/>
+      <c r="M142" s="32"/>
+      <c r="N142" s="32"/>
+      <c r="O142" s="32"/>
+      <c r="P142" s="32"/>
       <c r="Q142" s="9">
         <v>43491</v>
       </c>
@@ -5620,59 +5651,59 @@
       </c>
     </row>
     <row r="143" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="32">
+      <c r="A143" s="31">
         <v>139</v>
       </c>
-      <c r="B143" s="32"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D143" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="33"/>
-      <c r="J143" s="33"/>
-      <c r="K143" s="33"/>
-      <c r="L143" s="33"/>
-      <c r="M143" s="33"/>
-      <c r="N143" s="33"/>
-      <c r="O143" s="33"/>
-      <c r="P143" s="33"/>
-      <c r="Q143" s="33"/>
-      <c r="R143" s="33"/>
-      <c r="S143" s="33"/>
-      <c r="T143" s="33"/>
-      <c r="U143" s="33"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
+      <c r="N143" s="35"/>
+      <c r="O143" s="35"/>
+      <c r="P143" s="35"/>
+      <c r="Q143" s="35"/>
+      <c r="R143" s="35"/>
+      <c r="S143" s="35"/>
+      <c r="T143" s="35"/>
+      <c r="U143" s="35"/>
     </row>
     <row r="144" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="35">
+      <c r="A144" s="34">
         <v>139.5</v>
       </c>
-      <c r="B144" s="35"/>
+      <c r="B144" s="34"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!</v>
       </c>
-      <c r="D144" s="37" t="s">
+      <c r="D144" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="37"/>
-      <c r="L144" s="37"/>
-      <c r="M144" s="37"/>
-      <c r="N144" s="37"/>
-      <c r="O144" s="37"/>
-      <c r="P144" s="37"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="33"/>
+      <c r="L144" s="33"/>
+      <c r="M144" s="33"/>
+      <c r="N144" s="33"/>
+      <c r="O144" s="33"/>
+      <c r="P144" s="33"/>
       <c r="Q144" s="13">
         <v>43493</v>
       </c>
@@ -5688,53 +5719,53 @@
       <c r="U144" s="30"/>
       <c r="V144" s="22"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A145" s="32">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A145" s="31">
         <v>140</v>
       </c>
-      <c r="B145" s="32"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31"/>
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
-      <c r="K145" s="31"/>
-      <c r="L145" s="31"/>
-      <c r="M145" s="31"/>
-      <c r="N145" s="31"/>
-      <c r="O145" s="31"/>
-      <c r="P145" s="31"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A146" s="32">
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="32"/>
+      <c r="K145" s="32"/>
+      <c r="L145" s="32"/>
+      <c r="M145" s="32"/>
+      <c r="N145" s="32"/>
+      <c r="O145" s="32"/>
+      <c r="P145" s="32"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A146" s="31">
         <v>140.5</v>
       </c>
-      <c r="B146" s="32"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D146" s="37" t="s">
+      <c r="D146" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="37"/>
-      <c r="L146" s="37"/>
-      <c r="M146" s="37"/>
-      <c r="N146" s="37"/>
-      <c r="O146" s="37"/>
-      <c r="P146" s="37"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="33"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33"/>
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
       <c r="Q146" s="9">
         <v>43494</v>
       </c>
@@ -5748,53 +5779,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A147" s="32">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A147" s="31">
         <v>141</v>
       </c>
-      <c r="B147" s="32"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="31"/>
-      <c r="L147" s="31"/>
-      <c r="M147" s="31"/>
-      <c r="N147" s="31"/>
-      <c r="O147" s="31"/>
-      <c r="P147" s="31"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A148" s="32">
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32"/>
+      <c r="L147" s="32"/>
+      <c r="M147" s="32"/>
+      <c r="N147" s="32"/>
+      <c r="O147" s="32"/>
+      <c r="P147" s="32"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A148" s="31">
         <v>141.5</v>
       </c>
-      <c r="B148" s="32"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D148" s="37" t="s">
+      <c r="D148" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="37"/>
-      <c r="L148" s="37"/>
-      <c r="M148" s="37"/>
-      <c r="N148" s="37"/>
-      <c r="O148" s="37"/>
-      <c r="P148" s="37"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="33"/>
+      <c r="L148" s="33"/>
+      <c r="M148" s="33"/>
+      <c r="N148" s="33"/>
+      <c r="O148" s="33"/>
+      <c r="P148" s="33"/>
       <c r="Q148" s="9">
         <v>43495</v>
       </c>
@@ -5808,30 +5839,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A149" s="32">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A149" s="31">
         <v>142</v>
       </c>
-      <c r="B149" s="32"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
-      <c r="K149" s="31"/>
-      <c r="L149" s="31"/>
-      <c r="M149" s="31"/>
-      <c r="N149" s="31"/>
-      <c r="O149" s="31"/>
-      <c r="P149" s="31"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32"/>
+      <c r="L149" s="32"/>
+      <c r="M149" s="32"/>
+      <c r="N149" s="32"/>
+      <c r="O149" s="32"/>
+      <c r="P149" s="32"/>
       <c r="Q149" s="9">
         <v>43495</v>
       </c>
@@ -5845,1275 +5876,1331 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A150" s="32">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A150" s="31">
         <v>142.5</v>
       </c>
-      <c r="B150" s="32"/>
+      <c r="B150" s="31"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="31"/>
-      <c r="H150" s="31"/>
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
-      <c r="K150" s="31"/>
-      <c r="L150" s="31"/>
-      <c r="M150" s="31"/>
-      <c r="N150" s="31"/>
-      <c r="O150" s="31"/>
-      <c r="P150" s="31"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A151" s="32">
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32"/>
+      <c r="L150" s="32"/>
+      <c r="M150" s="32"/>
+      <c r="N150" s="32"/>
+      <c r="O150" s="32"/>
+      <c r="P150" s="32"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A151" s="31">
         <v>143</v>
       </c>
-      <c r="B151" s="32"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="31"/>
-      <c r="L151" s="31"/>
-      <c r="M151" s="31"/>
-      <c r="N151" s="31"/>
-      <c r="O151" s="31"/>
-      <c r="P151" s="31"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A152" s="32">
+        <v>OK</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="32"/>
+      <c r="L151" s="32"/>
+      <c r="M151" s="32"/>
+      <c r="N151" s="32"/>
+      <c r="O151" s="32"/>
+      <c r="P151" s="32"/>
+      <c r="Q151" s="9">
+        <v>43496</v>
+      </c>
+      <c r="R151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S151" s="10">
+        <v>1</v>
+      </c>
+      <c r="T151" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A152" s="31">
         <v>143.5</v>
       </c>
-      <c r="B152" s="32"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
-      <c r="K152" s="31"/>
-      <c r="L152" s="31"/>
-      <c r="M152" s="31"/>
-      <c r="N152" s="31"/>
-      <c r="O152" s="31"/>
-      <c r="P152" s="31"/>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A153" s="32">
+        <v>!</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="32"/>
+      <c r="O152" s="32"/>
+      <c r="P152" s="32"/>
+      <c r="Q152" s="9">
+        <v>43496</v>
+      </c>
+      <c r="R152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S152" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="T152" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" s="31">
         <v>144</v>
       </c>
-      <c r="B153" s="32"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
-      <c r="K153" s="31"/>
-      <c r="L153" s="31"/>
-      <c r="M153" s="31"/>
-      <c r="N153" s="31"/>
-      <c r="O153" s="31"/>
-      <c r="P153" s="31"/>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A154" s="32">
+      <c r="D153" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="35"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="35"/>
+      <c r="L153" s="35"/>
+      <c r="M153" s="35"/>
+      <c r="N153" s="35"/>
+      <c r="O153" s="35"/>
+      <c r="P153" s="35"/>
+      <c r="Q153" s="35"/>
+      <c r="R153" s="35"/>
+      <c r="S153" s="35"/>
+      <c r="T153" s="35"/>
+      <c r="U153" s="35"/>
+    </row>
+    <row r="154" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="31">
         <v>144.5</v>
       </c>
-      <c r="B154" s="32"/>
+      <c r="B154" s="31"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="31"/>
-      <c r="L154" s="31"/>
-      <c r="M154" s="31"/>
-      <c r="N154" s="31"/>
-      <c r="O154" s="31"/>
-      <c r="P154" s="31"/>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A155" s="32">
+      <c r="D154" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="40"/>
+      <c r="L154" s="40"/>
+      <c r="M154" s="40"/>
+      <c r="N154" s="40"/>
+      <c r="O154" s="40"/>
+      <c r="P154" s="40"/>
+      <c r="Q154" s="39"/>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A155" s="31">
         <v>145</v>
       </c>
-      <c r="B155" s="32"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="31"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
-      <c r="K155" s="31"/>
-      <c r="L155" s="31"/>
-      <c r="M155" s="31"/>
-      <c r="N155" s="31"/>
-      <c r="O155" s="31"/>
-      <c r="P155" s="31"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A156" s="32">
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="40"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="40"/>
+      <c r="L155" s="40"/>
+      <c r="M155" s="40"/>
+      <c r="N155" s="40"/>
+      <c r="O155" s="40"/>
+      <c r="P155" s="40"/>
+      <c r="Q155" s="39"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A156" s="31">
         <v>145.5</v>
       </c>
-      <c r="B156" s="32"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="31"/>
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
-      <c r="K156" s="31"/>
-      <c r="L156" s="31"/>
-      <c r="M156" s="31"/>
-      <c r="N156" s="31"/>
-      <c r="O156" s="31"/>
-      <c r="P156" s="31"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A157" s="32">
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="40"/>
+      <c r="L156" s="40"/>
+      <c r="M156" s="40"/>
+      <c r="N156" s="40"/>
+      <c r="O156" s="40"/>
+      <c r="P156" s="40"/>
+      <c r="Q156" s="39"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A157" s="31">
         <v>146</v>
       </c>
-      <c r="B157" s="32"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D157" s="31"/>
-      <c r="E157" s="31"/>
-      <c r="F157" s="31"/>
-      <c r="G157" s="31"/>
-      <c r="H157" s="31"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
-      <c r="K157" s="31"/>
-      <c r="L157" s="31"/>
-      <c r="M157" s="31"/>
-      <c r="N157" s="31"/>
-      <c r="O157" s="31"/>
-      <c r="P157" s="31"/>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A158" s="32">
+      <c r="D157" s="40"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="40"/>
+      <c r="L157" s="40"/>
+      <c r="M157" s="40"/>
+      <c r="N157" s="40"/>
+      <c r="O157" s="40"/>
+      <c r="P157" s="40"/>
+      <c r="Q157" s="39"/>
+    </row>
+    <row r="158" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="31">
         <v>146.5</v>
       </c>
-      <c r="B158" s="32"/>
-      <c r="C158" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="31"/>
-      <c r="H158" s="31"/>
-      <c r="I158" s="31"/>
-      <c r="J158" s="31"/>
-      <c r="K158" s="31"/>
-      <c r="L158" s="31"/>
-      <c r="M158" s="31"/>
-      <c r="N158" s="31"/>
-      <c r="O158" s="31"/>
-      <c r="P158" s="31"/>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A159" s="32">
-        <v>147</v>
-      </c>
-      <c r="B159" s="32"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
+      <c r="L158" s="41"/>
+      <c r="M158" s="41"/>
+      <c r="N158" s="41"/>
+      <c r="O158" s="41"/>
+      <c r="P158" s="41"/>
+      <c r="Q158" s="41"/>
+      <c r="R158" s="41"/>
+      <c r="S158" s="41"/>
+      <c r="T158" s="41"/>
+      <c r="U158" s="41"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A159" s="31">
+        <v>149</v>
+      </c>
+      <c r="B159" s="31"/>
       <c r="C159" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D159" s="31"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="31"/>
-      <c r="H159" s="31"/>
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
-      <c r="K159" s="31"/>
-      <c r="L159" s="31"/>
-      <c r="M159" s="31"/>
-      <c r="N159" s="31"/>
-      <c r="O159" s="31"/>
-      <c r="P159" s="31"/>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A160" s="32">
-        <v>147.5</v>
-      </c>
-      <c r="B160" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32"/>
+      <c r="L159" s="32"/>
+      <c r="M159" s="32"/>
+      <c r="N159" s="32"/>
+      <c r="O159" s="32"/>
+      <c r="P159" s="32"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A160" s="31">
+        <v>149.5</v>
+      </c>
+      <c r="B160" s="31"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="31"/>
-      <c r="H160" s="31"/>
-      <c r="I160" s="31"/>
-      <c r="J160" s="31"/>
-      <c r="K160" s="31"/>
-      <c r="L160" s="31"/>
-      <c r="M160" s="31"/>
-      <c r="N160" s="31"/>
-      <c r="O160" s="31"/>
-      <c r="P160" s="31"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="32"/>
+      <c r="L160" s="32"/>
+      <c r="M160" s="32"/>
+      <c r="N160" s="32"/>
+      <c r="O160" s="32"/>
+      <c r="P160" s="32"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="32">
-        <v>148</v>
-      </c>
-      <c r="B161" s="32"/>
+      <c r="A161" s="31">
+        <v>150</v>
+      </c>
+      <c r="B161" s="31"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
-      <c r="H161" s="31"/>
-      <c r="I161" s="31"/>
-      <c r="J161" s="31"/>
-      <c r="K161" s="31"/>
-      <c r="L161" s="31"/>
-      <c r="M161" s="31"/>
-      <c r="N161" s="31"/>
-      <c r="O161" s="31"/>
-      <c r="P161" s="31"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="32"/>
+      <c r="L161" s="32"/>
+      <c r="M161" s="32"/>
+      <c r="N161" s="32"/>
+      <c r="O161" s="32"/>
+      <c r="P161" s="32"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162" s="32">
-        <v>148.5</v>
-      </c>
-      <c r="B162" s="32"/>
+      <c r="A162" s="31">
+        <v>150.5</v>
+      </c>
+      <c r="B162" s="31"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="31"/>
-      <c r="H162" s="31"/>
-      <c r="I162" s="31"/>
-      <c r="J162" s="31"/>
-      <c r="K162" s="31"/>
-      <c r="L162" s="31"/>
-      <c r="M162" s="31"/>
-      <c r="N162" s="31"/>
-      <c r="O162" s="31"/>
-      <c r="P162" s="31"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32"/>
+      <c r="L162" s="32"/>
+      <c r="M162" s="32"/>
+      <c r="N162" s="32"/>
+      <c r="O162" s="32"/>
+      <c r="P162" s="32"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="32">
-        <v>149</v>
-      </c>
-      <c r="B163" s="32"/>
+      <c r="A163" s="31">
+        <v>151</v>
+      </c>
+      <c r="B163" s="31"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="31"/>
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
-      <c r="K163" s="31"/>
-      <c r="L163" s="31"/>
-      <c r="M163" s="31"/>
-      <c r="N163" s="31"/>
-      <c r="O163" s="31"/>
-      <c r="P163" s="31"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="32"/>
+      <c r="L163" s="32"/>
+      <c r="M163" s="32"/>
+      <c r="N163" s="32"/>
+      <c r="O163" s="32"/>
+      <c r="P163" s="32"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="32">
-        <v>149.5</v>
-      </c>
-      <c r="B164" s="32"/>
+      <c r="A164" s="31">
+        <v>151.5</v>
+      </c>
+      <c r="B164" s="31"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D164" s="31"/>
-      <c r="E164" s="31"/>
-      <c r="F164" s="31"/>
-      <c r="G164" s="31"/>
-      <c r="H164" s="31"/>
-      <c r="I164" s="31"/>
-      <c r="J164" s="31"/>
-      <c r="K164" s="31"/>
-      <c r="L164" s="31"/>
-      <c r="M164" s="31"/>
-      <c r="N164" s="31"/>
-      <c r="O164" s="31"/>
-      <c r="P164" s="31"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="32"/>
+      <c r="L164" s="32"/>
+      <c r="M164" s="32"/>
+      <c r="N164" s="32"/>
+      <c r="O164" s="32"/>
+      <c r="P164" s="32"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="32">
-        <v>150</v>
-      </c>
-      <c r="B165" s="32"/>
+      <c r="A165" s="31">
+        <v>152</v>
+      </c>
+      <c r="B165" s="31"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="31"/>
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
-      <c r="K165" s="31"/>
-      <c r="L165" s="31"/>
-      <c r="M165" s="31"/>
-      <c r="N165" s="31"/>
-      <c r="O165" s="31"/>
-      <c r="P165" s="31"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="32"/>
+      <c r="L165" s="32"/>
+      <c r="M165" s="32"/>
+      <c r="N165" s="32"/>
+      <c r="O165" s="32"/>
+      <c r="P165" s="32"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="32">
-        <v>150.5</v>
-      </c>
-      <c r="B166" s="32"/>
+      <c r="A166" s="31">
+        <v>152.5</v>
+      </c>
+      <c r="B166" s="31"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="31"/>
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
-      <c r="K166" s="31"/>
-      <c r="L166" s="31"/>
-      <c r="M166" s="31"/>
-      <c r="N166" s="31"/>
-      <c r="O166" s="31"/>
-      <c r="P166" s="31"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="32"/>
+      <c r="L166" s="32"/>
+      <c r="M166" s="32"/>
+      <c r="N166" s="32"/>
+      <c r="O166" s="32"/>
+      <c r="P166" s="32"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="32">
-        <v>151</v>
-      </c>
-      <c r="B167" s="32"/>
+      <c r="A167" s="31">
+        <v>153</v>
+      </c>
+      <c r="B167" s="31"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
-      <c r="H167" s="31"/>
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
-      <c r="K167" s="31"/>
-      <c r="L167" s="31"/>
-      <c r="M167" s="31"/>
-      <c r="N167" s="31"/>
-      <c r="O167" s="31"/>
-      <c r="P167" s="31"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32"/>
+      <c r="L167" s="32"/>
+      <c r="M167" s="32"/>
+      <c r="N167" s="32"/>
+      <c r="O167" s="32"/>
+      <c r="P167" s="32"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="32">
-        <v>151.5</v>
-      </c>
-      <c r="B168" s="32"/>
+      <c r="A168" s="31">
+        <v>153.5</v>
+      </c>
+      <c r="B168" s="31"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
-      <c r="K168" s="31"/>
-      <c r="L168" s="31"/>
-      <c r="M168" s="31"/>
-      <c r="N168" s="31"/>
-      <c r="O168" s="31"/>
-      <c r="P168" s="31"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="32"/>
+      <c r="L168" s="32"/>
+      <c r="M168" s="32"/>
+      <c r="N168" s="32"/>
+      <c r="O168" s="32"/>
+      <c r="P168" s="32"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="32">
-        <v>152</v>
-      </c>
-      <c r="B169" s="32"/>
+      <c r="A169" s="31">
+        <v>154</v>
+      </c>
+      <c r="B169" s="31"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="31"/>
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
-      <c r="K169" s="31"/>
-      <c r="L169" s="31"/>
-      <c r="M169" s="31"/>
-      <c r="N169" s="31"/>
-      <c r="O169" s="31"/>
-      <c r="P169" s="31"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="32"/>
+      <c r="L169" s="32"/>
+      <c r="M169" s="32"/>
+      <c r="N169" s="32"/>
+      <c r="O169" s="32"/>
+      <c r="P169" s="32"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="32">
-        <v>152.5</v>
-      </c>
-      <c r="B170" s="32"/>
+      <c r="A170" s="31">
+        <v>154.5</v>
+      </c>
+      <c r="B170" s="31"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31"/>
-      <c r="H170" s="31"/>
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
-      <c r="K170" s="31"/>
-      <c r="L170" s="31"/>
-      <c r="M170" s="31"/>
-      <c r="N170" s="31"/>
-      <c r="O170" s="31"/>
-      <c r="P170" s="31"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="32"/>
+      <c r="L170" s="32"/>
+      <c r="M170" s="32"/>
+      <c r="N170" s="32"/>
+      <c r="O170" s="32"/>
+      <c r="P170" s="32"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A171" s="32">
-        <v>153</v>
-      </c>
-      <c r="B171" s="32"/>
+      <c r="A171" s="31">
+        <v>155</v>
+      </c>
+      <c r="B171" s="31"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="31"/>
-      <c r="H171" s="31"/>
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
-      <c r="K171" s="31"/>
-      <c r="L171" s="31"/>
-      <c r="M171" s="31"/>
-      <c r="N171" s="31"/>
-      <c r="O171" s="31"/>
-      <c r="P171" s="31"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="32"/>
+      <c r="L171" s="32"/>
+      <c r="M171" s="32"/>
+      <c r="N171" s="32"/>
+      <c r="O171" s="32"/>
+      <c r="P171" s="32"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="32">
-        <v>153.5</v>
-      </c>
-      <c r="B172" s="32"/>
+      <c r="A172" s="31">
+        <v>155.5</v>
+      </c>
+      <c r="B172" s="31"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="31"/>
-      <c r="H172" s="31"/>
-      <c r="I172" s="31"/>
-      <c r="J172" s="31"/>
-      <c r="K172" s="31"/>
-      <c r="L172" s="31"/>
-      <c r="M172" s="31"/>
-      <c r="N172" s="31"/>
-      <c r="O172" s="31"/>
-      <c r="P172" s="31"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="32"/>
+      <c r="K172" s="32"/>
+      <c r="L172" s="32"/>
+      <c r="M172" s="32"/>
+      <c r="N172" s="32"/>
+      <c r="O172" s="32"/>
+      <c r="P172" s="32"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A173" s="32">
-        <v>154</v>
-      </c>
-      <c r="B173" s="32"/>
+      <c r="A173" s="31">
+        <v>156</v>
+      </c>
+      <c r="B173" s="31"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="31"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="31"/>
-      <c r="H173" s="31"/>
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
-      <c r="K173" s="31"/>
-      <c r="L173" s="31"/>
-      <c r="M173" s="31"/>
-      <c r="N173" s="31"/>
-      <c r="O173" s="31"/>
-      <c r="P173" s="31"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="32"/>
+      <c r="L173" s="32"/>
+      <c r="M173" s="32"/>
+      <c r="N173" s="32"/>
+      <c r="O173" s="32"/>
+      <c r="P173" s="32"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="32">
-        <v>154.5</v>
-      </c>
-      <c r="B174" s="32"/>
+      <c r="A174" s="31">
+        <v>156.5</v>
+      </c>
+      <c r="B174" s="31"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D174" s="31"/>
-      <c r="E174" s="31"/>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
-      <c r="H174" s="31"/>
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
-      <c r="K174" s="31"/>
-      <c r="L174" s="31"/>
-      <c r="M174" s="31"/>
-      <c r="N174" s="31"/>
-      <c r="O174" s="31"/>
-      <c r="P174" s="31"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="32"/>
+      <c r="K174" s="32"/>
+      <c r="L174" s="32"/>
+      <c r="M174" s="32"/>
+      <c r="N174" s="32"/>
+      <c r="O174" s="32"/>
+      <c r="P174" s="32"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="32">
-        <v>155</v>
-      </c>
-      <c r="B175" s="32"/>
+      <c r="A175" s="31">
+        <v>157</v>
+      </c>
+      <c r="B175" s="31"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D175" s="31"/>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="31"/>
-      <c r="H175" s="31"/>
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
-      <c r="K175" s="31"/>
-      <c r="L175" s="31"/>
-      <c r="M175" s="31"/>
-      <c r="N175" s="31"/>
-      <c r="O175" s="31"/>
-      <c r="P175" s="31"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="32"/>
+      <c r="K175" s="32"/>
+      <c r="L175" s="32"/>
+      <c r="M175" s="32"/>
+      <c r="N175" s="32"/>
+      <c r="O175" s="32"/>
+      <c r="P175" s="32"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="32">
-        <v>155.5</v>
-      </c>
-      <c r="B176" s="32"/>
+      <c r="A176" s="31">
+        <v>157.5</v>
+      </c>
+      <c r="B176" s="31"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D176" s="31"/>
-      <c r="E176" s="31"/>
-      <c r="F176" s="31"/>
-      <c r="G176" s="31"/>
-      <c r="H176" s="31"/>
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
-      <c r="K176" s="31"/>
-      <c r="L176" s="31"/>
-      <c r="M176" s="31"/>
-      <c r="N176" s="31"/>
-      <c r="O176" s="31"/>
-      <c r="P176" s="31"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="32"/>
+      <c r="L176" s="32"/>
+      <c r="M176" s="32"/>
+      <c r="N176" s="32"/>
+      <c r="O176" s="32"/>
+      <c r="P176" s="32"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="32">
-        <v>156</v>
-      </c>
-      <c r="B177" s="32"/>
+      <c r="A177" s="31">
+        <v>158</v>
+      </c>
+      <c r="B177" s="31"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D177" s="31"/>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="31"/>
-      <c r="H177" s="31"/>
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
-      <c r="K177" s="31"/>
-      <c r="L177" s="31"/>
-      <c r="M177" s="31"/>
-      <c r="N177" s="31"/>
-      <c r="O177" s="31"/>
-      <c r="P177" s="31"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="32"/>
+      <c r="K177" s="32"/>
+      <c r="L177" s="32"/>
+      <c r="M177" s="32"/>
+      <c r="N177" s="32"/>
+      <c r="O177" s="32"/>
+      <c r="P177" s="32"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="32">
-        <v>156.5</v>
-      </c>
-      <c r="B178" s="32"/>
+      <c r="A178" s="31">
+        <v>158.5</v>
+      </c>
+      <c r="B178" s="31"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D178" s="31"/>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="31"/>
-      <c r="H178" s="31"/>
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
-      <c r="K178" s="31"/>
-      <c r="L178" s="31"/>
-      <c r="M178" s="31"/>
-      <c r="N178" s="31"/>
-      <c r="O178" s="31"/>
-      <c r="P178" s="31"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="32"/>
+      <c r="J178" s="32"/>
+      <c r="K178" s="32"/>
+      <c r="L178" s="32"/>
+      <c r="M178" s="32"/>
+      <c r="N178" s="32"/>
+      <c r="O178" s="32"/>
+      <c r="P178" s="32"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="32">
-        <v>157</v>
-      </c>
-      <c r="B179" s="32"/>
+      <c r="A179" s="31">
+        <v>159</v>
+      </c>
+      <c r="B179" s="31"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D179" s="31"/>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="31"/>
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
-      <c r="K179" s="31"/>
-      <c r="L179" s="31"/>
-      <c r="M179" s="31"/>
-      <c r="N179" s="31"/>
-      <c r="O179" s="31"/>
-      <c r="P179" s="31"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="32"/>
+      <c r="K179" s="32"/>
+      <c r="L179" s="32"/>
+      <c r="M179" s="32"/>
+      <c r="N179" s="32"/>
+      <c r="O179" s="32"/>
+      <c r="P179" s="32"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="32">
-        <v>157.5</v>
-      </c>
-      <c r="B180" s="32"/>
+      <c r="A180" s="31">
+        <v>159.5</v>
+      </c>
+      <c r="B180" s="31"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D180" s="31"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="31"/>
-      <c r="H180" s="31"/>
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
-      <c r="K180" s="31"/>
-      <c r="L180" s="31"/>
-      <c r="M180" s="31"/>
-      <c r="N180" s="31"/>
-      <c r="O180" s="31"/>
-      <c r="P180" s="31"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="32"/>
+      <c r="K180" s="32"/>
+      <c r="L180" s="32"/>
+      <c r="M180" s="32"/>
+      <c r="N180" s="32"/>
+      <c r="O180" s="32"/>
+      <c r="P180" s="32"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="32">
-        <v>158</v>
-      </c>
-      <c r="B181" s="32"/>
+      <c r="A181" s="31">
+        <v>160</v>
+      </c>
+      <c r="B181" s="31"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="31"/>
-      <c r="H181" s="31"/>
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
-      <c r="K181" s="31"/>
-      <c r="L181" s="31"/>
-      <c r="M181" s="31"/>
-      <c r="N181" s="31"/>
-      <c r="O181" s="31"/>
-      <c r="P181" s="31"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="32"/>
+      <c r="J181" s="32"/>
+      <c r="K181" s="32"/>
+      <c r="L181" s="32"/>
+      <c r="M181" s="32"/>
+      <c r="N181" s="32"/>
+      <c r="O181" s="32"/>
+      <c r="P181" s="32"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="32">
-        <v>158.5</v>
-      </c>
-      <c r="B182" s="32"/>
+      <c r="A182" s="31">
+        <v>160.5</v>
+      </c>
+      <c r="B182" s="31"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D182" s="31"/>
-      <c r="E182" s="31"/>
-      <c r="F182" s="31"/>
-      <c r="G182" s="31"/>
-      <c r="H182" s="31"/>
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
-      <c r="K182" s="31"/>
-      <c r="L182" s="31"/>
-      <c r="M182" s="31"/>
-      <c r="N182" s="31"/>
-      <c r="O182" s="31"/>
-      <c r="P182" s="31"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
+      <c r="J182" s="32"/>
+      <c r="K182" s="32"/>
+      <c r="L182" s="32"/>
+      <c r="M182" s="32"/>
+      <c r="N182" s="32"/>
+      <c r="O182" s="32"/>
+      <c r="P182" s="32"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="32">
-        <v>159</v>
-      </c>
-      <c r="B183" s="32"/>
+      <c r="A183" s="31">
+        <v>161</v>
+      </c>
+      <c r="B183" s="31"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D183" s="31"/>
-      <c r="E183" s="31"/>
-      <c r="F183" s="31"/>
-      <c r="G183" s="31"/>
-      <c r="H183" s="31"/>
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
-      <c r="K183" s="31"/>
-      <c r="L183" s="31"/>
-      <c r="M183" s="31"/>
-      <c r="N183" s="31"/>
-      <c r="O183" s="31"/>
-      <c r="P183" s="31"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
+      <c r="J183" s="32"/>
+      <c r="K183" s="32"/>
+      <c r="L183" s="32"/>
+      <c r="M183" s="32"/>
+      <c r="N183" s="32"/>
+      <c r="O183" s="32"/>
+      <c r="P183" s="32"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="32">
-        <v>159.5</v>
-      </c>
-      <c r="B184" s="32"/>
+      <c r="A184" s="31">
+        <v>161.5</v>
+      </c>
+      <c r="B184" s="31"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D184" s="31"/>
-      <c r="E184" s="31"/>
-      <c r="F184" s="31"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="31"/>
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
-      <c r="K184" s="31"/>
-      <c r="L184" s="31"/>
-      <c r="M184" s="31"/>
-      <c r="N184" s="31"/>
-      <c r="O184" s="31"/>
-      <c r="P184" s="31"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="32"/>
+      <c r="J184" s="32"/>
+      <c r="K184" s="32"/>
+      <c r="L184" s="32"/>
+      <c r="M184" s="32"/>
+      <c r="N184" s="32"/>
+      <c r="O184" s="32"/>
+      <c r="P184" s="32"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="32">
-        <v>160</v>
-      </c>
-      <c r="B185" s="32"/>
+      <c r="A185" s="31">
+        <v>162</v>
+      </c>
+      <c r="B185" s="31"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D185" s="31"/>
-      <c r="E185" s="31"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="31"/>
-      <c r="H185" s="31"/>
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
-      <c r="K185" s="31"/>
-      <c r="L185" s="31"/>
-      <c r="M185" s="31"/>
-      <c r="N185" s="31"/>
-      <c r="O185" s="31"/>
-      <c r="P185" s="31"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="32"/>
+      <c r="K185" s="32"/>
+      <c r="L185" s="32"/>
+      <c r="M185" s="32"/>
+      <c r="N185" s="32"/>
+      <c r="O185" s="32"/>
+      <c r="P185" s="32"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="32">
-        <v>160.5</v>
-      </c>
-      <c r="B186" s="32"/>
+      <c r="A186" s="31">
+        <v>162.5</v>
+      </c>
+      <c r="B186" s="31"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D186" s="31"/>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="31"/>
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
-      <c r="K186" s="31"/>
-      <c r="L186" s="31"/>
-      <c r="M186" s="31"/>
-      <c r="N186" s="31"/>
-      <c r="O186" s="31"/>
-      <c r="P186" s="31"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="32"/>
+      <c r="K186" s="32"/>
+      <c r="L186" s="32"/>
+      <c r="M186" s="32"/>
+      <c r="N186" s="32"/>
+      <c r="O186" s="32"/>
+      <c r="P186" s="32"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="32">
-        <v>161</v>
-      </c>
-      <c r="B187" s="32"/>
+      <c r="A187" s="31">
+        <v>163</v>
+      </c>
+      <c r="B187" s="31"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D187" s="31"/>
-      <c r="E187" s="31"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="31"/>
-      <c r="H187" s="31"/>
-      <c r="I187" s="31"/>
-      <c r="J187" s="31"/>
-      <c r="K187" s="31"/>
-      <c r="L187" s="31"/>
-      <c r="M187" s="31"/>
-      <c r="N187" s="31"/>
-      <c r="O187" s="31"/>
-      <c r="P187" s="31"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="32"/>
+      <c r="K187" s="32"/>
+      <c r="L187" s="32"/>
+      <c r="M187" s="32"/>
+      <c r="N187" s="32"/>
+      <c r="O187" s="32"/>
+      <c r="P187" s="32"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="32">
-        <v>161.5</v>
-      </c>
-      <c r="B188" s="32"/>
+      <c r="A188" s="31">
+        <v>163.5</v>
+      </c>
+      <c r="B188" s="31"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D188" s="31"/>
-      <c r="E188" s="31"/>
-      <c r="F188" s="31"/>
-      <c r="G188" s="31"/>
-      <c r="H188" s="31"/>
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
-      <c r="K188" s="31"/>
-      <c r="L188" s="31"/>
-      <c r="M188" s="31"/>
-      <c r="N188" s="31"/>
-      <c r="O188" s="31"/>
-      <c r="P188" s="31"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="32"/>
+      <c r="J188" s="32"/>
+      <c r="K188" s="32"/>
+      <c r="L188" s="32"/>
+      <c r="M188" s="32"/>
+      <c r="N188" s="32"/>
+      <c r="O188" s="32"/>
+      <c r="P188" s="32"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="32">
-        <v>162</v>
-      </c>
-      <c r="B189" s="32"/>
+      <c r="A189" s="31">
+        <v>164</v>
+      </c>
+      <c r="B189" s="31"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D189" s="31"/>
-      <c r="E189" s="31"/>
-      <c r="F189" s="31"/>
-      <c r="G189" s="31"/>
-      <c r="H189" s="31"/>
-      <c r="I189" s="31"/>
-      <c r="J189" s="31"/>
-      <c r="K189" s="31"/>
-      <c r="L189" s="31"/>
-      <c r="M189" s="31"/>
-      <c r="N189" s="31"/>
-      <c r="O189" s="31"/>
-      <c r="P189" s="31"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32"/>
+      <c r="I189" s="32"/>
+      <c r="J189" s="32"/>
+      <c r="K189" s="32"/>
+      <c r="L189" s="32"/>
+      <c r="M189" s="32"/>
+      <c r="N189" s="32"/>
+      <c r="O189" s="32"/>
+      <c r="P189" s="32"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="32">
-        <v>162.5</v>
-      </c>
-      <c r="B190" s="32"/>
+      <c r="A190" s="31">
+        <v>164.5</v>
+      </c>
+      <c r="B190" s="31"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D190" s="31"/>
-      <c r="E190" s="31"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="31"/>
-      <c r="H190" s="31"/>
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
-      <c r="K190" s="31"/>
-      <c r="L190" s="31"/>
-      <c r="M190" s="31"/>
-      <c r="N190" s="31"/>
-      <c r="O190" s="31"/>
-      <c r="P190" s="31"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="32"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="32"/>
+      <c r="I190" s="32"/>
+      <c r="J190" s="32"/>
+      <c r="K190" s="32"/>
+      <c r="L190" s="32"/>
+      <c r="M190" s="32"/>
+      <c r="N190" s="32"/>
+      <c r="O190" s="32"/>
+      <c r="P190" s="32"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="32">
-        <v>163</v>
-      </c>
-      <c r="B191" s="32"/>
+      <c r="A191" s="31">
+        <v>165</v>
+      </c>
+      <c r="B191" s="31"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="31"/>
-      <c r="H191" s="31"/>
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
-      <c r="K191" s="31"/>
-      <c r="L191" s="31"/>
-      <c r="M191" s="31"/>
-      <c r="N191" s="31"/>
-      <c r="O191" s="31"/>
-      <c r="P191" s="31"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
+      <c r="J191" s="32"/>
+      <c r="K191" s="32"/>
+      <c r="L191" s="32"/>
+      <c r="M191" s="32"/>
+      <c r="N191" s="32"/>
+      <c r="O191" s="32"/>
+      <c r="P191" s="32"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="32">
-        <v>163.5</v>
-      </c>
-      <c r="B192" s="32"/>
+      <c r="A192" s="31">
+        <v>165.5</v>
+      </c>
+      <c r="B192" s="31"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="31"/>
-      <c r="H192" s="31"/>
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
-      <c r="K192" s="31"/>
-      <c r="L192" s="31"/>
-      <c r="M192" s="31"/>
-      <c r="N192" s="31"/>
-      <c r="O192" s="31"/>
-      <c r="P192" s="31"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
+      <c r="J192" s="32"/>
+      <c r="K192" s="32"/>
+      <c r="L192" s="32"/>
+      <c r="M192" s="32"/>
+      <c r="N192" s="32"/>
+      <c r="O192" s="32"/>
+      <c r="P192" s="32"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="32">
-        <v>164</v>
-      </c>
-      <c r="B193" s="32"/>
+      <c r="A193" s="31">
+        <v>166</v>
+      </c>
+      <c r="B193" s="31"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D193" s="31"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="31"/>
-      <c r="H193" s="31"/>
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
-      <c r="K193" s="31"/>
-      <c r="L193" s="31"/>
-      <c r="M193" s="31"/>
-      <c r="N193" s="31"/>
-      <c r="O193" s="31"/>
-      <c r="P193" s="31"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
+      <c r="J193" s="32"/>
+      <c r="K193" s="32"/>
+      <c r="L193" s="32"/>
+      <c r="M193" s="32"/>
+      <c r="N193" s="32"/>
+      <c r="O193" s="32"/>
+      <c r="P193" s="32"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="32">
-        <v>164.5</v>
-      </c>
-      <c r="B194" s="32"/>
+      <c r="A194" s="31">
+        <v>166.5</v>
+      </c>
+      <c r="B194" s="31"/>
       <c r="C194" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D194" s="31"/>
-      <c r="E194" s="31"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="31"/>
-      <c r="H194" s="31"/>
-      <c r="I194" s="31"/>
-      <c r="J194" s="31"/>
-      <c r="K194" s="31"/>
-      <c r="L194" s="31"/>
-      <c r="M194" s="31"/>
-      <c r="N194" s="31"/>
-      <c r="O194" s="31"/>
-      <c r="P194" s="31"/>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A195" s="32">
-        <v>165</v>
-      </c>
-      <c r="B195" s="32"/>
+        <f t="shared" ref="C194:C195" si="3">IF(S194="", "",IF(S194&lt;=50%, "!!!", IF(S194&lt;=75%,"!!", IF(S194&lt;100%, "!", "OK"))))</f>
+        <v/>
+      </c>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="32"/>
+      <c r="J194" s="32"/>
+      <c r="K194" s="32"/>
+      <c r="L194" s="32"/>
+      <c r="M194" s="32"/>
+      <c r="N194" s="32"/>
+      <c r="O194" s="32"/>
+      <c r="P194" s="32"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C195" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D195" s="31"/>
-      <c r="E195" s="31"/>
-      <c r="F195" s="31"/>
-      <c r="G195" s="31"/>
-      <c r="H195" s="31"/>
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
-      <c r="K195" s="31"/>
-      <c r="L195" s="31"/>
-      <c r="M195" s="31"/>
-      <c r="N195" s="31"/>
-      <c r="O195" s="31"/>
-      <c r="P195" s="31"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="32">
-        <v>165.5</v>
-      </c>
-      <c r="B196" s="32"/>
-      <c r="C196" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D196" s="31"/>
-      <c r="E196" s="31"/>
-      <c r="F196" s="31"/>
-      <c r="G196" s="31"/>
-      <c r="H196" s="31"/>
-      <c r="I196" s="31"/>
-      <c r="J196" s="31"/>
-      <c r="K196" s="31"/>
-      <c r="L196" s="31"/>
-      <c r="M196" s="31"/>
-      <c r="N196" s="31"/>
-      <c r="O196" s="31"/>
-      <c r="P196" s="31"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A197" s="32">
-        <v>166</v>
-      </c>
-      <c r="B197" s="32"/>
-      <c r="C197" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D197" s="31"/>
-      <c r="E197" s="31"/>
-      <c r="F197" s="31"/>
-      <c r="G197" s="31"/>
-      <c r="H197" s="31"/>
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
-      <c r="K197" s="31"/>
-      <c r="L197" s="31"/>
-      <c r="M197" s="31"/>
-      <c r="N197" s="31"/>
-      <c r="O197" s="31"/>
-      <c r="P197" s="31"/>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A198" s="32">
-        <v>166.5</v>
-      </c>
-      <c r="B198" s="32"/>
-      <c r="C198" s="8" t="str">
-        <f t="shared" ref="C198:C199" si="3">IF(S198="", "",IF(S198&lt;=50%, "!!!", IF(S198&lt;=75%,"!!", IF(S198&lt;100%, "!", "OK"))))</f>
-        <v/>
-      </c>
-      <c r="D198" s="31"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
-      <c r="K198" s="31"/>
-      <c r="L198" s="31"/>
-      <c r="M198" s="31"/>
-      <c r="N198" s="31"/>
-      <c r="O198" s="31"/>
-      <c r="P198" s="31"/>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C199" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="395">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:P44"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="D194:P194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:P195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="D196:P196"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:P183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="D184:P184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="D185:P185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:P186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="D187:P187"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="D174:P174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="D175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:P176"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="D197:P197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="D198:P198"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:P190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="D191:P191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="D192:P192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:P193"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:P177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:P178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="D179:P179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:P180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:P181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D182:P182"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:P188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:P189"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:P165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:P166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:P167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D168:P168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="D169:P169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="D170:P170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="D171:P171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="D172:P172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:P173"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:P156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="D157:P157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="D158:P158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:P159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:P160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:P161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="D162:P162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:P163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:P164"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="D147:P147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D148:P148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:P149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:P150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="D151:P151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="D152:P152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:P153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="D154:P154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:P155"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="D138:P138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="D139:P139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:P140"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="D142:P142"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:P141"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:P144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:P145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="D146:P146"/>
-    <mergeCell ref="D143:U143"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="D129:P129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:P130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:P131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:P132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:P133"/>
+  <mergeCells count="384">
+    <mergeCell ref="D126:P126"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:P125"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="D45:U45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:P49"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D61:U61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:P51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:P53"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:P70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:P71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:P57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="D85:U85"/>
+    <mergeCell ref="D97:U97"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:P72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:P76"/>
+    <mergeCell ref="D74:U74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:P78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:P79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:P80"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:P95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:P96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:P98"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:P81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:P82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:P83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:P84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:P86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:P88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:P89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:P90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:P91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:P92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:P93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:P94"/>
+    <mergeCell ref="D119:U119"/>
+    <mergeCell ref="D124:U124"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:P100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:P101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:P102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:P103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:P104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:P105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:P106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:P107"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:P114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:P115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:P116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:P117"/>
+    <mergeCell ref="D109:U109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:P108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:P110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:P111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="D112:P112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:P113"/>
     <mergeCell ref="A134:B134"/>
     <mergeCell ref="D134:P134"/>
     <mergeCell ref="A135:B135"/>
@@ -7138,243 +7225,129 @@
     <mergeCell ref="D127:P127"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="D128:P128"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:P107"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:P114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:P115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:P116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:P117"/>
-    <mergeCell ref="D109:U109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="D108:P108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:P110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:P111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="D112:P112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:P113"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:P92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:P93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:P94"/>
-    <mergeCell ref="D119:U119"/>
-    <mergeCell ref="D124:U124"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:P99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:P100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:P101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:P102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:P103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:P104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:P105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:P106"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:P98"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:P81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:P82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:P83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:P84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:P86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:P88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:P89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:P90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:P91"/>
-    <mergeCell ref="D85:U85"/>
-    <mergeCell ref="D97:U97"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:P76"/>
-    <mergeCell ref="D74:U74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:P78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:P79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:P80"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:P95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:P96"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:P57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:P62"/>
-    <mergeCell ref="D61:U61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:P51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:P53"/>
-    <mergeCell ref="D45:U45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:P49"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:P43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D126:P126"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D125:P125"/>
-    <mergeCell ref="D13:U13"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="D129:P129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:P130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:P131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:P132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:P133"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="D138:P138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="D139:P139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:P140"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="D142:P142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:P141"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:P144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:P145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:P146"/>
+    <mergeCell ref="D143:U143"/>
+    <mergeCell ref="D153:U153"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:P159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:P160"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="D147:P147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D148:P148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:P149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:P150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="D151:P151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D152:P152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="D154:P157"/>
+    <mergeCell ref="C158:U158"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:P178"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="D184:P184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="D185:P185"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:P161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="D162:P162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:P163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:P164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:P165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:P166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:P167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D168:P168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="D169:P169"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:P173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D174:P174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="D175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:P176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:P177"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:P193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="D194:P194"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:P186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="D187:P187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:P188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:P189"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:P44"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:P190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="D191:P191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="D192:P192"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="D179:P179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:P180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:P181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D182:P182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:P183"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:P170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="D171:P171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:P172"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">
@@ -7387,7 +7360,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A200:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C140 A126:B140 D127:XFD140 V143:XFD143 A141:XFD142 A143:C199 D144:XFD199">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A196:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C140 A126:B140 D127:XFD140 V143:XFD143 A141:XFD142 D144:XFD152 D159:XFD195 V153:XFD153 D154 R154:XFD157 V158:XFD158 A143:C195">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
@@ -7434,13 +7407,13 @@
           <x14:formula1>
             <xm:f>'Ghi chú'!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T123 T144:T1048576 T125:T142</xm:sqref>
+          <xm:sqref>T26:T44 T14:T24 T2:T12 T46:T60 T62:T73 T75:T84 T86:T96 T98:T108 T110:T118 T120:T123 T125:T142 T144:T152 T154:T157 T159:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Ghi chú'!$L$4:$L$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R123 R144:R1048576 R125:R142</xm:sqref>
+          <xm:sqref>S7 R26:R44 R14:R24 R2:R12 R46:R60 R62:R73 R75:R84 R86:R96 R98:R108 R110:R118 R120:R123 R125:R142 R144:R152 R154:R157 R159:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
   <si>
     <t>No.</t>
   </si>
@@ -257,6 +257,15 @@
 Kiểm tra chữ ký cho CallCenter
 Kiểm tra trường hợp máy bận trên CallCenter
 </t>
+  </si>
+  <si>
+    <t>Xử lý lại đặt đơn hàng trong CallCenter và LiveChat (Sửa cấu trúc bảng Order_Online)</t>
+  </si>
+  <si>
+    <t>Kiểm tra chữ ký cho CallCenter</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường hợp máy bận trên CallCenter</t>
   </si>
 </sst>
 </file>
@@ -366,7 +375,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -451,31 +460,41 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,7 +612,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,8 +1071,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T163" sqref="T163"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160:P160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,28 +1104,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1125,29 +1144,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1162,52 +1181,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1222,52 +1241,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1282,52 +1301,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31"/>
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1342,52 +1361,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31"/>
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1402,52 +1421,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1462,59 +1481,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1529,52 +1548,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1589,52 +1608,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1649,52 +1668,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1709,52 +1728,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1769,52 +1788,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="31">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1829,59 +1848,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1896,29 +1915,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
+      <c r="A27" s="37">
         <v>26</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1936,52 +1955,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
+      <c r="A28" s="37">
         <v>27</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+      <c r="A29" s="37">
         <v>28</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -1999,52 +2018,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
+      <c r="A31" s="37">
         <v>30</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -2062,29 +2081,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+      <c r="A32" s="37">
         <v>31</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -2102,29 +2121,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="31">
+      <c r="A33" s="37">
         <v>32</v>
       </c>
-      <c r="B33" s="31"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2139,52 +2158,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
+      <c r="A34" s="37">
         <v>33</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
+      <c r="A35" s="37">
         <v>34</v>
       </c>
-      <c r="B35" s="31"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2202,29 +2221,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="40">
         <v>35</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2243,29 +2262,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="31">
+      <c r="A37" s="37">
         <v>36</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2280,52 +2299,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2340,52 +2359,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+      <c r="A40" s="37">
         <v>39</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="31">
+      <c r="A41" s="37">
         <v>40</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2403,29 +2422,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="31">
+      <c r="A42" s="37">
         <v>41</v>
       </c>
-      <c r="B42" s="31"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2440,29 +2459,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="31">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2477,29 +2496,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="31">
+      <c r="A44" s="37">
         <v>43</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2514,59 +2533,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="31">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
-      <c r="B45" s="31"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="31">
+      <c r="A46" s="37">
         <v>45</v>
       </c>
-      <c r="B46" s="31"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2584,52 +2603,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="31">
+      <c r="A47" s="37">
         <v>46</v>
       </c>
-      <c r="B47" s="31"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="31">
+      <c r="A48" s="37">
         <v>47</v>
       </c>
-      <c r="B48" s="31"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2644,29 +2663,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="31">
+      <c r="A49" s="37">
         <v>48</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2681,29 +2700,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="31">
+      <c r="A50" s="37">
         <v>49</v>
       </c>
-      <c r="B50" s="31"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2718,29 +2737,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="31">
+      <c r="A51" s="37">
         <v>50</v>
       </c>
-      <c r="B51" s="31"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2755,52 +2774,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="31">
+      <c r="A52" s="37">
         <v>51</v>
       </c>
-      <c r="B52" s="31"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="31">
+      <c r="A53" s="37">
         <v>52</v>
       </c>
-      <c r="B53" s="31"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2815,29 +2834,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="31">
+      <c r="A54" s="37">
         <v>53</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2852,52 +2871,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="31">
+      <c r="A55" s="37">
         <v>54</v>
       </c>
-      <c r="B55" s="31"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="31">
+      <c r="A56" s="37">
         <v>55</v>
       </c>
-      <c r="B56" s="31"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2912,52 +2931,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="31">
+      <c r="A57" s="37">
         <v>56</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="31">
+      <c r="A58" s="37">
         <v>57</v>
       </c>
-      <c r="B58" s="31"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2972,52 +2991,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="31">
+      <c r="A59" s="37">
         <v>58</v>
       </c>
-      <c r="B59" s="31"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="31">
+      <c r="A60" s="37">
         <v>59</v>
       </c>
-      <c r="B60" s="31"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -3032,59 +3051,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="31">
+      <c r="A61" s="37">
         <v>60</v>
       </c>
-      <c r="B61" s="31"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="31">
+      <c r="A62" s="37">
         <v>61</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -3099,52 +3118,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="31">
+      <c r="A63" s="37">
         <v>62</v>
       </c>
-      <c r="B63" s="31"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="31">
+      <c r="A64" s="37">
         <v>63</v>
       </c>
-      <c r="B64" s="31"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3159,52 +3178,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="31">
+      <c r="A65" s="37">
         <v>64</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="31">
+      <c r="A66" s="37">
         <v>65</v>
       </c>
-      <c r="B66" s="31"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3219,29 +3238,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="31">
+      <c r="A67" s="37">
         <v>66</v>
       </c>
-      <c r="B67" s="31"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C133" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3256,52 +3275,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="31">
+      <c r="A68" s="37">
         <v>67</v>
       </c>
-      <c r="B68" s="31"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="31">
+      <c r="A69" s="37">
         <v>68</v>
       </c>
-      <c r="B69" s="31"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3316,52 +3335,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="31">
+      <c r="A70" s="37">
         <v>69</v>
       </c>
-      <c r="B70" s="31"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="31">
+      <c r="A71" s="37">
         <v>70</v>
       </c>
-      <c r="B71" s="31"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3376,52 +3395,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="31">
+      <c r="A72" s="37">
         <v>71</v>
       </c>
-      <c r="B72" s="31"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="31">
+      <c r="A73" s="37">
         <v>72</v>
       </c>
-      <c r="B73" s="31"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3436,59 +3455,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="31">
+      <c r="A74" s="37">
         <v>73</v>
       </c>
-      <c r="B74" s="31"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="31">
+      <c r="A75" s="37">
         <v>74</v>
       </c>
-      <c r="B75" s="31"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3503,29 +3522,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="31">
+      <c r="A76" s="37">
         <v>75</v>
       </c>
-      <c r="B76" s="31"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3540,52 +3559,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="31">
+      <c r="A77" s="37">
         <v>76</v>
       </c>
-      <c r="B77" s="31"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="32"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="31">
+      <c r="A78" s="37">
         <v>77</v>
       </c>
-      <c r="B78" s="31"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3600,52 +3619,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="31">
+      <c r="A79" s="37">
         <v>78</v>
       </c>
-      <c r="B79" s="31"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="31">
+      <c r="A80" s="37">
         <v>79</v>
       </c>
-      <c r="B80" s="31"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3660,52 +3679,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="31">
+      <c r="A81" s="37">
         <v>80</v>
       </c>
-      <c r="B81" s="31"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="31">
+      <c r="A82" s="37">
         <v>81</v>
       </c>
-      <c r="B82" s="31"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3720,52 +3739,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="31">
+      <c r="A83" s="37">
         <v>82</v>
       </c>
-      <c r="B83" s="31"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="32"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="31">
+      <c r="A84" s="37">
         <v>83</v>
       </c>
-      <c r="B84" s="31"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3780,59 +3799,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="31">
+      <c r="A85" s="37">
         <v>84</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="31">
+      <c r="A86" s="37">
         <v>85</v>
       </c>
-      <c r="B86" s="31"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3847,52 +3866,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="31">
+      <c r="A87" s="37">
         <v>86</v>
       </c>
-      <c r="B87" s="31"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="31">
+      <c r="A88" s="37">
         <v>87</v>
       </c>
-      <c r="B88" s="31"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3907,52 +3926,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="31">
+      <c r="A89" s="37">
         <v>88</v>
       </c>
-      <c r="B89" s="31"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+      <c r="A90" s="40">
         <v>89</v>
       </c>
-      <c r="B90" s="34"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3969,52 +3988,52 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31">
+      <c r="A91" s="37">
         <v>90</v>
       </c>
-      <c r="B91" s="31"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="32"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
+      <c r="A92" s="40">
         <v>91</v>
       </c>
-      <c r="B92" s="34"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D92" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -4031,52 +4050,52 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="31">
+      <c r="A93" s="37">
         <v>92</v>
       </c>
-      <c r="B93" s="31"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="32"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34">
+      <c r="A94" s="40">
         <v>93</v>
       </c>
-      <c r="B94" s="34"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="36" t="s">
+      <c r="D94" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -4093,52 +4112,52 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="31">
+      <c r="A95" s="37">
         <v>94</v>
       </c>
-      <c r="B95" s="31"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="31">
+      <c r="A96" s="37">
         <v>95</v>
       </c>
-      <c r="B96" s="31"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="32"/>
-      <c r="P96" s="32"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4153,59 +4172,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="31">
+      <c r="A97" s="37">
         <v>96</v>
       </c>
-      <c r="B97" s="31"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="38"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="31">
+      <c r="A98" s="37">
         <v>97</v>
       </c>
-      <c r="B98" s="31"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="32"/>
-      <c r="P98" s="32"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4220,29 +4239,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="31">
+      <c r="A99" s="37">
         <v>98</v>
       </c>
-      <c r="B99" s="31"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="32"/>
-      <c r="P99" s="32"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4257,52 +4276,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="31">
+      <c r="A100" s="37">
         <v>99</v>
       </c>
-      <c r="B100" s="31"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="32"/>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="31">
+      <c r="A101" s="37">
         <v>100</v>
       </c>
-      <c r="B101" s="31"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="D101" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4317,29 +4336,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="31">
+      <c r="A102" s="37">
         <v>101</v>
       </c>
-      <c r="B102" s="31"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4354,52 +4373,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="31">
+      <c r="A103" s="37">
         <v>102</v>
       </c>
-      <c r="B103" s="31"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+      <c r="A104" s="37">
         <v>103</v>
       </c>
-      <c r="B104" s="31"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="32" t="s">
+      <c r="D104" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4414,29 +4433,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="31">
+      <c r="A105" s="37">
         <v>104</v>
       </c>
-      <c r="B105" s="31"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="32"/>
-      <c r="O105" s="32"/>
-      <c r="P105" s="32"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4451,52 +4470,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="31">
+      <c r="A106" s="37">
         <v>105</v>
       </c>
-      <c r="B106" s="31"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="31">
+      <c r="A107" s="37">
         <v>106</v>
       </c>
-      <c r="B107" s="31"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="32" t="s">
+      <c r="D107" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="36"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4511,77 +4530,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="31">
+      <c r="A108" s="37">
         <v>107</v>
       </c>
-      <c r="B108" s="31"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="35"/>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="35"/>
-      <c r="S109" s="35"/>
-      <c r="T109" s="35"/>
-      <c r="U109" s="35"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="38"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="38"/>
+      <c r="U109" s="38"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="31">
+      <c r="A110" s="37">
         <v>108</v>
       </c>
-      <c r="B110" s="31"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="32" t="s">
+      <c r="D110" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="32"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="36"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4596,52 +4615,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="31">
+      <c r="A111" s="37">
         <v>109</v>
       </c>
-      <c r="B111" s="31"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="32"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="36"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="31">
+      <c r="A112" s="37">
         <v>110</v>
       </c>
-      <c r="B112" s="31"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="32" t="s">
+      <c r="D112" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="32"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="36"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4656,52 +4675,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="31">
+      <c r="A113" s="37">
         <v>111</v>
       </c>
-      <c r="B113" s="31"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="32"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="31">
+      <c r="A114" s="37">
         <v>112</v>
       </c>
-      <c r="B114" s="31"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="32" t="s">
+      <c r="D114" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="32"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="32"/>
-      <c r="P114" s="32"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4716,29 +4735,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="31">
+      <c r="A115" s="37">
         <v>113</v>
       </c>
-      <c r="B115" s="31"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="32" t="s">
+      <c r="D115" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="32"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
-      <c r="P115" s="32"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4753,29 +4772,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="31">
+      <c r="A116" s="37">
         <v>114</v>
       </c>
-      <c r="B116" s="31"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="32" t="s">
+      <c r="D116" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="32"/>
-      <c r="M116" s="32"/>
-      <c r="N116" s="32"/>
-      <c r="O116" s="32"/>
-      <c r="P116" s="32"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4790,52 +4809,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="31">
+      <c r="A117" s="37">
         <v>115</v>
       </c>
-      <c r="B117" s="31"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="32"/>
-      <c r="M117" s="32"/>
-      <c r="N117" s="32"/>
-      <c r="O117" s="32"/>
-      <c r="P117" s="32"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="36"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="31">
+      <c r="A118" s="37">
         <v>116</v>
       </c>
-      <c r="B118" s="31"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="32" t="s">
+      <c r="D118" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="32"/>
-      <c r="M118" s="32"/>
-      <c r="N118" s="32"/>
-      <c r="O118" s="32"/>
-      <c r="P118" s="32"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4850,59 +4869,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="31">
+      <c r="A119" s="37">
         <v>117</v>
       </c>
-      <c r="B119" s="31"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="35"/>
-      <c r="L119" s="35"/>
-      <c r="M119" s="35"/>
-      <c r="N119" s="35"/>
-      <c r="O119" s="35"/>
-      <c r="P119" s="35"/>
-      <c r="Q119" s="35"/>
-      <c r="R119" s="35"/>
-      <c r="S119" s="35"/>
-      <c r="T119" s="35"/>
-      <c r="U119" s="35"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="38"/>
+      <c r="O119" s="38"/>
+      <c r="P119" s="38"/>
+      <c r="Q119" s="38"/>
+      <c r="R119" s="38"/>
+      <c r="S119" s="38"/>
+      <c r="T119" s="38"/>
+      <c r="U119" s="38"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="31">
+      <c r="A120" s="37">
         <v>118</v>
       </c>
-      <c r="B120" s="31"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="32" t="s">
+      <c r="D120" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
-      <c r="L120" s="32"/>
-      <c r="M120" s="32"/>
-      <c r="N120" s="32"/>
-      <c r="O120" s="32"/>
-      <c r="P120" s="32"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="36"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4917,29 +4936,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="31">
+      <c r="A121" s="37">
         <v>119</v>
       </c>
-      <c r="B121" s="31"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="32" t="s">
+      <c r="D121" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="32"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="32"/>
-      <c r="O121" s="32"/>
-      <c r="P121" s="32"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="36"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="36"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4954,52 +4973,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="31">
+      <c r="A122" s="37">
         <v>120</v>
       </c>
-      <c r="B122" s="31"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
-      <c r="L122" s="32"/>
-      <c r="M122" s="32"/>
-      <c r="N122" s="32"/>
-      <c r="O122" s="32"/>
-      <c r="P122" s="32"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="31">
+      <c r="A123" s="37">
         <v>121</v>
       </c>
-      <c r="B123" s="31"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32"/>
-      <c r="K123" s="32"/>
-      <c r="L123" s="32"/>
-      <c r="M123" s="32"/>
-      <c r="N123" s="32"/>
-      <c r="O123" s="32"/>
-      <c r="P123" s="32"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="36"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -5014,59 +5033,59 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="31">
+      <c r="A124" s="37">
         <v>122</v>
       </c>
-      <c r="B124" s="31"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D124" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="35"/>
-      <c r="O124" s="35"/>
-      <c r="P124" s="35"/>
-      <c r="Q124" s="35"/>
-      <c r="R124" s="35"/>
-      <c r="S124" s="35"/>
-      <c r="T124" s="35"/>
-      <c r="U124" s="35"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="38"/>
+      <c r="P124" s="38"/>
+      <c r="Q124" s="38"/>
+      <c r="R124" s="38"/>
+      <c r="S124" s="38"/>
+      <c r="T124" s="38"/>
+      <c r="U124" s="38"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="31">
+      <c r="A125" s="37">
         <v>123</v>
       </c>
-      <c r="B125" s="31"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="32"/>
-      <c r="M125" s="32"/>
-      <c r="N125" s="32"/>
-      <c r="O125" s="32"/>
-      <c r="P125" s="32"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="36"/>
       <c r="Q125" s="9">
         <v>43486</v>
       </c>
@@ -5082,55 +5101,55 @@
       <c r="U125" s="25"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="31">
-        <v>123</v>
-      </c>
-      <c r="B126" s="31"/>
+      <c r="A126" s="37">
+        <v>124</v>
+      </c>
+      <c r="B126" s="37"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="32"/>
-      <c r="M126" s="32"/>
-      <c r="N126" s="32"/>
-      <c r="O126" s="32"/>
-      <c r="P126" s="32"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="36"/>
       <c r="R126" s="26"/>
       <c r="T126" s="26"/>
       <c r="U126" s="25"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="31">
-        <v>124</v>
-      </c>
-      <c r="B127" s="31"/>
+      <c r="A127" s="37">
+        <v>125</v>
+      </c>
+      <c r="B127" s="37"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="D127" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="32"/>
-      <c r="M127" s="32"/>
-      <c r="N127" s="32"/>
-      <c r="O127" s="32"/>
-      <c r="P127" s="32"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="36"/>
+      <c r="N127" s="36"/>
+      <c r="O127" s="36"/>
+      <c r="P127" s="36"/>
       <c r="Q127" s="9">
         <v>43487</v>
       </c>
@@ -5145,29 +5164,29 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="31">
-        <v>125</v>
-      </c>
-      <c r="B128" s="31"/>
+      <c r="A128" s="37">
+        <v>126</v>
+      </c>
+      <c r="B128" s="37"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D128" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="32"/>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="36"/>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
+      <c r="P128" s="36"/>
       <c r="Q128" s="9">
         <v>43487</v>
       </c>
@@ -5182,29 +5201,29 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A129" s="31">
-        <v>126</v>
-      </c>
-      <c r="B129" s="31"/>
+      <c r="A129" s="37">
+        <v>127</v>
+      </c>
+      <c r="B129" s="37"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D129" s="32" t="s">
+      <c r="D129" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="32"/>
-      <c r="M129" s="32"/>
-      <c r="N129" s="32"/>
-      <c r="O129" s="32"/>
-      <c r="P129" s="32"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="36"/>
+      <c r="N129" s="36"/>
+      <c r="O129" s="36"/>
+      <c r="P129" s="36"/>
       <c r="Q129" s="9">
         <v>43487</v>
       </c>
@@ -5219,29 +5238,29 @@
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A130" s="31">
-        <v>127</v>
-      </c>
-      <c r="B130" s="31"/>
+      <c r="A130" s="37">
+        <v>128</v>
+      </c>
+      <c r="B130" s="37"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D130" s="32" t="s">
+      <c r="D130" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="32"/>
-      <c r="J130" s="32"/>
-      <c r="K130" s="32"/>
-      <c r="L130" s="32"/>
-      <c r="M130" s="32"/>
-      <c r="N130" s="32"/>
-      <c r="O130" s="32"/>
-      <c r="P130" s="32"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="36"/>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="P130" s="36"/>
       <c r="Q130" s="9">
         <v>43487</v>
       </c>
@@ -5256,52 +5275,52 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A131" s="31">
-        <v>128</v>
-      </c>
-      <c r="B131" s="31"/>
+      <c r="A131" s="37">
+        <v>129</v>
+      </c>
+      <c r="B131" s="37"/>
       <c r="C131" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D131" s="32"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="32"/>
-      <c r="J131" s="32"/>
-      <c r="K131" s="32"/>
-      <c r="L131" s="32"/>
-      <c r="M131" s="32"/>
-      <c r="N131" s="32"/>
-      <c r="O131" s="32"/>
-      <c r="P131" s="32"/>
-    </row>
-    <row r="132" spans="1:22" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="34">
-        <v>129</v>
-      </c>
-      <c r="B132" s="34"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="36"/>
+      <c r="N131" s="36"/>
+      <c r="O131" s="36"/>
+      <c r="P131" s="36"/>
+    </row>
+    <row r="132" spans="1:22" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="37">
+        <v>130</v>
+      </c>
+      <c r="B132" s="37"/>
       <c r="C132" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D132" s="36" t="s">
+      <c r="D132" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="36"/>
-      <c r="N132" s="36"/>
-      <c r="O132" s="36"/>
-      <c r="P132" s="36"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="43"/>
+      <c r="O132" s="43"/>
+      <c r="P132" s="43"/>
       <c r="Q132" s="13">
         <v>43488</v>
       </c>
@@ -5317,30 +5336,30 @@
       <c r="U132" s="28"/>
       <c r="V132" s="22"/>
     </row>
-    <row r="133" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="34">
-        <v>130</v>
-      </c>
-      <c r="B133" s="34"/>
+    <row r="133" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="37">
+        <v>131</v>
+      </c>
+      <c r="B133" s="37"/>
       <c r="C133" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D133" s="33" t="s">
+      <c r="D133" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="33"/>
-      <c r="L133" s="33"/>
-      <c r="M133" s="33"/>
-      <c r="N133" s="33"/>
-      <c r="O133" s="33"/>
-      <c r="P133" s="33"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="42"/>
+      <c r="P133" s="42"/>
       <c r="Q133" s="13">
         <v>43488</v>
       </c>
@@ -5357,52 +5376,52 @@
       <c r="V133" s="22"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A134" s="31">
-        <v>131</v>
-      </c>
-      <c r="B134" s="31"/>
+      <c r="A134" s="37">
+        <v>132</v>
+      </c>
+      <c r="B134" s="37"/>
       <c r="C134" s="8" t="str">
         <f t="shared" ref="C134:C193" si="2">IF(S134="", "",IF(S134&lt;=50%, "!!!", IF(S134&lt;=75%,"!!", IF(S134&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="32"/>
-      <c r="L134" s="32"/>
-      <c r="M134" s="32"/>
-      <c r="N134" s="32"/>
-      <c r="O134" s="32"/>
-      <c r="P134" s="32"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="36"/>
+      <c r="N134" s="36"/>
+      <c r="O134" s="36"/>
+      <c r="P134" s="36"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A135" s="31">
-        <v>132</v>
-      </c>
-      <c r="B135" s="31"/>
+      <c r="A135" s="37">
+        <v>133</v>
+      </c>
+      <c r="B135" s="37"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D135" s="32" t="s">
+      <c r="D135" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="32"/>
-      <c r="J135" s="32"/>
-      <c r="K135" s="32"/>
-      <c r="L135" s="32"/>
-      <c r="M135" s="32"/>
-      <c r="N135" s="32"/>
-      <c r="O135" s="32"/>
-      <c r="P135" s="32"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="36"/>
+      <c r="N135" s="36"/>
+      <c r="O135" s="36"/>
+      <c r="P135" s="36"/>
       <c r="Q135" s="9">
         <v>43489</v>
       </c>
@@ -5420,52 +5439,52 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A136" s="31">
-        <v>133</v>
-      </c>
-      <c r="B136" s="31"/>
+      <c r="A136" s="37">
+        <v>134</v>
+      </c>
+      <c r="B136" s="37"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="32"/>
-      <c r="J136" s="32"/>
-      <c r="K136" s="32"/>
-      <c r="L136" s="32"/>
-      <c r="M136" s="32"/>
-      <c r="N136" s="32"/>
-      <c r="O136" s="32"/>
-      <c r="P136" s="32"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="36"/>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
+      <c r="P136" s="36"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A137" s="31">
-        <v>134</v>
-      </c>
-      <c r="B137" s="31"/>
+      <c r="A137" s="37">
+        <v>135</v>
+      </c>
+      <c r="B137" s="37"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D137" s="32" t="s">
+      <c r="D137" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
-      <c r="M137" s="32"/>
-      <c r="N137" s="32"/>
-      <c r="O137" s="32"/>
-      <c r="P137" s="32"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
+      <c r="N137" s="36"/>
+      <c r="O137" s="36"/>
+      <c r="P137" s="36"/>
       <c r="Q137" s="9">
         <v>43490</v>
       </c>
@@ -5480,29 +5499,29 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A138" s="31">
-        <v>135</v>
-      </c>
-      <c r="B138" s="31"/>
+      <c r="A138" s="37">
+        <v>136</v>
+      </c>
+      <c r="B138" s="37"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D138" s="32" t="s">
+      <c r="D138" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="32"/>
-      <c r="M138" s="32"/>
-      <c r="N138" s="32"/>
-      <c r="O138" s="32"/>
-      <c r="P138" s="32"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="36"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="36"/>
       <c r="Q138" s="9">
         <v>43490</v>
       </c>
@@ -5517,29 +5536,29 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A139" s="31">
-        <v>136</v>
-      </c>
-      <c r="B139" s="31"/>
+      <c r="A139" s="37">
+        <v>137</v>
+      </c>
+      <c r="B139" s="37"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="D139" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="32"/>
-      <c r="L139" s="32"/>
-      <c r="M139" s="32"/>
-      <c r="N139" s="32"/>
-      <c r="O139" s="32"/>
-      <c r="P139" s="32"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="36"/>
+      <c r="N139" s="36"/>
+      <c r="O139" s="36"/>
+      <c r="P139" s="36"/>
       <c r="Q139" s="9">
         <v>43490</v>
       </c>
@@ -5554,52 +5573,52 @@
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A140" s="31">
-        <v>137</v>
-      </c>
-      <c r="B140" s="31"/>
+      <c r="A140" s="37">
+        <v>138</v>
+      </c>
+      <c r="B140" s="37"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="32"/>
-      <c r="J140" s="32"/>
-      <c r="K140" s="32"/>
-      <c r="L140" s="32"/>
-      <c r="M140" s="32"/>
-      <c r="N140" s="32"/>
-      <c r="O140" s="32"/>
-      <c r="P140" s="32"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="36"/>
+      <c r="N140" s="36"/>
+      <c r="O140" s="36"/>
+      <c r="P140" s="36"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="31">
+      <c r="A141" s="37">
         <v>139</v>
       </c>
-      <c r="B141" s="31"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="8" t="str">
         <f>IF(S141="", "",IF(S141&lt;=50%, "!!!", IF(S141&lt;=75%,"!!", IF(S141&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D141" s="32" t="s">
+      <c r="D141" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="32"/>
-      <c r="L141" s="32"/>
-      <c r="M141" s="32"/>
-      <c r="N141" s="32"/>
-      <c r="O141" s="32"/>
-      <c r="P141" s="32"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="36"/>
+      <c r="N141" s="36"/>
+      <c r="O141" s="36"/>
+      <c r="P141" s="36"/>
       <c r="Q141" s="9">
         <v>43491</v>
       </c>
@@ -5614,29 +5633,29 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A142" s="31">
-        <v>138</v>
-      </c>
-      <c r="B142" s="31"/>
+      <c r="A142" s="37">
+        <v>140</v>
+      </c>
+      <c r="B142" s="37"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D142" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
-      <c r="J142" s="32"/>
-      <c r="K142" s="32"/>
-      <c r="L142" s="32"/>
-      <c r="M142" s="32"/>
-      <c r="N142" s="32"/>
-      <c r="O142" s="32"/>
-      <c r="P142" s="32"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
+      <c r="P142" s="36"/>
       <c r="Q142" s="9">
         <v>43491</v>
       </c>
@@ -5651,59 +5670,59 @@
       </c>
     </row>
     <row r="143" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="31">
-        <v>139</v>
-      </c>
-      <c r="B143" s="31"/>
+      <c r="A143" s="37">
+        <v>141</v>
+      </c>
+      <c r="B143" s="37"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="35" t="s">
+      <c r="D143" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="35"/>
-      <c r="M143" s="35"/>
-      <c r="N143" s="35"/>
-      <c r="O143" s="35"/>
-      <c r="P143" s="35"/>
-      <c r="Q143" s="35"/>
-      <c r="R143" s="35"/>
-      <c r="S143" s="35"/>
-      <c r="T143" s="35"/>
-      <c r="U143" s="35"/>
-    </row>
-    <row r="144" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="34">
-        <v>139.5</v>
-      </c>
-      <c r="B144" s="34"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="38"/>
+      <c r="J143" s="38"/>
+      <c r="K143" s="38"/>
+      <c r="L143" s="38"/>
+      <c r="M143" s="38"/>
+      <c r="N143" s="38"/>
+      <c r="O143" s="38"/>
+      <c r="P143" s="38"/>
+      <c r="Q143" s="38"/>
+      <c r="R143" s="38"/>
+      <c r="S143" s="38"/>
+      <c r="T143" s="38"/>
+      <c r="U143" s="38"/>
+    </row>
+    <row r="144" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="37">
+        <v>142</v>
+      </c>
+      <c r="B144" s="37"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="33"/>
-      <c r="L144" s="33"/>
-      <c r="M144" s="33"/>
-      <c r="N144" s="33"/>
-      <c r="O144" s="33"/>
-      <c r="P144" s="33"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="42"/>
+      <c r="O144" s="42"/>
+      <c r="P144" s="42"/>
       <c r="Q144" s="13">
         <v>43493</v>
       </c>
@@ -5719,53 +5738,53 @@
       <c r="U144" s="30"/>
       <c r="V144" s="22"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A145" s="31">
-        <v>140</v>
-      </c>
-      <c r="B145" s="31"/>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A145" s="37">
+        <v>143</v>
+      </c>
+      <c r="B145" s="37"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="32"/>
-      <c r="J145" s="32"/>
-      <c r="K145" s="32"/>
-      <c r="L145" s="32"/>
-      <c r="M145" s="32"/>
-      <c r="N145" s="32"/>
-      <c r="O145" s="32"/>
-      <c r="P145" s="32"/>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A146" s="31">
-        <v>140.5</v>
-      </c>
-      <c r="B146" s="31"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="36"/>
+      <c r="N145" s="36"/>
+      <c r="O145" s="36"/>
+      <c r="P145" s="36"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A146" s="37">
+        <v>144</v>
+      </c>
+      <c r="B146" s="37"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D146" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33"/>
-      <c r="K146" s="33"/>
-      <c r="L146" s="33"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="33"/>
-      <c r="O146" s="33"/>
-      <c r="P146" s="33"/>
+      <c r="E146" s="42"/>
+      <c r="F146" s="42"/>
+      <c r="G146" s="42"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="42"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="42"/>
       <c r="Q146" s="9">
         <v>43494</v>
       </c>
@@ -5779,53 +5798,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A147" s="31">
-        <v>141</v>
-      </c>
-      <c r="B147" s="31"/>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A147" s="37">
+        <v>145</v>
+      </c>
+      <c r="B147" s="37"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="32"/>
-      <c r="J147" s="32"/>
-      <c r="K147" s="32"/>
-      <c r="L147" s="32"/>
-      <c r="M147" s="32"/>
-      <c r="N147" s="32"/>
-      <c r="O147" s="32"/>
-      <c r="P147" s="32"/>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A148" s="31">
-        <v>141.5</v>
-      </c>
-      <c r="B148" s="31"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="36"/>
+      <c r="N147" s="36"/>
+      <c r="O147" s="36"/>
+      <c r="P147" s="36"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A148" s="37">
+        <v>146</v>
+      </c>
+      <c r="B148" s="37"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="33"/>
-      <c r="K148" s="33"/>
-      <c r="L148" s="33"/>
-      <c r="M148" s="33"/>
-      <c r="N148" s="33"/>
-      <c r="O148" s="33"/>
-      <c r="P148" s="33"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="42"/>
       <c r="Q148" s="9">
         <v>43495</v>
       </c>
@@ -5839,30 +5858,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A149" s="31">
-        <v>142</v>
-      </c>
-      <c r="B149" s="31"/>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A149" s="37">
+        <v>147</v>
+      </c>
+      <c r="B149" s="37"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="32"/>
-      <c r="J149" s="32"/>
-      <c r="K149" s="32"/>
-      <c r="L149" s="32"/>
-      <c r="M149" s="32"/>
-      <c r="N149" s="32"/>
-      <c r="O149" s="32"/>
-      <c r="P149" s="32"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="36"/>
+      <c r="N149" s="36"/>
+      <c r="O149" s="36"/>
+      <c r="P149" s="36"/>
       <c r="Q149" s="9">
         <v>43495</v>
       </c>
@@ -5876,53 +5895,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A150" s="31">
-        <v>142.5</v>
-      </c>
-      <c r="B150" s="31"/>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A150" s="37">
+        <v>148</v>
+      </c>
+      <c r="B150" s="37"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="32"/>
-      <c r="J150" s="32"/>
-      <c r="K150" s="32"/>
-      <c r="L150" s="32"/>
-      <c r="M150" s="32"/>
-      <c r="N150" s="32"/>
-      <c r="O150" s="32"/>
-      <c r="P150" s="32"/>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A151" s="31">
-        <v>143</v>
-      </c>
-      <c r="B151" s="31"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
+      <c r="L150" s="36"/>
+      <c r="M150" s="36"/>
+      <c r="N150" s="36"/>
+      <c r="O150" s="36"/>
+      <c r="P150" s="36"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A151" s="37">
+        <v>149</v>
+      </c>
+      <c r="B151" s="37"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D151" s="32" t="s">
+      <c r="D151" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="32"/>
-      <c r="I151" s="32"/>
-      <c r="J151" s="32"/>
-      <c r="K151" s="32"/>
-      <c r="L151" s="32"/>
-      <c r="M151" s="32"/>
-      <c r="N151" s="32"/>
-      <c r="O151" s="32"/>
-      <c r="P151" s="32"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
+      <c r="L151" s="36"/>
+      <c r="M151" s="36"/>
+      <c r="N151" s="36"/>
+      <c r="O151" s="36"/>
+      <c r="P151" s="36"/>
       <c r="Q151" s="9">
         <v>43496</v>
       </c>
@@ -5936,30 +5955,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A152" s="31">
-        <v>143.5</v>
-      </c>
-      <c r="B152" s="31"/>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A152" s="37">
+        <v>150</v>
+      </c>
+      <c r="B152" s="37"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D152" s="32" t="s">
+      <c r="D152" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
-      <c r="J152" s="32"/>
-      <c r="K152" s="32"/>
-      <c r="L152" s="32"/>
-      <c r="M152" s="32"/>
-      <c r="N152" s="32"/>
-      <c r="O152" s="32"/>
-      <c r="P152" s="32"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
+      <c r="L152" s="36"/>
+      <c r="M152" s="36"/>
+      <c r="N152" s="36"/>
+      <c r="O152" s="36"/>
+      <c r="P152" s="36"/>
       <c r="Q152" s="9">
         <v>43496</v>
       </c>
@@ -5973,988 +5992,1032 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A153" s="31">
-        <v>144</v>
-      </c>
-      <c r="B153" s="31"/>
+    <row r="153" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" s="37">
+        <v>151</v>
+      </c>
+      <c r="B153" s="37"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="35" t="s">
+      <c r="D153" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="35"/>
-      <c r="L153" s="35"/>
-      <c r="M153" s="35"/>
-      <c r="N153" s="35"/>
-      <c r="O153" s="35"/>
-      <c r="P153" s="35"/>
-      <c r="Q153" s="35"/>
-      <c r="R153" s="35"/>
-      <c r="S153" s="35"/>
-      <c r="T153" s="35"/>
-      <c r="U153" s="35"/>
-    </row>
-    <row r="154" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="31">
-        <v>144.5</v>
-      </c>
-      <c r="B154" s="31"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="38"/>
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+      <c r="M153" s="38"/>
+      <c r="N153" s="38"/>
+      <c r="O153" s="38"/>
+      <c r="P153" s="38"/>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="38"/>
+      <c r="S153" s="38"/>
+      <c r="T153" s="38"/>
+      <c r="U153" s="38"/>
+    </row>
+    <row r="154" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="37">
+        <v>152</v>
+      </c>
+      <c r="B154" s="37"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D154" s="40" t="s">
+      <c r="D154" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E154" s="40"/>
-      <c r="F154" s="40"/>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="40"/>
-      <c r="K154" s="40"/>
-      <c r="L154" s="40"/>
-      <c r="M154" s="40"/>
-      <c r="N154" s="40"/>
-      <c r="O154" s="40"/>
-      <c r="P154" s="40"/>
-      <c r="Q154" s="39"/>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A155" s="31">
-        <v>145</v>
-      </c>
-      <c r="B155" s="31"/>
+      <c r="E154" s="44"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="44"/>
+      <c r="I154" s="44"/>
+      <c r="J154" s="44"/>
+      <c r="K154" s="44"/>
+      <c r="L154" s="44"/>
+      <c r="M154" s="44"/>
+      <c r="N154" s="44"/>
+      <c r="O154" s="44"/>
+      <c r="P154" s="44"/>
+      <c r="Q154" s="31"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A155" s="37">
+        <v>153</v>
+      </c>
+      <c r="B155" s="37"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D155" s="40"/>
-      <c r="E155" s="40"/>
-      <c r="F155" s="40"/>
-      <c r="G155" s="40"/>
-      <c r="H155" s="40"/>
-      <c r="I155" s="40"/>
-      <c r="J155" s="40"/>
-      <c r="K155" s="40"/>
-      <c r="L155" s="40"/>
-      <c r="M155" s="40"/>
-      <c r="N155" s="40"/>
-      <c r="O155" s="40"/>
-      <c r="P155" s="40"/>
-      <c r="Q155" s="39"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A156" s="31">
-        <v>145.5</v>
-      </c>
-      <c r="B156" s="31"/>
+      <c r="D155" s="44"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="44"/>
+      <c r="K155" s="44"/>
+      <c r="L155" s="44"/>
+      <c r="M155" s="44"/>
+      <c r="N155" s="44"/>
+      <c r="O155" s="44"/>
+      <c r="P155" s="44"/>
+      <c r="Q155" s="31"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A156" s="37">
+        <v>154</v>
+      </c>
+      <c r="B156" s="37"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D156" s="40"/>
-      <c r="E156" s="40"/>
-      <c r="F156" s="40"/>
-      <c r="G156" s="40"/>
-      <c r="H156" s="40"/>
-      <c r="I156" s="40"/>
-      <c r="J156" s="40"/>
-      <c r="K156" s="40"/>
-      <c r="L156" s="40"/>
-      <c r="M156" s="40"/>
-      <c r="N156" s="40"/>
-      <c r="O156" s="40"/>
-      <c r="P156" s="40"/>
-      <c r="Q156" s="39"/>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A157" s="31">
-        <v>146</v>
-      </c>
-      <c r="B157" s="31"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
+      <c r="I156" s="44"/>
+      <c r="J156" s="44"/>
+      <c r="K156" s="44"/>
+      <c r="L156" s="44"/>
+      <c r="M156" s="44"/>
+      <c r="N156" s="44"/>
+      <c r="O156" s="44"/>
+      <c r="P156" s="44"/>
+      <c r="Q156" s="31"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A157" s="37">
+        <v>155</v>
+      </c>
+      <c r="B157" s="37"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D157" s="40"/>
-      <c r="E157" s="40"/>
-      <c r="F157" s="40"/>
-      <c r="G157" s="40"/>
-      <c r="H157" s="40"/>
-      <c r="I157" s="40"/>
-      <c r="J157" s="40"/>
-      <c r="K157" s="40"/>
-      <c r="L157" s="40"/>
-      <c r="M157" s="40"/>
-      <c r="N157" s="40"/>
-      <c r="O157" s="40"/>
-      <c r="P157" s="40"/>
-      <c r="Q157" s="39"/>
-    </row>
-    <row r="158" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="31">
-        <v>146.5</v>
-      </c>
-      <c r="B158" s="31"/>
-      <c r="C158" s="41" t="s">
+      <c r="D157" s="44"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="44"/>
+      <c r="K157" s="44"/>
+      <c r="L157" s="44"/>
+      <c r="M157" s="44"/>
+      <c r="N157" s="44"/>
+      <c r="O157" s="44"/>
+      <c r="P157" s="44"/>
+      <c r="Q157" s="31"/>
+    </row>
+    <row r="158" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="37">
+        <v>156</v>
+      </c>
+      <c r="B158" s="37"/>
+      <c r="C158" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D158" s="41"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="41"/>
-      <c r="H158" s="41"/>
-      <c r="I158" s="41"/>
-      <c r="J158" s="41"/>
-      <c r="K158" s="41"/>
-      <c r="L158" s="41"/>
-      <c r="M158" s="41"/>
-      <c r="N158" s="41"/>
-      <c r="O158" s="41"/>
-      <c r="P158" s="41"/>
-      <c r="Q158" s="41"/>
-      <c r="R158" s="41"/>
-      <c r="S158" s="41"/>
-      <c r="T158" s="41"/>
-      <c r="U158" s="41"/>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A159" s="31">
-        <v>149</v>
-      </c>
-      <c r="B159" s="31"/>
-      <c r="C159" s="8" t="str">
+      <c r="D158" s="45"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="45"/>
+      <c r="G158" s="45"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="45"/>
+      <c r="J158" s="45"/>
+      <c r="K158" s="45"/>
+      <c r="L158" s="45"/>
+      <c r="M158" s="45"/>
+      <c r="N158" s="45"/>
+      <c r="O158" s="45"/>
+      <c r="P158" s="45"/>
+      <c r="Q158" s="45"/>
+      <c r="R158" s="45"/>
+      <c r="S158" s="45"/>
+      <c r="T158" s="45"/>
+      <c r="U158" s="45"/>
+    </row>
+    <row r="159" spans="1:22" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="37">
+        <v>157</v>
+      </c>
+      <c r="B159" s="37"/>
+      <c r="C159" s="34" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32"/>
-      <c r="I159" s="32"/>
-      <c r="J159" s="32"/>
-      <c r="K159" s="32"/>
-      <c r="L159" s="32"/>
-      <c r="M159" s="32"/>
-      <c r="N159" s="32"/>
-      <c r="O159" s="32"/>
-      <c r="P159" s="32"/>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A160" s="31">
-        <v>149.5</v>
-      </c>
-      <c r="B160" s="31"/>
+        <v>OK</v>
+      </c>
+      <c r="D159" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="43"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="43"/>
+      <c r="M159" s="43"/>
+      <c r="N159" s="43"/>
+      <c r="O159" s="43"/>
+      <c r="P159" s="43"/>
+      <c r="Q159" s="9">
+        <v>43508</v>
+      </c>
+      <c r="R159" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S159" s="10">
+        <v>1</v>
+      </c>
+      <c r="T159" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="U159" s="32"/>
+      <c r="V159" s="12"/>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A160" s="37">
+        <v>158</v>
+      </c>
+      <c r="B160" s="37"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D160" s="32"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="32"/>
-      <c r="I160" s="32"/>
-      <c r="J160" s="32"/>
-      <c r="K160" s="32"/>
-      <c r="L160" s="32"/>
-      <c r="M160" s="32"/>
-      <c r="N160" s="32"/>
-      <c r="O160" s="32"/>
-      <c r="P160" s="32"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="31">
-        <v>150</v>
-      </c>
-      <c r="B161" s="31"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="36"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
+      <c r="L160" s="36"/>
+      <c r="M160" s="36"/>
+      <c r="N160" s="36"/>
+      <c r="O160" s="36"/>
+      <c r="P160" s="36"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A161" s="37">
+        <v>159</v>
+      </c>
+      <c r="B161" s="37"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="32"/>
-      <c r="I161" s="32"/>
-      <c r="J161" s="32"/>
-      <c r="K161" s="32"/>
-      <c r="L161" s="32"/>
-      <c r="M161" s="32"/>
-      <c r="N161" s="32"/>
-      <c r="O161" s="32"/>
-      <c r="P161" s="32"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162" s="31">
-        <v>150.5</v>
-      </c>
-      <c r="B162" s="31"/>
+        <v>!!!</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E161" s="36"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="36"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
+      <c r="L161" s="36"/>
+      <c r="M161" s="36"/>
+      <c r="N161" s="36"/>
+      <c r="O161" s="36"/>
+      <c r="P161" s="36"/>
+      <c r="Q161" s="9">
+        <v>43509</v>
+      </c>
+      <c r="R161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S161" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="T161" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A162" s="37">
+        <v>160</v>
+      </c>
+      <c r="B162" s="37"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="32"/>
-      <c r="J162" s="32"/>
-      <c r="K162" s="32"/>
-      <c r="L162" s="32"/>
-      <c r="M162" s="32"/>
-      <c r="N162" s="32"/>
-      <c r="O162" s="32"/>
-      <c r="P162" s="32"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="31">
-        <v>151</v>
-      </c>
-      <c r="B163" s="31"/>
+        <v>!!!</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E162" s="36"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="36"/>
+      <c r="L162" s="36"/>
+      <c r="M162" s="36"/>
+      <c r="N162" s="36"/>
+      <c r="O162" s="36"/>
+      <c r="P162" s="36"/>
+      <c r="Q162" s="9">
+        <v>43509</v>
+      </c>
+      <c r="R162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S162" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="T162" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A163" s="37">
+        <v>161</v>
+      </c>
+      <c r="B163" s="37"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D163" s="32"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32"/>
-      <c r="I163" s="32"/>
-      <c r="J163" s="32"/>
-      <c r="K163" s="32"/>
-      <c r="L163" s="32"/>
-      <c r="M163" s="32"/>
-      <c r="N163" s="32"/>
-      <c r="O163" s="32"/>
-      <c r="P163" s="32"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="31">
-        <v>151.5</v>
-      </c>
-      <c r="B164" s="31"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="36"/>
+      <c r="G163" s="36"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="36"/>
+      <c r="L163" s="36"/>
+      <c r="M163" s="36"/>
+      <c r="N163" s="36"/>
+      <c r="O163" s="36"/>
+      <c r="P163" s="36"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A164" s="37">
+        <v>162</v>
+      </c>
+      <c r="B164" s="37"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D164" s="32"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="32"/>
-      <c r="J164" s="32"/>
-      <c r="K164" s="32"/>
-      <c r="L164" s="32"/>
-      <c r="M164" s="32"/>
-      <c r="N164" s="32"/>
-      <c r="O164" s="32"/>
-      <c r="P164" s="32"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="31">
-        <v>152</v>
-      </c>
-      <c r="B165" s="31"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
+      <c r="L164" s="36"/>
+      <c r="M164" s="36"/>
+      <c r="N164" s="36"/>
+      <c r="O164" s="36"/>
+      <c r="P164" s="36"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="37">
+        <v>163</v>
+      </c>
+      <c r="B165" s="37"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
-      <c r="I165" s="32"/>
-      <c r="J165" s="32"/>
-      <c r="K165" s="32"/>
-      <c r="L165" s="32"/>
-      <c r="M165" s="32"/>
-      <c r="N165" s="32"/>
-      <c r="O165" s="32"/>
-      <c r="P165" s="32"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="31">
-        <v>152.5</v>
-      </c>
-      <c r="B166" s="31"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
+      <c r="L165" s="36"/>
+      <c r="M165" s="36"/>
+      <c r="N165" s="36"/>
+      <c r="O165" s="36"/>
+      <c r="P165" s="36"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="37">
+        <v>164</v>
+      </c>
+      <c r="B166" s="37"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="32"/>
-      <c r="J166" s="32"/>
-      <c r="K166" s="32"/>
-      <c r="L166" s="32"/>
-      <c r="M166" s="32"/>
-      <c r="N166" s="32"/>
-      <c r="O166" s="32"/>
-      <c r="P166" s="32"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="31">
-        <v>153</v>
-      </c>
-      <c r="B167" s="31"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
+      <c r="L166" s="36"/>
+      <c r="M166" s="36"/>
+      <c r="N166" s="36"/>
+      <c r="O166" s="36"/>
+      <c r="P166" s="36"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A167" s="37">
+        <v>165</v>
+      </c>
+      <c r="B167" s="37"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="32"/>
-      <c r="J167" s="32"/>
-      <c r="K167" s="32"/>
-      <c r="L167" s="32"/>
-      <c r="M167" s="32"/>
-      <c r="N167" s="32"/>
-      <c r="O167" s="32"/>
-      <c r="P167" s="32"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="31">
-        <v>153.5</v>
-      </c>
-      <c r="B168" s="31"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
+      <c r="L167" s="36"/>
+      <c r="M167" s="36"/>
+      <c r="N167" s="36"/>
+      <c r="O167" s="36"/>
+      <c r="P167" s="36"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A168" s="37">
+        <v>166</v>
+      </c>
+      <c r="B168" s="37"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="32"/>
-      <c r="I168" s="32"/>
-      <c r="J168" s="32"/>
-      <c r="K168" s="32"/>
-      <c r="L168" s="32"/>
-      <c r="M168" s="32"/>
-      <c r="N168" s="32"/>
-      <c r="O168" s="32"/>
-      <c r="P168" s="32"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="31">
-        <v>154</v>
-      </c>
-      <c r="B169" s="31"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="36"/>
+      <c r="M168" s="36"/>
+      <c r="N168" s="36"/>
+      <c r="O168" s="36"/>
+      <c r="P168" s="36"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A169" s="37">
+        <v>167</v>
+      </c>
+      <c r="B169" s="37"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="32"/>
-      <c r="I169" s="32"/>
-      <c r="J169" s="32"/>
-      <c r="K169" s="32"/>
-      <c r="L169" s="32"/>
-      <c r="M169" s="32"/>
-      <c r="N169" s="32"/>
-      <c r="O169" s="32"/>
-      <c r="P169" s="32"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="31">
-        <v>154.5</v>
-      </c>
-      <c r="B170" s="31"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
+      <c r="L169" s="36"/>
+      <c r="M169" s="36"/>
+      <c r="N169" s="36"/>
+      <c r="O169" s="36"/>
+      <c r="P169" s="36"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A170" s="37">
+        <v>168</v>
+      </c>
+      <c r="B170" s="37"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="32"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
-      <c r="G170" s="32"/>
-      <c r="H170" s="32"/>
-      <c r="I170" s="32"/>
-      <c r="J170" s="32"/>
-      <c r="K170" s="32"/>
-      <c r="L170" s="32"/>
-      <c r="M170" s="32"/>
-      <c r="N170" s="32"/>
-      <c r="O170" s="32"/>
-      <c r="P170" s="32"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A171" s="31">
-        <v>155</v>
-      </c>
-      <c r="B171" s="31"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
+      <c r="L170" s="36"/>
+      <c r="M170" s="36"/>
+      <c r="N170" s="36"/>
+      <c r="O170" s="36"/>
+      <c r="P170" s="36"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A171" s="37">
+        <v>169</v>
+      </c>
+      <c r="B171" s="37"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="32"/>
-      <c r="J171" s="32"/>
-      <c r="K171" s="32"/>
-      <c r="L171" s="32"/>
-      <c r="M171" s="32"/>
-      <c r="N171" s="32"/>
-      <c r="O171" s="32"/>
-      <c r="P171" s="32"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="31">
-        <v>155.5</v>
-      </c>
-      <c r="B172" s="31"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
+      <c r="L171" s="36"/>
+      <c r="M171" s="36"/>
+      <c r="N171" s="36"/>
+      <c r="O171" s="36"/>
+      <c r="P171" s="36"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A172" s="37">
+        <v>170</v>
+      </c>
+      <c r="B172" s="37"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="32"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32"/>
-      <c r="I172" s="32"/>
-      <c r="J172" s="32"/>
-      <c r="K172" s="32"/>
-      <c r="L172" s="32"/>
-      <c r="M172" s="32"/>
-      <c r="N172" s="32"/>
-      <c r="O172" s="32"/>
-      <c r="P172" s="32"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A173" s="31">
-        <v>156</v>
-      </c>
-      <c r="B173" s="31"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
+      <c r="L172" s="36"/>
+      <c r="M172" s="36"/>
+      <c r="N172" s="36"/>
+      <c r="O172" s="36"/>
+      <c r="P172" s="36"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173" s="37">
+        <v>171</v>
+      </c>
+      <c r="B173" s="37"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="32"/>
-      <c r="I173" s="32"/>
-      <c r="J173" s="32"/>
-      <c r="K173" s="32"/>
-      <c r="L173" s="32"/>
-      <c r="M173" s="32"/>
-      <c r="N173" s="32"/>
-      <c r="O173" s="32"/>
-      <c r="P173" s="32"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="31">
-        <v>156.5</v>
-      </c>
-      <c r="B174" s="31"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
+      <c r="L173" s="36"/>
+      <c r="M173" s="36"/>
+      <c r="N173" s="36"/>
+      <c r="O173" s="36"/>
+      <c r="P173" s="36"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="37">
+        <v>172</v>
+      </c>
+      <c r="B174" s="37"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="32"/>
-      <c r="I174" s="32"/>
-      <c r="J174" s="32"/>
-      <c r="K174" s="32"/>
-      <c r="L174" s="32"/>
-      <c r="M174" s="32"/>
-      <c r="N174" s="32"/>
-      <c r="O174" s="32"/>
-      <c r="P174" s="32"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="31">
-        <v>157</v>
-      </c>
-      <c r="B175" s="31"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
+      <c r="L174" s="36"/>
+      <c r="M174" s="36"/>
+      <c r="N174" s="36"/>
+      <c r="O174" s="36"/>
+      <c r="P174" s="36"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A175" s="37">
+        <v>173</v>
+      </c>
+      <c r="B175" s="37"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
-      <c r="G175" s="32"/>
-      <c r="H175" s="32"/>
-      <c r="I175" s="32"/>
-      <c r="J175" s="32"/>
-      <c r="K175" s="32"/>
-      <c r="L175" s="32"/>
-      <c r="M175" s="32"/>
-      <c r="N175" s="32"/>
-      <c r="O175" s="32"/>
-      <c r="P175" s="32"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="31">
-        <v>157.5</v>
-      </c>
-      <c r="B176" s="31"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
+      <c r="L175" s="36"/>
+      <c r="M175" s="36"/>
+      <c r="N175" s="36"/>
+      <c r="O175" s="36"/>
+      <c r="P175" s="36"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A176" s="37">
+        <v>174</v>
+      </c>
+      <c r="B176" s="37"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="32"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="32"/>
-      <c r="J176" s="32"/>
-      <c r="K176" s="32"/>
-      <c r="L176" s="32"/>
-      <c r="M176" s="32"/>
-      <c r="N176" s="32"/>
-      <c r="O176" s="32"/>
-      <c r="P176" s="32"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
+      <c r="L176" s="36"/>
+      <c r="M176" s="36"/>
+      <c r="N176" s="36"/>
+      <c r="O176" s="36"/>
+      <c r="P176" s="36"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="31">
-        <v>158</v>
-      </c>
-      <c r="B177" s="31"/>
+      <c r="A177" s="37">
+        <v>175</v>
+      </c>
+      <c r="B177" s="37"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="32"/>
-      <c r="J177" s="32"/>
-      <c r="K177" s="32"/>
-      <c r="L177" s="32"/>
-      <c r="M177" s="32"/>
-      <c r="N177" s="32"/>
-      <c r="O177" s="32"/>
-      <c r="P177" s="32"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="36"/>
+      <c r="L177" s="36"/>
+      <c r="M177" s="36"/>
+      <c r="N177" s="36"/>
+      <c r="O177" s="36"/>
+      <c r="P177" s="36"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="31">
-        <v>158.5</v>
-      </c>
-      <c r="B178" s="31"/>
+      <c r="A178" s="37">
+        <v>176</v>
+      </c>
+      <c r="B178" s="37"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D178" s="32"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="32"/>
-      <c r="G178" s="32"/>
-      <c r="H178" s="32"/>
-      <c r="I178" s="32"/>
-      <c r="J178" s="32"/>
-      <c r="K178" s="32"/>
-      <c r="L178" s="32"/>
-      <c r="M178" s="32"/>
-      <c r="N178" s="32"/>
-      <c r="O178" s="32"/>
-      <c r="P178" s="32"/>
+      <c r="D178" s="36"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="36"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
+      <c r="L178" s="36"/>
+      <c r="M178" s="36"/>
+      <c r="N178" s="36"/>
+      <c r="O178" s="36"/>
+      <c r="P178" s="36"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="31">
-        <v>159</v>
-      </c>
-      <c r="B179" s="31"/>
+      <c r="A179" s="37">
+        <v>177</v>
+      </c>
+      <c r="B179" s="37"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D179" s="32"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="32"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="32"/>
-      <c r="I179" s="32"/>
-      <c r="J179" s="32"/>
-      <c r="K179" s="32"/>
-      <c r="L179" s="32"/>
-      <c r="M179" s="32"/>
-      <c r="N179" s="32"/>
-      <c r="O179" s="32"/>
-      <c r="P179" s="32"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
+      <c r="L179" s="36"/>
+      <c r="M179" s="36"/>
+      <c r="N179" s="36"/>
+      <c r="O179" s="36"/>
+      <c r="P179" s="36"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="31">
-        <v>159.5</v>
-      </c>
-      <c r="B180" s="31"/>
+      <c r="A180" s="37">
+        <v>178</v>
+      </c>
+      <c r="B180" s="37"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="32"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32"/>
-      <c r="I180" s="32"/>
-      <c r="J180" s="32"/>
-      <c r="K180" s="32"/>
-      <c r="L180" s="32"/>
-      <c r="M180" s="32"/>
-      <c r="N180" s="32"/>
-      <c r="O180" s="32"/>
-      <c r="P180" s="32"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
+      <c r="L180" s="36"/>
+      <c r="M180" s="36"/>
+      <c r="N180" s="36"/>
+      <c r="O180" s="36"/>
+      <c r="P180" s="36"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="31">
-        <v>160</v>
-      </c>
-      <c r="B181" s="31"/>
+      <c r="A181" s="37">
+        <v>179</v>
+      </c>
+      <c r="B181" s="37"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D181" s="32"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="32"/>
-      <c r="G181" s="32"/>
-      <c r="H181" s="32"/>
-      <c r="I181" s="32"/>
-      <c r="J181" s="32"/>
-      <c r="K181" s="32"/>
-      <c r="L181" s="32"/>
-      <c r="M181" s="32"/>
-      <c r="N181" s="32"/>
-      <c r="O181" s="32"/>
-      <c r="P181" s="32"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
+      <c r="L181" s="36"/>
+      <c r="M181" s="36"/>
+      <c r="N181" s="36"/>
+      <c r="O181" s="36"/>
+      <c r="P181" s="36"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="31">
-        <v>160.5</v>
-      </c>
-      <c r="B182" s="31"/>
+      <c r="A182" s="37">
+        <v>180</v>
+      </c>
+      <c r="B182" s="37"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
-      <c r="I182" s="32"/>
-      <c r="J182" s="32"/>
-      <c r="K182" s="32"/>
-      <c r="L182" s="32"/>
-      <c r="M182" s="32"/>
-      <c r="N182" s="32"/>
-      <c r="O182" s="32"/>
-      <c r="P182" s="32"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
+      <c r="L182" s="36"/>
+      <c r="M182" s="36"/>
+      <c r="N182" s="36"/>
+      <c r="O182" s="36"/>
+      <c r="P182" s="36"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="31">
-        <v>161</v>
-      </c>
-      <c r="B183" s="31"/>
+      <c r="A183" s="37">
+        <v>181</v>
+      </c>
+      <c r="B183" s="37"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D183" s="32"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="32"/>
-      <c r="G183" s="32"/>
-      <c r="H183" s="32"/>
-      <c r="I183" s="32"/>
-      <c r="J183" s="32"/>
-      <c r="K183" s="32"/>
-      <c r="L183" s="32"/>
-      <c r="M183" s="32"/>
-      <c r="N183" s="32"/>
-      <c r="O183" s="32"/>
-      <c r="P183" s="32"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
+      <c r="L183" s="36"/>
+      <c r="M183" s="36"/>
+      <c r="N183" s="36"/>
+      <c r="O183" s="36"/>
+      <c r="P183" s="36"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="31">
-        <v>161.5</v>
-      </c>
-      <c r="B184" s="31"/>
+      <c r="A184" s="37">
+        <v>182</v>
+      </c>
+      <c r="B184" s="37"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D184" s="32"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="32"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="32"/>
-      <c r="I184" s="32"/>
-      <c r="J184" s="32"/>
-      <c r="K184" s="32"/>
-      <c r="L184" s="32"/>
-      <c r="M184" s="32"/>
-      <c r="N184" s="32"/>
-      <c r="O184" s="32"/>
-      <c r="P184" s="32"/>
+      <c r="D184" s="36"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
+      <c r="L184" s="36"/>
+      <c r="M184" s="36"/>
+      <c r="N184" s="36"/>
+      <c r="O184" s="36"/>
+      <c r="P184" s="36"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="31">
-        <v>162</v>
-      </c>
-      <c r="B185" s="31"/>
+      <c r="A185" s="37">
+        <v>183</v>
+      </c>
+      <c r="B185" s="37"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D185" s="32"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="32"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="32"/>
-      <c r="J185" s="32"/>
-      <c r="K185" s="32"/>
-      <c r="L185" s="32"/>
-      <c r="M185" s="32"/>
-      <c r="N185" s="32"/>
-      <c r="O185" s="32"/>
-      <c r="P185" s="32"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36"/>
+      <c r="G185" s="36"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="36"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
+      <c r="L185" s="36"/>
+      <c r="M185" s="36"/>
+      <c r="N185" s="36"/>
+      <c r="O185" s="36"/>
+      <c r="P185" s="36"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="31">
-        <v>162.5</v>
-      </c>
-      <c r="B186" s="31"/>
+      <c r="A186" s="37">
+        <v>184</v>
+      </c>
+      <c r="B186" s="37"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="32"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="32"/>
-      <c r="I186" s="32"/>
-      <c r="J186" s="32"/>
-      <c r="K186" s="32"/>
-      <c r="L186" s="32"/>
-      <c r="M186" s="32"/>
-      <c r="N186" s="32"/>
-      <c r="O186" s="32"/>
-      <c r="P186" s="32"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="36"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="36"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
+      <c r="L186" s="36"/>
+      <c r="M186" s="36"/>
+      <c r="N186" s="36"/>
+      <c r="O186" s="36"/>
+      <c r="P186" s="36"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="31">
-        <v>163</v>
-      </c>
-      <c r="B187" s="31"/>
+      <c r="A187" s="37">
+        <v>185</v>
+      </c>
+      <c r="B187" s="37"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D187" s="32"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="32"/>
-      <c r="I187" s="32"/>
-      <c r="J187" s="32"/>
-      <c r="K187" s="32"/>
-      <c r="L187" s="32"/>
-      <c r="M187" s="32"/>
-      <c r="N187" s="32"/>
-      <c r="O187" s="32"/>
-      <c r="P187" s="32"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="36"/>
+      <c r="G187" s="36"/>
+      <c r="H187" s="36"/>
+      <c r="I187" s="36"/>
+      <c r="J187" s="36"/>
+      <c r="K187" s="36"/>
+      <c r="L187" s="36"/>
+      <c r="M187" s="36"/>
+      <c r="N187" s="36"/>
+      <c r="O187" s="36"/>
+      <c r="P187" s="36"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="31">
-        <v>163.5</v>
-      </c>
-      <c r="B188" s="31"/>
+      <c r="A188" s="37">
+        <v>186</v>
+      </c>
+      <c r="B188" s="37"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D188" s="32"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32"/>
-      <c r="I188" s="32"/>
-      <c r="J188" s="32"/>
-      <c r="K188" s="32"/>
-      <c r="L188" s="32"/>
-      <c r="M188" s="32"/>
-      <c r="N188" s="32"/>
-      <c r="O188" s="32"/>
-      <c r="P188" s="32"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36"/>
+      <c r="G188" s="36"/>
+      <c r="H188" s="36"/>
+      <c r="I188" s="36"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
+      <c r="L188" s="36"/>
+      <c r="M188" s="36"/>
+      <c r="N188" s="36"/>
+      <c r="O188" s="36"/>
+      <c r="P188" s="36"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="31">
-        <v>164</v>
-      </c>
-      <c r="B189" s="31"/>
+      <c r="A189" s="37">
+        <v>187</v>
+      </c>
+      <c r="B189" s="37"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32"/>
-      <c r="I189" s="32"/>
-      <c r="J189" s="32"/>
-      <c r="K189" s="32"/>
-      <c r="L189" s="32"/>
-      <c r="M189" s="32"/>
-      <c r="N189" s="32"/>
-      <c r="O189" s="32"/>
-      <c r="P189" s="32"/>
+      <c r="D189" s="36"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="36"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
+      <c r="L189" s="36"/>
+      <c r="M189" s="36"/>
+      <c r="N189" s="36"/>
+      <c r="O189" s="36"/>
+      <c r="P189" s="36"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="31">
-        <v>164.5</v>
-      </c>
-      <c r="B190" s="31"/>
+      <c r="A190" s="37">
+        <v>188</v>
+      </c>
+      <c r="B190" s="37"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="32"/>
-      <c r="I190" s="32"/>
-      <c r="J190" s="32"/>
-      <c r="K190" s="32"/>
-      <c r="L190" s="32"/>
-      <c r="M190" s="32"/>
-      <c r="N190" s="32"/>
-      <c r="O190" s="32"/>
-      <c r="P190" s="32"/>
+      <c r="D190" s="36"/>
+      <c r="E190" s="36"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36"/>
+      <c r="H190" s="36"/>
+      <c r="I190" s="36"/>
+      <c r="J190" s="36"/>
+      <c r="K190" s="36"/>
+      <c r="L190" s="36"/>
+      <c r="M190" s="36"/>
+      <c r="N190" s="36"/>
+      <c r="O190" s="36"/>
+      <c r="P190" s="36"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="31">
-        <v>165</v>
-      </c>
-      <c r="B191" s="31"/>
+      <c r="A191" s="37">
+        <v>189</v>
+      </c>
+      <c r="B191" s="37"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
-      <c r="J191" s="32"/>
-      <c r="K191" s="32"/>
-      <c r="L191" s="32"/>
-      <c r="M191" s="32"/>
-      <c r="N191" s="32"/>
-      <c r="O191" s="32"/>
-      <c r="P191" s="32"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="36"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
+      <c r="L191" s="36"/>
+      <c r="M191" s="36"/>
+      <c r="N191" s="36"/>
+      <c r="O191" s="36"/>
+      <c r="P191" s="36"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="31">
-        <v>165.5</v>
-      </c>
-      <c r="B192" s="31"/>
+      <c r="A192" s="37">
+        <v>190</v>
+      </c>
+      <c r="B192" s="37"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="32"/>
-      <c r="I192" s="32"/>
-      <c r="J192" s="32"/>
-      <c r="K192" s="32"/>
-      <c r="L192" s="32"/>
-      <c r="M192" s="32"/>
-      <c r="N192" s="32"/>
-      <c r="O192" s="32"/>
-      <c r="P192" s="32"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+      <c r="L192" s="36"/>
+      <c r="M192" s="36"/>
+      <c r="N192" s="36"/>
+      <c r="O192" s="36"/>
+      <c r="P192" s="36"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="31">
-        <v>166</v>
-      </c>
-      <c r="B193" s="31"/>
+      <c r="A193" s="37">
+        <v>191</v>
+      </c>
+      <c r="B193" s="37"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
-      <c r="I193" s="32"/>
-      <c r="J193" s="32"/>
-      <c r="K193" s="32"/>
-      <c r="L193" s="32"/>
-      <c r="M193" s="32"/>
-      <c r="N193" s="32"/>
-      <c r="O193" s="32"/>
-      <c r="P193" s="32"/>
+      <c r="D193" s="36"/>
+      <c r="E193" s="36"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
+      <c r="L193" s="36"/>
+      <c r="M193" s="36"/>
+      <c r="N193" s="36"/>
+      <c r="O193" s="36"/>
+      <c r="P193" s="36"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="31">
-        <v>166.5</v>
-      </c>
-      <c r="B194" s="31"/>
+      <c r="A194" s="37">
+        <v>191</v>
+      </c>
+      <c r="B194" s="37"/>
       <c r="C194" s="8" t="str">
         <f t="shared" ref="C194:C195" si="3">IF(S194="", "",IF(S194&lt;=50%, "!!!", IF(S194&lt;=75%,"!!", IF(S194&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="32"/>
-      <c r="J194" s="32"/>
-      <c r="K194" s="32"/>
-      <c r="L194" s="32"/>
-      <c r="M194" s="32"/>
-      <c r="N194" s="32"/>
-      <c r="O194" s="32"/>
-      <c r="P194" s="32"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="36"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
+      <c r="L194" s="36"/>
+      <c r="M194" s="36"/>
+      <c r="N194" s="36"/>
+      <c r="O194" s="36"/>
+      <c r="P194" s="36"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C195" s="8" t="str">
@@ -6964,6 +7027,366 @@
     </row>
   </sheetData>
   <mergeCells count="384">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:P44"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:P190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="D191:P191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="D192:P192"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="D179:P179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:P180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:P181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D182:P182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:P183"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:P170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="D171:P171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:P172"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:P193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="D194:P194"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:P186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="D187:P187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:P188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:P189"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:P173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D174:P174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="D175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:P176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:P177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:P178"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="D184:P184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="D185:P185"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:P161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="D162:P162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:P163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:P164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:P165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:P166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:P167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D168:P168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="D169:P169"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:P159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:P160"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="D147:P147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D148:P148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:P149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:P150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="D151:P151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D152:P152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="D154:P157"/>
+    <mergeCell ref="C158:U158"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="D138:P138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="D139:P139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:P140"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="D142:P142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:P141"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:P144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:P145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:P146"/>
+    <mergeCell ref="D143:U143"/>
+    <mergeCell ref="D153:U153"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="D129:P129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:P130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:P131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:P132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:P133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:P134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="D135:P135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:P136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:P137"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="D118:P118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:P120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="D121:P121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="D122:P122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:P123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:P127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:P128"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:P107"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:P114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:P115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:P116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:P117"/>
+    <mergeCell ref="D109:U109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:P108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:P110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:P111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="D112:P112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:P113"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:P92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:P93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:P94"/>
+    <mergeCell ref="D119:U119"/>
+    <mergeCell ref="D124:U124"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:P100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:P101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:P102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:P103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:P104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:P105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:P106"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:P98"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:P81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:P82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:P83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:P84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:P86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:P88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:P89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:P90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:P91"/>
+    <mergeCell ref="D85:U85"/>
+    <mergeCell ref="D97:U97"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:P72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:P76"/>
+    <mergeCell ref="D74:U74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:P78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:P79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:P80"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:P95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:P96"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:P70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:P71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:P57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D61:U61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:P51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:P53"/>
+    <mergeCell ref="D45:U45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:P49"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="D126:P126"/>
     <mergeCell ref="A126:B126"/>
     <mergeCell ref="A125:B125"/>
@@ -6988,366 +7411,6 @@
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="D3:P3"/>
     <mergeCell ref="D4:P4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:P43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="D45:U45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:P49"/>
-    <mergeCell ref="D62:P62"/>
-    <mergeCell ref="D61:U61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:P51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:P53"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:P57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="D85:U85"/>
-    <mergeCell ref="D97:U97"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:P76"/>
-    <mergeCell ref="D74:U74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:P78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:P79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:P80"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:P95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:P96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:P98"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:P81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:P82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:P83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:P84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:P86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:P88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:P89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:P90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:P91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:P92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:P93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:P94"/>
-    <mergeCell ref="D119:U119"/>
-    <mergeCell ref="D124:U124"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:P99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:P100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:P101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:P102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:P103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:P104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:P105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:P106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:P107"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:P114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:P115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:P116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:P117"/>
-    <mergeCell ref="D109:U109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="D108:P108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:P110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:P111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="D112:P112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:P113"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:P134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="D135:P135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:P136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:P137"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="D118:P118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:P120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="D121:P121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="D122:P122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:P123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:P127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:P128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="D129:P129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:P130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:P131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:P132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:P133"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="D138:P138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="D139:P139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:P140"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="D142:P142"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:P141"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:P144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:P145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="D146:P146"/>
-    <mergeCell ref="D143:U143"/>
-    <mergeCell ref="D153:U153"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:P159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:P160"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="D147:P147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D148:P148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:P149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:P150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="D151:P151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="D152:P152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="D154:P157"/>
-    <mergeCell ref="C158:U158"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:P178"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="D184:P184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="D185:P185"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:P161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="D162:P162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:P163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:P164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:P165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:P166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:P167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D168:P168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="D169:P169"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:P173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="D174:P174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="D175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:P176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:P177"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:P193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="D194:P194"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:P186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="D187:P187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:P188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:P189"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:P44"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:P190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="D191:P191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="D192:P192"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="D179:P179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:P180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:P181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D182:P182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:P183"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="D170:P170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="D171:P171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="D172:P172"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">
@@ -7360,7 +7423,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A196:XFD1048576 A3:C121 V126:XFD126 A122:B124 C122:C140 A126:B140 D127:XFD140 V143:XFD143 A141:XFD142 D144:XFD152 D159:XFD195 V153:XFD153 D154 R154:XFD157 V158:XFD158 A143:C195">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A196:XFD1048576 A3:C121 V126:XFD126 C122:C140 D127:XFD140 V143:XFD143 C141:XFD142 D144:XFD152 D159:XFD195 V153:XFD153 D154 R154:XFD157 V158:XFD158 A195:C195 C143:C194 A122:B194">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>
@@ -7380,7 +7443,7 @@
       <formula>"!!!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125:B125 V125:XFD125">
+  <conditionalFormatting sqref="V125:XFD125">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Kiểm tra trường hợp máy bận trên CallCenter</t>
+  </si>
+  <si>
+    <t>Tạo trang quản lý (Thêm, Sửa, Xóa) cho bảng Notification</t>
   </si>
 </sst>
 </file>
@@ -473,34 +476,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -612,7 +615,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160:P160"/>
+      <selection activeCell="T164" sqref="T164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,28 +1107,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1144,29 +1147,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1181,52 +1184,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="37">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1241,52 +1244,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1301,52 +1304,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
-        <v>7</v>
-      </c>
-      <c r="B8" s="37"/>
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1361,52 +1364,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37"/>
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1421,52 +1424,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1481,59 +1484,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1548,52 +1551,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1608,52 +1611,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="37">
+      <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1668,52 +1671,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1728,52 +1731,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
+      <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1788,52 +1791,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
+      <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="37">
+      <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1848,59 +1851,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="37">
+      <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
+      <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1915,29 +1918,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="37">
+      <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1955,52 +1958,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
+      <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
+      <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -2018,52 +2021,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="37">
+      <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -2081,29 +2084,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="37">
+      <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -2121,29 +2124,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="37">
+      <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2158,52 +2161,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="37">
+      <c r="A34" s="36">
         <v>33</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
+      <c r="A35" s="36">
         <v>34</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2221,29 +2224,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40">
+      <c r="A36" s="43">
         <v>35</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2262,29 +2265,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
+      <c r="A37" s="36">
         <v>36</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2299,52 +2302,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="37">
+      <c r="A38" s="36">
         <v>37</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="36">
         <v>38</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2359,52 +2362,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="37">
+      <c r="A40" s="36">
         <v>39</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="37">
+      <c r="A41" s="36">
         <v>40</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2422,29 +2425,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="37">
+      <c r="A42" s="36">
         <v>41</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2459,29 +2462,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="37">
+      <c r="A43" s="36">
         <v>42</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2496,29 +2499,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="37">
+      <c r="A44" s="36">
         <v>43</v>
       </c>
-      <c r="B44" s="37"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2533,59 +2536,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="37">
+      <c r="A45" s="36">
         <v>44</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="37">
+      <c r="A46" s="36">
         <v>45</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2603,52 +2606,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="37">
+      <c r="A47" s="36">
         <v>46</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="37">
+      <c r="A48" s="36">
         <v>47</v>
       </c>
-      <c r="B48" s="37"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2663,29 +2666,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="37">
+      <c r="A49" s="36">
         <v>48</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2700,29 +2703,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="37">
+      <c r="A50" s="36">
         <v>49</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2737,29 +2740,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="37">
+      <c r="A51" s="36">
         <v>50</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2774,52 +2777,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="37">
+      <c r="A52" s="36">
         <v>51</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="37">
+      <c r="A53" s="36">
         <v>52</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2834,29 +2837,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="37">
+      <c r="A54" s="36">
         <v>53</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2871,52 +2874,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="37">
+      <c r="A55" s="36">
         <v>54</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="37">
+      <c r="A56" s="36">
         <v>55</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2931,52 +2934,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="37">
+      <c r="A57" s="36">
         <v>56</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="37">
+      <c r="A58" s="36">
         <v>57</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2991,52 +2994,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="37">
+      <c r="A59" s="36">
         <v>58</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="37">
+      <c r="A60" s="36">
         <v>59</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -3051,59 +3054,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="37">
+      <c r="A61" s="36">
         <v>60</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="37">
+      <c r="A62" s="36">
         <v>61</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -3118,52 +3121,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="37">
+      <c r="A63" s="36">
         <v>62</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="37">
+      <c r="A64" s="36">
         <v>63</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3178,52 +3181,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="37">
+      <c r="A65" s="36">
         <v>64</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="37">
+      <c r="A66" s="36">
         <v>65</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3238,29 +3241,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="37">
+      <c r="A67" s="36">
         <v>66</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C133" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3275,52 +3278,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="37">
+      <c r="A68" s="36">
         <v>67</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="37">
+      <c r="A69" s="36">
         <v>68</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3335,52 +3338,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="37">
+      <c r="A70" s="36">
         <v>69</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="37">
+      <c r="A71" s="36">
         <v>70</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3395,52 +3398,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="37">
+      <c r="A72" s="36">
         <v>71</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="37">
+      <c r="A73" s="36">
         <v>72</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3455,59 +3458,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="37">
+      <c r="A74" s="36">
         <v>73</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="37">
+      <c r="A75" s="36">
         <v>74</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3522,29 +3525,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="37">
+      <c r="A76" s="36">
         <v>75</v>
       </c>
-      <c r="B76" s="37"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3559,52 +3562,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="37">
+      <c r="A77" s="36">
         <v>76</v>
       </c>
-      <c r="B77" s="37"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="37">
+      <c r="A78" s="36">
         <v>77</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3619,52 +3622,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="37">
+      <c r="A79" s="36">
         <v>78</v>
       </c>
-      <c r="B79" s="37"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="37">
+      <c r="A80" s="36">
         <v>79</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3679,52 +3682,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="37">
+      <c r="A81" s="36">
         <v>80</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="37">
+      <c r="A82" s="36">
         <v>81</v>
       </c>
-      <c r="B82" s="37"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3739,52 +3742,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="37">
+      <c r="A83" s="36">
         <v>82</v>
       </c>
-      <c r="B83" s="37"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="37">
+      <c r="A84" s="36">
         <v>83</v>
       </c>
-      <c r="B84" s="37"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3799,59 +3802,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="37">
+      <c r="A85" s="36">
         <v>84</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="42"/>
+      <c r="U85" s="42"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="37">
+      <c r="A86" s="36">
         <v>85</v>
       </c>
-      <c r="B86" s="37"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3866,52 +3869,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="37">
+      <c r="A87" s="36">
         <v>86</v>
       </c>
-      <c r="B87" s="37"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="37">
+      <c r="A88" s="36">
         <v>87</v>
       </c>
-      <c r="B88" s="37"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3926,52 +3929,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="37">
+      <c r="A89" s="36">
         <v>88</v>
       </c>
-      <c r="B89" s="37"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
+      <c r="A90" s="43">
         <v>89</v>
       </c>
-      <c r="B90" s="40"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3988,52 +3991,52 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="37">
+      <c r="A91" s="36">
         <v>90</v>
       </c>
-      <c r="B91" s="37"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
+      <c r="A92" s="43">
         <v>91</v>
       </c>
-      <c r="B92" s="40"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -4050,52 +4053,52 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="37">
+      <c r="A93" s="36">
         <v>92</v>
       </c>
-      <c r="B93" s="37"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
+      <c r="A94" s="43">
         <v>93</v>
       </c>
-      <c r="B94" s="40"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -4112,52 +4115,52 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="37">
+      <c r="A95" s="36">
         <v>94</v>
       </c>
-      <c r="B95" s="37"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="37">
+      <c r="A96" s="36">
         <v>95</v>
       </c>
-      <c r="B96" s="37"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4172,59 +4175,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="37">
+      <c r="A97" s="36">
         <v>96</v>
       </c>
-      <c r="B97" s="37"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38"/>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="42"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="42"/>
+      <c r="U97" s="42"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="37">
+      <c r="A98" s="36">
         <v>97</v>
       </c>
-      <c r="B98" s="37"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="36" t="s">
+      <c r="D98" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4239,29 +4242,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="37">
+      <c r="A99" s="36">
         <v>98</v>
       </c>
-      <c r="B99" s="37"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="36" t="s">
+      <c r="D99" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4276,52 +4279,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="37">
+      <c r="A100" s="36">
         <v>99</v>
       </c>
-      <c r="B100" s="37"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="37">
+      <c r="A101" s="36">
         <v>100</v>
       </c>
-      <c r="B101" s="37"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="36" t="s">
+      <c r="D101" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4336,29 +4339,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="37">
+      <c r="A102" s="36">
         <v>101</v>
       </c>
-      <c r="B102" s="37"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="36" t="s">
+      <c r="D102" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4373,52 +4376,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="37">
+      <c r="A103" s="36">
         <v>102</v>
       </c>
-      <c r="B103" s="37"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="37">
+      <c r="A104" s="36">
         <v>103</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4433,29 +4436,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="37">
+      <c r="A105" s="36">
         <v>104</v>
       </c>
-      <c r="B105" s="37"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4470,52 +4473,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="37">
+      <c r="A106" s="36">
         <v>105</v>
       </c>
-      <c r="B106" s="37"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-      <c r="P106" s="36"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="37">
+      <c r="A107" s="36">
         <v>106</v>
       </c>
-      <c r="B107" s="37"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="36" t="s">
+      <c r="D107" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="36"/>
-      <c r="P107" s="36"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4530,77 +4533,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="37">
+      <c r="A108" s="36">
         <v>107</v>
       </c>
-      <c r="B108" s="37"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36"/>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="38" t="s">
+      <c r="D109" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="38"/>
-      <c r="R109" s="38"/>
-      <c r="S109" s="38"/>
-      <c r="T109" s="38"/>
-      <c r="U109" s="38"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="42"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="37">
+      <c r="A110" s="36">
         <v>108</v>
       </c>
-      <c r="B110" s="37"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="37"/>
+      <c r="O110" s="37"/>
+      <c r="P110" s="37"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4615,52 +4618,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="37">
+      <c r="A111" s="36">
         <v>109</v>
       </c>
-      <c r="B111" s="37"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="36"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="36"/>
-      <c r="P111" s="36"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="37"/>
+      <c r="O111" s="37"/>
+      <c r="P111" s="37"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="37">
+      <c r="A112" s="36">
         <v>110</v>
       </c>
-      <c r="B112" s="37"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="36" t="s">
+      <c r="D112" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
-      <c r="P112" s="36"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
+      <c r="O112" s="37"/>
+      <c r="P112" s="37"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4675,52 +4678,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="37">
+      <c r="A113" s="36">
         <v>111</v>
       </c>
-      <c r="B113" s="37"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="36"/>
-      <c r="N113" s="36"/>
-      <c r="O113" s="36"/>
-      <c r="P113" s="36"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="37"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="37">
+      <c r="A114" s="36">
         <v>112</v>
       </c>
-      <c r="B114" s="37"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="36" t="s">
+      <c r="D114" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="36"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="36"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4735,29 +4738,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="37">
+      <c r="A115" s="36">
         <v>113</v>
       </c>
-      <c r="B115" s="37"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="36" t="s">
+      <c r="D115" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="36"/>
-      <c r="P115" s="36"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="37"/>
+      <c r="O115" s="37"/>
+      <c r="P115" s="37"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4772,29 +4775,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="37">
+      <c r="A116" s="36">
         <v>114</v>
       </c>
-      <c r="B116" s="37"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D116" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="36"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="37"/>
+      <c r="O116" s="37"/>
+      <c r="P116" s="37"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4809,52 +4812,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="37">
+      <c r="A117" s="36">
         <v>115</v>
       </c>
-      <c r="B117" s="37"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="36"/>
-      <c r="M117" s="36"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="36"/>
-      <c r="P117" s="36"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="37"/>
+      <c r="P117" s="37"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="37">
+      <c r="A118" s="36">
         <v>116</v>
       </c>
-      <c r="B118" s="37"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="37"/>
+      <c r="O118" s="37"/>
+      <c r="P118" s="37"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4869,59 +4872,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="37">
+      <c r="A119" s="36">
         <v>117</v>
       </c>
-      <c r="B119" s="37"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="38" t="s">
+      <c r="D119" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
-      <c r="L119" s="38"/>
-      <c r="M119" s="38"/>
-      <c r="N119" s="38"/>
-      <c r="O119" s="38"/>
-      <c r="P119" s="38"/>
-      <c r="Q119" s="38"/>
-      <c r="R119" s="38"/>
-      <c r="S119" s="38"/>
-      <c r="T119" s="38"/>
-      <c r="U119" s="38"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="42"/>
+      <c r="U119" s="42"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="37">
+      <c r="A120" s="36">
         <v>118</v>
       </c>
-      <c r="B120" s="37"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="36" t="s">
+      <c r="D120" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="36"/>
-      <c r="M120" s="36"/>
-      <c r="N120" s="36"/>
-      <c r="O120" s="36"/>
-      <c r="P120" s="36"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="37"/>
+      <c r="O120" s="37"/>
+      <c r="P120" s="37"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4936,29 +4939,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="37">
+      <c r="A121" s="36">
         <v>119</v>
       </c>
-      <c r="B121" s="37"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="36" t="s">
+      <c r="D121" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36"/>
-      <c r="M121" s="36"/>
-      <c r="N121" s="36"/>
-      <c r="O121" s="36"/>
-      <c r="P121" s="36"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="37"/>
+      <c r="O121" s="37"/>
+      <c r="P121" s="37"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4973,52 +4976,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="37">
+      <c r="A122" s="36">
         <v>120</v>
       </c>
-      <c r="B122" s="37"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
-      <c r="L122" s="36"/>
-      <c r="M122" s="36"/>
-      <c r="N122" s="36"/>
-      <c r="O122" s="36"/>
-      <c r="P122" s="36"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="37"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="37">
+      <c r="A123" s="36">
         <v>121</v>
       </c>
-      <c r="B123" s="37"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="36" t="s">
+      <c r="D123" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
-      <c r="L123" s="36"/>
-      <c r="M123" s="36"/>
-      <c r="N123" s="36"/>
-      <c r="O123" s="36"/>
-      <c r="P123" s="36"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="37"/>
+      <c r="O123" s="37"/>
+      <c r="P123" s="37"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -5033,59 +5036,59 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="37">
+      <c r="A124" s="36">
         <v>122</v>
       </c>
-      <c r="B124" s="37"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="38" t="s">
+      <c r="D124" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="38"/>
-      <c r="L124" s="38"/>
-      <c r="M124" s="38"/>
-      <c r="N124" s="38"/>
-      <c r="O124" s="38"/>
-      <c r="P124" s="38"/>
-      <c r="Q124" s="38"/>
-      <c r="R124" s="38"/>
-      <c r="S124" s="38"/>
-      <c r="T124" s="38"/>
-      <c r="U124" s="38"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42"/>
+      <c r="O124" s="42"/>
+      <c r="P124" s="42"/>
+      <c r="Q124" s="42"/>
+      <c r="R124" s="42"/>
+      <c r="S124" s="42"/>
+      <c r="T124" s="42"/>
+      <c r="U124" s="42"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="37">
+      <c r="A125" s="36">
         <v>123</v>
       </c>
-      <c r="B125" s="37"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D125" s="36" t="s">
+      <c r="D125" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="36"/>
-      <c r="M125" s="36"/>
-      <c r="N125" s="36"/>
-      <c r="O125" s="36"/>
-      <c r="P125" s="36"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
+      <c r="O125" s="37"/>
+      <c r="P125" s="37"/>
       <c r="Q125" s="9">
         <v>43486</v>
       </c>
@@ -5101,55 +5104,55 @@
       <c r="U125" s="25"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="37">
+      <c r="A126" s="36">
         <v>124</v>
       </c>
-      <c r="B126" s="37"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-      <c r="L126" s="36"/>
-      <c r="M126" s="36"/>
-      <c r="N126" s="36"/>
-      <c r="O126" s="36"/>
-      <c r="P126" s="36"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
       <c r="R126" s="26"/>
       <c r="T126" s="26"/>
       <c r="U126" s="25"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="37">
+      <c r="A127" s="36">
         <v>125</v>
       </c>
-      <c r="B127" s="37"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D127" s="36" t="s">
+      <c r="D127" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="36"/>
-      <c r="M127" s="36"/>
-      <c r="N127" s="36"/>
-      <c r="O127" s="36"/>
-      <c r="P127" s="36"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
+      <c r="O127" s="37"/>
+      <c r="P127" s="37"/>
       <c r="Q127" s="9">
         <v>43487</v>
       </c>
@@ -5164,29 +5167,29 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="37">
+      <c r="A128" s="36">
         <v>126</v>
       </c>
-      <c r="B128" s="37"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D128" s="36" t="s">
+      <c r="D128" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
-      <c r="L128" s="36"/>
-      <c r="M128" s="36"/>
-      <c r="N128" s="36"/>
-      <c r="O128" s="36"/>
-      <c r="P128" s="36"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
       <c r="Q128" s="9">
         <v>43487</v>
       </c>
@@ -5201,29 +5204,29 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A129" s="37">
+      <c r="A129" s="36">
         <v>127</v>
       </c>
-      <c r="B129" s="37"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D129" s="36" t="s">
+      <c r="D129" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="36"/>
-      <c r="M129" s="36"/>
-      <c r="N129" s="36"/>
-      <c r="O129" s="36"/>
-      <c r="P129" s="36"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="37"/>
+      <c r="O129" s="37"/>
+      <c r="P129" s="37"/>
       <c r="Q129" s="9">
         <v>43487</v>
       </c>
@@ -5238,29 +5241,29 @@
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A130" s="37">
+      <c r="A130" s="36">
         <v>128</v>
       </c>
-      <c r="B130" s="37"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D130" s="36" t="s">
+      <c r="D130" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
-      <c r="L130" s="36"/>
-      <c r="M130" s="36"/>
-      <c r="N130" s="36"/>
-      <c r="O130" s="36"/>
-      <c r="P130" s="36"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="37"/>
       <c r="Q130" s="9">
         <v>43487</v>
       </c>
@@ -5275,52 +5278,52 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A131" s="37">
+      <c r="A131" s="36">
         <v>129</v>
       </c>
-      <c r="B131" s="37"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
-      <c r="L131" s="36"/>
-      <c r="M131" s="36"/>
-      <c r="N131" s="36"/>
-      <c r="O131" s="36"/>
-      <c r="P131" s="36"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
+      <c r="K131" s="37"/>
+      <c r="L131" s="37"/>
+      <c r="M131" s="37"/>
+      <c r="N131" s="37"/>
+      <c r="O131" s="37"/>
+      <c r="P131" s="37"/>
     </row>
     <row r="132" spans="1:22" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="37">
+      <c r="A132" s="36">
         <v>130</v>
       </c>
-      <c r="B132" s="37"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D132" s="43" t="s">
+      <c r="D132" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
-      <c r="M132" s="43"/>
-      <c r="N132" s="43"/>
-      <c r="O132" s="43"/>
-      <c r="P132" s="43"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="38"/>
+      <c r="P132" s="38"/>
       <c r="Q132" s="13">
         <v>43488</v>
       </c>
@@ -5337,29 +5340,29 @@
       <c r="V132" s="22"/>
     </row>
     <row r="133" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="37">
+      <c r="A133" s="36">
         <v>131</v>
       </c>
-      <c r="B133" s="37"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D133" s="42" t="s">
+      <c r="D133" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="42"/>
-      <c r="L133" s="42"/>
-      <c r="M133" s="42"/>
-      <c r="N133" s="42"/>
-      <c r="O133" s="42"/>
-      <c r="P133" s="42"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="39"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="39"/>
       <c r="Q133" s="13">
         <v>43488</v>
       </c>
@@ -5376,52 +5379,52 @@
       <c r="V133" s="22"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A134" s="37">
+      <c r="A134" s="36">
         <v>132</v>
       </c>
-      <c r="B134" s="37"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="8" t="str">
         <f t="shared" ref="C134:C193" si="2">IF(S134="", "",IF(S134&lt;=50%, "!!!", IF(S134&lt;=75%,"!!", IF(S134&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36"/>
-      <c r="M134" s="36"/>
-      <c r="N134" s="36"/>
-      <c r="O134" s="36"/>
-      <c r="P134" s="36"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
+      <c r="L134" s="37"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="37"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="37"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A135" s="37">
+      <c r="A135" s="36">
         <v>133</v>
       </c>
-      <c r="B135" s="37"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D135" s="36" t="s">
+      <c r="D135" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="36"/>
-      <c r="M135" s="36"/>
-      <c r="N135" s="36"/>
-      <c r="O135" s="36"/>
-      <c r="P135" s="36"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="37"/>
+      <c r="K135" s="37"/>
+      <c r="L135" s="37"/>
+      <c r="M135" s="37"/>
+      <c r="N135" s="37"/>
+      <c r="O135" s="37"/>
+      <c r="P135" s="37"/>
       <c r="Q135" s="9">
         <v>43489</v>
       </c>
@@ -5439,52 +5442,52 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A136" s="37">
+      <c r="A136" s="36">
         <v>134</v>
       </c>
-      <c r="B136" s="37"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
-      <c r="P136" s="36"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="37"/>
+      <c r="L136" s="37"/>
+      <c r="M136" s="37"/>
+      <c r="N136" s="37"/>
+      <c r="O136" s="37"/>
+      <c r="P136" s="37"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A137" s="37">
+      <c r="A137" s="36">
         <v>135</v>
       </c>
-      <c r="B137" s="37"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D137" s="36" t="s">
+      <c r="D137" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="36"/>
-      <c r="M137" s="36"/>
-      <c r="N137" s="36"/>
-      <c r="O137" s="36"/>
-      <c r="P137" s="36"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="37"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="37"/>
+      <c r="K137" s="37"/>
+      <c r="L137" s="37"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="37"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="37"/>
       <c r="Q137" s="9">
         <v>43490</v>
       </c>
@@ -5499,29 +5502,29 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A138" s="37">
+      <c r="A138" s="36">
         <v>136</v>
       </c>
-      <c r="B138" s="37"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D138" s="36" t="s">
+      <c r="D138" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
-      <c r="M138" s="36"/>
-      <c r="N138" s="36"/>
-      <c r="O138" s="36"/>
-      <c r="P138" s="36"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="37"/>
+      <c r="I138" s="37"/>
+      <c r="J138" s="37"/>
+      <c r="K138" s="37"/>
+      <c r="L138" s="37"/>
+      <c r="M138" s="37"/>
+      <c r="N138" s="37"/>
+      <c r="O138" s="37"/>
+      <c r="P138" s="37"/>
       <c r="Q138" s="9">
         <v>43490</v>
       </c>
@@ -5536,29 +5539,29 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A139" s="37">
+      <c r="A139" s="36">
         <v>137</v>
       </c>
-      <c r="B139" s="37"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D139" s="36" t="s">
+      <c r="D139" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
-      <c r="L139" s="36"/>
-      <c r="M139" s="36"/>
-      <c r="N139" s="36"/>
-      <c r="O139" s="36"/>
-      <c r="P139" s="36"/>
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="37"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="37"/>
+      <c r="K139" s="37"/>
+      <c r="L139" s="37"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="37"/>
+      <c r="O139" s="37"/>
+      <c r="P139" s="37"/>
       <c r="Q139" s="9">
         <v>43490</v>
       </c>
@@ -5573,52 +5576,52 @@
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A140" s="37">
+      <c r="A140" s="36">
         <v>138</v>
       </c>
-      <c r="B140" s="37"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="36"/>
-      <c r="M140" s="36"/>
-      <c r="N140" s="36"/>
-      <c r="O140" s="36"/>
-      <c r="P140" s="36"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="37"/>
+      <c r="K140" s="37"/>
+      <c r="L140" s="37"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="37"/>
+      <c r="O140" s="37"/>
+      <c r="P140" s="37"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="37">
+      <c r="A141" s="36">
         <v>139</v>
       </c>
-      <c r="B141" s="37"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="8" t="str">
         <f>IF(S141="", "",IF(S141&lt;=50%, "!!!", IF(S141&lt;=75%,"!!", IF(S141&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D141" s="36" t="s">
+      <c r="D141" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="36"/>
-      <c r="M141" s="36"/>
-      <c r="N141" s="36"/>
-      <c r="O141" s="36"/>
-      <c r="P141" s="36"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="37"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="37"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="37"/>
+      <c r="O141" s="37"/>
+      <c r="P141" s="37"/>
       <c r="Q141" s="9">
         <v>43491</v>
       </c>
@@ -5633,29 +5636,29 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A142" s="37">
+      <c r="A142" s="36">
         <v>140</v>
       </c>
-      <c r="B142" s="37"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D142" s="36" t="s">
+      <c r="D142" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
-      <c r="L142" s="36"/>
-      <c r="M142" s="36"/>
-      <c r="N142" s="36"/>
-      <c r="O142" s="36"/>
-      <c r="P142" s="36"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="37"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="37"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="37"/>
+      <c r="O142" s="37"/>
+      <c r="P142" s="37"/>
       <c r="Q142" s="9">
         <v>43491</v>
       </c>
@@ -5670,59 +5673,59 @@
       </c>
     </row>
     <row r="143" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="37">
+      <c r="A143" s="36">
         <v>141</v>
       </c>
-      <c r="B143" s="37"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D143" s="38" t="s">
+      <c r="D143" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="38"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
-      <c r="L143" s="38"/>
-      <c r="M143" s="38"/>
-      <c r="N143" s="38"/>
-      <c r="O143" s="38"/>
-      <c r="P143" s="38"/>
-      <c r="Q143" s="38"/>
-      <c r="R143" s="38"/>
-      <c r="S143" s="38"/>
-      <c r="T143" s="38"/>
-      <c r="U143" s="38"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="42"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="42"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="42"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
+      <c r="R143" s="42"/>
+      <c r="S143" s="42"/>
+      <c r="T143" s="42"/>
+      <c r="U143" s="42"/>
     </row>
     <row r="144" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="37">
+      <c r="A144" s="36">
         <v>142</v>
       </c>
-      <c r="B144" s="37"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!</v>
       </c>
-      <c r="D144" s="42" t="s">
+      <c r="D144" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="42"/>
-      <c r="K144" s="42"/>
-      <c r="L144" s="42"/>
-      <c r="M144" s="42"/>
-      <c r="N144" s="42"/>
-      <c r="O144" s="42"/>
-      <c r="P144" s="42"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="39"/>
+      <c r="M144" s="39"/>
+      <c r="N144" s="39"/>
+      <c r="O144" s="39"/>
+      <c r="P144" s="39"/>
       <c r="Q144" s="13">
         <v>43493</v>
       </c>
@@ -5739,52 +5742,52 @@
       <c r="V144" s="22"/>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A145" s="37">
+      <c r="A145" s="36">
         <v>143</v>
       </c>
-      <c r="B145" s="37"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="36"/>
-      <c r="L145" s="36"/>
-      <c r="M145" s="36"/>
-      <c r="N145" s="36"/>
-      <c r="O145" s="36"/>
-      <c r="P145" s="36"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="37"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="37"/>
+      <c r="K145" s="37"/>
+      <c r="L145" s="37"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="37"/>
+      <c r="O145" s="37"/>
+      <c r="P145" s="37"/>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A146" s="37">
+      <c r="A146" s="36">
         <v>144</v>
       </c>
-      <c r="B146" s="37"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D146" s="42" t="s">
+      <c r="D146" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
-      <c r="K146" s="42"/>
-      <c r="L146" s="42"/>
-      <c r="M146" s="42"/>
-      <c r="N146" s="42"/>
-      <c r="O146" s="42"/>
-      <c r="P146" s="42"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="39"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="39"/>
+      <c r="L146" s="39"/>
+      <c r="M146" s="39"/>
+      <c r="N146" s="39"/>
+      <c r="O146" s="39"/>
+      <c r="P146" s="39"/>
       <c r="Q146" s="9">
         <v>43494</v>
       </c>
@@ -5799,52 +5802,52 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A147" s="37">
+      <c r="A147" s="36">
         <v>145</v>
       </c>
-      <c r="B147" s="37"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
-      <c r="L147" s="36"/>
-      <c r="M147" s="36"/>
-      <c r="N147" s="36"/>
-      <c r="O147" s="36"/>
-      <c r="P147" s="36"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="37"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="37"/>
+      <c r="L147" s="37"/>
+      <c r="M147" s="37"/>
+      <c r="N147" s="37"/>
+      <c r="O147" s="37"/>
+      <c r="P147" s="37"/>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A148" s="37">
+      <c r="A148" s="36">
         <v>146</v>
       </c>
-      <c r="B148" s="37"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D148" s="42" t="s">
+      <c r="D148" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E148" s="42"/>
-      <c r="F148" s="42"/>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
-      <c r="K148" s="42"/>
-      <c r="L148" s="42"/>
-      <c r="M148" s="42"/>
-      <c r="N148" s="42"/>
-      <c r="O148" s="42"/>
-      <c r="P148" s="42"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="39"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="39"/>
+      <c r="M148" s="39"/>
+      <c r="N148" s="39"/>
+      <c r="O148" s="39"/>
+      <c r="P148" s="39"/>
       <c r="Q148" s="9">
         <v>43495</v>
       </c>
@@ -5859,29 +5862,29 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A149" s="37">
+      <c r="A149" s="36">
         <v>147</v>
       </c>
-      <c r="B149" s="37"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D149" s="36" t="s">
+      <c r="D149" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E149" s="36"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="36"/>
-      <c r="L149" s="36"/>
-      <c r="M149" s="36"/>
-      <c r="N149" s="36"/>
-      <c r="O149" s="36"/>
-      <c r="P149" s="36"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="37"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="37"/>
+      <c r="L149" s="37"/>
+      <c r="M149" s="37"/>
+      <c r="N149" s="37"/>
+      <c r="O149" s="37"/>
+      <c r="P149" s="37"/>
       <c r="Q149" s="9">
         <v>43495</v>
       </c>
@@ -5896,52 +5899,52 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A150" s="37">
+      <c r="A150" s="36">
         <v>148</v>
       </c>
-      <c r="B150" s="37"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
-      <c r="L150" s="36"/>
-      <c r="M150" s="36"/>
-      <c r="N150" s="36"/>
-      <c r="O150" s="36"/>
-      <c r="P150" s="36"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="37"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="37"/>
+      <c r="K150" s="37"/>
+      <c r="L150" s="37"/>
+      <c r="M150" s="37"/>
+      <c r="N150" s="37"/>
+      <c r="O150" s="37"/>
+      <c r="P150" s="37"/>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A151" s="37">
+      <c r="A151" s="36">
         <v>149</v>
       </c>
-      <c r="B151" s="37"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="8" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D151" s="36" t="s">
+      <c r="D151" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E151" s="36"/>
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
-      <c r="L151" s="36"/>
-      <c r="M151" s="36"/>
-      <c r="N151" s="36"/>
-      <c r="O151" s="36"/>
-      <c r="P151" s="36"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="37"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="37"/>
+      <c r="K151" s="37"/>
+      <c r="L151" s="37"/>
+      <c r="M151" s="37"/>
+      <c r="N151" s="37"/>
+      <c r="O151" s="37"/>
+      <c r="P151" s="37"/>
       <c r="Q151" s="9">
         <v>43496</v>
       </c>
@@ -5956,29 +5959,29 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A152" s="37">
+      <c r="A152" s="36">
         <v>150</v>
       </c>
-      <c r="B152" s="37"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
-      <c r="D152" s="36" t="s">
+      <c r="D152" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
-      <c r="L152" s="36"/>
-      <c r="M152" s="36"/>
-      <c r="N152" s="36"/>
-      <c r="O152" s="36"/>
-      <c r="P152" s="36"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="37"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="37"/>
+      <c r="L152" s="37"/>
+      <c r="M152" s="37"/>
+      <c r="N152" s="37"/>
+      <c r="O152" s="37"/>
+      <c r="P152" s="37"/>
       <c r="Q152" s="9">
         <v>43496</v>
       </c>
@@ -5993,184 +5996,184 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A153" s="37">
+      <c r="A153" s="36">
         <v>151</v>
       </c>
-      <c r="B153" s="37"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="38" t="s">
+      <c r="D153" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="38"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="38"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="38"/>
-      <c r="L153" s="38"/>
-      <c r="M153" s="38"/>
-      <c r="N153" s="38"/>
-      <c r="O153" s="38"/>
-      <c r="P153" s="38"/>
-      <c r="Q153" s="38"/>
-      <c r="R153" s="38"/>
-      <c r="S153" s="38"/>
-      <c r="T153" s="38"/>
-      <c r="U153" s="38"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
     </row>
     <row r="154" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="37">
+      <c r="A154" s="36">
         <v>152</v>
       </c>
-      <c r="B154" s="37"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D154" s="44" t="s">
+      <c r="D154" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E154" s="44"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="44"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
-      <c r="K154" s="44"/>
-      <c r="L154" s="44"/>
-      <c r="M154" s="44"/>
-      <c r="N154" s="44"/>
-      <c r="O154" s="44"/>
-      <c r="P154" s="44"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="40"/>
+      <c r="L154" s="40"/>
+      <c r="M154" s="40"/>
+      <c r="N154" s="40"/>
+      <c r="O154" s="40"/>
+      <c r="P154" s="40"/>
       <c r="Q154" s="31"/>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A155" s="37">
+      <c r="A155" s="36">
         <v>153</v>
       </c>
-      <c r="B155" s="37"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D155" s="44"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
-      <c r="K155" s="44"/>
-      <c r="L155" s="44"/>
-      <c r="M155" s="44"/>
-      <c r="N155" s="44"/>
-      <c r="O155" s="44"/>
-      <c r="P155" s="44"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="40"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="40"/>
+      <c r="L155" s="40"/>
+      <c r="M155" s="40"/>
+      <c r="N155" s="40"/>
+      <c r="O155" s="40"/>
+      <c r="P155" s="40"/>
       <c r="Q155" s="31"/>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A156" s="37">
+      <c r="A156" s="36">
         <v>154</v>
       </c>
-      <c r="B156" s="37"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="44"/>
-      <c r="K156" s="44"/>
-      <c r="L156" s="44"/>
-      <c r="M156" s="44"/>
-      <c r="N156" s="44"/>
-      <c r="O156" s="44"/>
-      <c r="P156" s="44"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="40"/>
+      <c r="L156" s="40"/>
+      <c r="M156" s="40"/>
+      <c r="N156" s="40"/>
+      <c r="O156" s="40"/>
+      <c r="P156" s="40"/>
       <c r="Q156" s="31"/>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A157" s="37">
+      <c r="A157" s="36">
         <v>155</v>
       </c>
-      <c r="B157" s="37"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D157" s="44"/>
-      <c r="E157" s="44"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="44"/>
-      <c r="J157" s="44"/>
-      <c r="K157" s="44"/>
-      <c r="L157" s="44"/>
-      <c r="M157" s="44"/>
-      <c r="N157" s="44"/>
-      <c r="O157" s="44"/>
-      <c r="P157" s="44"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="40"/>
+      <c r="L157" s="40"/>
+      <c r="M157" s="40"/>
+      <c r="N157" s="40"/>
+      <c r="O157" s="40"/>
+      <c r="P157" s="40"/>
       <c r="Q157" s="31"/>
     </row>
     <row r="158" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="37">
+      <c r="A158" s="36">
         <v>156</v>
       </c>
-      <c r="B158" s="37"/>
-      <c r="C158" s="45" t="s">
+      <c r="B158" s="36"/>
+      <c r="C158" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D158" s="45"/>
-      <c r="E158" s="45"/>
-      <c r="F158" s="45"/>
-      <c r="G158" s="45"/>
-      <c r="H158" s="45"/>
-      <c r="I158" s="45"/>
-      <c r="J158" s="45"/>
-      <c r="K158" s="45"/>
-      <c r="L158" s="45"/>
-      <c r="M158" s="45"/>
-      <c r="N158" s="45"/>
-      <c r="O158" s="45"/>
-      <c r="P158" s="45"/>
-      <c r="Q158" s="45"/>
-      <c r="R158" s="45"/>
-      <c r="S158" s="45"/>
-      <c r="T158" s="45"/>
-      <c r="U158" s="45"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
+      <c r="L158" s="41"/>
+      <c r="M158" s="41"/>
+      <c r="N158" s="41"/>
+      <c r="O158" s="41"/>
+      <c r="P158" s="41"/>
+      <c r="Q158" s="41"/>
+      <c r="R158" s="41"/>
+      <c r="S158" s="41"/>
+      <c r="T158" s="41"/>
+      <c r="U158" s="41"/>
     </row>
     <row r="159" spans="1:22" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="37">
+      <c r="A159" s="36">
         <v>157</v>
       </c>
-      <c r="B159" s="37"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="34" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="D159" s="43" t="s">
+      <c r="D159" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E159" s="43"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
-      <c r="H159" s="43"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="43"/>
-      <c r="K159" s="43"/>
-      <c r="L159" s="43"/>
-      <c r="M159" s="43"/>
-      <c r="N159" s="43"/>
-      <c r="O159" s="43"/>
-      <c r="P159" s="43"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="38"/>
+      <c r="G159" s="38"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="38"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="38"/>
+      <c r="L159" s="38"/>
+      <c r="M159" s="38"/>
+      <c r="N159" s="38"/>
+      <c r="O159" s="38"/>
+      <c r="P159" s="38"/>
       <c r="Q159" s="9">
         <v>43508</v>
       </c>
@@ -6187,52 +6190,52 @@
       <c r="V159" s="12"/>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A160" s="37">
+      <c r="A160" s="36">
         <v>158</v>
       </c>
-      <c r="B160" s="37"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D160" s="36"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
-      <c r="L160" s="36"/>
-      <c r="M160" s="36"/>
-      <c r="N160" s="36"/>
-      <c r="O160" s="36"/>
-      <c r="P160" s="36"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="37"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="37"/>
+      <c r="L160" s="37"/>
+      <c r="M160" s="37"/>
+      <c r="N160" s="37"/>
+      <c r="O160" s="37"/>
+      <c r="P160" s="37"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A161" s="37">
+      <c r="A161" s="36">
         <v>159</v>
       </c>
-      <c r="B161" s="37"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D161" s="36" t="s">
+      <c r="D161" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E161" s="36"/>
-      <c r="F161" s="36"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="36"/>
-      <c r="L161" s="36"/>
-      <c r="M161" s="36"/>
-      <c r="N161" s="36"/>
-      <c r="O161" s="36"/>
-      <c r="P161" s="36"/>
+      <c r="E161" s="37"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="37"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="37"/>
+      <c r="K161" s="37"/>
+      <c r="L161" s="37"/>
+      <c r="M161" s="37"/>
+      <c r="N161" s="37"/>
+      <c r="O161" s="37"/>
+      <c r="P161" s="37"/>
       <c r="Q161" s="9">
         <v>43509</v>
       </c>
@@ -6247,29 +6250,29 @@
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A162" s="37">
+      <c r="A162" s="36">
         <v>160</v>
       </c>
-      <c r="B162" s="37"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="8" t="str">
         <f t="shared" si="2"/>
         <v>!!!</v>
       </c>
-      <c r="D162" s="36" t="s">
+      <c r="D162" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E162" s="36"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="36"/>
-      <c r="L162" s="36"/>
-      <c r="M162" s="36"/>
-      <c r="N162" s="36"/>
-      <c r="O162" s="36"/>
-      <c r="P162" s="36"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="37"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="37"/>
+      <c r="K162" s="37"/>
+      <c r="L162" s="37"/>
+      <c r="M162" s="37"/>
+      <c r="N162" s="37"/>
+      <c r="O162" s="37"/>
+      <c r="P162" s="37"/>
       <c r="Q162" s="9">
         <v>43509</v>
       </c>
@@ -6284,740 +6287,754 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A163" s="37">
+      <c r="A163" s="36">
         <v>161</v>
       </c>
-      <c r="B163" s="37"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D163" s="36"/>
-      <c r="E163" s="36"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="36"/>
-      <c r="L163" s="36"/>
-      <c r="M163" s="36"/>
-      <c r="N163" s="36"/>
-      <c r="O163" s="36"/>
-      <c r="P163" s="36"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="37"/>
+      <c r="H163" s="37"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="37"/>
+      <c r="K163" s="37"/>
+      <c r="L163" s="37"/>
+      <c r="M163" s="37"/>
+      <c r="N163" s="37"/>
+      <c r="O163" s="37"/>
+      <c r="P163" s="37"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A164" s="37">
+      <c r="A164" s="36">
         <v>162</v>
       </c>
-      <c r="B164" s="37"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="36"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
-      <c r="L164" s="36"/>
-      <c r="M164" s="36"/>
-      <c r="N164" s="36"/>
-      <c r="O164" s="36"/>
-      <c r="P164" s="36"/>
+        <v>!</v>
+      </c>
+      <c r="D164" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="37"/>
+      <c r="L164" s="37"/>
+      <c r="M164" s="37"/>
+      <c r="N164" s="37"/>
+      <c r="O164" s="37"/>
+      <c r="P164" s="37"/>
+      <c r="Q164" s="9">
+        <v>43510</v>
+      </c>
+      <c r="R164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S164" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T164" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A165" s="37">
+      <c r="A165" s="36">
         <v>163</v>
       </c>
-      <c r="B165" s="37"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D165" s="36"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="36"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
-      <c r="L165" s="36"/>
-      <c r="M165" s="36"/>
-      <c r="N165" s="36"/>
-      <c r="O165" s="36"/>
-      <c r="P165" s="36"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="37"/>
+      <c r="K165" s="37"/>
+      <c r="L165" s="37"/>
+      <c r="M165" s="37"/>
+      <c r="N165" s="37"/>
+      <c r="O165" s="37"/>
+      <c r="P165" s="37"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A166" s="37">
+      <c r="A166" s="36">
         <v>164</v>
       </c>
-      <c r="B166" s="37"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
-      <c r="L166" s="36"/>
-      <c r="M166" s="36"/>
-      <c r="N166" s="36"/>
-      <c r="O166" s="36"/>
-      <c r="P166" s="36"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="37"/>
+      <c r="K166" s="37"/>
+      <c r="L166" s="37"/>
+      <c r="M166" s="37"/>
+      <c r="N166" s="37"/>
+      <c r="O166" s="37"/>
+      <c r="P166" s="37"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A167" s="37">
+      <c r="A167" s="36">
         <v>165</v>
       </c>
-      <c r="B167" s="37"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D167" s="36"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="36"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
-      <c r="L167" s="36"/>
-      <c r="M167" s="36"/>
-      <c r="N167" s="36"/>
-      <c r="O167" s="36"/>
-      <c r="P167" s="36"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="37"/>
+      <c r="L167" s="37"/>
+      <c r="M167" s="37"/>
+      <c r="N167" s="37"/>
+      <c r="O167" s="37"/>
+      <c r="P167" s="37"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A168" s="37">
+      <c r="A168" s="36">
         <v>166</v>
       </c>
-      <c r="B168" s="37"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="36"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="36"/>
-      <c r="L168" s="36"/>
-      <c r="M168" s="36"/>
-      <c r="N168" s="36"/>
-      <c r="O168" s="36"/>
-      <c r="P168" s="36"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="37"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
+      <c r="K168" s="37"/>
+      <c r="L168" s="37"/>
+      <c r="M168" s="37"/>
+      <c r="N168" s="37"/>
+      <c r="O168" s="37"/>
+      <c r="P168" s="37"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A169" s="37">
+      <c r="A169" s="36">
         <v>167</v>
       </c>
-      <c r="B169" s="37"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
-      <c r="L169" s="36"/>
-      <c r="M169" s="36"/>
-      <c r="N169" s="36"/>
-      <c r="O169" s="36"/>
-      <c r="P169" s="36"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="37"/>
+      <c r="L169" s="37"/>
+      <c r="M169" s="37"/>
+      <c r="N169" s="37"/>
+      <c r="O169" s="37"/>
+      <c r="P169" s="37"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A170" s="37">
+      <c r="A170" s="36">
         <v>168</v>
       </c>
-      <c r="B170" s="37"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="36"/>
-      <c r="I170" s="36"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="36"/>
-      <c r="L170" s="36"/>
-      <c r="M170" s="36"/>
-      <c r="N170" s="36"/>
-      <c r="O170" s="36"/>
-      <c r="P170" s="36"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="37"/>
+      <c r="K170" s="37"/>
+      <c r="L170" s="37"/>
+      <c r="M170" s="37"/>
+      <c r="N170" s="37"/>
+      <c r="O170" s="37"/>
+      <c r="P170" s="37"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A171" s="37">
+      <c r="A171" s="36">
         <v>169</v>
       </c>
-      <c r="B171" s="37"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
-      <c r="L171" s="36"/>
-      <c r="M171" s="36"/>
-      <c r="N171" s="36"/>
-      <c r="O171" s="36"/>
-      <c r="P171" s="36"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
+      <c r="K171" s="37"/>
+      <c r="L171" s="37"/>
+      <c r="M171" s="37"/>
+      <c r="N171" s="37"/>
+      <c r="O171" s="37"/>
+      <c r="P171" s="37"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A172" s="37">
+      <c r="A172" s="36">
         <v>170</v>
       </c>
-      <c r="B172" s="37"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="36"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="36"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="36"/>
-      <c r="I172" s="36"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="36"/>
-      <c r="L172" s="36"/>
-      <c r="M172" s="36"/>
-      <c r="N172" s="36"/>
-      <c r="O172" s="36"/>
-      <c r="P172" s="36"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="37"/>
+      <c r="L172" s="37"/>
+      <c r="M172" s="37"/>
+      <c r="N172" s="37"/>
+      <c r="O172" s="37"/>
+      <c r="P172" s="37"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A173" s="37">
+      <c r="A173" s="36">
         <v>171</v>
       </c>
-      <c r="B173" s="37"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="36"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
-      <c r="L173" s="36"/>
-      <c r="M173" s="36"/>
-      <c r="N173" s="36"/>
-      <c r="O173" s="36"/>
-      <c r="P173" s="36"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="37"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37"/>
+      <c r="K173" s="37"/>
+      <c r="L173" s="37"/>
+      <c r="M173" s="37"/>
+      <c r="N173" s="37"/>
+      <c r="O173" s="37"/>
+      <c r="P173" s="37"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A174" s="37">
+      <c r="A174" s="36">
         <v>172</v>
       </c>
-      <c r="B174" s="37"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="36"/>
-      <c r="L174" s="36"/>
-      <c r="M174" s="36"/>
-      <c r="N174" s="36"/>
-      <c r="O174" s="36"/>
-      <c r="P174" s="36"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="37"/>
+      <c r="I174" s="37"/>
+      <c r="J174" s="37"/>
+      <c r="K174" s="37"/>
+      <c r="L174" s="37"/>
+      <c r="M174" s="37"/>
+      <c r="N174" s="37"/>
+      <c r="O174" s="37"/>
+      <c r="P174" s="37"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A175" s="37">
+      <c r="A175" s="36">
         <v>173</v>
       </c>
-      <c r="B175" s="37"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
-      <c r="L175" s="36"/>
-      <c r="M175" s="36"/>
-      <c r="N175" s="36"/>
-      <c r="O175" s="36"/>
-      <c r="P175" s="36"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="37"/>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37"/>
+      <c r="K175" s="37"/>
+      <c r="L175" s="37"/>
+      <c r="M175" s="37"/>
+      <c r="N175" s="37"/>
+      <c r="O175" s="37"/>
+      <c r="P175" s="37"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A176" s="37">
+      <c r="A176" s="36">
         <v>174</v>
       </c>
-      <c r="B176" s="37"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D176" s="36"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="36"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="36"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36"/>
-      <c r="L176" s="36"/>
-      <c r="M176" s="36"/>
-      <c r="N176" s="36"/>
-      <c r="O176" s="36"/>
-      <c r="P176" s="36"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="37"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="37"/>
+      <c r="K176" s="37"/>
+      <c r="L176" s="37"/>
+      <c r="M176" s="37"/>
+      <c r="N176" s="37"/>
+      <c r="O176" s="37"/>
+      <c r="P176" s="37"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="37">
+      <c r="A177" s="36">
         <v>175</v>
       </c>
-      <c r="B177" s="37"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D177" s="36"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="36"/>
-      <c r="G177" s="36"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="36"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="36"/>
-      <c r="L177" s="36"/>
-      <c r="M177" s="36"/>
-      <c r="N177" s="36"/>
-      <c r="O177" s="36"/>
-      <c r="P177" s="36"/>
+      <c r="D177" s="37"/>
+      <c r="E177" s="37"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="37"/>
+      <c r="I177" s="37"/>
+      <c r="J177" s="37"/>
+      <c r="K177" s="37"/>
+      <c r="L177" s="37"/>
+      <c r="M177" s="37"/>
+      <c r="N177" s="37"/>
+      <c r="O177" s="37"/>
+      <c r="P177" s="37"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="37">
+      <c r="A178" s="36">
         <v>176</v>
       </c>
-      <c r="B178" s="37"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D178" s="36"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="36"/>
-      <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
-      <c r="L178" s="36"/>
-      <c r="M178" s="36"/>
-      <c r="N178" s="36"/>
-      <c r="O178" s="36"/>
-      <c r="P178" s="36"/>
+      <c r="D178" s="37"/>
+      <c r="E178" s="37"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="37"/>
+      <c r="I178" s="37"/>
+      <c r="J178" s="37"/>
+      <c r="K178" s="37"/>
+      <c r="L178" s="37"/>
+      <c r="M178" s="37"/>
+      <c r="N178" s="37"/>
+      <c r="O178" s="37"/>
+      <c r="P178" s="37"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="37">
+      <c r="A179" s="36">
         <v>177</v>
       </c>
-      <c r="B179" s="37"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D179" s="36"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
-      <c r="L179" s="36"/>
-      <c r="M179" s="36"/>
-      <c r="N179" s="36"/>
-      <c r="O179" s="36"/>
-      <c r="P179" s="36"/>
+      <c r="D179" s="37"/>
+      <c r="E179" s="37"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="37"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="37"/>
+      <c r="K179" s="37"/>
+      <c r="L179" s="37"/>
+      <c r="M179" s="37"/>
+      <c r="N179" s="37"/>
+      <c r="O179" s="37"/>
+      <c r="P179" s="37"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="37">
+      <c r="A180" s="36">
         <v>178</v>
       </c>
-      <c r="B180" s="37"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
-      <c r="I180" s="36"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="36"/>
-      <c r="L180" s="36"/>
-      <c r="M180" s="36"/>
-      <c r="N180" s="36"/>
-      <c r="O180" s="36"/>
-      <c r="P180" s="36"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="37"/>
+      <c r="I180" s="37"/>
+      <c r="J180" s="37"/>
+      <c r="K180" s="37"/>
+      <c r="L180" s="37"/>
+      <c r="M180" s="37"/>
+      <c r="N180" s="37"/>
+      <c r="O180" s="37"/>
+      <c r="P180" s="37"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="37">
+      <c r="A181" s="36">
         <v>179</v>
       </c>
-      <c r="B181" s="37"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
-      <c r="L181" s="36"/>
-      <c r="M181" s="36"/>
-      <c r="N181" s="36"/>
-      <c r="O181" s="36"/>
-      <c r="P181" s="36"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="37"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="37"/>
+      <c r="K181" s="37"/>
+      <c r="L181" s="37"/>
+      <c r="M181" s="37"/>
+      <c r="N181" s="37"/>
+      <c r="O181" s="37"/>
+      <c r="P181" s="37"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="37">
+      <c r="A182" s="36">
         <v>180</v>
       </c>
-      <c r="B182" s="37"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D182" s="36"/>
-      <c r="E182" s="36"/>
-      <c r="F182" s="36"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="36"/>
-      <c r="I182" s="36"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
-      <c r="L182" s="36"/>
-      <c r="M182" s="36"/>
-      <c r="N182" s="36"/>
-      <c r="O182" s="36"/>
-      <c r="P182" s="36"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="37"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37"/>
+      <c r="K182" s="37"/>
+      <c r="L182" s="37"/>
+      <c r="M182" s="37"/>
+      <c r="N182" s="37"/>
+      <c r="O182" s="37"/>
+      <c r="P182" s="37"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="37">
+      <c r="A183" s="36">
         <v>181</v>
       </c>
-      <c r="B183" s="37"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="36"/>
-      <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
-      <c r="L183" s="36"/>
-      <c r="M183" s="36"/>
-      <c r="N183" s="36"/>
-      <c r="O183" s="36"/>
-      <c r="P183" s="36"/>
+      <c r="D183" s="37"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="37"/>
+      <c r="H183" s="37"/>
+      <c r="I183" s="37"/>
+      <c r="J183" s="37"/>
+      <c r="K183" s="37"/>
+      <c r="L183" s="37"/>
+      <c r="M183" s="37"/>
+      <c r="N183" s="37"/>
+      <c r="O183" s="37"/>
+      <c r="P183" s="37"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="37">
+      <c r="A184" s="36">
         <v>182</v>
       </c>
-      <c r="B184" s="37"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D184" s="36"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
-      <c r="L184" s="36"/>
-      <c r="M184" s="36"/>
-      <c r="N184" s="36"/>
-      <c r="O184" s="36"/>
-      <c r="P184" s="36"/>
+      <c r="D184" s="37"/>
+      <c r="E184" s="37"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="37"/>
+      <c r="I184" s="37"/>
+      <c r="J184" s="37"/>
+      <c r="K184" s="37"/>
+      <c r="L184" s="37"/>
+      <c r="M184" s="37"/>
+      <c r="N184" s="37"/>
+      <c r="O184" s="37"/>
+      <c r="P184" s="37"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="37">
+      <c r="A185" s="36">
         <v>183</v>
       </c>
-      <c r="B185" s="37"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="36"/>
-      <c r="G185" s="36"/>
-      <c r="H185" s="36"/>
-      <c r="I185" s="36"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="36"/>
-      <c r="L185" s="36"/>
-      <c r="M185" s="36"/>
-      <c r="N185" s="36"/>
-      <c r="O185" s="36"/>
-      <c r="P185" s="36"/>
+      <c r="D185" s="37"/>
+      <c r="E185" s="37"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="37"/>
+      <c r="H185" s="37"/>
+      <c r="I185" s="37"/>
+      <c r="J185" s="37"/>
+      <c r="K185" s="37"/>
+      <c r="L185" s="37"/>
+      <c r="M185" s="37"/>
+      <c r="N185" s="37"/>
+      <c r="O185" s="37"/>
+      <c r="P185" s="37"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="37">
+      <c r="A186" s="36">
         <v>184</v>
       </c>
-      <c r="B186" s="37"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-      <c r="L186" s="36"/>
-      <c r="M186" s="36"/>
-      <c r="N186" s="36"/>
-      <c r="O186" s="36"/>
-      <c r="P186" s="36"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="37"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="37"/>
+      <c r="I186" s="37"/>
+      <c r="J186" s="37"/>
+      <c r="K186" s="37"/>
+      <c r="L186" s="37"/>
+      <c r="M186" s="37"/>
+      <c r="N186" s="37"/>
+      <c r="O186" s="37"/>
+      <c r="P186" s="37"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="37">
+      <c r="A187" s="36">
         <v>185</v>
       </c>
-      <c r="B187" s="37"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
-      <c r="G187" s="36"/>
-      <c r="H187" s="36"/>
-      <c r="I187" s="36"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="36"/>
-      <c r="L187" s="36"/>
-      <c r="M187" s="36"/>
-      <c r="N187" s="36"/>
-      <c r="O187" s="36"/>
-      <c r="P187" s="36"/>
+      <c r="D187" s="37"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="37"/>
+      <c r="G187" s="37"/>
+      <c r="H187" s="37"/>
+      <c r="I187" s="37"/>
+      <c r="J187" s="37"/>
+      <c r="K187" s="37"/>
+      <c r="L187" s="37"/>
+      <c r="M187" s="37"/>
+      <c r="N187" s="37"/>
+      <c r="O187" s="37"/>
+      <c r="P187" s="37"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="37">
+      <c r="A188" s="36">
         <v>186</v>
       </c>
-      <c r="B188" s="37"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D188" s="36"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-      <c r="L188" s="36"/>
-      <c r="M188" s="36"/>
-      <c r="N188" s="36"/>
-      <c r="O188" s="36"/>
-      <c r="P188" s="36"/>
+      <c r="D188" s="37"/>
+      <c r="E188" s="37"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="37"/>
+      <c r="H188" s="37"/>
+      <c r="I188" s="37"/>
+      <c r="J188" s="37"/>
+      <c r="K188" s="37"/>
+      <c r="L188" s="37"/>
+      <c r="M188" s="37"/>
+      <c r="N188" s="37"/>
+      <c r="O188" s="37"/>
+      <c r="P188" s="37"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="37">
+      <c r="A189" s="36">
         <v>187</v>
       </c>
-      <c r="B189" s="37"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D189" s="36"/>
-      <c r="E189" s="36"/>
-      <c r="F189" s="36"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="36"/>
-      <c r="I189" s="36"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
-      <c r="L189" s="36"/>
-      <c r="M189" s="36"/>
-      <c r="N189" s="36"/>
-      <c r="O189" s="36"/>
-      <c r="P189" s="36"/>
+      <c r="D189" s="37"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="37"/>
+      <c r="G189" s="37"/>
+      <c r="H189" s="37"/>
+      <c r="I189" s="37"/>
+      <c r="J189" s="37"/>
+      <c r="K189" s="37"/>
+      <c r="L189" s="37"/>
+      <c r="M189" s="37"/>
+      <c r="N189" s="37"/>
+      <c r="O189" s="37"/>
+      <c r="P189" s="37"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="37">
+      <c r="A190" s="36">
         <v>188</v>
       </c>
-      <c r="B190" s="37"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D190" s="36"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="36"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="36"/>
-      <c r="I190" s="36"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="36"/>
-      <c r="L190" s="36"/>
-      <c r="M190" s="36"/>
-      <c r="N190" s="36"/>
-      <c r="O190" s="36"/>
-      <c r="P190" s="36"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="37"/>
+      <c r="H190" s="37"/>
+      <c r="I190" s="37"/>
+      <c r="J190" s="37"/>
+      <c r="K190" s="37"/>
+      <c r="L190" s="37"/>
+      <c r="M190" s="37"/>
+      <c r="N190" s="37"/>
+      <c r="O190" s="37"/>
+      <c r="P190" s="37"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="37">
+      <c r="A191" s="36">
         <v>189</v>
       </c>
-      <c r="B191" s="37"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
-      <c r="L191" s="36"/>
-      <c r="M191" s="36"/>
-      <c r="N191" s="36"/>
-      <c r="O191" s="36"/>
-      <c r="P191" s="36"/>
+      <c r="D191" s="37"/>
+      <c r="E191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="37"/>
+      <c r="I191" s="37"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="37"/>
+      <c r="L191" s="37"/>
+      <c r="M191" s="37"/>
+      <c r="N191" s="37"/>
+      <c r="O191" s="37"/>
+      <c r="P191" s="37"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="37">
+      <c r="A192" s="36">
         <v>190</v>
       </c>
-      <c r="B192" s="37"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D192" s="36"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="36"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
-      <c r="L192" s="36"/>
-      <c r="M192" s="36"/>
-      <c r="N192" s="36"/>
-      <c r="O192" s="36"/>
-      <c r="P192" s="36"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="37"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="37"/>
+      <c r="I192" s="37"/>
+      <c r="J192" s="37"/>
+      <c r="K192" s="37"/>
+      <c r="L192" s="37"/>
+      <c r="M192" s="37"/>
+      <c r="N192" s="37"/>
+      <c r="O192" s="37"/>
+      <c r="P192" s="37"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="37">
+      <c r="A193" s="36">
         <v>191</v>
       </c>
-      <c r="B193" s="37"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D193" s="36"/>
-      <c r="E193" s="36"/>
-      <c r="F193" s="36"/>
-      <c r="G193" s="36"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="36"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
-      <c r="L193" s="36"/>
-      <c r="M193" s="36"/>
-      <c r="N193" s="36"/>
-      <c r="O193" s="36"/>
-      <c r="P193" s="36"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="37"/>
+      <c r="I193" s="37"/>
+      <c r="J193" s="37"/>
+      <c r="K193" s="37"/>
+      <c r="L193" s="37"/>
+      <c r="M193" s="37"/>
+      <c r="N193" s="37"/>
+      <c r="O193" s="37"/>
+      <c r="P193" s="37"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="37">
+      <c r="A194" s="36">
         <v>191</v>
       </c>
-      <c r="B194" s="37"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="8" t="str">
         <f t="shared" ref="C194:C195" si="3">IF(S194="", "",IF(S194&lt;=50%, "!!!", IF(S194&lt;=75%,"!!", IF(S194&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D194" s="36"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="36"/>
-      <c r="G194" s="36"/>
-      <c r="H194" s="36"/>
-      <c r="I194" s="36"/>
-      <c r="J194" s="36"/>
-      <c r="K194" s="36"/>
-      <c r="L194" s="36"/>
-      <c r="M194" s="36"/>
-      <c r="N194" s="36"/>
-      <c r="O194" s="36"/>
-      <c r="P194" s="36"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="37"/>
+      <c r="I194" s="37"/>
+      <c r="J194" s="37"/>
+      <c r="K194" s="37"/>
+      <c r="L194" s="37"/>
+      <c r="M194" s="37"/>
+      <c r="N194" s="37"/>
+      <c r="O194" s="37"/>
+      <c r="P194" s="37"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C195" s="8" t="str">
@@ -7027,6 +7044,366 @@
     </row>
   </sheetData>
   <mergeCells count="384">
+    <mergeCell ref="D126:P126"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:P125"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="D45:U45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:P49"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D61:U61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:P51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:P53"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:P70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:P71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:P57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:P63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:P65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="D85:U85"/>
+    <mergeCell ref="D97:U97"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:P72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:P73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:P75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:P76"/>
+    <mergeCell ref="D74:U74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:P78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:P79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:P80"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:P95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:P96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:P98"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:P81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:P82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:P83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:P84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:P86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:P87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:P88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:P89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:P90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:P91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:P92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:P93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:P94"/>
+    <mergeCell ref="D119:U119"/>
+    <mergeCell ref="D124:U124"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:P100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:P101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:P102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:P103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:P104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:P105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:P106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:P107"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:P114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:P115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:P116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:P117"/>
+    <mergeCell ref="D109:U109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:P108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:P110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:P111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="D112:P112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:P113"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:P134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="D135:P135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:P136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:P137"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="D118:P118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:P120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="D121:P121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="D122:P122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:P123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:P127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:P128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="D129:P129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:P130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:P131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:P132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:P133"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:P144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:P145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:P146"/>
+    <mergeCell ref="D143:U143"/>
+    <mergeCell ref="D153:U153"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="D138:P138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="D139:P139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:P140"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="D142:P142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:P141"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:P159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:P160"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="D147:P147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D148:P148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:P149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:P150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="D151:P151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D152:P152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="D154:P157"/>
+    <mergeCell ref="C158:U158"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:P178"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="D184:P184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="D185:P185"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:P161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="D162:P162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:P163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:P164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:P165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:P166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:P167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D168:P168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="D169:P169"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:P173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D174:P174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="D175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:P176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:P177"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:P193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="D194:P194"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:P186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="D187:P187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:P188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:P189"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="D44:P44"/>
     <mergeCell ref="A190:B190"/>
@@ -7051,366 +7428,6 @@
     <mergeCell ref="D171:P171"/>
     <mergeCell ref="A172:B172"/>
     <mergeCell ref="D172:P172"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:P193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="D194:P194"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:P186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="D187:P187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:P188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:P189"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:P173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="D174:P174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="D175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:P176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:P177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:P178"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="D184:P184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="D185:P185"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:P161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="D162:P162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:P163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:P164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:P165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:P166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:P167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D168:P168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="D169:P169"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:P159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:P160"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="D147:P147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D148:P148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:P149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:P150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="D151:P151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="D152:P152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="D154:P157"/>
-    <mergeCell ref="C158:U158"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="D138:P138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="D139:P139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:P140"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="D142:P142"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:P141"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:P144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:P145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="D146:P146"/>
-    <mergeCell ref="D143:U143"/>
-    <mergeCell ref="D153:U153"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="D129:P129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:P130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:P131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:P132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:P133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:P134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="D135:P135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:P136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:P137"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="D118:P118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:P120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="D121:P121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="D122:P122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:P123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:P127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:P128"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:P107"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:P114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:P115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:P116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:P117"/>
-    <mergeCell ref="D109:U109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="D108:P108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:P110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:P111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="D112:P112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:P113"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:P92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:P93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:P94"/>
-    <mergeCell ref="D119:U119"/>
-    <mergeCell ref="D124:U124"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:P99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:P100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:P101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:P102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:P103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:P104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:P105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:P106"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:P98"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:P81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:P82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:P83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:P84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:P86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:P87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:P88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:P89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:P90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:P91"/>
-    <mergeCell ref="D85:U85"/>
-    <mergeCell ref="D97:U97"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:P76"/>
-    <mergeCell ref="D74:U74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:P78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:P79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:P80"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:P95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:P96"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:P63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:P65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:P57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:P62"/>
-    <mergeCell ref="D61:U61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:P51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:P53"/>
-    <mergeCell ref="D45:U45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:P49"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:P43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D126:P126"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D125:P125"/>
-    <mergeCell ref="D13:U13"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T164" sqref="T164"/>
+      <selection activeCell="T166" sqref="T166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6376,9 +6376,11 @@
       <c r="B166" s="36"/>
       <c r="C166" s="8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D166" s="37"/>
+        <v>OK</v>
+      </c>
+      <c r="D166" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="E166" s="37"/>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -6391,6 +6393,18 @@
       <c r="N166" s="37"/>
       <c r="O166" s="37"/>
       <c r="P166" s="37"/>
+      <c r="Q166" s="9">
+        <v>43511</v>
+      </c>
+      <c r="R166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S166" s="10">
+        <v>1</v>
+      </c>
+      <c r="T166" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="36">
@@ -7440,7 +7454,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A196:XFD1048576 A3:C121 V126:XFD126 C122:C140 D127:XFD140 V143:XFD143 C141:XFD142 D144:XFD152 D159:XFD195 V153:XFD153 D154 R154:XFD157 V158:XFD158 A195:C195 C143:C194 A122:B194">
+  <conditionalFormatting sqref="A1:XFD1 A2:U2 V2:XFD40 D47:XFD47 Q48:XFD48 V45:XFD46 D49:T49 V49:XFD49 D46:U46 D13 D14:U24 D41:XFD43 D3:U12 D26:U40 D50:XFD60 V61:XFD61 D62:XFD73 V74:XFD74 D75:XFD84 V85:XFD85 D86:XFD96 V97:XFD97 D98:XFD108 V109:XFD109 D110:XFD118 D120:XFD123 V119:XFD119 V124:XFD124 A196:XFD1048576 A3:C121 V126:XFD126 C122:C140 D127:XFD140 V143:XFD143 C141:XFD142 D144:XFD152 V153:XFD153 D154 R154:XFD157 V158:XFD158 A195:C195 C143:C194 A122:B194 D159:XFD195">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"!!!"</formula>
     </cfRule>

--- a/DailyReport/DailyReport_BuiThin.xlsx
+++ b/DailyReport/DailyReport_BuiThin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
   <si>
     <t>No.</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Tạo trang quản lý (Thêm, Sửa, Xóa) cho bảng Notification</t>
+  </si>
+  <si>
+    <t>Fix lại cấu trúc của trường Icon trong bảng Notification</t>
   </si>
 </sst>
 </file>
@@ -476,34 +479,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -615,7 +618,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,8 +1077,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T166" sqref="T166"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U168" sqref="U168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,28 +1110,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1147,29 +1150,29 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="str">
         <f>IF(S2="", "",IF(S2&lt;=50%, "!!!", IF(S2&lt;=75%,"!!", IF(S2&lt;100%, "!", "OK"))))</f>
         <v>OK</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="9">
         <v>43416</v>
       </c>
@@ -1184,52 +1187,52 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(S3="", "",IF(S3&lt;=50%, "!!!", IF(S3&lt;=75%,"!!", IF(S3&lt;100%, "!", "OK"))))</f>
         <v/>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="9">
         <v>43417</v>
       </c>
@@ -1244,52 +1247,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="9">
         <v>43418</v>
       </c>
@@ -1304,52 +1307,52 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36"/>
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="9">
         <v>43419</v>
       </c>
@@ -1364,52 +1367,52 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36"/>
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="9">
         <v>43420</v>
       </c>
@@ -1424,52 +1427,52 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
       <c r="Q12" s="9">
         <v>43421</v>
       </c>
@@ -1484,59 +1487,59 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="9">
         <v>43423</v>
       </c>
@@ -1551,52 +1554,52 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="36">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
       <c r="Q16" s="9">
         <v>43424</v>
       </c>
@@ -1611,52 +1614,52 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
       <c r="Q18" s="9">
         <v>43425</v>
       </c>
@@ -1671,52 +1674,52 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="36">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="36">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
       <c r="Q20" s="9">
         <v>43426</v>
       </c>
@@ -1731,52 +1734,52 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="36">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
       <c r="Q22" s="9">
         <v>43427</v>
       </c>
@@ -1791,52 +1794,52 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="36">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="36">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="9">
         <v>43428</v>
       </c>
@@ -1851,59 +1854,59 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
       <c r="Q26" s="9">
         <v>43430</v>
       </c>
@@ -1918,29 +1921,29 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="36">
+      <c r="A27" s="37">
         <v>26</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
       <c r="Q27" s="9">
         <v>43430</v>
       </c>
@@ -1958,52 +1961,52 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="36">
+      <c r="A28" s="37">
         <v>27</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="36">
+      <c r="A29" s="37">
         <v>28</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
       <c r="Q29" s="9">
         <v>43431</v>
       </c>
@@ -2021,52 +2024,52 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="36">
+      <c r="A31" s="37">
         <v>30</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
       <c r="Q31" s="9">
         <v>43432</v>
       </c>
@@ -2084,29 +2087,29 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="A32" s="37">
         <v>31</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
       <c r="Q32" s="9">
         <v>43432</v>
       </c>
@@ -2124,29 +2127,29 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="36">
+      <c r="A33" s="37">
         <v>32</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="9">
         <v>43432</v>
       </c>
@@ -2161,52 +2164,52 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="36">
+      <c r="A34" s="37">
         <v>33</v>
       </c>
-      <c r="B34" s="36"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="36">
+      <c r="A35" s="37">
         <v>34</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
       <c r="Q35" s="9">
         <v>43433</v>
       </c>
@@ -2224,29 +2227,29 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43">
+      <c r="A36" s="40">
         <v>35</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
       <c r="Q36" s="13">
         <v>43433</v>
       </c>
@@ -2265,29 +2268,29 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="36">
+      <c r="A37" s="37">
         <v>36</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="9">
         <v>43433</v>
       </c>
@@ -2302,52 +2305,52 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
-      <c r="B39" s="36"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="9">
         <v>43434</v>
       </c>
@@ -2362,52 +2365,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="37">
         <v>39</v>
       </c>
-      <c r="B40" s="36"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+      <c r="A41" s="37">
         <v>40</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
       <c r="Q41" s="9">
         <v>43435</v>
       </c>
@@ -2425,29 +2428,29 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="36">
+      <c r="A42" s="37">
         <v>41</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
       <c r="Q42" s="9">
         <v>43435</v>
       </c>
@@ -2462,29 +2465,29 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
-      <c r="B43" s="36"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
       <c r="Q43" s="9">
         <v>43435</v>
       </c>
@@ -2499,29 +2502,29 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="36">
+      <c r="A44" s="37">
         <v>43</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
       <c r="Q44" s="9">
         <v>43435</v>
       </c>
@@ -2536,59 +2539,59 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+      <c r="A46" s="37">
         <v>45</v>
       </c>
-      <c r="B46" s="36"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
       <c r="Q46" s="9">
         <v>43437</v>
       </c>
@@ -2606,52 +2609,52 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="36">
+      <c r="A47" s="37">
         <v>46</v>
       </c>
-      <c r="B47" s="36"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="36">
+      <c r="A48" s="37">
         <v>47</v>
       </c>
-      <c r="B48" s="36"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="9">
         <v>43438</v>
       </c>
@@ -2666,29 +2669,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="36">
+      <c r="A49" s="37">
         <v>48</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
       <c r="Q49" s="9">
         <v>43438</v>
       </c>
@@ -2703,29 +2706,29 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="36">
+      <c r="A50" s="37">
         <v>49</v>
       </c>
-      <c r="B50" s="36"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="9">
         <v>43438</v>
       </c>
@@ -2740,29 +2743,29 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="36">
+      <c r="A51" s="37">
         <v>50</v>
       </c>
-      <c r="B51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
       <c r="Q51" s="9">
         <v>43438</v>
       </c>
@@ -2777,52 +2780,52 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="36">
+      <c r="A52" s="37">
         <v>51</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="36">
+      <c r="A53" s="37">
         <v>52</v>
       </c>
-      <c r="B53" s="36"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="9">
         <v>43439</v>
       </c>
@@ -2837,29 +2840,29 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="36">
+      <c r="A54" s="37">
         <v>53</v>
       </c>
-      <c r="B54" s="36"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="9">
         <v>43439</v>
       </c>
@@ -2874,52 +2877,52 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="36">
+      <c r="A55" s="37">
         <v>54</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="36">
+      <c r="A56" s="37">
         <v>55</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!!</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
       <c r="Q56" s="9">
         <v>43440</v>
       </c>
@@ -2934,52 +2937,52 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="36">
+      <c r="A57" s="37">
         <v>56</v>
       </c>
-      <c r="B57" s="36"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="36">
+      <c r="A58" s="37">
         <v>57</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
       <c r="Q58" s="9">
         <v>43441</v>
       </c>
@@ -2994,52 +2997,52 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="36">
+      <c r="A59" s="37">
         <v>58</v>
       </c>
-      <c r="B59" s="36"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="36">
+      <c r="A60" s="37">
         <v>59</v>
       </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
       <c r="Q60" s="9">
         <v>43442</v>
       </c>
@@ -3054,59 +3057,59 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="36">
+      <c r="A61" s="37">
         <v>60</v>
       </c>
-      <c r="B61" s="36"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="36">
+      <c r="A62" s="37">
         <v>61</v>
       </c>
-      <c r="B62" s="36"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>!!</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
       <c r="Q62" s="9">
         <v>43444</v>
       </c>
@@ -3121,52 +3124,52 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="36">
+      <c r="A63" s="37">
         <v>62</v>
       </c>
-      <c r="B63" s="36"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="36">
+      <c r="A64" s="37">
         <v>63</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
       <c r="Q64" s="9">
         <v>43445</v>
       </c>
@@ -3181,52 +3184,52 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="36">
+      <c r="A65" s="37">
         <v>64</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="36">
+      <c r="A66" s="37">
         <v>65</v>
       </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
       <c r="Q66" s="9">
         <v>43446</v>
       </c>
@@ -3241,29 +3244,29 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="36">
+      <c r="A67" s="37">
         <v>66</v>
       </c>
-      <c r="B67" s="36"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="8" t="str">
         <f t="shared" ref="C67:C133" si="1">IF(S67="", "",IF(S67&lt;=50%, "!!!", IF(S67&lt;=75%,"!!", IF(S67&lt;100%, "!", "OK"))))</f>
         <v>!!!</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
       <c r="Q67" s="9">
         <v>43446</v>
       </c>
@@ -3278,52 +3281,52 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="36">
+      <c r="A68" s="37">
         <v>67</v>
       </c>
-      <c r="B68" s="36"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="36">
+      <c r="A69" s="37">
         <v>68</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
       <c r="Q69" s="9">
         <v>43447</v>
       </c>
@@ -3338,52 +3341,52 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="36">
+      <c r="A70" s="37">
         <v>69</v>
       </c>
-      <c r="B70" s="36"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="36">
+      <c r="A71" s="37">
         <v>70</v>
       </c>
-      <c r="B71" s="36"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
       <c r="Q71" s="9">
         <v>43448</v>
       </c>
@@ -3398,52 +3401,52 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+      <c r="A72" s="37">
         <v>71</v>
       </c>
-      <c r="B72" s="36"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="36">
+      <c r="A73" s="37">
         <v>72</v>
       </c>
-      <c r="B73" s="36"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
       <c r="Q73" s="9">
         <v>43449</v>
       </c>
@@ -3458,59 +3461,59 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="36">
+      <c r="A74" s="37">
         <v>73</v>
       </c>
-      <c r="B74" s="36"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D74" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
-      <c r="T74" s="42"/>
-      <c r="U74" s="42"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="36">
+      <c r="A75" s="37">
         <v>74</v>
       </c>
-      <c r="B75" s="36"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
       <c r="Q75" s="9">
         <v>43452</v>
       </c>
@@ -3525,29 +3528,29 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="36">
+      <c r="A76" s="37">
         <v>75</v>
       </c>
-      <c r="B76" s="36"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
       <c r="Q76" s="9">
         <v>43452</v>
       </c>
@@ -3562,52 +3565,52 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="36">
+      <c r="A77" s="37">
         <v>76</v>
       </c>
-      <c r="B77" s="36"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="36">
+      <c r="A78" s="37">
         <v>77</v>
       </c>
-      <c r="B78" s="36"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
       <c r="Q78" s="9">
         <v>43453</v>
       </c>
@@ -3622,52 +3625,52 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="36">
+      <c r="A79" s="37">
         <v>78</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="36">
+      <c r="A80" s="37">
         <v>79</v>
       </c>
-      <c r="B80" s="36"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="D80" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
       <c r="Q80" s="9">
         <v>43454</v>
       </c>
@@ -3682,52 +3685,52 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="36">
+      <c r="A81" s="37">
         <v>80</v>
       </c>
-      <c r="B81" s="36"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="36">
+      <c r="A82" s="37">
         <v>81</v>
       </c>
-      <c r="B82" s="36"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D82" s="37" t="s">
+      <c r="D82" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
       <c r="Q82" s="9">
         <v>43455</v>
       </c>
@@ -3742,52 +3745,52 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="36">
+      <c r="A83" s="37">
         <v>82</v>
       </c>
-      <c r="B83" s="36"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="36">
+      <c r="A84" s="37">
         <v>83</v>
       </c>
-      <c r="B84" s="36"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
       <c r="Q84" s="9">
         <v>43456</v>
       </c>
@@ -3802,59 +3805,59 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="36">
+      <c r="A85" s="37">
         <v>84</v>
       </c>
-      <c r="B85" s="36"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="D85" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="42"/>
-      <c r="S85" s="42"/>
-      <c r="T85" s="42"/>
-      <c r="U85" s="42"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="36">
+      <c r="A86" s="37">
         <v>85</v>
       </c>
-      <c r="B86" s="36"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D86" s="37" t="s">
+      <c r="D86" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
       <c r="Q86" s="9">
         <v>43458</v>
       </c>
@@ -3869,52 +3872,52 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="36">
+      <c r="A87" s="37">
         <v>86</v>
       </c>
-      <c r="B87" s="36"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="36">
+      <c r="A88" s="37">
         <v>87</v>
       </c>
-      <c r="B88" s="36"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D88" s="37" t="s">
+      <c r="D88" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
       <c r="Q88" s="9">
         <v>43459</v>
       </c>
@@ -3929,52 +3932,52 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="36">
+      <c r="A89" s="37">
         <v>88</v>
       </c>
-      <c r="B89" s="36"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43">
+      <c r="A90" s="40">
         <v>89</v>
       </c>
-      <c r="B90" s="43"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
       <c r="Q90" s="13">
         <v>43460</v>
       </c>
@@ -3991,52 +3994,52 @@
       <c r="V90" s="22"/>
     </row>
     <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="36">
+      <c r="A91" s="37">
         <v>90</v>
       </c>
-      <c r="B91" s="36"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43">
+      <c r="A92" s="40">
         <v>91</v>
       </c>
-      <c r="B92" s="43"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
       <c r="Q92" s="13">
         <v>43461</v>
       </c>
@@ -4053,52 +4056,52 @@
       <c r="V92" s="22"/>
     </row>
     <row r="93" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="36">
+      <c r="A93" s="37">
         <v>92</v>
       </c>
-      <c r="B93" s="36"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
+      <c r="A94" s="40">
         <v>93</v>
       </c>
-      <c r="B94" s="43"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
       <c r="Q94" s="13">
         <v>43462</v>
       </c>
@@ -4115,52 +4118,52 @@
       <c r="V94" s="22"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="36">
+      <c r="A95" s="37">
         <v>94</v>
       </c>
-      <c r="B95" s="36"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="36">
+      <c r="A96" s="37">
         <v>95</v>
       </c>
-      <c r="B96" s="36"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D96" s="37" t="s">
+      <c r="D96" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
       <c r="Q96" s="9">
         <v>43463</v>
       </c>
@@ -4175,59 +4178,59 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="36">
+      <c r="A97" s="37">
         <v>96</v>
       </c>
-      <c r="B97" s="36"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
-      <c r="M97" s="42"/>
-      <c r="N97" s="42"/>
-      <c r="O97" s="42"/>
-      <c r="P97" s="42"/>
-      <c r="Q97" s="42"/>
-      <c r="R97" s="42"/>
-      <c r="S97" s="42"/>
-      <c r="T97" s="42"/>
-      <c r="U97" s="42"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="38"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="36">
+      <c r="A98" s="37">
         <v>97</v>
       </c>
-      <c r="B98" s="36"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D98" s="37" t="s">
+      <c r="D98" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
       <c r="Q98" s="9">
         <v>43467</v>
       </c>
@@ -4242,29 +4245,29 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="36">
+      <c r="A99" s="37">
         <v>98</v>
       </c>
-      <c r="B99" s="36"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D99" s="37" t="s">
+      <c r="D99" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
       <c r="Q99" s="9">
         <v>43467</v>
       </c>
@@ -4279,52 +4282,52 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="36">
+      <c r="A100" s="37">
         <v>99</v>
       </c>
-      <c r="B100" s="36"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="36">
+      <c r="A101" s="37">
         <v>100</v>
       </c>
-      <c r="B101" s="36"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D101" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
       <c r="Q101" s="9">
         <v>43468</v>
       </c>
@@ -4339,29 +4342,29 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="36">
+      <c r="A102" s="37">
         <v>101</v>
       </c>
-      <c r="B102" s="36"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D102" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
       <c r="Q102" s="9">
         <v>43468</v>
       </c>
@@ -4376,52 +4379,52 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="36">
+      <c r="A103" s="37">
         <v>102</v>
       </c>
-      <c r="B103" s="36"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="36">
+      <c r="A104" s="37">
         <v>103</v>
       </c>
-      <c r="B104" s="36"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D104" s="37" t="s">
+      <c r="D104" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="37"/>
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
       <c r="Q104" s="9">
         <v>43469</v>
       </c>
@@ -4436,29 +4439,29 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="36">
+      <c r="A105" s="37">
         <v>104</v>
       </c>
-      <c r="B105" s="36"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D105" s="37" t="s">
+      <c r="D105" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
       <c r="Q105" s="9">
         <v>43469</v>
       </c>
@@ -4473,52 +4476,52 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="36">
+      <c r="A106" s="37">
         <v>105</v>
       </c>
-      <c r="B106" s="36"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="37"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="36">
+      <c r="A107" s="37">
         <v>106</v>
       </c>
-      <c r="B107" s="36"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D107" s="37" t="s">
+      <c r="D107" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37"/>
-      <c r="L107" s="37"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="37"/>
-      <c r="O107" s="37"/>
-      <c r="P107" s="37"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="36"/>
       <c r="Q107" s="9">
         <v>43470</v>
       </c>
@@ -4533,77 +4536,77 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="36">
+      <c r="A108" s="37">
         <v>107</v>
       </c>
-      <c r="B108" s="36"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="37"/>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
     </row>
     <row r="109" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
-      <c r="D109" s="42" t="s">
+      <c r="D109" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="42"/>
-      <c r="N109" s="42"/>
-      <c r="O109" s="42"/>
-      <c r="P109" s="42"/>
-      <c r="Q109" s="42"/>
-      <c r="R109" s="42"/>
-      <c r="S109" s="42"/>
-      <c r="T109" s="42"/>
-      <c r="U109" s="42"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="38"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="38"/>
+      <c r="U109" s="38"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="36">
+      <c r="A110" s="37">
         <v>108</v>
       </c>
-      <c r="B110" s="36"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D110" s="37" t="s">
+      <c r="D110" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="37"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="36"/>
       <c r="Q110" s="9">
         <v>43473</v>
       </c>
@@ -4618,52 +4621,52 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="36">
+      <c r="A111" s="37">
         <v>109</v>
       </c>
-      <c r="B111" s="36"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="37"/>
-      <c r="O111" s="37"/>
-      <c r="P111" s="37"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="36"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="36">
+      <c r="A112" s="37">
         <v>110</v>
       </c>
-      <c r="B112" s="36"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!</v>
       </c>
-      <c r="D112" s="37" t="s">
+      <c r="D112" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="37"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="37"/>
-      <c r="O112" s="37"/>
-      <c r="P112" s="37"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="36"/>
       <c r="Q112" s="9">
         <v>43474</v>
       </c>
@@ -4678,52 +4681,52 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="36">
+      <c r="A113" s="37">
         <v>111</v>
       </c>
-      <c r="B113" s="36"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="37"/>
-      <c r="O113" s="37"/>
-      <c r="P113" s="37"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="36">
+      <c r="A114" s="37">
         <v>112</v>
       </c>
-      <c r="B114" s="36"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D114" s="37" t="s">
+      <c r="D114" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="37"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="37"/>
-      <c r="O114" s="37"/>
-      <c r="P114" s="37"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
       <c r="Q114" s="9">
         <v>43475</v>
       </c>
@@ -4738,29 +4741,29 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="36">
+      <c r="A115" s="37">
         <v>113</v>
       </c>
-      <c r="B115" s="36"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D115" s="37" t="s">
+      <c r="D115" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="37"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="37"/>
-      <c r="O115" s="37"/>
-      <c r="P115" s="37"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
       <c r="Q115" s="9">
         <v>43475</v>
       </c>
@@ -4775,29 +4778,29 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="36">
+      <c r="A116" s="37">
         <v>114</v>
       </c>
-      <c r="B116" s="36"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!!!</v>
       </c>
-      <c r="D116" s="37" t="s">
+      <c r="D116" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="37"/>
-      <c r="L116" s="37"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="37"/>
-      <c r="O116" s="37"/>
-      <c r="P116" s="37"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
       <c r="Q116" s="9">
         <v>43475</v>
       </c>
@@ -4812,52 +4815,52 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="36">
+      <c r="A117" s="37">
         <v>115</v>
       </c>
-      <c r="B117" s="36"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="37"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="37"/>
-      <c r="O117" s="37"/>
-      <c r="P117" s="37"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="36"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="36">
+      <c r="A118" s="37">
         <v>116</v>
       </c>
-      <c r="B118" s="36"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D118" s="37" t="s">
+      <c r="D118" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="37"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="37"/>
-      <c r="O118" s="37"/>
-      <c r="P118" s="37"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
       <c r="Q118" s="9">
         <v>43476</v>
       </c>
@@ -4872,59 +4875,59 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="36">
+      <c r="A119" s="37">
         <v>117</v>
       </c>
-      <c r="B119" s="36"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D119" s="42" t="s">
+      <c r="D119" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="42"/>
-      <c r="M119" s="42"/>
-      <c r="N119" s="42"/>
-      <c r="O119" s="42"/>
-      <c r="P119" s="42"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="42"/>
-      <c r="S119" s="42"/>
-      <c r="T119" s="42"/>
-      <c r="U119" s="42"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="38"/>
+      <c r="O119" s="38"/>
+      <c r="P119" s="38"/>
+      <c r="Q119" s="38"/>
+      <c r="R119" s="38"/>
+      <c r="S119" s="38"/>
+      <c r="T119" s="38"/>
+      <c r="U119" s="38"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="36">
+      <c r="A120" s="37">
         <v>118</v>
       </c>
-      <c r="B120" s="36"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D120" s="37" t="s">
+      <c r="D120" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="37"/>
-      <c r="L120" s="37"/>
-      <c r="M120" s="37"/>
-      <c r="N120" s="37"/>
-      <c r="O120" s="37"/>
-      <c r="P120" s="37"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="36"/>
       <c r="Q120" s="9">
         <v>43480</v>
       </c>
@@ -4939,29 +4942,29 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="36">
+      <c r="A121" s="37">
         <v>119</v>
       </c>
-      <c r="B121" s="36"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D121" s="37" t="s">
+      <c r="D121" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="37"/>
-      <c r="O121" s="37"/>
-      <c r="P121" s="37"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="36"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="36"/>
       <c r="Q121" s="9">
         <v>43480</v>
       </c>
@@ -4976,52 +4979,52 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="36">
+      <c r="A122" s="37">
         <v>120</v>
       </c>
-      <c r="B122" s="36"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="37"/>
-      <c r="L122" s="37"/>
-      <c r="M122" s="37"/>
-      <c r="N122" s="37"/>
-      <c r="O122" s="37"/>
-      <c r="P122" s="37"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="36">
+      <c r="A123" s="37">
         <v>121</v>
       </c>
-      <c r="B123" s="36"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D123" s="37" t="s">
+      <c r="D123" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="37"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="37"/>
-      <c r="O123" s="37"/>
-      <c r="P123" s="37"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="36"/>
       <c r="Q123" s="9">
         <v>43482</v>
       </c>
@@ -5036,59 +5039,59 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="36">
+      <c r="A124" s="37">
         <v>122</v>
       </c>
-      <c r="B124" s="36"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D124" s="42" t="s">
+      <c r="D124" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="42"/>
-      <c r="L124" s="42"/>
-      <c r="M124" s="42"/>
-      <c r="N124" s="42"/>
-      <c r="O124" s="42"/>
-      <c r="P124" s="42"/>
-      <c r="Q124" s="42"/>
-      <c r="R124" s="42"/>
-      <c r="S124" s="42"/>
-      <c r="T124" s="42"/>
-      <c r="U124" s="42"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="38"/>
+      <c r="P124" s="38"/>
+      <c r="Q124" s="38"/>
+      <c r="R124" s="38"/>
+      <c r="S124" s="38"/>
+      <c r="T124" s="38"/>
+      <c r="U124" s="38"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="36">
+      <c r="A125" s="37">
         <v>123</v>
       </c>
-      <c r="B125" s="36"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D125" s="37" t="s">
+      <c r="D125" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
-      <c r="O125" s="37"/>
-      <c r="P125" s="37"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="36"/>
       <c r="Q125" s="9">
         <v>43486</v>
       </c>
@@ -5104,55 +5107,55 @@
       <c r="U125" s="25"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="36">
+      <c r="A126" s="37">
         <v>124</v>
       </c>
-      <c r="B126" s="36"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
-      <c r="O126" s="37"/>
-      <c r="P126" s="37"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="36"/>
       <c r="R126" s="26"/>
       <c r="T126" s="26"/>
       <c r="U126" s="25"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="36">
+      <c r="A127" s="37">
         <v>125</v>
       </c>
-      <c r="B127" s="36"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D127" s="37" t="s">
+      <c r="D127" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="37"/>
-      <c r="O127" s="37"/>
-      <c r="P127" s="37"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="36"/>
+      <c r="N127" s="36"/>
+      <c r="O127" s="36"/>
+      <c r="P127" s="36"/>
       <c r="Q127" s="9">
         <v>43487</v>
       </c>
@@ -5167,29 +5170,29 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="36">
+      <c r="A128" s="37">
         <v>126</v>
       </c>
-      <c r="B128" s="36"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="8" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="D128" s="37" t="s">
+      <c r="D128" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
-      <c r="O128" s="37"/>
-      <c r="P128" s="37"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="36"/>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
+      <c r="P128" s="36"/>
       <c r="Q128" s="9">
         <v>43487</v>
       </c>
@@ -5204,29 +5207,29 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A129" s="36">
+      <c r="A129" s="37">
         <v>127</v>
       </c>
-      <c r="B129" s="36"/>
+      <c r="B129" s="37"/>
       <c r="C12